--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781274E-2098-4810-8219-964A02183954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0638EBA-CD37-4D0A-9A02-1A11137BB687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="1560" windowWidth="13590" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="875">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -712,18 +721,12 @@
     <t>&lt;color=#9932CD&gt;Repeater Shooter&lt;/color&gt;\r\nAfter purchase, use {0} sunlight to evolve the Pea Shooter into a Dual Shooter\r\nCan shoot two peas at a time</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase luck\r\nAnd can blow wind</t>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;CherryBombb&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAfter cultivation, you can use it in battle\r\nBlast the zombies into slag</t>
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;Chomperth Flower&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nShe can swallow zombies whole\r\nDigest the zombies completely</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 maximum health and 5 armor&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;CornpultCard&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nIt has a chance to throw butter, making zombies unable to move\r\nThe most important thing is that she can synthesize &lt;color=#9932CD&gt;Corn Cannon&lt;/color&gt;</t>
   </si>
   <si>
@@ -733,18 +736,12 @@
     <t>&lt;color=#9932CD&gt;GatlingPeaa Shooter&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Dual Shooter into a Gatling Shooter\r\nCan shoot 4 peas at a time\r\nFill the zombies' mouths with peas</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple damage</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;GoldMagentbing Mushroom&lt;/color&gt;\r\nYou can use {0} sunlight to cultivate\r\nThere is a chance to absorb the gold coins dropped on the field\r\nIn this way, you don't have to collect coins one by one</t>
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;LilyPadeaf&lt;/color&gt;\r\nYou can use {0} sunlight to cultivate\r\nWith lotus leaves, you can plant cattails</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 damage, 5 luck&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;Gravebusterevourer&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nThere is a certain probability that it will devour the tombstone of a zombie, preventing it from appearing</t>
   </si>
   <si>
@@ -787,9 +784,6 @@
     <t>&lt;color=#00ff00&gt;Threepeater&lt;/color&gt;\r\nCan be cultivated with {0} sunlight\r\nCan shoot three peas in one direction</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the damage of all peas, very powerful</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;TwinSunflowerrs&lt;/color&gt;\r\nCan use {0} sunlight to cultivate\r\nTwo heads of sunflowers, each producing two sunlight</t>
   </si>
   <si>
@@ -802,9 +796,6 @@
     <t>&lt;color=#ff0000&gt;Jalapenoili&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan burn a group of zombies to ashes</t>
   </si>
   <si>
-    <t>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause damage to all zombies that have appeared\r\nWill cause irreversible damage to the environment, please use with caution</t>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;Squash/color&gt;\r\nCan use {0} sunlight to cultivate\r\nCan crush zombies with one butt, turning them into zombies</t>
   </si>
   <si>
@@ -1147,30 +1138,15 @@
     <t>Magnet that pulls gold coins\r\n&lt;color=#ff0000&gt;-3 speed&lt;/color&gt;\r\nWith it, I don't need to click one by one to collect &lt;color=#ff00ff&gt;gold coins&lt;/color&gt;\r\nBut under the interaction force, my speed is also affected</t>
   </si>
   <si>
-    <t>Black hole that absorbs sunlight\r\n&lt;color=#ff0000&gt;-4 Botany&lt;/color&gt;\r\nWith it, I don't need to click one by one to collect &lt;color=#ff00ff&gt;sunlight&lt;/color&gt;\r\nPlants seem to be very afraid of it</t>
-  </si>
-  <si>
     <t>Metal Plate\r\n&lt;color=#00ff00&gt;+2 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Adrenaline&lt;/color&gt;\r\nCan be used to eat</t>
   </si>
   <si>
     <t>A throat with teeth? \r\n&lt;color=#00ff00&gt;+5 Max Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Health Regeneration&lt;/color&gt;\r\nLooks more like a snake</t>
   </si>
   <si>
-    <t>Little Mushroom's Hat\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Maximum Health&lt;/color&gt;\r\nYou can study it carefully.</t>
-  </si>
-  <si>
-    <t>Sunshine Mushroom Hat\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Maximum Health&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Strength&lt;/color&gt;\r\nYou can study it carefully.</t>
-  </si>
-  <si>
-    <t>Dave's Beard\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Adrenaline&lt;/color&gt;\r\nThis is my beard</t>
-  </si>
-  <si>
     <t>Glasses\r\n&lt;color=#00ff00&gt;+5 range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 critical hit rate&lt;/color&gt;\r\nAfter wearing them, your vision will become clear</t>
   </si>
   <si>
-    <t>Leaf\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Luck&lt;/color&gt;\r\nUnknown plant</t>
-  </si>
-  <si>
     <t>Fertilizer\r\n&lt;color=#00ff00&gt;+4 Botany&lt;/color&gt;\r\nShould help the plants</t>
   </si>
   <si>
@@ -1180,12 +1156,6 @@
     <t>Money bag\r\n&lt;color=#00ff00&gt;+10 gold coins&lt;/color&gt;\r\nIt can hold a lot of money</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;Diamond&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Luck&lt;/color&gt;\r\nBright and beautiful</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Sunflower&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\nSunflower petals. I wonder if there are sunflower seeds.</t>
-  </si>
-  <si>
     <t>&lt;color=#0000ff&gt;Basket&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Attack Speed&lt;/color&gt;\r\nIt seems to be a pitcher's projectile</t>
   </si>
   <si>
@@ -1193,27 +1163,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;Rake&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\nThis weapon is very handy</t>
-  </si>
-  <si>
     <t>&lt;color=#0000ff&gt;Water Bottle&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Health Regeneration&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Attack Speed&lt;/color&gt;\r\nVery helpful for plants</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;Clown Gift Box&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Maximum Health&lt;/color&gt;\r\nA gift box that explodes. I have to keep it carefully.</t>
-  </si>
-  <si>
     <t>&lt;color=#0000ff&gt;A splash? &lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Regen&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Armor&lt;/color&gt;\r\nNo diving team can beat this one</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;A roll of turf? &lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 HP recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 attack speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 strength&lt;/color&gt;\r\nIt must be very comfortable to spread it out and lie on it</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;A ground spike&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 health recovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 adrenaline&lt;/color&gt;\r\nI don't want to step on it</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Insecticide&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 Health Recovery&lt;/color&gt;\r\nIt smells terrible, and can help plants fight against bugs</t>
-  </si>
-  <si>
     <t>&lt;color=#0000ff&gt;Shovel&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\nCan shovel the dirt in the garden and place flower pots</t>
   </si>
   <si>
@@ -1223,18 +1178,6 @@
     <t>&lt;color=#0000ff&gt;Book&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Botany&lt;/color&gt;\r\nYou can learn a lot of knowledge</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;Trophy&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 gold coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 luck&lt;/color&gt;\r\nSymbol of honor</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Sandwich&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Health Recovery&lt;/color&gt;\r\nLooks delicious</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;A lock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 critical strike&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 attack speed&lt;/color&gt;\r\nCan be aimed at</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Gramophone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Maximum Health&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Armor&lt;/color&gt;\r\nListen to some music and relax</t>
-  </si>
-  <si>
     <t>&lt;color=#9932CD&gt;Iced Watermelon&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 HP Recovery&lt;/color&gt;\r\nEating too much will cause diarrhea</t>
   </si>
   <si>
@@ -1252,77 +1195,10 @@
     <t>&lt;color=#9932CD&gt;Water Flower Pot&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Botany&lt;/color&gt;\r\nCan plant lotus leaves on it</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;Spinach&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Damage&lt;/color&gt;\r\n&lt;color=#9932CD&gt;Unlocks knockback, and zombie corpses fly and cause collision damage (each damage increases by 25%, up to 100%)&lt;/color&gt;\r\nAfter eating it, I can kill zombies directly</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Marigold Petals&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\nSee how she generates gold coins.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Wisdom Tree Fertilizer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\nThis is good.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Basketball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\nI heard that Gege is very good at this</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Cart&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\nAnd causes {0} to zombies in a straight line\r\nDamage Cooldown Time {1}</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Iron Barrel&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Iron Barrel Zombie, but it will affect my vision</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Roadblock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Roadblock zombie, but it will affect my vision</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Iron Fence&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8 Speed&lt;/color&gt;\r\nThe loot from the Iron Fence zombie will affect my normal walking</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Newspaper&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Strength&lt;/color&gt;\r\nThe spoils from the newspaper-reading zombie. There is a lot of knowledge in it.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Escalator&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 Attack Speed&lt;/color&gt;\r\nThe loot from the escalator zombie can attack farther away.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Football Helmet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Range&lt;/color&gt;\r\nThe loot from the Football Zombie will affect my vision</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Street Sign&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nThe spoils from the giant zombie. This heavy thing affects my movement speed too much.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#ff0000&gt;Ice Shatter&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Health Recovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Attack Speed&lt;/color&gt;\r\nIt looks very cold</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200 Sunlight&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;{0} Health Points per Second&lt;/color&gt;\r\nThe flame is burning</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Wooden Mallet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\nUse the left mouse button to use the wooden mallet to cause {0} damage\r\nCooling time {1}s\r\nThis is awesome</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Portal&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Luck&lt;/color&gt;\r\nYou can generate two portals at random locations on the field, which is cool\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Fog Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Health Recovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nHas a chance to generate fog, immune to ranged attacks\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Lighting Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunlight&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Critical Hit Rate&lt;/color&gt;\r\nLighting creates atmosphere\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Microphone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Strength&lt;/color&gt;\r\nMake Me a Big Star\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Sound&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nMake my voice travel farther\r\n</t>
-  </si>
-  <si>
-    <t>Small Flower\r\n&lt;color=#00ff00&gt;+4 maximum health&lt;/color&gt;\r\nLooks familiar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>common_continuegame</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1756,1085 +1632,1229 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>肾上腺素</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>阳光</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>植物学</t>
+  </si>
+  <si>
+    <t>Botany</t>
+  </si>
+  <si>
+    <t>%伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%攻击速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%暴击率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_Property</t>
+  </si>
+  <si>
+    <t>property_MaximumHP</t>
+  </si>
+  <si>
+    <t>property_LifeRecovery</t>
+  </si>
+  <si>
+    <t>property_Adrenaline</t>
+  </si>
+  <si>
+    <t>property_Power</t>
+  </si>
+  <si>
+    <t>property_AttackSpeed</t>
+  </si>
+  <si>
+    <t>property_Range</t>
+  </si>
+  <si>
+    <t>property_CriticalHitRate</t>
+  </si>
+  <si>
+    <t>property_MoveSpeed</t>
+  </si>
+  <si>
+    <t>property_Armor</t>
+  </si>
+  <si>
+    <t>property_Lucky</t>
+  </si>
+  <si>
+    <t>property_Sunshine</t>
+  </si>
+  <si>
+    <t>property_GoldCoins</t>
+  </si>
+  <si>
+    <t>property_Botany</t>
+  </si>
+  <si>
+    <t>%PercentageDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%AttackSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%CriticalHitRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MoveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_PercentageDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前为第&lt;color=#ffff00&gt;{0}&lt;/color&gt;波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current wave is &lt;color=#ffff00&gt;{0}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>garden_wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nourish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_nourish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Go to battle</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>garden_evolve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_tobattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_eat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_nobattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel the battle</t>
+  </si>
+  <si>
+    <t>音乐会套装每秒对范围&lt;color=#ff0000&gt;{0}&lt;/color&gt;造成&lt;color=#ff0000&gt;{1}&lt;/color&gt;伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Concert Suit deals &lt;color=#ff0000&gt;{1}&lt;/color&gt; damage to the area &lt;color=#ff0000&gt;{0}&lt;/color&gt; every second.</t>
+  </si>
+  <si>
+    <t>battle_vocalconcert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause_hud</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启伤害显示</t>
+  </si>
+  <si>
+    <t>Enable damage display</t>
+  </si>
+  <si>
+    <t>pause_mainmenu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>pause_return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始\r\n你想要重新开始游戏吗？\r\n你的存档将会删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart\r\nDo you want to restart the game? \r\nYour save data will be deleted</t>
+  </si>
+  <si>
+    <t>pause_restart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开游戏？\r\n想要回到主菜单吗？\r\n你下一次开始游戏将从上一波商店页面开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave the game? \r\nWant to return to the main menu? \r\nThe next time you start the game, you will start from the last wave of store pages</t>
+  </si>
+  <si>
+    <t>pause_exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause_exit2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你击败了\r\n僵王博士\r\n取得了最终的胜利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations on defeating Dr. Zombie King and achieving the final victory.</t>
+  </si>
+  <si>
+    <t>victory_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运\n能够增加钱币掉落的概率及质量\n能够增加阳光掉落最大个数\n能够增大高级物品刷新概率\n这非常重要</t>
+  </si>
+  <si>
+    <t>property_MaximumHP_info</t>
+  </si>
+  <si>
+    <t>property_Adrenaline_info</t>
+  </si>
+  <si>
+    <t>property_PercentageDamage_info</t>
+  </si>
+  <si>
+    <t>property_AttackSpeed_info</t>
+  </si>
+  <si>
+    <t>property_Range_info</t>
+  </si>
+  <si>
+    <t>property_CriticalHitRate_info</t>
+  </si>
+  <si>
+    <t>property_MoveSpeed_info</t>
+  </si>
+  <si>
+    <t>property_Armor_info</t>
+  </si>
+  <si>
+    <t>property_Lucky_info</t>
+  </si>
+  <si>
+    <t>property_Sunshine_info</t>
+  </si>
+  <si>
+    <t>property_GoldCoins_info</t>
+  </si>
+  <si>
+    <t>property_Botany_info</t>
+  </si>
+  <si>
+    <t>property_LifeRecovery_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复\n每&lt;color=#ff0000&gt;10s&lt;/color&gt;会恢复{0}&lt;/color&gt;点生命值\n恢复能力高于受到的伤害时我将无敌</t>
+  </si>
+  <si>
+    <t>HP Recovery\nHP will be restored to {0}&lt;/color&gt; points every &lt;color=#ff0000&gt;10s&lt;/color&gt;\nWhen the recovery ability is higher than the damage taken, I will be invincible</t>
+  </si>
+  <si>
+    <t>肾上腺素\n每次攻击都让我热血澎湃\n每次攻击有{0}%概率恢复{1}点生命值&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Adrenaline\nEvery attack makes my blood boil\nEach attack has a {0}% chance to recover + recoveryHp + HP points&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>力量\n平底锅造成的基础伤害增加{0}&lt;/color&gt;\n击退的力量增加&lt;color=#00ff00&gt;{1}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>伤害\n平底锅造成的基础伤害增加{0}%&lt;/color&gt;\n某些道具的伤害也会随百分比伤害增加</t>
+  </si>
+  <si>
+    <t>Damage\nThe basic damage caused by the pan increases by {0}%&lt;/color&gt;\nThe damage of some items will also increase with the percentage damage</t>
+  </si>
+  <si>
+    <t>攻击速度\n平底锅移动的速度增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击速度的影响，如木槌</t>
+  </si>
+  <si>
+    <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
+  </si>
+  <si>
+    <t>攻击范围\n眼睛更明亮，攻击范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
+  </si>
+  <si>
+    <t>Attack range\nThe eyes are brighter, and the attack range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
+  </si>
+  <si>
+    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
+  </si>
+  <si>
+    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; to cause 1.5 times the damage</t>
+  </si>
+  <si>
+    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车\n&lt;color=#00ff00&gt;跑步的速度为基础速度的1.5倍&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart\n &lt;color=#00ff00&gt;Running speed is 1.5 times the base speed&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>护甲|&lt;color=#ff0000&gt;上限90%&lt;/color&gt;\n受到的伤害减少{0}%&lt;/color&gt;\n能有效阻挡僵尸吃掉脑子</t>
+  </si>
+  <si>
+    <t>Armor|&lt;color=#ff0000&gt;Upper limit 90%&lt;/color&gt;\nReduces damage received by {0}%&lt;/color&gt;\nCan effectively prevent zombies from eating brains</t>
+  </si>
+  <si>
+    <t>阳光\n每波结束可以免费获得{0}&lt;/color&gt;阳光</t>
+  </si>
+  <si>
+    <t>Sunlight\nYou can get {0}&lt;/color&gt;Sunlight for free at the end of each wave</t>
+  </si>
+  <si>
+    <t>金币\n每波结束可以免费获得{0}&lt;/color&gt;金币</t>
+  </si>
+  <si>
+    <t>Gold\nYou can get {0}&lt;/color&gt;Gold for free at the end of each wave</t>
+  </si>
+  <si>
+    <t>植物学\n可以使植物造成的伤害增加{0}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Botany\nCan increase the damage caused by plants by {0}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 培育</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基础伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百分比伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击检测范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击冷却</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 溅射伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 消化速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一次性吞噬个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金币率转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光率转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 穿透数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暴击伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玩家攻击速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 风速</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 逆风恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 僵尸风阻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爆炸范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普通僵尸即死率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大型僵尸增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黄油概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 控制时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暴击率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伤害段数*2概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取金币个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取持续时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吞噬墓碑概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 魅惑者可攻击次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 连续触发概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 换取金币</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取铁制品个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落金币概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落钻石概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落双倍概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围攻速提升</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围生命恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围伤害增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹概率变多</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 触发后生命值恢复比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击掉落南瓜概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 减速百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 减速时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 破坏载具数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生成阳光质量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高坚果生命值（植物学）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最终爆炸概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 反伤伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 反伤概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆溅射伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 滚动速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爆炸坚果概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冰冻时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冰冻期间攻速增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 出土时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 连坐概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玩家对僵尸增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 肾上腺素</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生命恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幸运</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 植物学</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大生命值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金币</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 护甲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光</t>
+  </si>
+  <si>
+    <t>Basic damage</t>
+  </si>
+  <si>
+    <t>Percentage damage</t>
+  </si>
+  <si>
+    <t>Attack detection range</t>
+  </si>
+  <si>
+    <t>Attack cooldown</t>
+  </si>
+  <si>
+    <t>Bullet speed</t>
+  </si>
+  <si>
+    <t>Splash damage</t>
+  </si>
+  <si>
+    <t>Digestion speed</t>
+  </si>
+  <si>
+    <t>Number of swallowed at one time</t>
+  </si>
+  <si>
+    <t>Coin rate conversion</t>
+  </si>
+  <si>
+    <t>Sun rate conversion</t>
+  </si>
+  <si>
+    <t>Number of penetrations</t>
+  </si>
+  <si>
+    <t>Critical damage</t>
+  </si>
+  <si>
+    <t>Player attack speed</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Recovery against wind</t>
+  </si>
+  <si>
+    <t>Zombie wind resistance</t>
+  </si>
+  <si>
+    <t>Explosion range</t>
+  </si>
+  <si>
+    <t>Common zombie instant death rate</t>
+  </si>
+  <si>
+    <t>Increased damage for large zombies</t>
+  </si>
+  <si>
+    <t>Reduced sunlight</t>
+  </si>
+  <si>
+    <t>Butter probability</t>
+  </si>
+  <si>
+    <t>Control time</t>
+  </si>
+  <si>
+    <t>Critical rate</t>
+  </si>
+  <si>
+    <t>Damage segment number * 2 probability</t>
+  </si>
+  <si>
+    <t>Number of gold coins absorbed</t>
+  </si>
+  <si>
+    <t>Duration of absorption</t>
+  </si>
+  <si>
+    <t>Probability of swallowing tombstones</t>
+  </si>
+  <si>
+    <t>Number of attacks that the charmer can make</t>
+  </si>
+  <si>
+    <t>Continuous trigger probability</t>
+  </si>
+  <si>
+    <t>Exchange for gold coins</t>
+  </si>
+  <si>
+    <t>Number of iron products absorbed</t>
+  </si>
+  <si>
+    <t>Probability of dropping gold coins</t>
+  </si>
+  <si>
+    <t>Probability of dropping diamonds</t>
+  </si>
+  <si>
+    <t>Probability of dropping double drops</t>
+  </si>
+  <si>
+    <t>Range attack speed increase</t>
+  </si>
+  <si>
+    <t>Range health recovery</t>
+  </si>
+  <si>
+    <t>Range damage increase</t>
+  </si>
+  <si>
+    <t>Bullet probability becomes more</t>
+  </si>
+  <si>
+    <t>Bullet size</t>
+  </si>
+  <si>
+    <t>Health value recovery ratio after triggering</t>
+  </si>
+  <si>
+    <t>Probability of dropping pumpkins when attacking</t>
+  </si>
+  <si>
+    <t>Slowdown percentage</t>
+  </si>
+  <si>
+    <t>Slowdown time</t>
+  </si>
+  <si>
+    <t>Number of vehicles destroyed</t>
+  </si>
+  <si>
+    <t>Quality of sunlight generated</t>
+  </si>
+  <si>
+    <t>High Nut Health (Botany)</t>
+  </si>
+  <si>
+    <t>Final Explosion Chance</t>
+  </si>
+  <si>
+    <t>Retaliate Damage</t>
+  </si>
+  <si>
+    <t>Retaliate Chance</t>
+  </si>
+  <si>
+    <t>Pea Damage</t>
+  </si>
+  <si>
+    <t>Pea Splash Damage</t>
+  </si>
+  <si>
+    <t>Pea Speed</t>
+  </si>
+  <si>
+    <t>Rolling Speed</t>
+  </si>
+  <si>
+    <t>Exploding Nut Chance</t>
+  </si>
+  <si>
+    <t>Freeze Time</t>
+  </si>
+  <si>
+    <t>Attack Speed ​​Increase During Freeze</t>
+  </si>
+  <si>
+    <t>Unearth Time</t>
+  </si>
+  <si>
+    <t>Linked Nut Chance</t>
+  </si>
+  <si>
+    <t>Player Damage Increased on Zombies</t>
+  </si>
+  <si>
+    <t>Health Regeneration</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>Max Health</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Cultivation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant3</t>
+  </si>
+  <si>
+    <t>cultivation_plant4</t>
+  </si>
+  <si>
+    <t>cultivation_plant5</t>
+  </si>
+  <si>
+    <t>cultivation_plant6</t>
+  </si>
+  <si>
+    <t>cultivation_plant7</t>
+  </si>
+  <si>
+    <t>cultivation_plant8</t>
+  </si>
+  <si>
+    <t>cultivation_plant9</t>
+  </si>
+  <si>
+    <t>cultivation_plant10</t>
+  </si>
+  <si>
+    <t>cultivation_plant11</t>
+  </si>
+  <si>
+    <t>cultivation_plant12</t>
+  </si>
+  <si>
+    <t>cultivation_plant13</t>
+  </si>
+  <si>
+    <t>cultivation_plant14</t>
+  </si>
+  <si>
+    <t>cultivation_plant15</t>
+  </si>
+  <si>
+    <t>cultivation_plant16</t>
+  </si>
+  <si>
+    <t>cultivation_plant17</t>
+  </si>
+  <si>
+    <t>cultivation_plant18</t>
+  </si>
+  <si>
+    <t>cultivation_plant19</t>
+  </si>
+  <si>
+    <t>cultivation_plant20</t>
+  </si>
+  <si>
+    <t>cultivation_plant21</t>
+  </si>
+  <si>
+    <t>cultivation_plant22</t>
+  </si>
+  <si>
+    <t>cultivation_plant23</t>
+  </si>
+  <si>
+    <t>cultivation_plant24</t>
+  </si>
+  <si>
+    <t>cultivation_plant25</t>
+  </si>
+  <si>
+    <t>cultivation_plant26</t>
+  </si>
+  <si>
+    <t>cultivation_plant27</t>
+  </si>
+  <si>
+    <t>cultivation_plant28</t>
+  </si>
+  <si>
+    <t>cultivation_plant29</t>
+  </si>
+  <si>
+    <t>cultivation_plant30</t>
+  </si>
+  <si>
+    <t>cultivation_plant31</t>
+  </si>
+  <si>
+    <t>cultivation_plant32</t>
+  </si>
+  <si>
+    <t>cultivation_plant33</t>
+  </si>
+  <si>
+    <t>cultivation_plant34</t>
+  </si>
+  <si>
+    <t>cultivation_plant35</t>
+  </si>
+  <si>
+    <t>cultivation_plant36</t>
+  </si>
+  <si>
+    <t>cultivation_plant37</t>
+  </si>
+  <si>
+    <t>cultivation_plant38</t>
+  </si>
+  <si>
+    <t>cultivation_plant39</t>
+  </si>
+  <si>
+    <t>cultivation_plant40</t>
+  </si>
+  <si>
+    <t>cultivation_plant41</t>
+  </si>
+  <si>
+    <t>cultivation_plant42</t>
+  </si>
+  <si>
+    <t>cultivation_plant43</t>
+  </si>
+  <si>
+    <t>cultivation_plant44</t>
+  </si>
+  <si>
+    <t>cultivation_plant45</t>
+  </si>
+  <si>
+    <t>cultivation_plant46</t>
+  </si>
+  <si>
+    <t>cultivation_plant47</t>
+  </si>
+  <si>
+    <t>cultivation_plant48</t>
+  </si>
+  <si>
+    <t>cultivation_plant49</t>
+  </si>
+  <si>
+    <t>cultivation_plant50</t>
+  </si>
+  <si>
+    <t>cultivation_plant51</t>
+  </si>
+  <si>
+    <t>cultivation_plant52</t>
+  </si>
+  <si>
+    <t>cultivation_plant53</t>
+  </si>
+  <si>
+    <t>cultivation_plant54</t>
+  </si>
+  <si>
+    <t>cultivation_plant55</t>
+  </si>
+  <si>
+    <t>cultivation_plant56</t>
+  </si>
+  <si>
+    <t>cultivation_plant57</t>
+  </si>
+  <si>
+    <t>cultivation_plant58</t>
+  </si>
+  <si>
+    <t>cultivation_plant59</t>
+  </si>
+  <si>
+    <t>cultivation_plant60</t>
+  </si>
+  <si>
+    <t>cultivation_plant61</t>
+  </si>
+  <si>
+    <t>cultivation_plant62</t>
+  </si>
+  <si>
+    <t>cultivation_plant63</t>
+  </si>
+  <si>
+    <t>cultivation_plant64</t>
+  </si>
+  <si>
+    <t>cultivation_plant65</t>
+  </si>
+  <si>
+    <t>cultivation_plant66</t>
+  </si>
+  <si>
+    <t>cultivation_plant67</t>
+  </si>
+  <si>
+    <t>cultivation_plant68</t>
+  </si>
+  <si>
+    <t>cultivation_plant69</t>
+  </si>
+  <si>
+    <t>cultivation_plant70</t>
+  </si>
+  <si>
+    <t>cultivation_plant71</t>
+  </si>
+  <si>
+    <t>cultivation_plant72</t>
+  </si>
+  <si>
+    <t>cultivation_plant73</t>
+  </si>
+  <si>
+    <t>最大生命值\n每波开始时生命值将为{0}&lt;/color&gt;\n生命值变为0脑子会被僵尸吃掉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max HP\nHP will be {0} &lt;/color&gt;at the beginning of each wave\nWhen HP reaches 0, the brain will be eaten by zombies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Rake&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\nThis weapon is very handy</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A roll of turf? &lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 HP recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 attack speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nIt must be very comfortable to spread it out and lie on it</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Iron Barrel&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Iron Barrel Zombie, but it will affect my vision</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Roadblock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Roadblock zombie, but it will affect my vision</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Street Sign&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nThe spoils from the giant zombie. This heavy thing affects my movement speed too much.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
+  </si>
+  <si>
+    <t>Power\nThe basic damage caused by the pan is increased by {0}&lt;/color&gt;\nThe knockback Power is increased by &lt;color=#00ff00&gt; + value + %&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase Lucky\r\nAnd can blow wind</t>
+  </si>
+  <si>
+    <t>Dave's Beard\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Adrenaline&lt;/color&gt;\r\nThis is my beard</t>
+  </si>
+  <si>
+    <t>Leaf\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\nUnknown plant</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Diamond&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Lucky&lt;/color&gt;\r\nBright and beautiful</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Sunflower&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\nSunflower petals. I wonder if there are sunflower seeds.</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Trophy&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 gold coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\nSymbol of honor</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Marigold Petals&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\nSee how she generates gold coins.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Wisdom Tree Fertilizer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\nThis is good.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Basketball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\nI heard that Gege is very good at this</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Newspaper&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Power&lt;/color&gt;\r\nThe spoils from the newspaper-reading zombie. There is a lot of knowledge in it.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Football Helmet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Range&lt;/color&gt;\r\nThe loot from the Football Zombie will affect my vision</t>
+  </si>
+  <si>
+    <t>Lucky\nCan increase the probability and quality of coin drops\nCan increase the maximum number of sunlight drops\nCan increase the probability of high-level item refreshes\nThis is very important</t>
+  </si>
+  <si>
+    <t>property_Power_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>MaximumHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Little Mushroom's Hat\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 MaximumHP&lt;/color&gt;\r\nYou can study it carefully.</t>
+  </si>
+  <si>
+    <t>Sunshine Mushroom Hat\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nYou can study it carefully.</t>
+  </si>
+  <si>
+    <t>Small Flower\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\nLooks familiar</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Clown Gift Box&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nA gift box that explodes. I have to keep it carefully.</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Gramophone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Armor&lt;/color&gt;\r\nListen to some music and relax</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A ground spike&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 adrenaline&lt;/color&gt;\r\nI don't want to step on it</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Insecticide&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 LifeRecovery&lt;/color&gt;\r\nIt smells terrible, and can help plants fight against bugs</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Sandwich&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 LifeRecovery&lt;/color&gt;\r\nLooks delicious</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Ice Shatter&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Attack Speed&lt;/color&gt;\r\nIt looks very cold</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple PercentageDamage</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the PercentageDamage of all peas, very powerful</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause PercentageDamage to all zombies that have appeared\r\nWill cause irreversible PercentageDamage to the environment, please use with caution</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A lock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 critical strike&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 attack speed&lt;/color&gt;\r\nCan be aimed at</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Spinach&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#9932CD&gt;Unlocks knockback, and zombie corpses fly and cause collision PercentageDamage (each PercentageDamage increases by 25%, up to 100%)&lt;/color&gt;\r\nAfter eating it, I can kill zombies directly</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Cart&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\nAnd causes {0} to zombies in a straight line\r\nPercentageDamage Cooldown Time {1}</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Iron Fence&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8 Speed&lt;/color&gt;\r\nThe loot from the Iron Fence zombie will affect my normal walking</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Escalator&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 Attack Speed&lt;/color&gt;\r\nThe loot from the escalator zombie can attack farther away.</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Wooden Mallet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\nUse the left mouse button to use the wooden mallet to cause {0} PercentageDamage\r\nCooling time {1}s\r\nThis is awesome</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Portal&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Lucky&lt;/color&gt;\r\nYou can generate two portals at random locations on the field, which is cool\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Fog Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nHas a chance to generate fog, immune to ranged attacks\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Sound&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nMake my voice travel farther\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Microphone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Power&lt;/color&gt;\r\nMake Me a Big Star\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunshine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black hole that absorbs Sunshine\r\n&lt;color=#ff0000&gt;-4 Botany&lt;/color&gt;\r\nWith it, I don't need to click one by one to collect &lt;color=#ff00ff&gt;Sunshine&lt;/color&gt;\r\nPlants seem to be very afraid of it</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;{0} Health Points per Second&lt;/color&gt;\r\nThe flame is burning</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Lighting Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Critical Hit Rate&lt;/color&gt;\r\nLighting creates atmosphere\r\n</t>
+  </si>
+  <si>
+    <t>GoldCoins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LifeRecovery</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>肾上腺素</t>
-  </si>
-  <si>
-    <t>Adrenaline</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>护甲</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>幸运</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>阳光</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>GoldCoins</t>
-  </si>
-  <si>
-    <t>植物学</t>
-  </si>
-  <si>
-    <t>Botany</t>
-  </si>
-  <si>
-    <t>%伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%攻击速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%暴击率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%移动速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_Property</t>
-  </si>
-  <si>
-    <t>property_MaximumHP</t>
-  </si>
-  <si>
-    <t>property_LifeRecovery</t>
-  </si>
-  <si>
-    <t>property_Adrenaline</t>
-  </si>
-  <si>
-    <t>property_Power</t>
-  </si>
-  <si>
-    <t>property_AttackSpeed</t>
-  </si>
-  <si>
-    <t>property_Range</t>
-  </si>
-  <si>
-    <t>property_CriticalHitRate</t>
-  </si>
-  <si>
-    <t>property_MoveSpeed</t>
-  </si>
-  <si>
-    <t>property_Armor</t>
-  </si>
-  <si>
-    <t>property_Lucky</t>
-  </si>
-  <si>
-    <t>property_Sunshine</t>
-  </si>
-  <si>
-    <t>property_GoldCoins</t>
-  </si>
-  <si>
-    <t>property_Botany</t>
-  </si>
-  <si>
-    <t>%PercentageDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%AttackSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%Range</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%CriticalHitRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%MoveSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_PercentageDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前为第&lt;color=#ffff00&gt;{0}&lt;/color&gt;波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The current wave is &lt;color=#ffff00&gt;{0}&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>garden_wave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>培养</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nourish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_nourish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evolve</t>
-  </si>
-  <si>
-    <t>Go to battle</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>garden_evolve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_tobattle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_eat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_nobattle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消出战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel the battle</t>
-  </si>
-  <si>
-    <t>音乐会套装每秒对范围&lt;color=#ff0000&gt;{0}&lt;/color&gt;造成&lt;color=#ff0000&gt;{1}&lt;/color&gt;伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Concert Suit deals &lt;color=#ff0000&gt;{1}&lt;/color&gt; damage to the area &lt;color=#ff0000&gt;{0}&lt;/color&gt; every second.</t>
-  </si>
-  <si>
-    <t>battle_vocalconcert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pause_hud</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启伤害显示</t>
-  </si>
-  <si>
-    <t>Enable damage display</t>
-  </si>
-  <si>
-    <t>pause_mainmenu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Menu</t>
-  </si>
-  <si>
-    <t>pause_return</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return Game</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新开始\r\n你想要重新开始游戏吗？\r\n你的存档将会删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restart\r\nDo you want to restart the game? \r\nYour save data will be deleted</t>
-  </si>
-  <si>
-    <t>pause_restart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开游戏？\r\n想要回到主菜单吗？\r\n你下一次开始游戏将从上一波商店页面开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave the game? \r\nWant to return to the main menu? \r\nThe next time you start the game, you will start from the last wave of store pages</t>
-  </si>
-  <si>
-    <t>pause_exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pause_exit2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你击败了\r\n僵王博士\r\n取得了最终的胜利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulations on defeating Dr. Zombie King and achieving the final victory.</t>
-  </si>
-  <si>
-    <t>victory_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运\n能够增加钱币掉落的概率及质量\n能够增加阳光掉落最大个数\n能够增大高级物品刷新概率\n这非常重要</t>
-  </si>
-  <si>
-    <t>Luck\nCan increase the probability and quality of coin drops\nCan increase the maximum number of sunlight drops\nCan increase the probability of high-level item refreshes\nThis is very important</t>
-  </si>
-  <si>
-    <t>property_MaximumHP_info</t>
-  </si>
-  <si>
-    <t>property_Adrenaline_info</t>
-  </si>
-  <si>
-    <t>property_Power_info</t>
-  </si>
-  <si>
-    <t>property_PercentageDamage_info</t>
-  </si>
-  <si>
-    <t>property_AttackSpeed_info</t>
-  </si>
-  <si>
-    <t>property_Range_info</t>
-  </si>
-  <si>
-    <t>property_CriticalHitRate_info</t>
-  </si>
-  <si>
-    <t>property_MoveSpeed_info</t>
-  </si>
-  <si>
-    <t>property_Armor_info</t>
-  </si>
-  <si>
-    <t>property_Lucky_info</t>
-  </si>
-  <si>
-    <t>property_Sunshine_info</t>
-  </si>
-  <si>
-    <t>property_GoldCoins_info</t>
-  </si>
-  <si>
-    <t>property_Botany_info</t>
-  </si>
-  <si>
-    <t>property_LifeRecovery_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复\n每&lt;color=#ff0000&gt;10s&lt;/color&gt;会恢复{0}&lt;/color&gt;点生命值\n恢复能力高于受到的伤害时我将无敌</t>
-  </si>
-  <si>
-    <t>HP Recovery\nHP will be restored to {0}&lt;/color&gt; points every &lt;color=#ff0000&gt;10s&lt;/color&gt;\nWhen the recovery ability is higher than the damage taken, I will be invincible</t>
-  </si>
-  <si>
-    <t>肾上腺素\n每次攻击都让我热血澎湃\n每次攻击有{0}%概率恢复{1}点生命值&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Adrenaline\nEvery attack makes my blood boil\nEach attack has a {0}% chance to recover + recoveryHp + HP points&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>力量\n平底锅造成的基础伤害增加{0}&lt;/color&gt;\n击退的力量增加&lt;color=#00ff00&gt;{1}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Strength\nThe basic damage caused by the pan is increased by {0}&lt;/color&gt;\nThe knockback strength is increased by &lt;color=#00ff00&gt; + value + %&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>伤害\n平底锅造成的基础伤害增加{0}%&lt;/color&gt;\n某些道具的伤害也会随百分比伤害增加</t>
-  </si>
-  <si>
-    <t>Damage\nThe basic damage caused by the pan increases by {0}%&lt;/color&gt;\nThe damage of some items will also increase with the percentage damage</t>
-  </si>
-  <si>
-    <t>攻击速度\n平底锅移动的速度增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击速度的影响，如木槌</t>
-  </si>
-  <si>
-    <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
-  </si>
-  <si>
-    <t>攻击范围\n眼睛更明亮，攻击范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
-  </si>
-  <si>
-    <t>Attack range\nThe eyes are brighter, and the attack range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
-  </si>
-  <si>
-    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
-  </si>
-  <si>
-    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; to cause 1.5 times the damage</t>
-  </si>
-  <si>
-    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车\n&lt;color=#00ff00&gt;跑步的速度为基础速度的1.5倍&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart\n &lt;color=#00ff00&gt;Running speed is 1.5 times the base speed&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>护甲|&lt;color=#ff0000&gt;上限90%&lt;/color&gt;\n受到的伤害减少{0}%&lt;/color&gt;\n能有效阻挡僵尸吃掉脑子</t>
-  </si>
-  <si>
-    <t>Armor|&lt;color=#ff0000&gt;Upper limit 90%&lt;/color&gt;\nReduces damage received by {0}%&lt;/color&gt;\nCan effectively prevent zombies from eating brains</t>
-  </si>
-  <si>
-    <t>阳光\n每波结束可以免费获得{0}&lt;/color&gt;阳光</t>
-  </si>
-  <si>
-    <t>Sunlight\nYou can get {0}&lt;/color&gt;Sunlight for free at the end of each wave</t>
-  </si>
-  <si>
-    <t>金币\n每波结束可以免费获得{0}&lt;/color&gt;金币</t>
-  </si>
-  <si>
-    <t>Gold\nYou can get {0}&lt;/color&gt;Gold for free at the end of each wave</t>
-  </si>
-  <si>
-    <t>植物学\n可以使植物造成的伤害增加{0}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Botany\nCan increase the damage caused by plants by {0}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 培育</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基础伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 百分比伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击检测范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击冷却</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 溅射伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 消化速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一次性吞噬个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金币率转换</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光率转换</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 穿透数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 暴击伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玩家攻击速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 风速</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 逆风恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 僵尸风阻</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 爆炸范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 普通僵尸即死率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 大型僵尸增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光减少</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黄油概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 暴击率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 伤害段数*2概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取金币个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取持续时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吞噬墓碑概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 魅惑者可攻击次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 连续触发概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 换取金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取铁制品个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落金币概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落钻石概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落双倍概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围攻速提升</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围生命恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围伤害增加</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹概率变多</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹大小</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 触发后生命值恢复比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击掉落南瓜概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 减速百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 减速时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 破坏载具数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生成阳光质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高坚果生命值（植物学）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最终爆炸概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 反伤伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 反伤概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆溅射伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 滚动速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 爆炸坚果概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 冰冻时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 冰冻期间攻速增加</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 出土时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 连坐概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玩家对僵尸增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 肾上腺素</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生命恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 幸运</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 植物学</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 力量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最大生命值</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 护甲</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光</t>
-  </si>
-  <si>
-    <t>Basic damage</t>
-  </si>
-  <si>
-    <t>Percentage damage</t>
-  </si>
-  <si>
-    <t>Attack detection range</t>
-  </si>
-  <si>
-    <t>Attack cooldown</t>
-  </si>
-  <si>
-    <t>Bullet speed</t>
-  </si>
-  <si>
-    <t>Splash damage</t>
-  </si>
-  <si>
-    <t>Digestion speed</t>
-  </si>
-  <si>
-    <t>Number of swallowed at one time</t>
-  </si>
-  <si>
-    <t>Coin rate conversion</t>
-  </si>
-  <si>
-    <t>Sun rate conversion</t>
-  </si>
-  <si>
-    <t>Number of penetrations</t>
-  </si>
-  <si>
-    <t>Critical damage</t>
-  </si>
-  <si>
-    <t>Player attack speed</t>
-  </si>
-  <si>
-    <t>Wind speed</t>
-  </si>
-  <si>
-    <t>Recovery against wind</t>
-  </si>
-  <si>
-    <t>Zombie wind resistance</t>
-  </si>
-  <si>
-    <t>Explosion range</t>
-  </si>
-  <si>
-    <t>Common zombie instant death rate</t>
-  </si>
-  <si>
-    <t>Increased damage for large zombies</t>
-  </si>
-  <si>
-    <t>Reduced sunlight</t>
-  </si>
-  <si>
-    <t>Butter probability</t>
-  </si>
-  <si>
-    <t>Control time</t>
-  </si>
-  <si>
-    <t>Critical rate</t>
-  </si>
-  <si>
-    <t>Damage segment number * 2 probability</t>
-  </si>
-  <si>
-    <t>Number of gold coins absorbed</t>
-  </si>
-  <si>
-    <t>Duration of absorption</t>
-  </si>
-  <si>
-    <t>Probability of swallowing tombstones</t>
-  </si>
-  <si>
-    <t>Number of attacks that the charmer can make</t>
-  </si>
-  <si>
-    <t>Continuous trigger probability</t>
-  </si>
-  <si>
-    <t>Exchange for gold coins</t>
-  </si>
-  <si>
-    <t>Number of iron products absorbed</t>
-  </si>
-  <si>
-    <t>Probability of dropping gold coins</t>
-  </si>
-  <si>
-    <t>Probability of dropping diamonds</t>
-  </si>
-  <si>
-    <t>Probability of dropping double drops</t>
-  </si>
-  <si>
-    <t>Range attack speed increase</t>
-  </si>
-  <si>
-    <t>Range health recovery</t>
-  </si>
-  <si>
-    <t>Range damage increase</t>
-  </si>
-  <si>
-    <t>Bullet probability becomes more</t>
-  </si>
-  <si>
-    <t>Bullet size</t>
-  </si>
-  <si>
-    <t>Health value recovery ratio after triggering</t>
-  </si>
-  <si>
-    <t>Probability of dropping pumpkins when attacking</t>
-  </si>
-  <si>
-    <t>Slowdown percentage</t>
-  </si>
-  <si>
-    <t>Slowdown time</t>
-  </si>
-  <si>
-    <t>Number of vehicles destroyed</t>
-  </si>
-  <si>
-    <t>Quality of sunlight generated</t>
-  </si>
-  <si>
-    <t>High Nut Health (Botany)</t>
-  </si>
-  <si>
-    <t>Final Explosion Chance</t>
-  </si>
-  <si>
-    <t>Retaliate Damage</t>
-  </si>
-  <si>
-    <t>Retaliate Chance</t>
-  </si>
-  <si>
-    <t>Pea Damage</t>
-  </si>
-  <si>
-    <t>Pea Splash Damage</t>
-  </si>
-  <si>
-    <t>Pea Speed</t>
-  </si>
-  <si>
-    <t>Rolling Speed</t>
-  </si>
-  <si>
-    <t>Exploding Nut Chance</t>
-  </si>
-  <si>
-    <t>Freeze Time</t>
-  </si>
-  <si>
-    <t>Attack Speed ​​Increase During Freeze</t>
-  </si>
-  <si>
-    <t>Unearth Time</t>
-  </si>
-  <si>
-    <t>Linked Nut Chance</t>
-  </si>
-  <si>
-    <t>Player Damage Increased on Zombies</t>
-  </si>
-  <si>
-    <t>Health Regeneration</t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Attack Speed</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Max Health</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Sunlight</t>
-  </si>
-  <si>
-    <t>Cultivation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant3</t>
-  </si>
-  <si>
-    <t>cultivation_plant4</t>
-  </si>
-  <si>
-    <t>cultivation_plant5</t>
-  </si>
-  <si>
-    <t>cultivation_plant6</t>
-  </si>
-  <si>
-    <t>cultivation_plant7</t>
-  </si>
-  <si>
-    <t>cultivation_plant8</t>
-  </si>
-  <si>
-    <t>cultivation_plant9</t>
-  </si>
-  <si>
-    <t>cultivation_plant10</t>
-  </si>
-  <si>
-    <t>cultivation_plant11</t>
-  </si>
-  <si>
-    <t>cultivation_plant12</t>
-  </si>
-  <si>
-    <t>cultivation_plant13</t>
-  </si>
-  <si>
-    <t>cultivation_plant14</t>
-  </si>
-  <si>
-    <t>cultivation_plant15</t>
-  </si>
-  <si>
-    <t>cultivation_plant16</t>
-  </si>
-  <si>
-    <t>cultivation_plant17</t>
-  </si>
-  <si>
-    <t>cultivation_plant18</t>
-  </si>
-  <si>
-    <t>cultivation_plant19</t>
-  </si>
-  <si>
-    <t>cultivation_plant20</t>
-  </si>
-  <si>
-    <t>cultivation_plant21</t>
-  </si>
-  <si>
-    <t>cultivation_plant22</t>
-  </si>
-  <si>
-    <t>cultivation_plant23</t>
-  </si>
-  <si>
-    <t>cultivation_plant24</t>
-  </si>
-  <si>
-    <t>cultivation_plant25</t>
-  </si>
-  <si>
-    <t>cultivation_plant26</t>
-  </si>
-  <si>
-    <t>cultivation_plant27</t>
-  </si>
-  <si>
-    <t>cultivation_plant28</t>
-  </si>
-  <si>
-    <t>cultivation_plant29</t>
-  </si>
-  <si>
-    <t>cultivation_plant30</t>
-  </si>
-  <si>
-    <t>cultivation_plant31</t>
-  </si>
-  <si>
-    <t>cultivation_plant32</t>
-  </si>
-  <si>
-    <t>cultivation_plant33</t>
-  </si>
-  <si>
-    <t>cultivation_plant34</t>
-  </si>
-  <si>
-    <t>cultivation_plant35</t>
-  </si>
-  <si>
-    <t>cultivation_plant36</t>
-  </si>
-  <si>
-    <t>cultivation_plant37</t>
-  </si>
-  <si>
-    <t>cultivation_plant38</t>
-  </si>
-  <si>
-    <t>cultivation_plant39</t>
-  </si>
-  <si>
-    <t>cultivation_plant40</t>
-  </si>
-  <si>
-    <t>cultivation_plant41</t>
-  </si>
-  <si>
-    <t>cultivation_plant42</t>
-  </si>
-  <si>
-    <t>cultivation_plant43</t>
-  </si>
-  <si>
-    <t>cultivation_plant44</t>
-  </si>
-  <si>
-    <t>cultivation_plant45</t>
-  </si>
-  <si>
-    <t>cultivation_plant46</t>
-  </si>
-  <si>
-    <t>cultivation_plant47</t>
-  </si>
-  <si>
-    <t>cultivation_plant48</t>
-  </si>
-  <si>
-    <t>cultivation_plant49</t>
-  </si>
-  <si>
-    <t>cultivation_plant50</t>
-  </si>
-  <si>
-    <t>cultivation_plant51</t>
-  </si>
-  <si>
-    <t>cultivation_plant52</t>
-  </si>
-  <si>
-    <t>cultivation_plant53</t>
-  </si>
-  <si>
-    <t>cultivation_plant54</t>
-  </si>
-  <si>
-    <t>cultivation_plant55</t>
-  </si>
-  <si>
-    <t>cultivation_plant56</t>
-  </si>
-  <si>
-    <t>cultivation_plant57</t>
-  </si>
-  <si>
-    <t>cultivation_plant58</t>
-  </si>
-  <si>
-    <t>cultivation_plant59</t>
-  </si>
-  <si>
-    <t>cultivation_plant60</t>
-  </si>
-  <si>
-    <t>cultivation_plant61</t>
-  </si>
-  <si>
-    <t>cultivation_plant62</t>
-  </si>
-  <si>
-    <t>cultivation_plant63</t>
-  </si>
-  <si>
-    <t>cultivation_plant64</t>
-  </si>
-  <si>
-    <t>cultivation_plant65</t>
-  </si>
-  <si>
-    <t>cultivation_plant66</t>
-  </si>
-  <si>
-    <t>cultivation_plant67</t>
-  </si>
-  <si>
-    <t>cultivation_plant68</t>
-  </si>
-  <si>
-    <t>cultivation_plant69</t>
-  </si>
-  <si>
-    <t>cultivation_plant70</t>
-  </si>
-  <si>
-    <t>cultivation_plant71</t>
-  </si>
-  <si>
-    <t>cultivation_plant72</t>
-  </si>
-  <si>
-    <t>cultivation_plant73</t>
-  </si>
-  <si>
-    <t>最大生命值\n每波开始时生命值将为{0}&lt;/color&gt;\n生命值变为0脑子会被僵尸吃掉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max HP\nHP will be {0} &lt;/color&gt;at the beginning of each wave\nWhen HP reaches 0, the brain will be eaten by zombies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chin? \r\n&lt;color=#00ff00&gt;+2 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nLooks pretty creepy.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3214,9 +3234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3927,14 +3947,14 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>828</v>
       </c>
       <c r="E46" t="s">
         <v>52</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase luck\r\nAnd can blow wind</v>
+        <v>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase Lucky\r\nAnd can blow wind</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,7 +3989,7 @@
         <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
         <v>54</v>
@@ -3990,7 +4010,7 @@
         <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
         <v>55</v>
@@ -4011,14 +4031,14 @@
         <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>842</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 maximum health and 5 armor&lt;/color&gt;</v>
+        <v>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,7 +4052,7 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -4053,7 +4073,7 @@
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -4074,7 +4094,7 @@
         <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
         <v>59</v>
@@ -4095,14 +4115,14 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>853</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple damage</v>
+        <v>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple PercentageDamage</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,7 +4136,7 @@
         <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E55" t="s">
         <v>61</v>
@@ -4137,7 +4157,7 @@
         <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E56" t="s">
         <v>62</v>
@@ -4158,14 +4178,14 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>854</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 damage, 5 luck&lt;/color&gt;</v>
+        <v>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,7 +4199,7 @@
         <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
         <v>64</v>
@@ -4200,7 +4220,7 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
         <v>65</v>
@@ -4221,7 +4241,7 @@
         <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -4263,7 +4283,7 @@
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
         <v>68</v>
@@ -4284,7 +4304,7 @@
         <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
         <v>69</v>
@@ -4305,7 +4325,7 @@
         <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
         <v>70</v>
@@ -4326,7 +4346,7 @@
         <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
         <v>71</v>
@@ -4347,7 +4367,7 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
@@ -4368,7 +4388,7 @@
         <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
         <v>73</v>
@@ -4389,7 +4409,7 @@
         <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E68" t="s">
         <v>74</v>
@@ -4410,7 +4430,7 @@
         <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -4452,7 +4472,7 @@
         <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
         <v>77</v>
@@ -4473,7 +4493,7 @@
         <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" t="s">
         <v>78</v>
@@ -4494,7 +4514,7 @@
         <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E73" t="s">
         <v>79</v>
@@ -4515,14 +4535,14 @@
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>855</v>
       </c>
       <c r="E74" t="s">
         <v>80</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the damage of all peas, very powerful</v>
+        <v>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the PercentageDamage of all peas, very powerful</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4556,7 @@
         <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E75" t="s">
         <v>81</v>
@@ -4557,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
         <v>82</v>
@@ -4578,7 +4598,7 @@
         <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E77" t="s">
         <v>83</v>
@@ -4599,7 +4619,7 @@
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
@@ -4620,14 +4640,14 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>856</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause damage to all zombies that have appeared\r\nWill cause irreversible damage to the environment, please use with caution</v>
+        <v>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause PercentageDamage to all zombies that have appeared\r\nWill cause irreversible PercentageDamage to the environment, please use with caution</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4641,7 +4661,7 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E80" t="s">
         <v>86</v>
@@ -4662,7 +4682,7 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
         <v>87</v>
@@ -4677,13 +4697,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4691,13 +4711,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,13 +4725,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,13 +4739,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,13 +4753,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4747,13 +4767,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4761,13 +4781,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>359</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,13 +4795,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>360</v>
+        <v>844</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4789,13 +4809,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>361</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4803,13 +4823,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4817,13 +4837,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4831,13 +4851,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>845</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4845,13 +4865,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4859,13 +4879,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,13 +4893,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4887,13 +4907,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>367</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4901,13 +4921,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>368</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4915,13 +4935,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4929,13 +4949,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C100" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>371</v>
+        <v>821</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,13 +4963,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D101" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4957,13 +4977,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D102" t="s">
-        <v>373</v>
+        <v>846</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4971,13 +4991,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4985,13 +5005,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>822</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4999,13 +5019,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D105" t="s">
-        <v>376</v>
+        <v>848</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5013,13 +5033,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5027,13 +5047,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>377</v>
+        <v>849</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5041,13 +5061,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D108" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5055,13 +5075,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D109" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,13 +5089,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D110" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5083,13 +5103,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>833</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5097,13 +5117,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>382</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,13 +5131,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C113" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D113" t="s">
-        <v>383</v>
+        <v>857</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5125,13 +5145,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C114" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>384</v>
+        <v>847</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5139,13 +5159,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C115" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D115" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5153,13 +5173,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5167,13 +5187,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5181,13 +5201,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C118" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>858</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5195,13 +5215,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>391</v>
+        <v>834</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,13 +5229,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>392</v>
+        <v>835</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5223,13 +5243,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D121" t="s">
-        <v>393</v>
+        <v>836</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5237,13 +5257,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D122" t="s">
-        <v>394</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5251,13 +5271,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5265,13 +5285,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C124" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>396</v>
+        <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5279,13 +5299,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D125" t="s">
-        <v>397</v>
+        <v>860</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5293,13 +5313,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>398</v>
+        <v>837</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5307,13 +5327,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C127" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>861</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5321,13 +5341,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>400</v>
+        <v>838</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5335,13 +5355,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C129" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>401</v>
+        <v>825</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5349,13 +5369,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>402</v>
+        <v>826</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,13 +5383,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>404</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5377,13 +5397,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>869</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5391,13 +5411,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C133" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>406</v>
+        <v>862</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5405,13 +5425,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>863</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,13 +5439,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>408</v>
+        <v>864</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5433,13 +5453,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C136" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>409</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5447,13 +5467,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>410</v>
+        <v>866</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5461,13 +5481,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>411</v>
+        <v>865</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5475,13 +5495,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="D139" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5489,13 +5509,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="C140" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="D140" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5503,13 +5523,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5517,13 +5537,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="D142" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5531,13 +5551,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="C143" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="D143" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5545,13 +5565,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="C144" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="D144" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5559,13 +5579,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5573,13 +5593,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="D146" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5587,13 +5607,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="C147" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D147" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5601,13 +5621,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="C148" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5615,13 +5635,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5629,13 +5649,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="D150" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5643,13 +5663,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="C151" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5657,13 +5677,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="C152" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="D152" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5671,13 +5691,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C153" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="D153" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5685,13 +5705,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="C154" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="D154" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5699,13 +5719,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="C155" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5713,13 +5733,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="C156" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5727,13 +5747,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="C157" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="D157" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5741,13 +5761,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C158" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="D158" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5755,13 +5775,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="C159" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="D159" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5769,13 +5789,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="D160" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5783,13 +5803,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="C161" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5797,13 +5817,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="C162" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="D162" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5811,13 +5831,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="D163" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5825,13 +5845,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="C164" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="D164" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5839,13 +5859,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="C165" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="D165" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5853,13 +5873,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C166" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="D166" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5867,13 +5887,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="C167" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="D167" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,13 +5901,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="C168" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5895,13 +5915,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="C169" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="D169" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,13 +5929,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="C170" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="D170" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,13 +5943,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="C171" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="D171" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5937,13 +5957,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C172" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="D172" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5951,13 +5971,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="D173" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5965,13 +5985,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="D174" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5979,13 +5999,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="C175" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="D175" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5993,13 +6013,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="C176" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="D176" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6007,13 +6027,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="C177" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="D177" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6021,13 +6041,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="C178" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6035,13 +6055,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="C179" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="D179" t="s">
-        <v>530</v>
+        <v>841</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6049,13 +6069,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="C180" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="D180" t="s">
-        <v>531</v>
+        <v>873</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6063,13 +6083,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="C181" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D181" t="s">
-        <v>534</v>
+        <v>852</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6077,13 +6097,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="C182" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="D182" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6091,13 +6111,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="C183" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
       <c r="D183" t="s">
-        <v>568</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6105,13 +6125,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="D184" t="s">
-        <v>569</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,13 +6139,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="D185" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6133,13 +6153,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="D186" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,13 +6167,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="C187" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="D187" t="s">
-        <v>572</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6161,13 +6181,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>563</v>
+        <v>515</v>
       </c>
       <c r="C188" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="D188" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6175,13 +6195,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="C189" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="D189" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6189,13 +6209,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="C190" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="D190" t="s">
-        <v>544</v>
+        <v>867</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6203,13 +6223,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="C191" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="D191" t="s">
-        <v>546</v>
+        <v>871</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6217,13 +6237,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="C192" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>548</v>
+        <v>872</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,13 +6251,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>576</v>
+        <v>528</v>
       </c>
       <c r="C193" t="s">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="D193" t="s">
-        <v>575</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6245,13 +6265,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="C194" t="s">
-        <v>577</v>
+        <v>529</v>
       </c>
       <c r="D194" t="s">
-        <v>578</v>
+        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6259,13 +6279,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="D195" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6273,13 +6293,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="D196" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,13 +6307,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>588</v>
+        <v>540</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="D197" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,13 +6321,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="D198" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6315,13 +6335,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="C199" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="D199" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6329,13 +6349,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="C200" t="s">
-        <v>599</v>
+        <v>551</v>
       </c>
       <c r="D200" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6343,13 +6363,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>601</v>
+        <v>553</v>
       </c>
       <c r="C201" t="s">
-        <v>602</v>
+        <v>554</v>
       </c>
       <c r="D201" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6357,13 +6377,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="C202" t="s">
-        <v>605</v>
+        <v>557</v>
       </c>
       <c r="D202" t="s">
-        <v>606</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6371,13 +6391,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>609</v>
+        <v>561</v>
       </c>
       <c r="C203" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="D203" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6385,13 +6405,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="C204" t="s">
-        <v>610</v>
+        <v>562</v>
       </c>
       <c r="D204" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6399,13 +6419,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>613</v>
+        <v>565</v>
       </c>
       <c r="C205" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="D205" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6413,13 +6433,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="C206" t="s">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="D206" t="s">
-        <v>616</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,13 +6447,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="C207" t="s">
-        <v>872</v>
+        <v>819</v>
       </c>
       <c r="D207" t="s">
-        <v>873</v>
+        <v>820</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6441,13 +6461,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="C208" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="D208" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6455,13 +6475,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="C209" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="D209" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6469,13 +6489,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>622</v>
+        <v>840</v>
       </c>
       <c r="C210" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="D210" t="s">
-        <v>639</v>
+        <v>827</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6483,13 +6503,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="D211" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6497,13 +6517,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="C212" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="D212" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6511,13 +6531,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="D213" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,13 +6545,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="C214" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="D214" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6539,13 +6559,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="C215" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D215" t="s">
-        <v>649</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,13 +6573,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="C216" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="D216" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,13 +6587,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="C217" t="s">
-        <v>618</v>
+        <v>570</v>
       </c>
       <c r="D217" t="s">
-        <v>619</v>
+        <v>839</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6581,13 +6601,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="D218" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6595,13 +6615,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="C219" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="D219" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6609,13 +6629,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="C220" t="s">
-        <v>656</v>
+        <v>605</v>
       </c>
       <c r="D220" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6623,13 +6643,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>799</v>
+        <v>746</v>
       </c>
       <c r="C221" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="D221" t="s">
-        <v>798</v>
+        <v>745</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6637,13 +6657,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>800</v>
+        <v>747</v>
       </c>
       <c r="C222" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="D222" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6651,13 +6671,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>801</v>
+        <v>748</v>
       </c>
       <c r="C223" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="D223" t="s">
-        <v>732</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6665,13 +6685,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>802</v>
+        <v>749</v>
       </c>
       <c r="C224" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
       <c r="D224" t="s">
-        <v>733</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6679,13 +6699,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>803</v>
+        <v>750</v>
       </c>
       <c r="C225" t="s">
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="D225" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,13 +6713,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="C226" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
       <c r="D226" t="s">
-        <v>735</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6707,13 +6727,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>805</v>
+        <v>752</v>
       </c>
       <c r="C227" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="D227" t="s">
-        <v>736</v>
+        <v>685</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6721,13 +6741,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>806</v>
+        <v>753</v>
       </c>
       <c r="C228" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="D228" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6735,13 +6755,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="C229" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>738</v>
+        <v>687</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6749,13 +6769,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="C230" t="s">
-        <v>667</v>
+        <v>616</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6763,13 +6783,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>809</v>
+        <v>756</v>
       </c>
       <c r="C231" t="s">
-        <v>668</v>
+        <v>617</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>740</v>
+        <v>689</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6777,13 +6797,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>810</v>
+        <v>757</v>
       </c>
       <c r="C232" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>741</v>
+        <v>690</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6791,13 +6811,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>811</v>
+        <v>758</v>
       </c>
       <c r="C233" t="s">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>742</v>
+        <v>691</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6805,13 +6825,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>812</v>
+        <v>759</v>
       </c>
       <c r="C234" t="s">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>743</v>
+        <v>692</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6819,13 +6839,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>813</v>
+        <v>760</v>
       </c>
       <c r="C235" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>744</v>
+        <v>693</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6833,13 +6853,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>814</v>
+        <v>761</v>
       </c>
       <c r="C236" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>745</v>
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6847,13 +6867,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
       <c r="C237" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>746</v>
+        <v>695</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6861,13 +6881,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>816</v>
+        <v>763</v>
       </c>
       <c r="C238" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>747</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6875,13 +6895,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>817</v>
+        <v>764</v>
       </c>
       <c r="C239" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>748</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6889,13 +6909,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>818</v>
+        <v>765</v>
       </c>
       <c r="C240" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>749</v>
+        <v>698</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6903,13 +6923,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>819</v>
+        <v>766</v>
       </c>
       <c r="C241" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6917,13 +6937,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>820</v>
+        <v>767</v>
       </c>
       <c r="C242" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6931,13 +6951,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>821</v>
+        <v>768</v>
       </c>
       <c r="C243" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>752</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6945,13 +6965,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>822</v>
+        <v>769</v>
       </c>
       <c r="C244" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>753</v>
+        <v>702</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6959,13 +6979,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>823</v>
+        <v>770</v>
       </c>
       <c r="C245" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6973,13 +6993,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="C246" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6987,13 +7007,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>825</v>
+        <v>772</v>
       </c>
       <c r="C247" t="s">
-        <v>684</v>
+        <v>633</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7001,13 +7021,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>826</v>
+        <v>773</v>
       </c>
       <c r="C248" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7015,13 +7035,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>827</v>
+        <v>774</v>
       </c>
       <c r="C249" t="s">
-        <v>686</v>
+        <v>635</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7029,13 +7049,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>828</v>
+        <v>775</v>
       </c>
       <c r="C250" t="s">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7043,13 +7063,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>829</v>
+        <v>776</v>
       </c>
       <c r="C251" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7057,13 +7077,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>830</v>
+        <v>777</v>
       </c>
       <c r="C252" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7071,13 +7091,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>831</v>
+        <v>778</v>
       </c>
       <c r="C253" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7085,13 +7105,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>832</v>
+        <v>779</v>
       </c>
       <c r="C254" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7099,13 +7119,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>833</v>
+        <v>780</v>
       </c>
       <c r="C255" t="s">
-        <v>692</v>
+        <v>641</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>764</v>
+        <v>713</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7113,13 +7133,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>834</v>
+        <v>781</v>
       </c>
       <c r="C256" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7127,13 +7147,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>835</v>
+        <v>782</v>
       </c>
       <c r="C257" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7141,13 +7161,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>836</v>
+        <v>783</v>
       </c>
       <c r="C258" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7155,13 +7175,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>837</v>
+        <v>784</v>
       </c>
       <c r="C259" t="s">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7169,13 +7189,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>838</v>
+        <v>785</v>
       </c>
       <c r="C260" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7183,13 +7203,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>839</v>
+        <v>786</v>
       </c>
       <c r="C261" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7197,13 +7217,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>840</v>
+        <v>787</v>
       </c>
       <c r="C262" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7211,13 +7231,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>841</v>
+        <v>788</v>
       </c>
       <c r="C263" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>772</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7225,13 +7245,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>842</v>
+        <v>789</v>
       </c>
       <c r="C264" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7239,13 +7259,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>843</v>
+        <v>790</v>
       </c>
       <c r="C265" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>774</v>
+        <v>723</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7253,13 +7273,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>844</v>
+        <v>791</v>
       </c>
       <c r="C266" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7267,13 +7287,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>845</v>
+        <v>792</v>
       </c>
       <c r="C267" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7281,13 +7301,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>846</v>
+        <v>793</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7295,13 +7315,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>847</v>
+        <v>794</v>
       </c>
       <c r="C269" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7309,13 +7329,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>848</v>
+        <v>795</v>
       </c>
       <c r="C270" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>779</v>
+        <v>728</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7323,13 +7343,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>849</v>
+        <v>796</v>
       </c>
       <c r="C271" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7337,13 +7357,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>850</v>
+        <v>797</v>
       </c>
       <c r="C272" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7351,13 +7371,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>851</v>
+        <v>798</v>
       </c>
       <c r="C273" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7365,13 +7385,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>852</v>
+        <v>799</v>
       </c>
       <c r="C274" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7379,13 +7399,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>853</v>
+        <v>800</v>
       </c>
       <c r="C275" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>784</v>
+        <v>733</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7393,13 +7413,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>854</v>
+        <v>801</v>
       </c>
       <c r="C276" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7407,13 +7427,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>855</v>
+        <v>802</v>
       </c>
       <c r="C277" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7421,13 +7441,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>856</v>
+        <v>803</v>
       </c>
       <c r="C278" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7435,13 +7455,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>857</v>
+        <v>804</v>
       </c>
       <c r="C279" t="s">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7449,13 +7469,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>858</v>
+        <v>805</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>789</v>
+        <v>738</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7463,13 +7483,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>859</v>
+        <v>806</v>
       </c>
       <c r="C281" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7477,13 +7497,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>860</v>
+        <v>807</v>
       </c>
       <c r="C282" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7491,13 +7511,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>861</v>
+        <v>808</v>
       </c>
       <c r="C283" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>791</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7505,13 +7525,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>862</v>
+        <v>809</v>
       </c>
       <c r="C284" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7519,13 +7539,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>863</v>
+        <v>810</v>
       </c>
       <c r="C285" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7533,13 +7553,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>864</v>
+        <v>811</v>
       </c>
       <c r="C286" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7547,13 +7567,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="C287" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>793</v>
+        <v>741</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7561,13 +7581,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>866</v>
+        <v>813</v>
       </c>
       <c r="C288" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7575,13 +7595,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>867</v>
+        <v>814</v>
       </c>
       <c r="C289" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>794</v>
+        <v>490</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7589,13 +7609,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>868</v>
+        <v>815</v>
       </c>
       <c r="C290" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>795</v>
+        <v>742</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7603,13 +7623,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="C291" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>796</v>
+        <v>743</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7617,13 +7637,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>870</v>
+        <v>817</v>
       </c>
       <c r="C292" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7631,13 +7651,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>871</v>
+        <v>818</v>
       </c>
       <c r="C293" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>797</v>
+        <v>744</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0638EBA-CD37-4D0A-9A02-1A11137BB687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B2A835-1D3E-423D-9ED1-2CC3AB9B95DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1405,13 +1396,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次加载速度可能较慢\r\n请耐心等待</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The first loading speed may be slow\r\nPlease be patient</t>
-  </si>
-  <si>
     <t>mainmenu_loading</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2856,6 +2840,13 @@
   <si>
     <t>A chin? \r\n&lt;color=#00ff00&gt;+2 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nLooks pretty creepy.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载游戏中，请耐心等待。。。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading the game, please be patient and wait...</t>
   </si>
 </sst>
 </file>
@@ -3235,8 +3226,8 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
+      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3947,7 +3938,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E46" t="s">
         <v>52</v>
@@ -4031,7 +4022,7 @@
         <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -4115,7 +4106,7 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -4178,7 +4169,7 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
@@ -4535,7 +4526,7 @@
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E74" t="s">
         <v>80</v>
@@ -4640,7 +4631,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
@@ -4703,7 +4694,7 @@
         <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,7 +4736,7 @@
         <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4787,7 +4778,7 @@
         <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4801,7 +4792,7 @@
         <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,7 +4806,7 @@
         <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4843,7 +4834,7 @@
         <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,7 +4848,7 @@
         <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4913,7 +4904,7 @@
         <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,7 +4918,7 @@
         <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,7 +4946,7 @@
         <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,7 +4974,7 @@
         <v>257</v>
       </c>
       <c r="D102" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,7 +5002,7 @@
         <v>259</v>
       </c>
       <c r="D104" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,7 +5016,7 @@
         <v>260</v>
       </c>
       <c r="D105" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,7 +5044,7 @@
         <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5109,7 +5100,7 @@
         <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,7 +5114,7 @@
         <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,7 +5128,7 @@
         <v>268</v>
       </c>
       <c r="D113" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,7 +5142,7 @@
         <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5207,7 +5198,7 @@
         <v>271</v>
       </c>
       <c r="D118" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5221,7 +5212,7 @@
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,7 +5226,7 @@
         <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,7 +5240,7 @@
         <v>274</v>
       </c>
       <c r="D121" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5263,7 +5254,7 @@
         <v>275</v>
       </c>
       <c r="D122" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5277,7 +5268,7 @@
         <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,7 +5282,7 @@
         <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,7 +5296,7 @@
         <v>278</v>
       </c>
       <c r="D125" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5319,7 +5310,7 @@
         <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,7 +5324,7 @@
         <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,7 +5338,7 @@
         <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5361,7 +5352,7 @@
         <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5375,7 +5366,7 @@
         <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,7 +5380,7 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,7 +5394,7 @@
         <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,7 +5408,7 @@
         <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,7 +5422,7 @@
         <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,7 +5436,7 @@
         <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,7 +5450,7 @@
         <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5473,7 +5464,7 @@
         <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,7 +5478,7 @@
         <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,13 +5542,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
+        <v>545</v>
+      </c>
+      <c r="C143" t="s">
+        <v>546</v>
+      </c>
+      <c r="D143" t="s">
         <v>547</v>
-      </c>
-      <c r="C143" t="s">
-        <v>548</v>
-      </c>
-      <c r="D143" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,13 +5612,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" t="s">
+        <v>470</v>
+      </c>
+      <c r="D148" t="s">
         <v>471</v>
-      </c>
-      <c r="C148" t="s">
-        <v>472</v>
-      </c>
-      <c r="D148" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5750,7 +5741,7 @@
         <v>418</v>
       </c>
       <c r="C157" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D157" t="s">
         <v>419</v>
@@ -5764,7 +5755,7 @@
         <v>420</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D158" t="s">
         <v>421</v>
@@ -5775,13 +5766,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C159" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="D159" t="s">
-        <v>423</v>
+        <v>874</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5789,13 +5780,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C160" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D160" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5803,13 +5794,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C161" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D161" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5817,13 +5808,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C162" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" t="s">
         <v>430</v>
-      </c>
-      <c r="D162" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5831,13 +5822,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C163" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5845,13 +5836,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C164" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D164" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5859,13 +5850,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D165" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5873,13 +5864,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C166" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D166" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,10 +5878,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C167" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D167" t="s">
         <v>377</v>
@@ -5901,13 +5892,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
+        <v>448</v>
+      </c>
+      <c r="C168" t="s">
+        <v>449</v>
+      </c>
+      <c r="D168" t="s">
         <v>450</v>
-      </c>
-      <c r="C168" t="s">
-        <v>451</v>
-      </c>
-      <c r="D168" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,13 +5906,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C169" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D169" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,13 +5920,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5943,13 +5934,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D171" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5957,13 +5948,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C172" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D172" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,13 +5962,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C173" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D173" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5985,13 +5976,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C174" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D174" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5999,13 +5990,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C175" t="s">
+        <v>472</v>
+      </c>
+      <c r="D175" t="s">
         <v>474</v>
-      </c>
-      <c r="D175" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6013,13 +6004,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C176" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D176" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,13 +6018,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C177" t="s">
+        <v>478</v>
+      </c>
+      <c r="D177" t="s">
         <v>480</v>
-      </c>
-      <c r="D177" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6041,13 +6032,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C178" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D178" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6055,13 +6046,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D179" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6069,13 +6060,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C180" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D180" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,13 +6074,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D181" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,13 +6088,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C182" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D182" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6111,13 +6102,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C183" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6125,13 +6116,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C184" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D184" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6139,13 +6130,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C185" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D185" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,13 +6144,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C186" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D186" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,13 +6158,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C187" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D187" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6181,13 +6172,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C188" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D188" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6195,13 +6186,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C189" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D189" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6209,13 +6200,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C190" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D190" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,13 +6214,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C191" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D191" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,13 +6228,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C192" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,13 +6242,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C193" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D193" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6265,13 +6256,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C194" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D194" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6279,13 +6270,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C195" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D195" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,13 +6284,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C196" t="s">
+        <v>532</v>
+      </c>
+      <c r="D196" t="s">
         <v>534</v>
-      </c>
-      <c r="D196" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6307,13 +6298,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C197" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D197" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6321,13 +6312,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
+        <v>539</v>
+      </c>
+      <c r="C198" t="s">
+        <v>540</v>
+      </c>
+      <c r="D198" t="s">
         <v>541</v>
-      </c>
-      <c r="C198" t="s">
-        <v>542</v>
-      </c>
-      <c r="D198" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6335,13 +6326,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C199" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D199" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6349,13 +6340,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
+        <v>548</v>
+      </c>
+      <c r="C200" t="s">
+        <v>549</v>
+      </c>
+      <c r="D200" t="s">
         <v>550</v>
-      </c>
-      <c r="C200" t="s">
-        <v>551</v>
-      </c>
-      <c r="D200" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6363,13 +6354,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
+        <v>551</v>
+      </c>
+      <c r="C201" t="s">
+        <v>552</v>
+      </c>
+      <c r="D201" t="s">
         <v>553</v>
-      </c>
-      <c r="C201" t="s">
-        <v>554</v>
-      </c>
-      <c r="D201" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6377,13 +6368,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
+        <v>554</v>
+      </c>
+      <c r="C202" t="s">
+        <v>555</v>
+      </c>
+      <c r="D202" t="s">
         <v>556</v>
-      </c>
-      <c r="C202" t="s">
-        <v>557</v>
-      </c>
-      <c r="D202" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,13 +6382,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C203" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D203" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6405,13 +6396,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C204" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D204" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,10 +6410,10 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C205" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D205" t="s">
         <v>376</v>
@@ -6433,13 +6424,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C206" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D206" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6447,13 +6438,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D207" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,13 +6452,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
+        <v>581</v>
+      </c>
+      <c r="C208" t="s">
+        <v>582</v>
+      </c>
+      <c r="D208" t="s">
         <v>583</v>
-      </c>
-      <c r="C208" t="s">
-        <v>584</v>
-      </c>
-      <c r="D208" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6475,13 +6466,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C209" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D209" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6489,13 +6480,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C210" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D210" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6503,13 +6494,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C211" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D211" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,13 +6508,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C212" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D212" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,13 +6522,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C213" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D213" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,13 +6536,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C214" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D214" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6559,13 +6550,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C215" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D215" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,13 +6564,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C216" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D216" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6587,13 +6578,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C217" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D217" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6601,13 +6592,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C218" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D218" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6615,13 +6606,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C219" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D219" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6629,13 +6620,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C220" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D220" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,13 +6634,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C221" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D221" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,13 +6648,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C222" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D222" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6671,13 +6662,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C223" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D223" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6685,13 +6676,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C224" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D224" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6699,13 +6690,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C225" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D225" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6713,13 +6704,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C226" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D226" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6727,13 +6718,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D227" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6741,13 +6732,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C228" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D228" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6755,13 +6746,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C229" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6769,13 +6760,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C230" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6783,13 +6774,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C231" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6797,13 +6788,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C232" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6811,13 +6802,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C233" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6825,13 +6816,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C234" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6839,13 +6830,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C235" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6853,13 +6844,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C236" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6867,13 +6858,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C237" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6881,13 +6872,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C238" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6895,13 +6886,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C239" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6909,13 +6900,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C240" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6923,13 +6914,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C241" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6937,13 +6928,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C242" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6951,13 +6942,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C243" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6965,13 +6956,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C244" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6979,13 +6970,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C245" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6993,13 +6984,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C246" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7007,13 +6998,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C247" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7021,13 +7012,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C248" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7035,13 +7026,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C249" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7049,13 +7040,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C250" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7063,13 +7054,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C251" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7077,13 +7068,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C252" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7091,13 +7082,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C253" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7105,13 +7096,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C254" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7119,13 +7110,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C255" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7133,13 +7124,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C256" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7147,13 +7138,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C257" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7161,13 +7152,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C258" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7175,13 +7166,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C259" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7189,13 +7180,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C260" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7203,13 +7194,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C261" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7217,13 +7208,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C262" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7231,13 +7222,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C263" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7245,13 +7236,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C264" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7259,13 +7250,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C265" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7273,13 +7264,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C266" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7287,13 +7278,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C267" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7301,13 +7292,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C268" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7315,13 +7306,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C269" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7329,13 +7320,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C270" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7343,13 +7334,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C271" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7357,13 +7348,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C272" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7371,13 +7362,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C273" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7385,13 +7376,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C274" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7399,13 +7390,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C275" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7413,13 +7404,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C276" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7427,13 +7418,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C277" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7441,13 +7432,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C278" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7455,13 +7446,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C279" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7469,13 +7460,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C280" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7483,13 +7474,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C281" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7497,13 +7488,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C282" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7511,13 +7502,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C283" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7525,13 +7516,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C284" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7539,13 +7530,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C285" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7553,13 +7544,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C286" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7567,13 +7558,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C287" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7581,13 +7572,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C288" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7595,13 +7586,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C289" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7609,13 +7600,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C290" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7623,13 +7614,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C291" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7637,13 +7628,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C292" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7651,13 +7642,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C293" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B2A835-1D3E-423D-9ED1-2CC3AB9B95DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDBA344-F524-4108-8223-3504F60BB4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="876">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1634,9 +1634,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
     <t>护甲</t>
   </si>
   <si>
@@ -1982,12 +1979,6 @@
     <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
   </si>
   <si>
-    <t>攻击范围\n眼睛更明亮，攻击范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
-  </si>
-  <si>
-    <t>Attack range\nThe eyes are brighter, and the attack range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
-  </si>
-  <si>
     <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
   </si>
   <si>
@@ -2225,9 +2216,6 @@
     <t xml:space="preserve"> 攻击速度</t>
   </si>
   <si>
-    <t xml:space="preserve"> 速度</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 力量</t>
   </si>
   <si>
@@ -2847,6 +2835,26 @@
   </si>
   <si>
     <t>Loading the game, please be patient and wait...</t>
+  </si>
+  <si>
+    <t>攻击范围\n眼睛更明亮，攻击范围和拾取范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack range\nThe eyes are brighter, and the attack range and pick range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3226,8 +3234,8 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <pane ySplit="3" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3938,7 +3946,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E46" t="s">
         <v>52</v>
@@ -4022,7 +4030,7 @@
         <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -4106,7 +4114,7 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -4169,7 +4177,7 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
@@ -4526,7 +4534,7 @@
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E74" t="s">
         <v>80</v>
@@ -4631,7 +4639,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
@@ -4694,7 +4702,7 @@
         <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4736,7 +4744,7 @@
         <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4778,7 +4786,7 @@
         <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4792,7 +4800,7 @@
         <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4806,7 +4814,7 @@
         <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4842,7 @@
         <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4848,7 +4856,7 @@
         <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4912,7 @@
         <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4918,7 +4926,7 @@
         <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4946,7 +4954,7 @@
         <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4974,7 +4982,7 @@
         <v>257</v>
       </c>
       <c r="D102" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5002,7 +5010,7 @@
         <v>259</v>
       </c>
       <c r="D104" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5016,7 +5024,7 @@
         <v>260</v>
       </c>
       <c r="D105" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5044,7 +5052,7 @@
         <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5100,7 +5108,7 @@
         <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5114,7 +5122,7 @@
         <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5128,7 +5136,7 @@
         <v>268</v>
       </c>
       <c r="D113" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5142,7 +5150,7 @@
         <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5198,7 +5206,7 @@
         <v>271</v>
       </c>
       <c r="D118" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5212,7 +5220,7 @@
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5226,7 +5234,7 @@
         <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5240,7 +5248,7 @@
         <v>274</v>
       </c>
       <c r="D121" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5254,7 +5262,7 @@
         <v>275</v>
       </c>
       <c r="D122" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5268,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5282,7 +5290,7 @@
         <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5296,7 +5304,7 @@
         <v>278</v>
       </c>
       <c r="D125" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5310,7 +5318,7 @@
         <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5324,7 +5332,7 @@
         <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5338,7 +5346,7 @@
         <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5352,7 +5360,7 @@
         <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,7 +5374,7 @@
         <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5380,7 +5388,7 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5394,7 +5402,7 @@
         <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,7 +5416,7 @@
         <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5422,7 +5430,7 @@
         <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5436,7 +5444,7 @@
         <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5450,7 +5458,7 @@
         <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5464,7 +5472,7 @@
         <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5478,7 +5486,7 @@
         <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5542,13 +5550,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
+        <v>544</v>
+      </c>
+      <c r="C143" t="s">
         <v>545</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>546</v>
-      </c>
-      <c r="D143" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5769,10 +5777,10 @@
         <v>422</v>
       </c>
       <c r="C159" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D159" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6032,7 +6040,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C178" t="s">
         <v>481</v>
@@ -6046,13 +6054,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C179" t="s">
         <v>483</v>
       </c>
       <c r="D179" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6060,13 +6068,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C180" t="s">
         <v>484</v>
       </c>
       <c r="D180" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6074,13 +6082,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C181" t="s">
         <v>485</v>
       </c>
       <c r="D181" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6088,7 +6096,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C182" t="s">
         <v>487</v>
@@ -6102,13 +6110,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C183" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D183" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6116,13 +6124,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C184" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6130,13 +6138,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C185" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D185" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6144,13 +6152,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C186" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D186" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6158,13 +6166,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D187" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6172,13 +6180,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C188" t="s">
+        <v>490</v>
+      </c>
+      <c r="D188" t="s">
         <v>491</v>
-      </c>
-      <c r="D188" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6186,13 +6194,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C189" t="s">
+        <v>492</v>
+      </c>
+      <c r="D189" t="s">
         <v>493</v>
-      </c>
-      <c r="D189" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6200,13 +6208,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6214,13 +6222,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C191" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D191" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6228,13 +6236,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D192" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6242,13 +6250,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C193" t="s">
+        <v>523</v>
+      </c>
+      <c r="D193" t="s">
         <v>524</v>
-      </c>
-      <c r="D193" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6256,13 +6264,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C194" t="s">
+        <v>526</v>
+      </c>
+      <c r="D194" t="s">
         <v>527</v>
-      </c>
-      <c r="D194" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6270,13 +6278,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C195" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D195" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6284,13 +6292,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C196" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D196" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6298,13 +6306,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C197" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D197" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6312,13 +6320,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
+        <v>538</v>
+      </c>
+      <c r="C198" t="s">
         <v>539</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>540</v>
-      </c>
-      <c r="D198" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6326,13 +6334,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C199" t="s">
+        <v>541</v>
+      </c>
+      <c r="D199" t="s">
         <v>542</v>
-      </c>
-      <c r="D199" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6340,13 +6348,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
+        <v>547</v>
+      </c>
+      <c r="C200" t="s">
         <v>548</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>549</v>
-      </c>
-      <c r="D200" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6354,13 +6362,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
+        <v>550</v>
+      </c>
+      <c r="C201" t="s">
         <v>551</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>552</v>
-      </c>
-      <c r="D201" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6368,13 +6376,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
+        <v>553</v>
+      </c>
+      <c r="C202" t="s">
         <v>554</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>555</v>
-      </c>
-      <c r="D202" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6382,13 +6390,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C203" t="s">
+        <v>556</v>
+      </c>
+      <c r="D203" t="s">
         <v>557</v>
-      </c>
-      <c r="D203" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6396,13 +6404,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C204" t="s">
+        <v>559</v>
+      </c>
+      <c r="D204" t="s">
         <v>560</v>
-      </c>
-      <c r="D204" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6410,10 +6418,10 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
+        <v>562</v>
+      </c>
+      <c r="C205" t="s">
         <v>563</v>
-      </c>
-      <c r="C205" t="s">
-        <v>564</v>
       </c>
       <c r="D205" t="s">
         <v>376</v>
@@ -6424,13 +6432,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C206" t="s">
+        <v>564</v>
+      </c>
+      <c r="D206" t="s">
         <v>565</v>
-      </c>
-      <c r="D206" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6438,13 +6446,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C207" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D207" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6452,13 +6460,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
+        <v>580</v>
+      </c>
+      <c r="C208" t="s">
         <v>581</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>582</v>
-      </c>
-      <c r="D208" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6466,13 +6474,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C209" t="s">
+        <v>583</v>
+      </c>
+      <c r="D209" t="s">
         <v>584</v>
-      </c>
-      <c r="D209" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,13 +6488,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C210" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D210" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6494,13 +6502,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C211" t="s">
+        <v>586</v>
+      </c>
+      <c r="D211" t="s">
         <v>587</v>
-      </c>
-      <c r="D211" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6508,13 +6516,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C212" t="s">
+        <v>588</v>
+      </c>
+      <c r="D212" t="s">
         <v>589</v>
-      </c>
-      <c r="D212" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6522,13 +6530,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C213" t="s">
-        <v>591</v>
+        <v>871</v>
       </c>
       <c r="D213" t="s">
-        <v>592</v>
+        <v>872</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6536,13 +6544,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C214" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D214" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6550,13 +6558,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D215" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6564,13 +6572,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C216" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D216" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6578,13 +6586,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C217" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D217" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6592,13 +6600,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C218" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D218" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6606,13 +6614,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D219" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6620,13 +6628,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C220" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D220" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6634,13 +6642,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C221" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D221" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,13 +6656,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C222" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D222" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,13 +6670,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C223" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D223" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,13 +6684,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C224" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D224" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,13 +6698,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C225" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D225" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6704,13 +6712,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D226" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6718,13 +6726,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C227" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D227" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6732,13 +6740,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C228" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D228" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6746,13 +6754,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C229" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6760,13 +6768,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C230" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6774,13 +6782,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C231" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6788,13 +6796,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C232" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6802,13 +6810,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C233" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6816,13 +6824,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C234" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6830,13 +6838,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C235" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6844,13 +6852,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C236" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6858,13 +6866,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C237" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6872,13 +6880,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C238" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6886,13 +6894,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C239" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6900,13 +6908,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C240" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6914,13 +6922,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C241" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6928,13 +6936,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C242" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6942,13 +6950,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C243" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6956,13 +6964,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C244" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6970,13 +6978,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6984,13 +6992,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C246" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6998,13 +7006,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C247" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7012,13 +7020,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C248" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7026,13 +7034,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C249" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7040,13 +7048,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C250" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7054,13 +7062,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C251" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7068,13 +7076,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7082,13 +7090,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C253" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7096,13 +7104,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C254" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7110,13 +7118,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7124,13 +7132,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C256" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7138,13 +7146,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C257" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7152,13 +7160,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C258" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7166,13 +7174,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C259" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7180,13 +7188,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C260" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7194,13 +7202,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C261" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7208,13 +7216,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C262" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7222,13 +7230,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C263" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7236,13 +7244,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C264" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7250,13 +7258,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C265" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7264,13 +7272,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C266" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7278,13 +7286,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C267" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7292,13 +7300,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C268" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7306,13 +7314,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C269" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7320,13 +7328,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C270" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7334,13 +7342,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C271" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7348,13 +7356,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C272" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7362,13 +7370,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C273" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7376,13 +7384,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C274" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7390,13 +7398,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C275" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7404,13 +7412,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C276" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7418,13 +7426,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C277" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7432,13 +7440,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C278" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7446,13 +7454,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C279" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7460,13 +7468,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C280" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7474,10 +7482,10 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C281" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>486</v>
@@ -7488,13 +7496,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C282" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7502,13 +7510,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C283" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7516,13 +7524,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C284" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7530,10 +7538,10 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C285" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>489</v>
@@ -7544,13 +7552,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C286" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7558,13 +7566,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C287" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7572,13 +7580,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C288" t="s">
-        <v>672</v>
+        <v>873</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>490</v>
+        <v>875</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7586,13 +7594,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C289" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>488</v>
+        <v>874</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7600,13 +7608,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C290" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7614,13 +7622,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C291" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7628,13 +7636,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C292" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7642,13 +7650,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C293" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDBA344-F524-4108-8223-3504F60BB4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46698EEE-63DE-4299-BE00-97846CD11C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="882">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2855,6 +2864,29 @@
   <si>
     <t>Move Speed</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>altar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_reduction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduction</t>
   </si>
 </sst>
 </file>
@@ -3234,8 +3266,8 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
+      <pane ySplit="3" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7660,10 +7692,32 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D294" s="3"/>
+      <c r="A294">
+        <v>291</v>
+      </c>
+      <c r="B294" t="s">
+        <v>876</v>
+      </c>
+      <c r="C294" t="s">
+        <v>877</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D295" s="3"/>
+      <c r="A295">
+        <v>292</v>
+      </c>
+      <c r="B295" t="s">
+        <v>879</v>
+      </c>
+      <c r="C295" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D296" s="3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46698EEE-63DE-4299-BE00-97846CD11C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C067B2-2D4F-4325-BD67-FBDCBAADBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="924">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1625,1268 +1625,1417 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>植物学</t>
+  </si>
+  <si>
+    <t>Botany</t>
+  </si>
+  <si>
+    <t>%伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%攻击速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%暴击率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_Property</t>
+  </si>
+  <si>
+    <t>property_MaximumHP</t>
+  </si>
+  <si>
+    <t>property_LifeRecovery</t>
+  </si>
+  <si>
+    <t>property_Adrenaline</t>
+  </si>
+  <si>
+    <t>property_Power</t>
+  </si>
+  <si>
+    <t>property_AttackSpeed</t>
+  </si>
+  <si>
+    <t>property_Range</t>
+  </si>
+  <si>
+    <t>property_CriticalHitRate</t>
+  </si>
+  <si>
+    <t>property_MoveSpeed</t>
+  </si>
+  <si>
+    <t>property_Armor</t>
+  </si>
+  <si>
+    <t>property_Lucky</t>
+  </si>
+  <si>
+    <t>property_Sunshine</t>
+  </si>
+  <si>
+    <t>property_GoldCoins</t>
+  </si>
+  <si>
+    <t>property_Botany</t>
+  </si>
+  <si>
+    <t>%PercentageDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%AttackSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%CriticalHitRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MoveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_PercentageDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前为第&lt;color=#ffff00&gt;{0}&lt;/color&gt;波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current wave is &lt;color=#ffff00&gt;{0}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>garden_wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nourish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_nourish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Go to battle</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>garden_evolve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_tobattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_eat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_nobattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消出战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel the battle</t>
+  </si>
+  <si>
+    <t>音乐会套装每秒对范围&lt;color=#ff0000&gt;{0}&lt;/color&gt;造成&lt;color=#ff0000&gt;{1}&lt;/color&gt;伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Concert Suit deals &lt;color=#ff0000&gt;{1}&lt;/color&gt; damage to the area &lt;color=#ff0000&gt;{0}&lt;/color&gt; every second.</t>
+  </si>
+  <si>
+    <t>battle_vocalconcert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause_hud</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启伤害显示</t>
+  </si>
+  <si>
+    <t>Enable damage display</t>
+  </si>
+  <si>
+    <t>pause_mainmenu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>pause_return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新开始\r\n你想要重新开始游戏吗？\r\n你的存档将会删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart\r\nDo you want to restart the game? \r\nYour save data will be deleted</t>
+  </si>
+  <si>
+    <t>pause_restart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开游戏？\r\n想要回到主菜单吗？\r\n你下一次开始游戏将从上一波商店页面开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave the game? \r\nWant to return to the main menu? \r\nThe next time you start the game, you will start from the last wave of store pages</t>
+  </si>
+  <si>
+    <t>pause_exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause_exit2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你击败了\r\n僵王博士\r\n取得了最终的胜利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations on defeating Dr. Zombie King and achieving the final victory.</t>
+  </si>
+  <si>
+    <t>victory_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运\n能够增加钱币掉落的概率及质量\n能够增加阳光掉落最大个数\n能够增大高级物品刷新概率\n这非常重要</t>
+  </si>
+  <si>
+    <t>property_MaximumHP_info</t>
+  </si>
+  <si>
+    <t>property_Adrenaline_info</t>
+  </si>
+  <si>
+    <t>property_PercentageDamage_info</t>
+  </si>
+  <si>
+    <t>property_AttackSpeed_info</t>
+  </si>
+  <si>
+    <t>property_Range_info</t>
+  </si>
+  <si>
+    <t>property_CriticalHitRate_info</t>
+  </si>
+  <si>
+    <t>property_MoveSpeed_info</t>
+  </si>
+  <si>
+    <t>property_Armor_info</t>
+  </si>
+  <si>
+    <t>property_Lucky_info</t>
+  </si>
+  <si>
+    <t>property_Sunshine_info</t>
+  </si>
+  <si>
+    <t>property_GoldCoins_info</t>
+  </si>
+  <si>
+    <t>property_Botany_info</t>
+  </si>
+  <si>
+    <t>property_LifeRecovery_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复\n每&lt;color=#ff0000&gt;10s&lt;/color&gt;会恢复{0}&lt;/color&gt;点生命值\n恢复能力高于受到的伤害时我将无敌</t>
+  </si>
+  <si>
+    <t>HP Recovery\nHP will be restored to {0}&lt;/color&gt; points every &lt;color=#ff0000&gt;10s&lt;/color&gt;\nWhen the recovery ability is higher than the damage taken, I will be invincible</t>
+  </si>
+  <si>
+    <t>肾上腺素\n每次攻击都让我热血澎湃\n每次攻击有{0}%概率恢复{1}点生命值&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Adrenaline\nEvery attack makes my blood boil\nEach attack has a {0}% chance to recover + recoveryHp + HP points&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>力量\n平底锅造成的基础伤害增加{0}&lt;/color&gt;\n击退的力量增加&lt;color=#00ff00&gt;{1}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>伤害\n平底锅造成的基础伤害增加{0}%&lt;/color&gt;\n某些道具的伤害也会随百分比伤害增加</t>
+  </si>
+  <si>
+    <t>Damage\nThe basic damage caused by the pan increases by {0}%&lt;/color&gt;\nThe damage of some items will also increase with the percentage damage</t>
+  </si>
+  <si>
+    <t>攻击速度\n平底锅移动的速度增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击速度的影响，如木槌</t>
+  </si>
+  <si>
+    <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
+  </si>
+  <si>
+    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
+  </si>
+  <si>
+    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; to cause 1.5 times the damage</t>
+  </si>
+  <si>
+    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车\n&lt;color=#00ff00&gt;跑步的速度为基础速度的1.5倍&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart\n &lt;color=#00ff00&gt;Running speed is 1.5 times the base speed&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>护甲|&lt;color=#ff0000&gt;上限90%&lt;/color&gt;\n受到的伤害减少{0}%&lt;/color&gt;\n能有效阻挡僵尸吃掉脑子</t>
+  </si>
+  <si>
+    <t>Armor|&lt;color=#ff0000&gt;Upper limit 90%&lt;/color&gt;\nReduces damage received by {0}%&lt;/color&gt;\nCan effectively prevent zombies from eating brains</t>
+  </si>
+  <si>
+    <t>阳光\n每波结束可以免费获得{0}&lt;/color&gt;阳光</t>
+  </si>
+  <si>
+    <t>Sunlight\nYou can get {0}&lt;/color&gt;Sunlight for free at the end of each wave</t>
+  </si>
+  <si>
+    <t>金币\n每波结束可以免费获得{0}&lt;/color&gt;金币</t>
+  </si>
+  <si>
+    <t>Gold\nYou can get {0}&lt;/color&gt;Gold for free at the end of each wave</t>
+  </si>
+  <si>
+    <t>植物学\n可以使植物造成的伤害增加{0}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Botany\nCan increase the damage caused by plants by {0}%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 培育</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基础伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百分比伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击检测范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击冷却</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 溅射伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 消化速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一次性吞噬个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金币率转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光率转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 穿透数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暴击伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玩家攻击速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 风速</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 逆风恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 僵尸风阻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爆炸范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普通僵尸即死率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大型僵尸增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黄油概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 控制时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暴击率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伤害段数*2概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取金币个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取持续时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吞噬墓碑概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 魅惑者可攻击次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 连续触发概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 换取金币</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吸取铁制品个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落金币概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落钻石概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掉落双倍概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围攻速提升</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围生命恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围伤害增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹概率变多</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子弹大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 触发后生命值恢复比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击掉落南瓜概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 减速百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 减速时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 破坏载具数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生成阳光质量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高坚果生命值（植物学）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最终爆炸概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 反伤伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 反伤概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆溅射伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌豆速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 滚动速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爆炸坚果概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冰冻时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冰冻期间攻速增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 出土时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 连坐概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玩家对僵尸增伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 肾上腺素</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生命恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幸运</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大生命值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 护甲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳光</t>
+  </si>
+  <si>
+    <t>Basic damage</t>
+  </si>
+  <si>
+    <t>Percentage damage</t>
+  </si>
+  <si>
+    <t>Attack detection range</t>
+  </si>
+  <si>
+    <t>Attack cooldown</t>
+  </si>
+  <si>
+    <t>Bullet speed</t>
+  </si>
+  <si>
+    <t>Splash damage</t>
+  </si>
+  <si>
+    <t>Digestion speed</t>
+  </si>
+  <si>
+    <t>Number of swallowed at one time</t>
+  </si>
+  <si>
+    <t>Coin rate conversion</t>
+  </si>
+  <si>
+    <t>Sun rate conversion</t>
+  </si>
+  <si>
+    <t>Number of penetrations</t>
+  </si>
+  <si>
+    <t>Critical damage</t>
+  </si>
+  <si>
+    <t>Player attack speed</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Recovery against wind</t>
+  </si>
+  <si>
+    <t>Zombie wind resistance</t>
+  </si>
+  <si>
+    <t>Explosion range</t>
+  </si>
+  <si>
+    <t>Common zombie instant death rate</t>
+  </si>
+  <si>
+    <t>Increased damage for large zombies</t>
+  </si>
+  <si>
+    <t>Reduced sunlight</t>
+  </si>
+  <si>
+    <t>Butter probability</t>
+  </si>
+  <si>
+    <t>Control time</t>
+  </si>
+  <si>
+    <t>Critical rate</t>
+  </si>
+  <si>
+    <t>Damage segment number * 2 probability</t>
+  </si>
+  <si>
+    <t>Number of gold coins absorbed</t>
+  </si>
+  <si>
+    <t>Duration of absorption</t>
+  </si>
+  <si>
+    <t>Probability of swallowing tombstones</t>
+  </si>
+  <si>
+    <t>Number of attacks that the charmer can make</t>
+  </si>
+  <si>
+    <t>Continuous trigger probability</t>
+  </si>
+  <si>
+    <t>Exchange for gold coins</t>
+  </si>
+  <si>
+    <t>Number of iron products absorbed</t>
+  </si>
+  <si>
+    <t>Probability of dropping gold coins</t>
+  </si>
+  <si>
+    <t>Probability of dropping diamonds</t>
+  </si>
+  <si>
+    <t>Probability of dropping double drops</t>
+  </si>
+  <si>
+    <t>Range attack speed increase</t>
+  </si>
+  <si>
+    <t>Range health recovery</t>
+  </si>
+  <si>
+    <t>Range damage increase</t>
+  </si>
+  <si>
+    <t>Bullet probability becomes more</t>
+  </si>
+  <si>
+    <t>Bullet size</t>
+  </si>
+  <si>
+    <t>Health value recovery ratio after triggering</t>
+  </si>
+  <si>
+    <t>Probability of dropping pumpkins when attacking</t>
+  </si>
+  <si>
+    <t>Slowdown percentage</t>
+  </si>
+  <si>
+    <t>Slowdown time</t>
+  </si>
+  <si>
+    <t>Number of vehicles destroyed</t>
+  </si>
+  <si>
+    <t>Quality of sunlight generated</t>
+  </si>
+  <si>
+    <t>High Nut Health (Botany)</t>
+  </si>
+  <si>
+    <t>Final Explosion Chance</t>
+  </si>
+  <si>
+    <t>Retaliate Damage</t>
+  </si>
+  <si>
+    <t>Retaliate Chance</t>
+  </si>
+  <si>
+    <t>Pea Damage</t>
+  </si>
+  <si>
+    <t>Pea Splash Damage</t>
+  </si>
+  <si>
+    <t>Pea Speed</t>
+  </si>
+  <si>
+    <t>Rolling Speed</t>
+  </si>
+  <si>
+    <t>Exploding Nut Chance</t>
+  </si>
+  <si>
+    <t>Freeze Time</t>
+  </si>
+  <si>
+    <t>Attack Speed ​​Increase During Freeze</t>
+  </si>
+  <si>
+    <t>Unearth Time</t>
+  </si>
+  <si>
+    <t>Linked Nut Chance</t>
+  </si>
+  <si>
+    <t>Player Damage Increased on Zombies</t>
+  </si>
+  <si>
+    <t>Health Regeneration</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>Max Health</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Cultivation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation_plant3</t>
+  </si>
+  <si>
+    <t>cultivation_plant4</t>
+  </si>
+  <si>
+    <t>cultivation_plant5</t>
+  </si>
+  <si>
+    <t>cultivation_plant6</t>
+  </si>
+  <si>
+    <t>cultivation_plant7</t>
+  </si>
+  <si>
+    <t>cultivation_plant8</t>
+  </si>
+  <si>
+    <t>cultivation_plant9</t>
+  </si>
+  <si>
+    <t>cultivation_plant10</t>
+  </si>
+  <si>
+    <t>cultivation_plant11</t>
+  </si>
+  <si>
+    <t>cultivation_plant12</t>
+  </si>
+  <si>
+    <t>cultivation_plant13</t>
+  </si>
+  <si>
+    <t>cultivation_plant14</t>
+  </si>
+  <si>
+    <t>cultivation_plant15</t>
+  </si>
+  <si>
+    <t>cultivation_plant16</t>
+  </si>
+  <si>
+    <t>cultivation_plant17</t>
+  </si>
+  <si>
+    <t>cultivation_plant18</t>
+  </si>
+  <si>
+    <t>cultivation_plant19</t>
+  </si>
+  <si>
+    <t>cultivation_plant20</t>
+  </si>
+  <si>
+    <t>cultivation_plant21</t>
+  </si>
+  <si>
+    <t>cultivation_plant22</t>
+  </si>
+  <si>
+    <t>cultivation_plant23</t>
+  </si>
+  <si>
+    <t>cultivation_plant24</t>
+  </si>
+  <si>
+    <t>cultivation_plant25</t>
+  </si>
+  <si>
+    <t>cultivation_plant26</t>
+  </si>
+  <si>
+    <t>cultivation_plant27</t>
+  </si>
+  <si>
+    <t>cultivation_plant28</t>
+  </si>
+  <si>
+    <t>cultivation_plant29</t>
+  </si>
+  <si>
+    <t>cultivation_plant30</t>
+  </si>
+  <si>
+    <t>cultivation_plant31</t>
+  </si>
+  <si>
+    <t>cultivation_plant32</t>
+  </si>
+  <si>
+    <t>cultivation_plant33</t>
+  </si>
+  <si>
+    <t>cultivation_plant34</t>
+  </si>
+  <si>
+    <t>cultivation_plant35</t>
+  </si>
+  <si>
+    <t>cultivation_plant36</t>
+  </si>
+  <si>
+    <t>cultivation_plant37</t>
+  </si>
+  <si>
+    <t>cultivation_plant38</t>
+  </si>
+  <si>
+    <t>cultivation_plant39</t>
+  </si>
+  <si>
+    <t>cultivation_plant40</t>
+  </si>
+  <si>
+    <t>cultivation_plant41</t>
+  </si>
+  <si>
+    <t>cultivation_plant42</t>
+  </si>
+  <si>
+    <t>cultivation_plant43</t>
+  </si>
+  <si>
+    <t>cultivation_plant44</t>
+  </si>
+  <si>
+    <t>cultivation_plant45</t>
+  </si>
+  <si>
+    <t>cultivation_plant46</t>
+  </si>
+  <si>
+    <t>cultivation_plant47</t>
+  </si>
+  <si>
+    <t>cultivation_plant48</t>
+  </si>
+  <si>
+    <t>cultivation_plant49</t>
+  </si>
+  <si>
+    <t>cultivation_plant50</t>
+  </si>
+  <si>
+    <t>cultivation_plant51</t>
+  </si>
+  <si>
+    <t>cultivation_plant52</t>
+  </si>
+  <si>
+    <t>cultivation_plant53</t>
+  </si>
+  <si>
+    <t>cultivation_plant54</t>
+  </si>
+  <si>
+    <t>cultivation_plant55</t>
+  </si>
+  <si>
+    <t>cultivation_plant56</t>
+  </si>
+  <si>
+    <t>cultivation_plant57</t>
+  </si>
+  <si>
+    <t>cultivation_plant58</t>
+  </si>
+  <si>
+    <t>cultivation_plant59</t>
+  </si>
+  <si>
+    <t>cultivation_plant60</t>
+  </si>
+  <si>
+    <t>cultivation_plant61</t>
+  </si>
+  <si>
+    <t>cultivation_plant62</t>
+  </si>
+  <si>
+    <t>cultivation_plant63</t>
+  </si>
+  <si>
+    <t>cultivation_plant64</t>
+  </si>
+  <si>
+    <t>cultivation_plant65</t>
+  </si>
+  <si>
+    <t>cultivation_plant66</t>
+  </si>
+  <si>
+    <t>cultivation_plant67</t>
+  </si>
+  <si>
+    <t>cultivation_plant68</t>
+  </si>
+  <si>
+    <t>cultivation_plant69</t>
+  </si>
+  <si>
+    <t>cultivation_plant70</t>
+  </si>
+  <si>
+    <t>cultivation_plant71</t>
+  </si>
+  <si>
+    <t>cultivation_plant72</t>
+  </si>
+  <si>
+    <t>cultivation_plant73</t>
+  </si>
+  <si>
+    <t>最大生命值\n每波开始时生命值将为{0}&lt;/color&gt;\n生命值变为0脑子会被僵尸吃掉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max HP\nHP will be {0} &lt;/color&gt;at the beginning of each wave\nWhen HP reaches 0, the brain will be eaten by zombies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Rake&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\nThis weapon is very handy</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A roll of turf? &lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 HP recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 attack speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nIt must be very comfortable to spread it out and lie on it</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Iron Barrel&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Iron Barrel Zombie, but it will affect my vision</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Roadblock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Roadblock zombie, but it will affect my vision</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Street Sign&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nThe spoils from the giant zombie. This heavy thing affects my movement speed too much.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
+  </si>
+  <si>
+    <t>Power\nThe basic damage caused by the pan is increased by {0}&lt;/color&gt;\nThe knockback Power is increased by &lt;color=#00ff00&gt; + value + %&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase Lucky\r\nAnd can blow wind</t>
+  </si>
+  <si>
+    <t>Dave's Beard\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Adrenaline&lt;/color&gt;\r\nThis is my beard</t>
+  </si>
+  <si>
+    <t>Leaf\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\nUnknown plant</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Diamond&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Lucky&lt;/color&gt;\r\nBright and beautiful</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Sunflower&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\nSunflower petals. I wonder if there are sunflower seeds.</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Trophy&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 gold coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\nSymbol of honor</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Marigold Petals&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\nSee how she generates gold coins.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Wisdom Tree Fertilizer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\nThis is good.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Basketball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\nI heard that Gege is very good at this</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Newspaper&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Power&lt;/color&gt;\r\nThe spoils from the newspaper-reading zombie. There is a lot of knowledge in it.</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Football Helmet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Range&lt;/color&gt;\r\nThe loot from the Football Zombie will affect my vision</t>
+  </si>
+  <si>
+    <t>Lucky\nCan increase the probability and quality of coin drops\nCan increase the maximum number of sunlight drops\nCan increase the probability of high-level item refreshes\nThis is very important</t>
+  </si>
+  <si>
+    <t>property_Power_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Little Mushroom's Hat\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 MaximumHP&lt;/color&gt;\r\nYou can study it carefully.</t>
+  </si>
+  <si>
+    <t>Sunshine Mushroom Hat\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nYou can study it carefully.</t>
+  </si>
+  <si>
+    <t>Small Flower\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\nLooks familiar</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Clown Gift Box&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nA gift box that explodes. I have to keep it carefully.</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Gramophone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Armor&lt;/color&gt;\r\nListen to some music and relax</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A ground spike&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 adrenaline&lt;/color&gt;\r\nI don't want to step on it</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Insecticide&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 LifeRecovery&lt;/color&gt;\r\nIt smells terrible, and can help plants fight against bugs</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Sandwich&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 LifeRecovery&lt;/color&gt;\r\nLooks delicious</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Ice Shatter&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Attack Speed&lt;/color&gt;\r\nIt looks very cold</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple PercentageDamage</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the PercentageDamage of all peas, very powerful</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause PercentageDamage to all zombies that have appeared\r\nWill cause irreversible PercentageDamage to the environment, please use with caution</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;A lock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 critical strike&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 attack speed&lt;/color&gt;\r\nCan be aimed at</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Spinach&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#9932CD&gt;Unlocks knockback, and zombie corpses fly and cause collision PercentageDamage (each PercentageDamage increases by 25%, up to 100%)&lt;/color&gt;\r\nAfter eating it, I can kill zombies directly</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Cart&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\nAnd causes {0} to zombies in a straight line\r\nPercentageDamage Cooldown Time {1}</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Iron Fence&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8 Speed&lt;/color&gt;\r\nThe loot from the Iron Fence zombie will affect my normal walking</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Escalator&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 Attack Speed&lt;/color&gt;\r\nThe loot from the escalator zombie can attack farther away.</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Wooden Mallet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\nUse the left mouse button to use the wooden mallet to cause {0} PercentageDamage\r\nCooling time {1}s\r\nThis is awesome</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Portal&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Lucky&lt;/color&gt;\r\nYou can generate two portals at random locations on the field, which is cool\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Fog Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nHas a chance to generate fog, immune to ranged attacks\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Sound&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nMake my voice travel farther\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Microphone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Power&lt;/color&gt;\r\nMake Me a Big Star\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunshine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black hole that absorbs Sunshine\r\n&lt;color=#ff0000&gt;-4 Botany&lt;/color&gt;\r\nWith it, I don't need to click one by one to collect &lt;color=#ff00ff&gt;Sunshine&lt;/color&gt;\r\nPlants seem to be very afraid of it</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;{0} Health Points per Second&lt;/color&gt;\r\nThe flame is burning</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Lighting Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Critical Hit Rate&lt;/color&gt;\r\nLighting creates atmosphere\r\n</t>
+  </si>
+  <si>
+    <t>GoldCoins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chin? \r\n&lt;color=#00ff00&gt;+2 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nLooks pretty creepy.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载游戏中，请耐心等待。。。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading the game, please be patient and wait...</t>
+  </si>
+  <si>
+    <t>攻击范围\n眼睛更明亮，攻击范围和拾取范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack range\nThe eyes are brighter, and the attack range and pick range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>altar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_reduction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
     <t>生命恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>肾上腺素</t>
-  </si>
-  <si>
-    <t>Adrenaline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护甲</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>幸运</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>阳光</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>植物学</t>
-  </si>
-  <si>
-    <t>Botany</t>
-  </si>
-  <si>
-    <t>%伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%攻击速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%暴击率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%移动速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_Property</t>
-  </si>
-  <si>
-    <t>property_MaximumHP</t>
-  </si>
-  <si>
-    <t>property_LifeRecovery</t>
-  </si>
-  <si>
-    <t>property_Adrenaline</t>
-  </si>
-  <si>
-    <t>property_Power</t>
-  </si>
-  <si>
-    <t>property_AttackSpeed</t>
-  </si>
-  <si>
-    <t>property_Range</t>
-  </si>
-  <si>
-    <t>property_CriticalHitRate</t>
-  </si>
-  <si>
-    <t>property_MoveSpeed</t>
-  </si>
-  <si>
-    <t>property_Armor</t>
-  </si>
-  <si>
-    <t>property_Lucky</t>
-  </si>
-  <si>
-    <t>property_Sunshine</t>
-  </si>
-  <si>
-    <t>property_GoldCoins</t>
-  </si>
-  <si>
-    <t>property_Botany</t>
-  </si>
-  <si>
-    <t>%PercentageDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%AttackSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%Range</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%CriticalHitRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%MoveSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_PercentageDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前为第&lt;color=#ffff00&gt;{0}&lt;/color&gt;波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The current wave is &lt;color=#ffff00&gt;{0}&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>garden_wave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>培养</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nourish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_nourish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evolve</t>
-  </si>
-  <si>
-    <t>Go to battle</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>garden_evolve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_tobattle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_eat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden_nobattle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消出战</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel the battle</t>
-  </si>
-  <si>
-    <t>音乐会套装每秒对范围&lt;color=#ff0000&gt;{0}&lt;/color&gt;造成&lt;color=#ff0000&gt;{1}&lt;/color&gt;伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Concert Suit deals &lt;color=#ff0000&gt;{1}&lt;/color&gt; damage to the area &lt;color=#ff0000&gt;{0}&lt;/color&gt; every second.</t>
-  </si>
-  <si>
-    <t>battle_vocalconcert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pause_hud</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启伤害显示</t>
-  </si>
-  <si>
-    <t>Enable damage display</t>
-  </si>
-  <si>
-    <t>pause_mainmenu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Menu</t>
-  </si>
-  <si>
-    <t>pause_return</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return Game</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新开始\r\n你想要重新开始游戏吗？\r\n你的存档将会删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restart\r\nDo you want to restart the game? \r\nYour save data will be deleted</t>
-  </si>
-  <si>
-    <t>pause_restart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开游戏？\r\n想要回到主菜单吗？\r\n你下一次开始游戏将从上一波商店页面开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave the game? \r\nWant to return to the main menu? \r\nThe next time you start the game, you will start from the last wave of store pages</t>
-  </si>
-  <si>
-    <t>pause_exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pause_exit2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你击败了\r\n僵王博士\r\n取得了最终的胜利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulations on defeating Dr. Zombie King and achieving the final victory.</t>
-  </si>
-  <si>
-    <t>victory_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运\n能够增加钱币掉落的概率及质量\n能够增加阳光掉落最大个数\n能够增大高级物品刷新概率\n这非常重要</t>
-  </si>
-  <si>
-    <t>property_MaximumHP_info</t>
-  </si>
-  <si>
-    <t>property_Adrenaline_info</t>
-  </si>
-  <si>
-    <t>property_PercentageDamage_info</t>
-  </si>
-  <si>
-    <t>property_AttackSpeed_info</t>
-  </si>
-  <si>
-    <t>property_Range_info</t>
-  </si>
-  <si>
-    <t>property_CriticalHitRate_info</t>
-  </si>
-  <si>
-    <t>property_MoveSpeed_info</t>
-  </si>
-  <si>
-    <t>property_Armor_info</t>
-  </si>
-  <si>
-    <t>property_Lucky_info</t>
-  </si>
-  <si>
-    <t>property_Sunshine_info</t>
-  </si>
-  <si>
-    <t>property_GoldCoins_info</t>
-  </si>
-  <si>
-    <t>property_Botany_info</t>
-  </si>
-  <si>
-    <t>property_LifeRecovery_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复\n每&lt;color=#ff0000&gt;10s&lt;/color&gt;会恢复{0}&lt;/color&gt;点生命值\n恢复能力高于受到的伤害时我将无敌</t>
-  </si>
-  <si>
-    <t>HP Recovery\nHP will be restored to {0}&lt;/color&gt; points every &lt;color=#ff0000&gt;10s&lt;/color&gt;\nWhen the recovery ability is higher than the damage taken, I will be invincible</t>
-  </si>
-  <si>
-    <t>肾上腺素\n每次攻击都让我热血澎湃\n每次攻击有{0}%概率恢复{1}点生命值&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Adrenaline\nEvery attack makes my blood boil\nEach attack has a {0}% chance to recover + recoveryHp + HP points&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>力量\n平底锅造成的基础伤害增加{0}&lt;/color&gt;\n击退的力量增加&lt;color=#00ff00&gt;{1}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>伤害\n平底锅造成的基础伤害增加{0}%&lt;/color&gt;\n某些道具的伤害也会随百分比伤害增加</t>
-  </si>
-  <si>
-    <t>Damage\nThe basic damage caused by the pan increases by {0}%&lt;/color&gt;\nThe damage of some items will also increase with the percentage damage</t>
-  </si>
-  <si>
-    <t>攻击速度\n平底锅移动的速度增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击速度的影响，如木槌</t>
-  </si>
-  <si>
-    <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
-  </si>
-  <si>
-    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
-  </si>
-  <si>
-    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; to cause 1.5 times the damage</t>
-  </si>
-  <si>
-    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车\n&lt;color=#00ff00&gt;跑步的速度为基础速度的1.5倍&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart\n &lt;color=#00ff00&gt;Running speed is 1.5 times the base speed&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>护甲|&lt;color=#ff0000&gt;上限90%&lt;/color&gt;\n受到的伤害减少{0}%&lt;/color&gt;\n能有效阻挡僵尸吃掉脑子</t>
-  </si>
-  <si>
-    <t>Armor|&lt;color=#ff0000&gt;Upper limit 90%&lt;/color&gt;\nReduces damage received by {0}%&lt;/color&gt;\nCan effectively prevent zombies from eating brains</t>
-  </si>
-  <si>
-    <t>阳光\n每波结束可以免费获得{0}&lt;/color&gt;阳光</t>
-  </si>
-  <si>
-    <t>Sunlight\nYou can get {0}&lt;/color&gt;Sunlight for free at the end of each wave</t>
-  </si>
-  <si>
-    <t>金币\n每波结束可以免费获得{0}&lt;/color&gt;金币</t>
-  </si>
-  <si>
-    <t>Gold\nYou can get {0}&lt;/color&gt;Gold for free at the end of each wave</t>
-  </si>
-  <si>
-    <t>植物学\n可以使植物造成的伤害增加{0}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Botany\nCan increase the damage caused by plants by {0}%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 培育</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基础伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 百分比伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击检测范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击冷却</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 溅射伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 消化速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一次性吞噬个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金币率转换</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光率转换</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 穿透数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 暴击伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玩家攻击速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 风速</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 逆风恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 僵尸风阻</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 爆炸范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 普通僵尸即死率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 大型僵尸增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光减少</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黄油概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 暴击率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 伤害段数*2概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取金币个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取持续时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吞噬墓碑概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 魅惑者可攻击次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 连续触发概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 换取金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吸取铁制品个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落金币概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落钻石概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掉落双倍概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围攻速提升</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围生命恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围伤害增加</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹概率变多</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 子弹大小</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 触发后生命值恢复比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击掉落南瓜概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 减速百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 减速时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 破坏载具数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生成阳光质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高坚果生命值（植物学）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最终爆炸概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 反伤伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 反伤概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆溅射伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌豆速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 滚动速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 爆炸坚果概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 冰冻时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 冰冻期间攻速增加</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 出土时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 连坐概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玩家对僵尸增伤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 肾上腺素</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生命恢复</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 幸运</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 植物学</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 力量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最大生命值</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金币</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 护甲</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阳光</t>
-  </si>
-  <si>
-    <t>Basic damage</t>
-  </si>
-  <si>
-    <t>Percentage damage</t>
-  </si>
-  <si>
-    <t>Attack detection range</t>
-  </si>
-  <si>
-    <t>Attack cooldown</t>
-  </si>
-  <si>
-    <t>Bullet speed</t>
-  </si>
-  <si>
-    <t>Splash damage</t>
-  </si>
-  <si>
-    <t>Digestion speed</t>
-  </si>
-  <si>
-    <t>Number of swallowed at one time</t>
-  </si>
-  <si>
-    <t>Coin rate conversion</t>
-  </si>
-  <si>
-    <t>Sun rate conversion</t>
-  </si>
-  <si>
-    <t>Number of penetrations</t>
-  </si>
-  <si>
-    <t>Critical damage</t>
-  </si>
-  <si>
-    <t>Player attack speed</t>
-  </si>
-  <si>
-    <t>Wind speed</t>
-  </si>
-  <si>
-    <t>Recovery against wind</t>
-  </si>
-  <si>
-    <t>Zombie wind resistance</t>
-  </si>
-  <si>
-    <t>Explosion range</t>
-  </si>
-  <si>
-    <t>Common zombie instant death rate</t>
-  </si>
-  <si>
-    <t>Increased damage for large zombies</t>
-  </si>
-  <si>
-    <t>Reduced sunlight</t>
-  </si>
-  <si>
-    <t>Butter probability</t>
-  </si>
-  <si>
-    <t>Control time</t>
-  </si>
-  <si>
-    <t>Critical rate</t>
-  </si>
-  <si>
-    <t>Damage segment number * 2 probability</t>
-  </si>
-  <si>
-    <t>Number of gold coins absorbed</t>
-  </si>
-  <si>
-    <t>Duration of absorption</t>
-  </si>
-  <si>
-    <t>Probability of swallowing tombstones</t>
-  </si>
-  <si>
-    <t>Number of attacks that the charmer can make</t>
-  </si>
-  <si>
-    <t>Continuous trigger probability</t>
-  </si>
-  <si>
-    <t>Exchange for gold coins</t>
-  </si>
-  <si>
-    <t>Number of iron products absorbed</t>
-  </si>
-  <si>
-    <t>Probability of dropping gold coins</t>
-  </si>
-  <si>
-    <t>Probability of dropping diamonds</t>
-  </si>
-  <si>
-    <t>Probability of dropping double drops</t>
-  </si>
-  <si>
-    <t>Range attack speed increase</t>
-  </si>
-  <si>
-    <t>Range health recovery</t>
-  </si>
-  <si>
-    <t>Range damage increase</t>
-  </si>
-  <si>
-    <t>Bullet probability becomes more</t>
-  </si>
-  <si>
-    <t>Bullet size</t>
-  </si>
-  <si>
-    <t>Health value recovery ratio after triggering</t>
-  </si>
-  <si>
-    <t>Probability of dropping pumpkins when attacking</t>
-  </si>
-  <si>
-    <t>Slowdown percentage</t>
-  </si>
-  <si>
-    <t>Slowdown time</t>
-  </si>
-  <si>
-    <t>Number of vehicles destroyed</t>
-  </si>
-  <si>
-    <t>Quality of sunlight generated</t>
-  </si>
-  <si>
-    <t>High Nut Health (Botany)</t>
-  </si>
-  <si>
-    <t>Final Explosion Chance</t>
-  </si>
-  <si>
-    <t>Retaliate Damage</t>
-  </si>
-  <si>
-    <t>Retaliate Chance</t>
-  </si>
-  <si>
-    <t>Pea Damage</t>
-  </si>
-  <si>
-    <t>Pea Splash Damage</t>
-  </si>
-  <si>
-    <t>Pea Speed</t>
-  </si>
-  <si>
-    <t>Rolling Speed</t>
-  </si>
-  <si>
-    <t>Exploding Nut Chance</t>
-  </si>
-  <si>
-    <t>Freeze Time</t>
-  </si>
-  <si>
-    <t>Attack Speed ​​Increase During Freeze</t>
-  </si>
-  <si>
-    <t>Unearth Time</t>
-  </si>
-  <si>
-    <t>Linked Nut Chance</t>
-  </si>
-  <si>
-    <t>Player Damage Increased on Zombies</t>
-  </si>
-  <si>
-    <t>Health Regeneration</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Attack Speed</t>
-  </si>
-  <si>
-    <t>Max Health</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Sunlight</t>
-  </si>
-  <si>
-    <t>Cultivation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation_plant3</t>
-  </si>
-  <si>
-    <t>cultivation_plant4</t>
-  </si>
-  <si>
-    <t>cultivation_plant5</t>
-  </si>
-  <si>
-    <t>cultivation_plant6</t>
-  </si>
-  <si>
-    <t>cultivation_plant7</t>
-  </si>
-  <si>
-    <t>cultivation_plant8</t>
-  </si>
-  <si>
-    <t>cultivation_plant9</t>
-  </si>
-  <si>
-    <t>cultivation_plant10</t>
-  </si>
-  <si>
-    <t>cultivation_plant11</t>
-  </si>
-  <si>
-    <t>cultivation_plant12</t>
-  </si>
-  <si>
-    <t>cultivation_plant13</t>
-  </si>
-  <si>
-    <t>cultivation_plant14</t>
-  </si>
-  <si>
-    <t>cultivation_plant15</t>
-  </si>
-  <si>
-    <t>cultivation_plant16</t>
-  </si>
-  <si>
-    <t>cultivation_plant17</t>
-  </si>
-  <si>
-    <t>cultivation_plant18</t>
-  </si>
-  <si>
-    <t>cultivation_plant19</t>
-  </si>
-  <si>
-    <t>cultivation_plant20</t>
-  </si>
-  <si>
-    <t>cultivation_plant21</t>
-  </si>
-  <si>
-    <t>cultivation_plant22</t>
-  </si>
-  <si>
-    <t>cultivation_plant23</t>
-  </si>
-  <si>
-    <t>cultivation_plant24</t>
-  </si>
-  <si>
-    <t>cultivation_plant25</t>
-  </si>
-  <si>
-    <t>cultivation_plant26</t>
-  </si>
-  <si>
-    <t>cultivation_plant27</t>
-  </si>
-  <si>
-    <t>cultivation_plant28</t>
-  </si>
-  <si>
-    <t>cultivation_plant29</t>
-  </si>
-  <si>
-    <t>cultivation_plant30</t>
-  </si>
-  <si>
-    <t>cultivation_plant31</t>
-  </si>
-  <si>
-    <t>cultivation_plant32</t>
-  </si>
-  <si>
-    <t>cultivation_plant33</t>
-  </si>
-  <si>
-    <t>cultivation_plant34</t>
-  </si>
-  <si>
-    <t>cultivation_plant35</t>
-  </si>
-  <si>
-    <t>cultivation_plant36</t>
-  </si>
-  <si>
-    <t>cultivation_plant37</t>
-  </si>
-  <si>
-    <t>cultivation_plant38</t>
-  </si>
-  <si>
-    <t>cultivation_plant39</t>
-  </si>
-  <si>
-    <t>cultivation_plant40</t>
-  </si>
-  <si>
-    <t>cultivation_plant41</t>
-  </si>
-  <si>
-    <t>cultivation_plant42</t>
-  </si>
-  <si>
-    <t>cultivation_plant43</t>
-  </si>
-  <si>
-    <t>cultivation_plant44</t>
-  </si>
-  <si>
-    <t>cultivation_plant45</t>
-  </si>
-  <si>
-    <t>cultivation_plant46</t>
-  </si>
-  <si>
-    <t>cultivation_plant47</t>
-  </si>
-  <si>
-    <t>cultivation_plant48</t>
-  </si>
-  <si>
-    <t>cultivation_plant49</t>
-  </si>
-  <si>
-    <t>cultivation_plant50</t>
-  </si>
-  <si>
-    <t>cultivation_plant51</t>
-  </si>
-  <si>
-    <t>cultivation_plant52</t>
-  </si>
-  <si>
-    <t>cultivation_plant53</t>
-  </si>
-  <si>
-    <t>cultivation_plant54</t>
-  </si>
-  <si>
-    <t>cultivation_plant55</t>
-  </si>
-  <si>
-    <t>cultivation_plant56</t>
-  </si>
-  <si>
-    <t>cultivation_plant57</t>
-  </si>
-  <si>
-    <t>cultivation_plant58</t>
-  </si>
-  <si>
-    <t>cultivation_plant59</t>
-  </si>
-  <si>
-    <t>cultivation_plant60</t>
-  </si>
-  <si>
-    <t>cultivation_plant61</t>
-  </si>
-  <si>
-    <t>cultivation_plant62</t>
-  </si>
-  <si>
-    <t>cultivation_plant63</t>
-  </si>
-  <si>
-    <t>cultivation_plant64</t>
-  </si>
-  <si>
-    <t>cultivation_plant65</t>
-  </si>
-  <si>
-    <t>cultivation_plant66</t>
-  </si>
-  <si>
-    <t>cultivation_plant67</t>
-  </si>
-  <si>
-    <t>cultivation_plant68</t>
-  </si>
-  <si>
-    <t>cultivation_plant69</t>
-  </si>
-  <si>
-    <t>cultivation_plant70</t>
-  </si>
-  <si>
-    <t>cultivation_plant71</t>
-  </si>
-  <si>
-    <t>cultivation_plant72</t>
-  </si>
-  <si>
-    <t>cultivation_plant73</t>
-  </si>
-  <si>
-    <t>最大生命值\n每波开始时生命值将为{0}&lt;/color&gt;\n生命值变为0脑子会被僵尸吃掉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max HP\nHP will be {0} &lt;/color&gt;at the beginning of each wave\nWhen HP reaches 0, the brain will be eaten by zombies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Rake&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\nThis weapon is very handy</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;A roll of turf? &lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 HP recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 attack speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nIt must be very comfortable to spread it out and lie on it</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Iron Barrel&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Iron Barrel Zombie, but it will affect my vision</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Roadblock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nLoot from the Roadblock zombie, but it will affect my vision</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Street Sign&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nThe spoils from the giant zombie. This heavy thing affects my movement speed too much.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
-  </si>
-  <si>
-    <t>Power\nThe basic damage caused by the pan is increased by {0}&lt;/color&gt;\nThe knockback Power is increased by &lt;color=#00ff00&gt; + value + %&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;Blover&lt;/color&gt;\r\nAfter purchase, use {0}sunlight to cultivate\r\nSuccessful cultivation should increase Lucky\r\nAnd can blow wind</t>
-  </si>
-  <si>
-    <t>Dave's Beard\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Adrenaline&lt;/color&gt;\r\nThis is my beard</t>
-  </si>
-  <si>
-    <t>Leaf\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Lucky&lt;/color&gt;\r\nUnknown plant</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Diamond&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Lucky&lt;/color&gt;\r\nBright and beautiful</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Sunflower&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\nSunflower petals. I wonder if there are sunflower seeds.</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Trophy&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 gold coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Lucky&lt;/color&gt;\r\nSymbol of honor</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Marigold Petals&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt;\r\nSee how she generates gold coins.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Wisdom Tree Fertilizer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\nThis is good.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Basketball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\nI heard that Gege is very good at this</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Newspaper&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Power&lt;/color&gt;\r\nThe spoils from the newspaper-reading zombie. There is a lot of knowledge in it.</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Football Helmet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Gold&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Range&lt;/color&gt;\r\nThe loot from the Football Zombie will affect my vision</t>
-  </si>
-  <si>
-    <t>Lucky\nCan increase the probability and quality of coin drops\nCan increase the maximum number of sunlight drops\nCan increase the probability of high-level item refreshes\nThis is very important</t>
-  </si>
-  <si>
-    <t>property_Power_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaximumHP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Little Mushroom's Hat\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 MaximumHP&lt;/color&gt;\r\nYou can study it carefully.</t>
-  </si>
-  <si>
-    <t>Sunshine Mushroom Hat\r\n&lt;color=#00ff00&gt;+50 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Power&lt;/color&gt;\r\nYou can study it carefully.</t>
-  </si>
-  <si>
-    <t>Small Flower\r\n&lt;color=#00ff00&gt;+4 MaximumHP&lt;/color&gt;\r\nLooks familiar</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Clown Gift Box&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nA gift box that explodes. I have to keep it carefully.</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Gramophone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 MaximumHP&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Armor&lt;/color&gt;\r\nListen to some music and relax</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;A ground spike&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 adrenaline&lt;/color&gt;\r\nI don't want to step on it</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Insecticide&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 LifeRecovery&lt;/color&gt;\r\nIt smells terrible, and can help plants fight against bugs</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Sandwich&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 LifeRecovery&lt;/color&gt;\r\nLooks delicious</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Ice Shatter&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Attack Speed&lt;/color&gt;\r\nIt looks very cold</t>
-  </si>
-  <si>
-    <t>Adrenaline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple PercentageDamage</t>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the PercentageDamage of all peas, very powerful</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;DoomShroomn Mushroom&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan cause PercentageDamage to all zombies that have appeared\r\nWill cause irreversible PercentageDamage to the environment, please use with caution</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;A lock&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 critical strike&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 attack speed&lt;/color&gt;\r\nCan be aimed at</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Spinach&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#9932CD&gt;Unlocks knockback, and zombie corpses fly and cause collision PercentageDamage (each PercentageDamage increases by 25%, up to 100%)&lt;/color&gt;\r\nAfter eating it, I can kill zombies directly</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Cart&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\nAnd causes {0} to zombies in a straight line\r\nPercentageDamage Cooldown Time {1}</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Iron Fence&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8 Speed&lt;/color&gt;\r\nThe loot from the Iron Fence zombie will affect my normal walking</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Escalator&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6 Attack Speed&lt;/color&gt;\r\nThe loot from the escalator zombie can attack farther away.</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Wooden Mallet&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Attack Speed&lt;/color&gt;\r\nUse the left mouse button to use the wooden mallet to cause {0} PercentageDamage\r\nCooling time {1}s\r\nThis is awesome</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Portal&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Lucky&lt;/color&gt;\r\nYou can generate two portals at random locations on the field, which is cool\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Fog Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 LifeRecovery&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nHas a chance to generate fog, immune to ranged attacks\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Sound&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nMake my voice travel farther\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Microphone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Gold Coins&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Power&lt;/color&gt;\r\nMake Me a Big Star\r\n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunshine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black hole that absorbs Sunshine\r\n&lt;color=#ff0000&gt;-4 Botany&lt;/color&gt;\r\nWith it, I don't need to click one by one to collect &lt;color=#ff00ff&gt;Sunshine&lt;/color&gt;\r\nPlants seem to be very afraid of it</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;{0} Health Points per Second&lt;/color&gt;\r\nThe flame is burning</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Lighting Machine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 MaximumHP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 PercentageDamage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunshine&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Critical Hit Rate&lt;/color&gt;\r\nLighting creates atmosphere\r\n</t>
-  </si>
-  <si>
-    <t>GoldCoins</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botany</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeRecovery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A chin? \r\n&lt;color=#00ff00&gt;+2 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 LifeRecovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 MaximumHP&lt;/color&gt;\r\nLooks pretty creepy.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载游戏中，请耐心等待。。。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading the game, please be patient and wait...</t>
-  </si>
-  <si>
-    <t>攻击范围\n眼睛更明亮，攻击范围和拾取范围增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如演唱会套装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack range\nThe eyes are brighter, and the attack range and pick range increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the concert suit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 移动速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move Speed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainmenu_grow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭坛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>altar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainmenu_reduction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>还原</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}植物学，当前等级{1},总共增加生命值{2}。额外增加植物攻击百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}金币，当前等级{1},总共增加生命值{2}。波次结束增加金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}阳光，当前等级{1},总共增加生命值{2}。波次结束增加阳光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}幸运，当前等级{1},总共增加生命值{2}。增加钱币，阳光掉落概率，稀有物品刷新概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}护甲，当前等级{1},总共增加生命值{2}。减少收到的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%移动速度，当前等级{1},总共增加生命值{2}。移动会更快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%暴击率，当前等级{1},总共增加生命值{2}。攻击有概率造成更多伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%范围，当前等级{1},总共增加生命值{2}。增加攻击范围和拾取范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%攻击速度，当前等级{1},总共增加生命值{2}。减少攻击冷却</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%伤害，当前等级{1},总共增加生命值{2}。增加攻击百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}力量，当前等级{1},总共增加生命值{2}。增加攻击的基础伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}肾上腺素，当前等级{1},总共增加生命值{2}。肾上腺素使攻击有概率恢复生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}生命恢复，当前等级{1},总共增加生命值{2}。生命恢复会随时间增加当前生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}最大生命值，当前等级{1},总共增加生命值{2}。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow3</t>
+  </si>
+  <si>
+    <t>mainmenu_grow4</t>
+  </si>
+  <si>
+    <t>mainmenu_grow5</t>
+  </si>
+  <si>
+    <t>mainmenu_grow6</t>
+  </si>
+  <si>
+    <t>mainmenu_grow7</t>
+  </si>
+  <si>
+    <t>mainmenu_grow8</t>
+  </si>
+  <si>
+    <t>mainmenu_grow9</t>
+  </si>
+  <si>
+    <t>mainmenu_grow10</t>
+  </si>
+  <si>
+    <t>mainmenu_grow11</t>
+  </si>
+  <si>
+    <t>mainmenu_grow12</t>
+  </si>
+  <si>
+    <t>mainmenu_grow13</t>
+  </si>
+  <si>
+    <t>mainmenu_grow14</t>
+  </si>
+  <si>
+    <t>Enhance increases maximum health by {0}, current level {1}, total health increase by {2}.</t>
+  </si>
+  <si>
+    <t>Enhance increases health regeneration by {0}, current level {1}, total health increase by {2}. Health regeneration increases current health over time</t>
+  </si>
+  <si>
+    <t>Enhance increases adrenaline by {0}, current level {1}, total health increase by {2}. Adrenaline gives attacks a chance to restore health</t>
+  </si>
+  <si>
+    <t>Enhance increases strength by {0}, current level {1}, total health increase by {2}. Increases base damage of attacks</t>
+  </si>
+  <si>
+    <t>Enhance increases damage by {0}%, current level {1}, total health increase by {2}. Increases attack percentage damage</t>
+  </si>
+  <si>
+    <t>Enhance increases attack speed by {0}%, current level {1}, total health increase by {2}. Reduces attack cooldown</t>
+  </si>
+  <si>
+    <t>Enhance increases range by {0}%, current level {1}, total health increase by {2}. Increases attack range and pickup range</t>
+  </si>
+  <si>
+    <t>Enhance increases critical strike rate by {0}%, current level {1}, total health increase by {2}. Attacks have a chance to cause more damage</t>
+  </si>
+  <si>
+    <t>Enhance increases movement speed by {0}%, current level {1}, total health increase {2}. Move faster</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} armor, current level {1}, total health increase {2}. Reduce damage received</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} luck, current level {1}, total health increase {2}. Increases coin, sunlight drop probability, rare item refresh probability</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} sunlight, current level {1}, total health increase {2}. Increase sunlight at the end of the wave</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} gold, current level {1}, total health increase {2}. Increase gold at the end of the wave</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} botany, current level {1}, total health increase {2}. Additional percentage damage of plant attacks</t>
   </si>
 </sst>
 </file>
@@ -3263,11 +3412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
+      <pane ySplit="3" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3978,7 +4127,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E46" t="s">
         <v>52</v>
@@ -4062,7 +4211,7 @@
         <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -4146,7 +4295,7 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -4209,7 +4358,7 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
@@ -4566,7 +4715,7 @@
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E74" t="s">
         <v>80</v>
@@ -4671,7 +4820,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
@@ -4734,7 +4883,7 @@
         <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4776,7 +4925,7 @@
         <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4818,7 +4967,7 @@
         <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,7 +4981,7 @@
         <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4846,7 +4995,7 @@
         <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,7 +5023,7 @@
         <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4888,7 +5037,7 @@
         <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,7 +5093,7 @@
         <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4958,7 +5107,7 @@
         <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,7 +5135,7 @@
         <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5014,7 +5163,7 @@
         <v>257</v>
       </c>
       <c r="D102" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5042,7 +5191,7 @@
         <v>259</v>
       </c>
       <c r="D104" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5056,7 +5205,7 @@
         <v>260</v>
       </c>
       <c r="D105" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5084,7 +5233,7 @@
         <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5140,7 +5289,7 @@
         <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,7 +5303,7 @@
         <v>267</v>
       </c>
       <c r="D112" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,7 +5317,7 @@
         <v>268</v>
       </c>
       <c r="D113" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5182,7 +5331,7 @@
         <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5238,7 +5387,7 @@
         <v>271</v>
       </c>
       <c r="D118" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,7 +5401,7 @@
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5266,7 +5415,7 @@
         <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5280,7 +5429,7 @@
         <v>274</v>
       </c>
       <c r="D121" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5294,7 +5443,7 @@
         <v>275</v>
       </c>
       <c r="D122" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5308,7 +5457,7 @@
         <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5322,7 +5471,7 @@
         <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5336,7 +5485,7 @@
         <v>278</v>
       </c>
       <c r="D125" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5350,7 +5499,7 @@
         <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5364,7 +5513,7 @@
         <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5378,7 +5527,7 @@
         <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,7 +5541,7 @@
         <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5406,7 +5555,7 @@
         <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5420,7 +5569,7 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5434,7 +5583,7 @@
         <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5448,7 +5597,7 @@
         <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5462,7 +5611,7 @@
         <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5476,7 +5625,7 @@
         <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5490,7 +5639,7 @@
         <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5504,7 +5653,7 @@
         <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5518,7 +5667,7 @@
         <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,13 +5731,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C143" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D143" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,10 +5958,10 @@
         <v>422</v>
       </c>
       <c r="C159" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D159" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6072,7 +6221,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s">
         <v>481</v>
@@ -6086,13 +6235,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C179" t="s">
         <v>483</v>
       </c>
       <c r="D179" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6100,13 +6249,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
+        <v>875</v>
       </c>
       <c r="D180" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6114,13 +6263,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>876</v>
       </c>
       <c r="D181" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6128,13 +6277,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
+        <v>877</v>
       </c>
       <c r="D182" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6142,13 +6291,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C183" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D183" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6156,13 +6305,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C184" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D184" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6170,13 +6319,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C185" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D185" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6184,13 +6333,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C186" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D186" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6198,13 +6347,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C187" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D187" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6212,13 +6361,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C188" t="s">
-        <v>490</v>
+        <v>878</v>
       </c>
       <c r="D188" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6226,13 +6375,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D189" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6240,13 +6389,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C190" t="s">
-        <v>494</v>
+        <v>879</v>
       </c>
       <c r="D190" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6254,13 +6403,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C191" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D191" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6268,13 +6417,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C192" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D192" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6282,13 +6431,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C193" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D193" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6296,13 +6445,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D194" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6310,13 +6459,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D195" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6324,13 +6473,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C196" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D196" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6338,13 +6487,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C197" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D197" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6352,13 +6501,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C198" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D198" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6366,13 +6515,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D199" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6380,13 +6529,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C200" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D200" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6394,13 +6543,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C201" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D201" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6408,13 +6557,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C202" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D202" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6422,13 +6571,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C203" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6436,13 +6585,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C204" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D204" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6450,10 +6599,10 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C205" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D205" t="s">
         <v>376</v>
@@ -6464,13 +6613,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C206" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D206" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6478,13 +6627,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C207" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D207" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,13 +6641,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C208" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D208" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6506,13 +6655,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C209" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D209" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6520,13 +6669,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C210" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D210" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6534,13 +6683,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C211" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D211" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6548,13 +6697,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C212" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D212" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6562,13 +6711,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C213" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D213" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6576,13 +6725,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C214" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D214" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6590,13 +6739,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C215" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D215" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6604,13 +6753,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C216" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D216" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6618,13 +6767,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C217" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D217" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6632,13 +6781,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C218" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D218" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6646,13 +6795,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C219" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D219" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6660,13 +6809,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C220" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D220" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6674,13 +6823,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C221" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D221" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6688,13 +6837,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C222" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D222" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6702,13 +6851,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C223" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D223" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6716,13 +6865,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C224" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D224" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6730,13 +6879,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C225" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D225" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6744,13 +6893,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D226" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6758,13 +6907,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C227" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D227" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6772,13 +6921,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C228" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D228" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6786,13 +6935,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C229" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6800,13 +6949,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C230" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6814,13 +6963,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C231" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6828,13 +6977,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C232" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6842,13 +6991,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C233" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6856,13 +7005,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C234" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6870,13 +7019,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C235" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6884,13 +7033,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C236" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6898,13 +7047,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C237" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6912,13 +7061,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C238" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6926,13 +7075,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C239" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6940,13 +7089,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C240" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6954,13 +7103,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C241" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6968,13 +7117,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6982,13 +7131,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C243" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -6996,13 +7145,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C244" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7010,13 +7159,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C245" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7024,13 +7173,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C246" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7038,13 +7187,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C247" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7052,13 +7201,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C248" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7066,13 +7215,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C249" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7080,13 +7229,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C250" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7094,13 +7243,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C251" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7108,13 +7257,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C252" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7122,13 +7271,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C253" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7136,13 +7285,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C254" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7150,13 +7299,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C255" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7164,13 +7313,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C256" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7178,13 +7327,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C257" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7192,13 +7341,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C258" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7206,13 +7355,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C259" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7220,13 +7369,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C260" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7234,13 +7383,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C261" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7248,13 +7397,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C262" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7262,13 +7411,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C263" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7276,13 +7425,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C264" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7290,13 +7439,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C265" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7304,13 +7453,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C266" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7318,13 +7467,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C267" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7332,13 +7481,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C268" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7346,13 +7495,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C269" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7360,13 +7509,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C270" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7374,13 +7523,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C271" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7388,13 +7537,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C272" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7402,13 +7551,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C273" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7416,13 +7565,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C274" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7430,13 +7579,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C275" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7444,13 +7593,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C276" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7458,13 +7607,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C277" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7472,13 +7621,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C278" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7486,13 +7635,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C279" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7500,13 +7649,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C280" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7514,13 +7663,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C281" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7528,13 +7677,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C282" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7542,13 +7691,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C283" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7556,13 +7705,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C284" t="s">
-        <v>665</v>
+        <v>881</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7570,13 +7719,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C285" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7584,13 +7733,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C286" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7598,13 +7747,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C287" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7612,13 +7761,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C288" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7626,13 +7775,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C289" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7640,13 +7789,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C290" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7654,13 +7803,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C291" t="s">
-        <v>671</v>
+        <v>880</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7668,13 +7817,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C292" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7682,13 +7831,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C293" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7696,13 +7845,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C294" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7710,32 +7859,210 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C295" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D296" s="3"/>
+      <c r="A296">
+        <v>293</v>
+      </c>
+      <c r="B296" t="s">
+        <v>896</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D297" s="3"/>
+      <c r="A297">
+        <v>294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>897</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D298" s="3"/>
+      <c r="A298">
+        <v>295</v>
+      </c>
+      <c r="B298" t="s">
+        <v>898</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D299" s="3"/>
+      <c r="A299">
+        <v>296</v>
+      </c>
+      <c r="B299" t="s">
+        <v>899</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D300" s="3"/>
+      <c r="A300">
+        <v>297</v>
+      </c>
+      <c r="B300" t="s">
+        <v>900</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D301" s="3"/>
+      <c r="A301">
+        <v>298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>901</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>299</v>
+      </c>
+      <c r="B302" t="s">
+        <v>902</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D302" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>903</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D303" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
+        <v>904</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D304" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>302</v>
+      </c>
+      <c r="B305" t="s">
+        <v>905</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D305" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>303</v>
+      </c>
+      <c r="B306" t="s">
+        <v>906</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D306" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>304</v>
+      </c>
+      <c r="B307" t="s">
+        <v>907</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D307" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>305</v>
+      </c>
+      <c r="B308" t="s">
+        <v>908</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D308" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>306</v>
+      </c>
+      <c r="B309" t="s">
+        <v>909</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D309" t="s">
+        <v>923</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C067B2-2D4F-4325-BD67-FBDCBAADBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096BA67-6161-4EBB-B19F-5FE1B9A72821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="933">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2896,58 +2896,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化增加{0}植物学，当前等级{1},总共增加生命值{2}。额外增加植物攻击百分比伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}金币，当前等级{1},总共增加生命值{2}。波次结束增加金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}阳光，当前等级{1},总共增加生命值{2}。波次结束增加阳光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}幸运，当前等级{1},总共增加生命值{2}。增加钱币，阳光掉落概率，稀有物品刷新概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}护甲，当前等级{1},总共增加生命值{2}。减少收到的伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%移动速度，当前等级{1},总共增加生命值{2}。移动会更快</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%暴击率，当前等级{1},总共增加生命值{2}。攻击有概率造成更多伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%范围，当前等级{1},总共增加生命值{2}。增加攻击范围和拾取范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%攻击速度，当前等级{1},总共增加生命值{2}。减少攻击冷却</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%伤害，当前等级{1},总共增加生命值{2}。增加攻击百分比伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}力量，当前等级{1},总共增加生命值{2}。增加攻击的基础伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}肾上腺素，当前等级{1},总共增加生命值{2}。肾上腺素使攻击有概率恢复生命值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}生命恢复，当前等级{1},总共增加生命值{2}。生命恢复会随时间增加当前生命值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>强化增加{0}最大生命值，当前等级{1},总共增加生命值{2}。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2999,43 +2947,128 @@
     <t>Enhance increases maximum health by {0}, current level {1}, total health increase by {2}.</t>
   </si>
   <si>
-    <t>Enhance increases health regeneration by {0}, current level {1}, total health increase by {2}. Health regeneration increases current health over time</t>
-  </si>
-  <si>
-    <t>Enhance increases adrenaline by {0}, current level {1}, total health increase by {2}. Adrenaline gives attacks a chance to restore health</t>
-  </si>
-  <si>
-    <t>Enhance increases strength by {0}, current level {1}, total health increase by {2}. Increases base damage of attacks</t>
-  </si>
-  <si>
-    <t>Enhance increases damage by {0}%, current level {1}, total health increase by {2}. Increases attack percentage damage</t>
-  </si>
-  <si>
-    <t>Enhance increases attack speed by {0}%, current level {1}, total health increase by {2}. Reduces attack cooldown</t>
-  </si>
-  <si>
-    <t>Enhance increases range by {0}%, current level {1}, total health increase by {2}. Increases attack range and pickup range</t>
-  </si>
-  <si>
-    <t>Enhance increases critical strike rate by {0}%, current level {1}, total health increase by {2}. Attacks have a chance to cause more damage</t>
-  </si>
-  <si>
-    <t>Enhance increases movement speed by {0}%, current level {1}, total health increase {2}. Move faster</t>
-  </si>
-  <si>
-    <t>Enhance increases {0} armor, current level {1}, total health increase {2}. Reduce damage received</t>
-  </si>
-  <si>
-    <t>Enhance increases {0} luck, current level {1}, total health increase {2}. Increases coin, sunlight drop probability, rare item refresh probability</t>
-  </si>
-  <si>
-    <t>Enhance increases {0} sunlight, current level {1}, total health increase {2}. Increase sunlight at the end of the wave</t>
-  </si>
-  <si>
-    <t>Enhance increases {0} gold, current level {1}, total health increase {2}. Increase gold at the end of the wave</t>
-  </si>
-  <si>
-    <t>Enhance increases {0} botany, current level {1}, total health increase {2}. Additional percentage damage of plant attacks</t>
+    <t>强 化 目 录</t>
+  </si>
+  <si>
+    <t>mainmenu_growTitle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strengthen the directory</t>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strengthen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_levelmax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已满级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full level</t>
+  </si>
+  <si>
+    <t>mainmenu_strengthen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}生命恢复，当前等级{1},总共增加生命恢复{2}。生命恢复会随时间增加当前生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}肾上腺素，当前等级{1},总共增加肾上腺素{2}。肾上腺素使攻击有概率恢复生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}力量，当前等级{1},总共增加力量{2}。增加攻击的基础伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%伤害，当前等级{1},总共增加伤害{2}。增加攻击百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%攻击速度，当前等级{1},总共增加攻击速度{2}。减少攻击冷却</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%范围，当前等级{1},总共增加范围{2}。增加攻击范围和拾取范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%暴击率，当前等级{1},总共增加暴击率2}。攻击有概率造成更多伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%移动速度，当前等级{1},总共增加移动速度{2}。移动会更快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}护甲，当前等级{1},总共增加护甲{2}。减少收到的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}幸运，当前等级{1},总共增加幸运{2}。增加钱币，阳光掉落概率，稀有物品刷新概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}阳光，当前等级{1},总共增加阳光{2}。波次结束增加阳光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}金币，当前等级{1},总共增加金币{2}。波次结束增加金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}植物学，当前等级{1},总共增加植物学{2}。额外增加植物攻击百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhance increases health regeneration by {0}, current level {1}, total health regeneration by {2}. Health regeneration increases current health over time</t>
+  </si>
+  <si>
+    <t>Enhance increases adrenaline by {0}, current level {1}, total adrenaline increase by {2}. Adrenaline gives attacks a chance to restore health</t>
+  </si>
+  <si>
+    <t>Enhance increases strength by {0}, current level {1}, total strength increase by {2}. Increases base damage of attacks</t>
+  </si>
+  <si>
+    <t>Enhance increases damage by {0}%, current level {1}, total damage increase by {2}. Increases percentage damage of attacks</t>
+  </si>
+  <si>
+    <t>Enhance increases attack speed by {0}%, current level {1}, total attack speed increase by {2}. Reduces attack cooldown</t>
+  </si>
+  <si>
+    <t>Enhance increases range by {0}%, current level {1}, total range increase by {2}. Increases attack range and pickup range</t>
+  </si>
+  <si>
+    <t>Enhance increases critical strike rate by {0}%, current level {1}, total critical strike rate increase by {2}. Attacks have a chance to cause more damage</t>
+  </si>
+  <si>
+    <t>Enhance increases movement speed by {0}%, current level {1}, total increase in movement speed {2}. Move faster</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} armor, current level {1}, total increase in armor {2}. Reduce damage received</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} luck, current level {1}, total increase in luck {2}. Increases coin, sunlight drop probability, rare item refresh probability</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} sunlight, current level {1}, total increase in sunlight {2}. Increase sunlight at the end of the wave</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} gold coins, current level {1}, total increase in gold coins {2}. Increase gold coins at the end of the wave</t>
+  </si>
+  <si>
+    <t>Enhance increases {0} botany, current level {1}, total increase in botany {2}. Additional percentage damage of plant attacks</t>
   </si>
 </sst>
 </file>
@@ -3412,17 +3445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D307" sqref="D307"/>
+      <pane ySplit="3" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296:D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="4" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7873,13 +7906,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7887,13 +7920,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7901,13 +7934,13 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7915,13 +7948,13 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7929,13 +7962,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -7943,13 +7976,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7957,13 +7990,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="D302" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -7971,13 +8004,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="D303" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -7985,13 +8018,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="D304" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -7999,13 +8032,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="D305" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8013,13 +8046,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="D306" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,13 +8060,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
       <c r="D307" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8041,13 +8074,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>883</v>
+        <v>918</v>
       </c>
       <c r="D308" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8055,13 +8088,55 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
       <c r="D309" t="s">
-        <v>923</v>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>307</v>
+      </c>
+      <c r="B310" t="s">
+        <v>899</v>
+      </c>
+      <c r="C310" t="s">
+        <v>898</v>
+      </c>
+      <c r="D310" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>308</v>
+      </c>
+      <c r="B311" t="s">
+        <v>906</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D311" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>309</v>
+      </c>
+      <c r="B312" t="s">
+        <v>903</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D312" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096BA67-6161-4EBB-B19F-5FE1B9A72821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21F1FD-1A78-4776-A53B-83C6B2DA9764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,8 +69,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="954">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3004,10 +3026,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化增加{0}%暴击率，当前等级{1},总共增加暴击率2}。攻击有概率造成更多伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>强化增加{0}%移动速度，当前等级{1},总共增加移动速度{2}。移动会更快</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3069,6 +3087,84 @@
   </si>
   <si>
     <t>Enhance increases {0} botany, current level {1}, total increase in botany {2}. Additional percentage damage of plant attacks</t>
+  </si>
+  <si>
+    <t>强化增加{0}%暴击率，当前等级{1},总共增加暴击率{2}。攻击有概率造成更多伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加{0}个卡槽，当前等级{1}，总共增加卡槽数量{2}。卡槽数量决定植物出战数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add {0} card slots, current level {1}, total card slots added {2}. The number of card slots determines the number of plants that can be used in battle</t>
+  </si>
+  <si>
+    <t>grow_slotNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加卡槽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add card slot</t>
+  </si>
+  <si>
+    <t>mainmenu_grow16_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow16_1</t>
+  </si>
+  <si>
+    <t>强化后可携带一个普通品质道具开局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化后可携带一个蓝色品质道具开局，当前可携带普通品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化后可携带一个紫色品质道具开局，当前可携带蓝色品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow16_2</t>
+  </si>
+  <si>
+    <t>mainmenu_grow16_3</t>
+  </si>
+  <si>
+    <t>可携带一个紫色品质道具开局</t>
+  </si>
+  <si>
+    <t>After strengthening, you can start with a normal quality item</t>
+  </si>
+  <si>
+    <t>After strengthening, you can start with a blue quality item, and currently you can carry a normal quality item</t>
+  </si>
+  <si>
+    <t>After strengthening, you can start with a purple quality item, and currently you can carry a blue quality item</t>
+  </si>
+  <si>
+    <t>You can start with a purple quality item</t>
+  </si>
+  <si>
+    <t>grow_addProp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heritage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3159,11 +3255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3445,11 +3542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D296" sqref="D296:D309"/>
+      <pane ySplit="3" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3502,7 +3599,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4">ROW(4:4)-3</f>
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -3517,7 +3615,8 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">ROW(5:5)-3</f>
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -3532,7 +3631,8 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">ROW(6:6)-3</f>
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -3547,7 +3647,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" cm="1">
+        <f t="array" ref="A7">ROW(7:7)-3</f>
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -3562,7 +3663,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">ROW(8:8)-3</f>
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -3577,7 +3679,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">ROW(9:9)-3</f>
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -3592,7 +3695,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">ROW(10:10)-3</f>
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -3607,7 +3711,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" cm="1">
+        <f t="array" ref="A11">ROW(11:11)-3</f>
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -3622,7 +3727,8 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">ROW(12:12)-3</f>
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -3637,7 +3743,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" cm="1">
+        <f t="array" ref="A13">ROW(13:13)-3</f>
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -3652,7 +3759,8 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" cm="1">
+        <f t="array" ref="A14">ROW(14:14)-3</f>
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -3667,7 +3775,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" cm="1">
+        <f t="array" ref="A15">ROW(15:15)-3</f>
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -3682,7 +3791,8 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" cm="1">
+        <f t="array" ref="A16">ROW(16:16)-3</f>
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -3697,7 +3807,8 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" cm="1">
+        <f t="array" ref="A17">ROW(17:17)-3</f>
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -3712,7 +3823,8 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18">ROW(18:18)-3</f>
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -3727,7 +3839,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" cm="1">
+        <f t="array" ref="A19">ROW(19:19)-3</f>
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -3742,7 +3855,8 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" cm="1">
+        <f t="array" ref="A20">ROW(20:20)-3</f>
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -3757,7 +3871,8 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" cm="1">
+        <f t="array" ref="A21">ROW(21:21)-3</f>
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -3772,7 +3887,8 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" cm="1">
+        <f t="array" ref="A22">ROW(22:22)-3</f>
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -3787,7 +3903,8 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" cm="1">
+        <f t="array" ref="A23">ROW(23:23)-3</f>
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -3802,7 +3919,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" cm="1">
+        <f t="array" ref="A24">ROW(24:24)-3</f>
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -3817,7 +3935,8 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" cm="1">
+        <f t="array" ref="A25">ROW(25:25)-3</f>
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -3832,7 +3951,8 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" cm="1">
+        <f t="array" ref="A26">ROW(26:26)-3</f>
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -3847,7 +3967,8 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" cm="1">
+        <f t="array" ref="A27">ROW(27:27)-3</f>
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -3862,7 +3983,8 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" cm="1">
+        <f t="array" ref="A28">ROW(28:28)-3</f>
         <v>25</v>
       </c>
       <c r="B28" t="s">
@@ -3877,7 +3999,8 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" cm="1">
+        <f t="array" ref="A29">ROW(29:29)-3</f>
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -3892,7 +4015,8 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" cm="1">
+        <f t="array" ref="A30">ROW(30:30)-3</f>
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -3907,7 +4031,8 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" cm="1">
+        <f t="array" ref="A31">ROW(31:31)-3</f>
         <v>28</v>
       </c>
       <c r="B31" t="s">
@@ -3922,7 +4047,8 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" cm="1">
+        <f t="array" ref="A32">ROW(32:32)-3</f>
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -3937,7 +4063,8 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" cm="1">
+        <f t="array" ref="A33">ROW(33:33)-3</f>
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -3952,7 +4079,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" cm="1">
+        <f t="array" ref="A34">ROW(34:34)-3</f>
         <v>31</v>
       </c>
       <c r="B34" t="s">
@@ -3967,7 +4095,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" cm="1">
+        <f t="array" ref="A35">ROW(35:35)-3</f>
         <v>32</v>
       </c>
       <c r="B35" t="s">
@@ -3982,7 +4111,8 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" cm="1">
+        <f t="array" ref="A36">ROW(36:36)-3</f>
         <v>33</v>
       </c>
       <c r="B36" t="s">
@@ -3997,7 +4127,8 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" cm="1">
+        <f t="array" ref="A37">ROW(37:37)-3</f>
         <v>34</v>
       </c>
       <c r="B37" t="s">
@@ -4012,7 +4143,8 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" cm="1">
+        <f t="array" ref="A38">ROW(38:38)-3</f>
         <v>35</v>
       </c>
       <c r="B38" t="s">
@@ -4027,7 +4159,8 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" cm="1">
+        <f t="array" ref="A39">ROW(39:39)-3</f>
         <v>36</v>
       </c>
       <c r="B39" t="s">
@@ -4042,7 +4175,8 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" cm="1">
+        <f t="array" ref="A40">ROW(40:40)-3</f>
         <v>37</v>
       </c>
       <c r="B40" t="s">
@@ -4057,7 +4191,8 @@
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" cm="1">
+        <f t="array" ref="A41">ROW(41:41)-3</f>
         <v>38</v>
       </c>
       <c r="B41" t="s">
@@ -4072,7 +4207,8 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" cm="1">
+        <f t="array" ref="A42">ROW(42:42)-3</f>
         <v>39</v>
       </c>
       <c r="B42" t="s">
@@ -4087,7 +4223,8 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" cm="1">
+        <f t="array" ref="A43">ROW(43:43)-3</f>
         <v>40</v>
       </c>
       <c r="B43" t="s">
@@ -4108,7 +4245,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" cm="1">
+        <f t="array" ref="A44">ROW(44:44)-3</f>
         <v>41</v>
       </c>
       <c r="B44" t="s">
@@ -4129,7 +4267,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" cm="1">
+        <f t="array" ref="A45">ROW(45:45)-3</f>
         <v>42</v>
       </c>
       <c r="B45" t="s">
@@ -4150,7 +4289,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" cm="1">
+        <f t="array" ref="A46">ROW(46:46)-3</f>
         <v>43</v>
       </c>
       <c r="B46" t="s">
@@ -4171,7 +4311,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" cm="1">
+        <f t="array" ref="A47">ROW(47:47)-3</f>
         <v>44</v>
       </c>
       <c r="B47" t="s">
@@ -4192,7 +4333,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" cm="1">
+        <f t="array" ref="A48">ROW(48:48)-3</f>
         <v>45</v>
       </c>
       <c r="B48" t="s">
@@ -4213,7 +4355,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" cm="1">
+        <f t="array" ref="A49">ROW(49:49)-3</f>
         <v>46</v>
       </c>
       <c r="B49" t="s">
@@ -4234,7 +4377,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" cm="1">
+        <f t="array" ref="A50">ROW(50:50)-3</f>
         <v>47</v>
       </c>
       <c r="B50" t="s">
@@ -4255,7 +4399,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" cm="1">
+        <f t="array" ref="A51">ROW(51:51)-3</f>
         <v>48</v>
       </c>
       <c r="B51" t="s">
@@ -4276,7 +4421,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" cm="1">
+        <f t="array" ref="A52">ROW(52:52)-3</f>
         <v>49</v>
       </c>
       <c r="B52" t="s">
@@ -4297,7 +4443,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" cm="1">
+        <f t="array" ref="A53">ROW(53:53)-3</f>
         <v>50</v>
       </c>
       <c r="B53" t="s">
@@ -4318,7 +4465,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" cm="1">
+        <f t="array" ref="A54">ROW(54:54)-3</f>
         <v>51</v>
       </c>
       <c r="B54" t="s">
@@ -4339,7 +4487,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" cm="1">
+        <f t="array" ref="A55">ROW(55:55)-3</f>
         <v>52</v>
       </c>
       <c r="B55" t="s">
@@ -4360,7 +4509,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" cm="1">
+        <f t="array" ref="A56">ROW(56:56)-3</f>
         <v>53</v>
       </c>
       <c r="B56" t="s">
@@ -4381,7 +4531,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" cm="1">
+        <f t="array" ref="A57">ROW(57:57)-3</f>
         <v>54</v>
       </c>
       <c r="B57" t="s">
@@ -4402,7 +4553,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" cm="1">
+        <f t="array" ref="A58">ROW(58:58)-3</f>
         <v>55</v>
       </c>
       <c r="B58" t="s">
@@ -4423,7 +4575,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" cm="1">
+        <f t="array" ref="A59">ROW(59:59)-3</f>
         <v>56</v>
       </c>
       <c r="B59" t="s">
@@ -4444,7 +4597,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" cm="1">
+        <f t="array" ref="A60">ROW(60:60)-3</f>
         <v>57</v>
       </c>
       <c r="B60" t="s">
@@ -4465,7 +4619,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" cm="1">
+        <f t="array" ref="A61">ROW(61:61)-3</f>
         <v>58</v>
       </c>
       <c r="B61" t="s">
@@ -4486,7 +4641,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" cm="1">
+        <f t="array" ref="A62">ROW(62:62)-3</f>
         <v>59</v>
       </c>
       <c r="B62" t="s">
@@ -4507,7 +4663,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" cm="1">
+        <f t="array" ref="A63">ROW(63:63)-3</f>
         <v>60</v>
       </c>
       <c r="B63" t="s">
@@ -4528,7 +4685,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" cm="1">
+        <f t="array" ref="A64">ROW(64:64)-3</f>
         <v>61</v>
       </c>
       <c r="B64" t="s">
@@ -4549,7 +4707,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" cm="1">
+        <f t="array" ref="A65">ROW(65:65)-3</f>
         <v>62</v>
       </c>
       <c r="B65" t="s">
@@ -4570,7 +4729,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" cm="1">
+        <f t="array" ref="A66">ROW(66:66)-3</f>
         <v>63</v>
       </c>
       <c r="B66" t="s">
@@ -4591,7 +4751,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" cm="1">
+        <f t="array" ref="A67">ROW(67:67)-3</f>
         <v>64</v>
       </c>
       <c r="B67" t="s">
@@ -4612,7 +4773,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" cm="1">
+        <f t="array" ref="A68">ROW(68:68)-3</f>
         <v>65</v>
       </c>
       <c r="B68" t="s">
@@ -4633,7 +4795,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" cm="1">
+        <f t="array" ref="A69">ROW(69:69)-3</f>
         <v>66</v>
       </c>
       <c r="B69" t="s">
@@ -4654,7 +4817,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" cm="1">
+        <f t="array" ref="A70">ROW(70:70)-3</f>
         <v>67</v>
       </c>
       <c r="B70" t="s">
@@ -4675,7 +4839,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" cm="1">
+        <f t="array" ref="A71">ROW(71:71)-3</f>
         <v>68</v>
       </c>
       <c r="B71" t="s">
@@ -4696,7 +4861,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" cm="1">
+        <f t="array" ref="A72">ROW(72:72)-3</f>
         <v>69</v>
       </c>
       <c r="B72" t="s">
@@ -4717,7 +4883,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" cm="1">
+        <f t="array" ref="A73">ROW(73:73)-3</f>
         <v>70</v>
       </c>
       <c r="B73" t="s">
@@ -4738,7 +4905,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" cm="1">
+        <f t="array" ref="A74">ROW(74:74)-3</f>
         <v>71</v>
       </c>
       <c r="B74" t="s">
@@ -4759,7 +4927,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" cm="1">
+        <f t="array" ref="A75">ROW(75:75)-3</f>
         <v>72</v>
       </c>
       <c r="B75" t="s">
@@ -4780,7 +4949,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" cm="1">
+        <f t="array" ref="A76">ROW(76:76)-3</f>
         <v>73</v>
       </c>
       <c r="B76" t="s">
@@ -4801,7 +4971,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" cm="1">
+        <f t="array" ref="A77">ROW(77:77)-3</f>
         <v>74</v>
       </c>
       <c r="B77" t="s">
@@ -4822,7 +4993,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" cm="1">
+        <f t="array" ref="A78">ROW(78:78)-3</f>
         <v>75</v>
       </c>
       <c r="B78" t="s">
@@ -4843,7 +5015,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" cm="1">
+        <f t="array" ref="A79">ROW(79:79)-3</f>
         <v>76</v>
       </c>
       <c r="B79" t="s">
@@ -4864,7 +5037,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" cm="1">
+        <f t="array" ref="A80">ROW(80:80)-3</f>
         <v>77</v>
       </c>
       <c r="B80" t="s">
@@ -4885,7 +5059,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" cm="1">
+        <f t="array" ref="A81">ROW(81:81)-3</f>
         <v>78</v>
       </c>
       <c r="B81" t="s">
@@ -4906,7 +5081,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" cm="1">
+        <f t="array" ref="A82">ROW(82:82)-3</f>
         <v>79</v>
       </c>
       <c r="B82" t="s">
@@ -4920,7 +5096,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" cm="1">
+        <f t="array" ref="A83">ROW(83:83)-3</f>
         <v>80</v>
       </c>
       <c r="B83" t="s">
@@ -4934,7 +5111,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" cm="1">
+        <f t="array" ref="A84">ROW(84:84)-3</f>
         <v>81</v>
       </c>
       <c r="B84" t="s">
@@ -4948,7 +5126,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" cm="1">
+        <f t="array" ref="A85">ROW(85:85)-3</f>
         <v>82</v>
       </c>
       <c r="B85" t="s">
@@ -4962,7 +5141,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" cm="1">
+        <f t="array" ref="A86">ROW(86:86)-3</f>
         <v>83</v>
       </c>
       <c r="B86" t="s">
@@ -4976,7 +5156,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" cm="1">
+        <f t="array" ref="A87">ROW(87:87)-3</f>
         <v>84</v>
       </c>
       <c r="B87" t="s">
@@ -4990,7 +5171,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" cm="1">
+        <f t="array" ref="A88">ROW(88:88)-3</f>
         <v>85</v>
       </c>
       <c r="B88" t="s">
@@ -5004,7 +5186,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" cm="1">
+        <f t="array" ref="A89">ROW(89:89)-3</f>
         <v>86</v>
       </c>
       <c r="B89" t="s">
@@ -5018,7 +5201,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" cm="1">
+        <f t="array" ref="A90">ROW(90:90)-3</f>
         <v>87</v>
       </c>
       <c r="B90" t="s">
@@ -5032,7 +5216,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" cm="1">
+        <f t="array" ref="A91">ROW(91:91)-3</f>
         <v>88</v>
       </c>
       <c r="B91" t="s">
@@ -5046,7 +5231,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" cm="1">
+        <f t="array" ref="A92">ROW(92:92)-3</f>
         <v>89</v>
       </c>
       <c r="B92" t="s">
@@ -5060,7 +5246,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" cm="1">
+        <f t="array" ref="A93">ROW(93:93)-3</f>
         <v>90</v>
       </c>
       <c r="B93" t="s">
@@ -5074,7 +5261,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" cm="1">
+        <f t="array" ref="A94">ROW(94:94)-3</f>
         <v>91</v>
       </c>
       <c r="B94" t="s">
@@ -5088,7 +5276,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" cm="1">
+        <f t="array" ref="A95">ROW(95:95)-3</f>
         <v>92</v>
       </c>
       <c r="B95" t="s">
@@ -5102,7 +5291,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" cm="1">
+        <f t="array" ref="A96">ROW(96:96)-3</f>
         <v>93</v>
       </c>
       <c r="B96" t="s">
@@ -5116,7 +5306,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" cm="1">
+        <f t="array" ref="A97">ROW(97:97)-3</f>
         <v>94</v>
       </c>
       <c r="B97" t="s">
@@ -5130,7 +5321,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" cm="1">
+        <f t="array" ref="A98">ROW(98:98)-3</f>
         <v>95</v>
       </c>
       <c r="B98" t="s">
@@ -5144,7 +5336,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" cm="1">
+        <f t="array" ref="A99">ROW(99:99)-3</f>
         <v>96</v>
       </c>
       <c r="B99" t="s">
@@ -5158,7 +5351,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" cm="1">
+        <f t="array" ref="A100">ROW(100:100)-3</f>
         <v>97</v>
       </c>
       <c r="B100" t="s">
@@ -5172,7 +5366,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" cm="1">
+        <f t="array" ref="A101">ROW(101:101)-3</f>
         <v>98</v>
       </c>
       <c r="B101" t="s">
@@ -5186,7 +5381,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" cm="1">
+        <f t="array" ref="A102">ROW(102:102)-3</f>
         <v>99</v>
       </c>
       <c r="B102" t="s">
@@ -5200,7 +5396,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" cm="1">
+        <f t="array" ref="A103">ROW(103:103)-3</f>
         <v>100</v>
       </c>
       <c r="B103" t="s">
@@ -5214,7 +5411,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" cm="1">
+        <f t="array" ref="A104">ROW(104:104)-3</f>
         <v>101</v>
       </c>
       <c r="B104" t="s">
@@ -5228,7 +5426,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" cm="1">
+        <f t="array" ref="A105">ROW(105:105)-3</f>
         <v>102</v>
       </c>
       <c r="B105" t="s">
@@ -5242,7 +5441,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" cm="1">
+        <f t="array" ref="A106">ROW(106:106)-3</f>
         <v>103</v>
       </c>
       <c r="B106" t="s">
@@ -5256,7 +5456,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" cm="1">
+        <f t="array" ref="A107">ROW(107:107)-3</f>
         <v>104</v>
       </c>
       <c r="B107" t="s">
@@ -5270,7 +5471,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" cm="1">
+        <f t="array" ref="A108">ROW(108:108)-3</f>
         <v>105</v>
       </c>
       <c r="B108" t="s">
@@ -5284,7 +5486,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" cm="1">
+        <f t="array" ref="A109">ROW(109:109)-3</f>
         <v>106</v>
       </c>
       <c r="B109" t="s">
@@ -5298,7 +5501,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" cm="1">
+        <f t="array" ref="A110">ROW(110:110)-3</f>
         <v>107</v>
       </c>
       <c r="B110" t="s">
@@ -5312,7 +5516,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" cm="1">
+        <f t="array" ref="A111">ROW(111:111)-3</f>
         <v>108</v>
       </c>
       <c r="B111" t="s">
@@ -5326,7 +5531,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" cm="1">
+        <f t="array" ref="A112">ROW(112:112)-3</f>
         <v>109</v>
       </c>
       <c r="B112" t="s">
@@ -5340,7 +5546,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" cm="1">
+        <f t="array" ref="A113">ROW(113:113)-3</f>
         <v>110</v>
       </c>
       <c r="B113" t="s">
@@ -5354,7 +5561,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" cm="1">
+        <f t="array" ref="A114">ROW(114:114)-3</f>
         <v>111</v>
       </c>
       <c r="B114" t="s">
@@ -5368,7 +5576,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" cm="1">
+        <f t="array" ref="A115">ROW(115:115)-3</f>
         <v>112</v>
       </c>
       <c r="B115" t="s">
@@ -5382,7 +5591,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" cm="1">
+        <f t="array" ref="A116">ROW(116:116)-3</f>
         <v>113</v>
       </c>
       <c r="B116" t="s">
@@ -5396,7 +5606,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" cm="1">
+        <f t="array" ref="A117">ROW(117:117)-3</f>
         <v>114</v>
       </c>
       <c r="B117" t="s">
@@ -5410,7 +5621,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" cm="1">
+        <f t="array" ref="A118">ROW(118:118)-3</f>
         <v>115</v>
       </c>
       <c r="B118" t="s">
@@ -5424,7 +5636,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" cm="1">
+        <f t="array" ref="A119">ROW(119:119)-3</f>
         <v>116</v>
       </c>
       <c r="B119" t="s">
@@ -5438,7 +5651,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" cm="1">
+        <f t="array" ref="A120">ROW(120:120)-3</f>
         <v>117</v>
       </c>
       <c r="B120" t="s">
@@ -5452,7 +5666,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" cm="1">
+        <f t="array" ref="A121">ROW(121:121)-3</f>
         <v>118</v>
       </c>
       <c r="B121" t="s">
@@ -5466,7 +5681,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" cm="1">
+        <f t="array" ref="A122">ROW(122:122)-3</f>
         <v>119</v>
       </c>
       <c r="B122" t="s">
@@ -5480,7 +5696,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" cm="1">
+        <f t="array" ref="A123">ROW(123:123)-3</f>
         <v>120</v>
       </c>
       <c r="B123" t="s">
@@ -5494,7 +5711,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" cm="1">
+        <f t="array" ref="A124">ROW(124:124)-3</f>
         <v>121</v>
       </c>
       <c r="B124" t="s">
@@ -5508,7 +5726,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" cm="1">
+        <f t="array" ref="A125">ROW(125:125)-3</f>
         <v>122</v>
       </c>
       <c r="B125" t="s">
@@ -5522,7 +5741,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" cm="1">
+        <f t="array" ref="A126">ROW(126:126)-3</f>
         <v>123</v>
       </c>
       <c r="B126" t="s">
@@ -5536,7 +5756,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" cm="1">
+        <f t="array" ref="A127">ROW(127:127)-3</f>
         <v>124</v>
       </c>
       <c r="B127" t="s">
@@ -5550,7 +5771,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" cm="1">
+        <f t="array" ref="A128">ROW(128:128)-3</f>
         <v>125</v>
       </c>
       <c r="B128" t="s">
@@ -5564,7 +5786,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" cm="1">
+        <f t="array" ref="A129">ROW(129:129)-3</f>
         <v>126</v>
       </c>
       <c r="B129" t="s">
@@ -5578,7 +5801,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" cm="1">
+        <f t="array" ref="A130">ROW(130:130)-3</f>
         <v>127</v>
       </c>
       <c r="B130" t="s">
@@ -5592,7 +5816,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" cm="1">
+        <f t="array" ref="A131">ROW(131:131)-3</f>
         <v>128</v>
       </c>
       <c r="B131" t="s">
@@ -5606,7 +5831,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" cm="1">
+        <f t="array" ref="A132">ROW(132:132)-3</f>
         <v>129</v>
       </c>
       <c r="B132" t="s">
@@ -5620,7 +5846,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" cm="1">
+        <f t="array" ref="A133">ROW(133:133)-3</f>
         <v>130</v>
       </c>
       <c r="B133" t="s">
@@ -5634,7 +5861,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" cm="1">
+        <f t="array" ref="A134">ROW(134:134)-3</f>
         <v>131</v>
       </c>
       <c r="B134" t="s">
@@ -5648,7 +5876,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" cm="1">
+        <f t="array" ref="A135">ROW(135:135)-3</f>
         <v>132</v>
       </c>
       <c r="B135" t="s">
@@ -5662,7 +5891,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" cm="1">
+        <f t="array" ref="A136">ROW(136:136)-3</f>
         <v>133</v>
       </c>
       <c r="B136" t="s">
@@ -5676,7 +5906,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" cm="1">
+        <f t="array" ref="A137">ROW(137:137)-3</f>
         <v>134</v>
       </c>
       <c r="B137" t="s">
@@ -5690,7 +5921,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" cm="1">
+        <f t="array" ref="A138">ROW(138:138)-3</f>
         <v>135</v>
       </c>
       <c r="B138" t="s">
@@ -5704,7 +5936,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" cm="1">
+        <f t="array" ref="A139">ROW(139:139)-3</f>
         <v>136</v>
       </c>
       <c r="B139" t="s">
@@ -5718,7 +5951,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" cm="1">
+        <f t="array" ref="A140">ROW(140:140)-3</f>
         <v>137</v>
       </c>
       <c r="B140" t="s">
@@ -5732,7 +5966,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" cm="1">
+        <f t="array" ref="A141">ROW(141:141)-3</f>
         <v>138</v>
       </c>
       <c r="B141" t="s">
@@ -5746,7 +5981,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" cm="1">
+        <f t="array" ref="A142">ROW(142:142)-3</f>
         <v>139</v>
       </c>
       <c r="B142" t="s">
@@ -5760,7 +5996,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" cm="1">
+        <f t="array" ref="A143">ROW(143:143)-3</f>
         <v>140</v>
       </c>
       <c r="B143" t="s">
@@ -5774,7 +6011,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" cm="1">
+        <f t="array" ref="A144">ROW(144:144)-3</f>
         <v>141</v>
       </c>
       <c r="B144" t="s">
@@ -5788,7 +6026,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" cm="1">
+        <f t="array" ref="A145">ROW(145:145)-3</f>
         <v>142</v>
       </c>
       <c r="B145" t="s">
@@ -5802,7 +6041,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" cm="1">
+        <f t="array" ref="A146">ROW(146:146)-3</f>
         <v>143</v>
       </c>
       <c r="B146" t="s">
@@ -5816,7 +6056,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" cm="1">
+        <f t="array" ref="A147">ROW(147:147)-3</f>
         <v>144</v>
       </c>
       <c r="B147" t="s">
@@ -5830,7 +6071,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" cm="1">
+        <f t="array" ref="A148">ROW(148:148)-3</f>
         <v>145</v>
       </c>
       <c r="B148" t="s">
@@ -5844,7 +6086,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" cm="1">
+        <f t="array" ref="A149">ROW(149:149)-3</f>
         <v>146</v>
       </c>
       <c r="B149" t="s">
@@ -5858,7 +6101,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" cm="1">
+        <f t="array" ref="A150">ROW(150:150)-3</f>
         <v>147</v>
       </c>
       <c r="B150" t="s">
@@ -5872,7 +6116,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" cm="1">
+        <f t="array" ref="A151">ROW(151:151)-3</f>
         <v>148</v>
       </c>
       <c r="B151" t="s">
@@ -5886,7 +6131,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" cm="1">
+        <f t="array" ref="A152">ROW(152:152)-3</f>
         <v>149</v>
       </c>
       <c r="B152" t="s">
@@ -5900,7 +6146,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" cm="1">
+        <f t="array" ref="A153">ROW(153:153)-3</f>
         <v>150</v>
       </c>
       <c r="B153" t="s">
@@ -5914,7 +6161,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" cm="1">
+        <f t="array" ref="A154">ROW(154:154)-3</f>
         <v>151</v>
       </c>
       <c r="B154" t="s">
@@ -5928,7 +6176,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" cm="1">
+        <f t="array" ref="A155">ROW(155:155)-3</f>
         <v>152</v>
       </c>
       <c r="B155" t="s">
@@ -5942,7 +6191,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" cm="1">
+        <f t="array" ref="A156">ROW(156:156)-3</f>
         <v>153</v>
       </c>
       <c r="B156" t="s">
@@ -5956,7 +6206,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" cm="1">
+        <f t="array" ref="A157">ROW(157:157)-3</f>
         <v>154</v>
       </c>
       <c r="B157" t="s">
@@ -5970,7 +6221,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" cm="1">
+        <f t="array" ref="A158">ROW(158:158)-3</f>
         <v>155</v>
       </c>
       <c r="B158" t="s">
@@ -5984,7 +6236,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" cm="1">
+        <f t="array" ref="A159">ROW(159:159)-3</f>
         <v>156</v>
       </c>
       <c r="B159" t="s">
@@ -5998,7 +6251,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" cm="1">
+        <f t="array" ref="A160">ROW(160:160)-3</f>
         <v>157</v>
       </c>
       <c r="B160" t="s">
@@ -6012,7 +6266,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" cm="1">
+        <f t="array" ref="A161">ROW(161:161)-3</f>
         <v>158</v>
       </c>
       <c r="B161" t="s">
@@ -6026,7 +6281,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" cm="1">
+        <f t="array" ref="A162">ROW(162:162)-3</f>
         <v>159</v>
       </c>
       <c r="B162" t="s">
@@ -6040,7 +6296,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" cm="1">
+        <f t="array" ref="A163">ROW(163:163)-3</f>
         <v>160</v>
       </c>
       <c r="B163" t="s">
@@ -6054,7 +6311,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" cm="1">
+        <f t="array" ref="A164">ROW(164:164)-3</f>
         <v>161</v>
       </c>
       <c r="B164" t="s">
@@ -6068,7 +6326,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" cm="1">
+        <f t="array" ref="A165">ROW(165:165)-3</f>
         <v>162</v>
       </c>
       <c r="B165" t="s">
@@ -6082,7 +6341,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" cm="1">
+        <f t="array" ref="A166">ROW(166:166)-3</f>
         <v>163</v>
       </c>
       <c r="B166" t="s">
@@ -6096,7 +6356,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" cm="1">
+        <f t="array" ref="A167">ROW(167:167)-3</f>
         <v>164</v>
       </c>
       <c r="B167" t="s">
@@ -6110,7 +6371,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" cm="1">
+        <f t="array" ref="A168">ROW(168:168)-3</f>
         <v>165</v>
       </c>
       <c r="B168" t="s">
@@ -6124,7 +6386,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" cm="1">
+        <f t="array" ref="A169">ROW(169:169)-3</f>
         <v>166</v>
       </c>
       <c r="B169" t="s">
@@ -6138,7 +6401,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" cm="1">
+        <f t="array" ref="A170">ROW(170:170)-3</f>
         <v>167</v>
       </c>
       <c r="B170" t="s">
@@ -6152,7 +6416,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" cm="1">
+        <f t="array" ref="A171">ROW(171:171)-3</f>
         <v>168</v>
       </c>
       <c r="B171" t="s">
@@ -6166,7 +6431,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" cm="1">
+        <f t="array" ref="A172">ROW(172:172)-3</f>
         <v>169</v>
       </c>
       <c r="B172" t="s">
@@ -6180,7 +6446,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" cm="1">
+        <f t="array" ref="A173">ROW(173:173)-3</f>
         <v>170</v>
       </c>
       <c r="B173" t="s">
@@ -6194,7 +6461,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" cm="1">
+        <f t="array" ref="A174">ROW(174:174)-3</f>
         <v>171</v>
       </c>
       <c r="B174" t="s">
@@ -6208,7 +6476,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" cm="1">
+        <f t="array" ref="A175">ROW(175:175)-3</f>
         <v>172</v>
       </c>
       <c r="B175" t="s">
@@ -6222,7 +6491,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" cm="1">
+        <f t="array" ref="A176">ROW(176:176)-3</f>
         <v>173</v>
       </c>
       <c r="B176" t="s">
@@ -6236,7 +6506,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" cm="1">
+        <f t="array" ref="A177">ROW(177:177)-3</f>
         <v>174</v>
       </c>
       <c r="B177" t="s">
@@ -6250,7 +6521,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" cm="1">
+        <f t="array" ref="A178">ROW(178:178)-3</f>
         <v>175</v>
       </c>
       <c r="B178" t="s">
@@ -6264,7 +6536,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" cm="1">
+        <f t="array" ref="A179">ROW(179:179)-3</f>
         <v>176</v>
       </c>
       <c r="B179" t="s">
@@ -6278,7 +6551,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" cm="1">
+        <f t="array" ref="A180">ROW(180:180)-3</f>
         <v>177</v>
       </c>
       <c r="B180" t="s">
@@ -6292,7 +6566,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" cm="1">
+        <f t="array" ref="A181">ROW(181:181)-3</f>
         <v>178</v>
       </c>
       <c r="B181" t="s">
@@ -6306,7 +6581,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" cm="1">
+        <f t="array" ref="A182">ROW(182:182)-3</f>
         <v>179</v>
       </c>
       <c r="B182" t="s">
@@ -6320,7 +6596,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" cm="1">
+        <f t="array" ref="A183">ROW(183:183)-3</f>
         <v>180</v>
       </c>
       <c r="B183" t="s">
@@ -6334,7 +6611,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" cm="1">
+        <f t="array" ref="A184">ROW(184:184)-3</f>
         <v>181</v>
       </c>
       <c r="B184" t="s">
@@ -6348,7 +6626,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" cm="1">
+        <f t="array" ref="A185">ROW(185:185)-3</f>
         <v>182</v>
       </c>
       <c r="B185" t="s">
@@ -6362,7 +6641,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" cm="1">
+        <f t="array" ref="A186">ROW(186:186)-3</f>
         <v>183</v>
       </c>
       <c r="B186" t="s">
@@ -6376,7 +6656,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" cm="1">
+        <f t="array" ref="A187">ROW(187:187)-3</f>
         <v>184</v>
       </c>
       <c r="B187" t="s">
@@ -6390,7 +6671,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" cm="1">
+        <f t="array" ref="A188">ROW(188:188)-3</f>
         <v>185</v>
       </c>
       <c r="B188" t="s">
@@ -6404,7 +6686,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" cm="1">
+        <f t="array" ref="A189">ROW(189:189)-3</f>
         <v>186</v>
       </c>
       <c r="B189" t="s">
@@ -6418,7 +6701,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" cm="1">
+        <f t="array" ref="A190">ROW(190:190)-3</f>
         <v>187</v>
       </c>
       <c r="B190" t="s">
@@ -6432,7 +6716,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" cm="1">
+        <f t="array" ref="A191">ROW(191:191)-3</f>
         <v>188</v>
       </c>
       <c r="B191" t="s">
@@ -6446,7 +6731,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" cm="1">
+        <f t="array" ref="A192">ROW(192:192)-3</f>
         <v>189</v>
       </c>
       <c r="B192" t="s">
@@ -6460,7 +6746,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" cm="1">
+        <f t="array" ref="A193">ROW(193:193)-3</f>
         <v>190</v>
       </c>
       <c r="B193" t="s">
@@ -6474,7 +6761,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" cm="1">
+        <f t="array" ref="A194">ROW(194:194)-3</f>
         <v>191</v>
       </c>
       <c r="B194" t="s">
@@ -6488,7 +6776,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" cm="1">
+        <f t="array" ref="A195">ROW(195:195)-3</f>
         <v>192</v>
       </c>
       <c r="B195" t="s">
@@ -6502,7 +6791,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" cm="1">
+        <f t="array" ref="A196">ROW(196:196)-3</f>
         <v>193</v>
       </c>
       <c r="B196" t="s">
@@ -6516,7 +6806,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" cm="1">
+        <f t="array" ref="A197">ROW(197:197)-3</f>
         <v>194</v>
       </c>
       <c r="B197" t="s">
@@ -6530,7 +6821,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" cm="1">
+        <f t="array" ref="A198">ROW(198:198)-3</f>
         <v>195</v>
       </c>
       <c r="B198" t="s">
@@ -6544,7 +6836,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" cm="1">
+        <f t="array" ref="A199">ROW(199:199)-3</f>
         <v>196</v>
       </c>
       <c r="B199" t="s">
@@ -6558,7 +6851,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" cm="1">
+        <f t="array" ref="A200">ROW(200:200)-3</f>
         <v>197</v>
       </c>
       <c r="B200" t="s">
@@ -6572,7 +6866,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" cm="1">
+        <f t="array" ref="A201">ROW(201:201)-3</f>
         <v>198</v>
       </c>
       <c r="B201" t="s">
@@ -6586,7 +6881,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" cm="1">
+        <f t="array" ref="A202">ROW(202:202)-3</f>
         <v>199</v>
       </c>
       <c r="B202" t="s">
@@ -6600,7 +6896,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" cm="1">
+        <f t="array" ref="A203">ROW(203:203)-3</f>
         <v>200</v>
       </c>
       <c r="B203" t="s">
@@ -6614,7 +6911,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" cm="1">
+        <f t="array" ref="A204">ROW(204:204)-3</f>
         <v>201</v>
       </c>
       <c r="B204" t="s">
@@ -6628,7 +6926,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" cm="1">
+        <f t="array" ref="A205">ROW(205:205)-3</f>
         <v>202</v>
       </c>
       <c r="B205" t="s">
@@ -6642,7 +6941,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" cm="1">
+        <f t="array" ref="A206">ROW(206:206)-3</f>
         <v>203</v>
       </c>
       <c r="B206" t="s">
@@ -6656,7 +6956,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" cm="1">
+        <f t="array" ref="A207">ROW(207:207)-3</f>
         <v>204</v>
       </c>
       <c r="B207" t="s">
@@ -6670,7 +6971,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" cm="1">
+        <f t="array" ref="A208">ROW(208:208)-3</f>
         <v>205</v>
       </c>
       <c r="B208" t="s">
@@ -6684,7 +6986,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" cm="1">
+        <f t="array" ref="A209">ROW(209:209)-3</f>
         <v>206</v>
       </c>
       <c r="B209" t="s">
@@ -6698,7 +7001,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" cm="1">
+        <f t="array" ref="A210">ROW(210:210)-3</f>
         <v>207</v>
       </c>
       <c r="B210" t="s">
@@ -6712,7 +7016,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" cm="1">
+        <f t="array" ref="A211">ROW(211:211)-3</f>
         <v>208</v>
       </c>
       <c r="B211" t="s">
@@ -6726,7 +7031,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" cm="1">
+        <f t="array" ref="A212">ROW(212:212)-3</f>
         <v>209</v>
       </c>
       <c r="B212" t="s">
@@ -6740,7 +7046,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" cm="1">
+        <f t="array" ref="A213">ROW(213:213)-3</f>
         <v>210</v>
       </c>
       <c r="B213" t="s">
@@ -6754,7 +7061,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" cm="1">
+        <f t="array" ref="A214">ROW(214:214)-3</f>
         <v>211</v>
       </c>
       <c r="B214" t="s">
@@ -6768,7 +7076,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" cm="1">
+        <f t="array" ref="A215">ROW(215:215)-3</f>
         <v>212</v>
       </c>
       <c r="B215" t="s">
@@ -6782,7 +7091,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" cm="1">
+        <f t="array" ref="A216">ROW(216:216)-3</f>
         <v>213</v>
       </c>
       <c r="B216" t="s">
@@ -6796,7 +7106,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" cm="1">
+        <f t="array" ref="A217">ROW(217:217)-3</f>
         <v>214</v>
       </c>
       <c r="B217" t="s">
@@ -6810,7 +7121,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" cm="1">
+        <f t="array" ref="A218">ROW(218:218)-3</f>
         <v>215</v>
       </c>
       <c r="B218" t="s">
@@ -6824,7 +7136,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" cm="1">
+        <f t="array" ref="A219">ROW(219:219)-3</f>
         <v>216</v>
       </c>
       <c r="B219" t="s">
@@ -6838,7 +7151,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" cm="1">
+        <f t="array" ref="A220">ROW(220:220)-3</f>
         <v>217</v>
       </c>
       <c r="B220" t="s">
@@ -6852,7 +7166,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" cm="1">
+        <f t="array" ref="A221">ROW(221:221)-3</f>
         <v>218</v>
       </c>
       <c r="B221" t="s">
@@ -6866,7 +7181,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" cm="1">
+        <f t="array" ref="A222">ROW(222:222)-3</f>
         <v>219</v>
       </c>
       <c r="B222" t="s">
@@ -6880,7 +7196,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" cm="1">
+        <f t="array" ref="A223">ROW(223:223)-3</f>
         <v>220</v>
       </c>
       <c r="B223" t="s">
@@ -6894,7 +7211,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" cm="1">
+        <f t="array" ref="A224">ROW(224:224)-3</f>
         <v>221</v>
       </c>
       <c r="B224" t="s">
@@ -6908,7 +7226,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" cm="1">
+        <f t="array" ref="A225">ROW(225:225)-3</f>
         <v>222</v>
       </c>
       <c r="B225" t="s">
@@ -6922,7 +7241,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" cm="1">
+        <f t="array" ref="A226">ROW(226:226)-3</f>
         <v>223</v>
       </c>
       <c r="B226" t="s">
@@ -6936,7 +7256,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" cm="1">
+        <f t="array" ref="A227">ROW(227:227)-3</f>
         <v>224</v>
       </c>
       <c r="B227" t="s">
@@ -6950,7 +7271,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" cm="1">
+        <f t="array" ref="A228">ROW(228:228)-3</f>
         <v>225</v>
       </c>
       <c r="B228" t="s">
@@ -6964,7 +7286,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" cm="1">
+        <f t="array" ref="A229">ROW(229:229)-3</f>
         <v>226</v>
       </c>
       <c r="B229" t="s">
@@ -6978,7 +7301,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" cm="1">
+        <f t="array" ref="A230">ROW(230:230)-3</f>
         <v>227</v>
       </c>
       <c r="B230" t="s">
@@ -6992,7 +7316,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" cm="1">
+        <f t="array" ref="A231">ROW(231:231)-3</f>
         <v>228</v>
       </c>
       <c r="B231" t="s">
@@ -7006,7 +7331,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" cm="1">
+        <f t="array" ref="A232">ROW(232:232)-3</f>
         <v>229</v>
       </c>
       <c r="B232" t="s">
@@ -7020,7 +7346,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" cm="1">
+        <f t="array" ref="A233">ROW(233:233)-3</f>
         <v>230</v>
       </c>
       <c r="B233" t="s">
@@ -7034,7 +7361,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" cm="1">
+        <f t="array" ref="A234">ROW(234:234)-3</f>
         <v>231</v>
       </c>
       <c r="B234" t="s">
@@ -7048,7 +7376,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" cm="1">
+        <f t="array" ref="A235">ROW(235:235)-3</f>
         <v>232</v>
       </c>
       <c r="B235" t="s">
@@ -7062,7 +7391,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" cm="1">
+        <f t="array" ref="A236">ROW(236:236)-3</f>
         <v>233</v>
       </c>
       <c r="B236" t="s">
@@ -7076,7 +7406,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="A237" cm="1">
+        <f t="array" ref="A237">ROW(237:237)-3</f>
         <v>234</v>
       </c>
       <c r="B237" t="s">
@@ -7090,7 +7421,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="A238" cm="1">
+        <f t="array" ref="A238">ROW(238:238)-3</f>
         <v>235</v>
       </c>
       <c r="B238" t="s">
@@ -7104,7 +7436,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="A239" cm="1">
+        <f t="array" ref="A239">ROW(239:239)-3</f>
         <v>236</v>
       </c>
       <c r="B239" t="s">
@@ -7118,7 +7451,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="A240" cm="1">
+        <f t="array" ref="A240">ROW(240:240)-3</f>
         <v>237</v>
       </c>
       <c r="B240" t="s">
@@ -7132,7 +7466,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" cm="1">
+        <f t="array" ref="A241">ROW(241:241)-3</f>
         <v>238</v>
       </c>
       <c r="B241" t="s">
@@ -7146,7 +7481,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" cm="1">
+        <f t="array" ref="A242">ROW(242:242)-3</f>
         <v>239</v>
       </c>
       <c r="B242" t="s">
@@ -7160,7 +7496,8 @@
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="A243" cm="1">
+        <f t="array" ref="A243">ROW(243:243)-3</f>
         <v>240</v>
       </c>
       <c r="B243" t="s">
@@ -7174,7 +7511,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="A244" cm="1">
+        <f t="array" ref="A244">ROW(244:244)-3</f>
         <v>241</v>
       </c>
       <c r="B244" t="s">
@@ -7188,7 +7526,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" cm="1">
+        <f t="array" ref="A245">ROW(245:245)-3</f>
         <v>242</v>
       </c>
       <c r="B245" t="s">
@@ -7202,7 +7541,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="A246" cm="1">
+        <f t="array" ref="A246">ROW(246:246)-3</f>
         <v>243</v>
       </c>
       <c r="B246" t="s">
@@ -7216,7 +7556,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="A247" cm="1">
+        <f t="array" ref="A247">ROW(247:247)-3</f>
         <v>244</v>
       </c>
       <c r="B247" t="s">
@@ -7230,7 +7571,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="A248" cm="1">
+        <f t="array" ref="A248">ROW(248:248)-3</f>
         <v>245</v>
       </c>
       <c r="B248" t="s">
@@ -7244,7 +7586,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="A249" cm="1">
+        <f t="array" ref="A249">ROW(249:249)-3</f>
         <v>246</v>
       </c>
       <c r="B249" t="s">
@@ -7258,7 +7601,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="A250" cm="1">
+        <f t="array" ref="A250">ROW(250:250)-3</f>
         <v>247</v>
       </c>
       <c r="B250" t="s">
@@ -7272,7 +7616,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="A251" cm="1">
+        <f t="array" ref="A251">ROW(251:251)-3</f>
         <v>248</v>
       </c>
       <c r="B251" t="s">
@@ -7286,7 +7631,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="A252" cm="1">
+        <f t="array" ref="A252">ROW(252:252)-3</f>
         <v>249</v>
       </c>
       <c r="B252" t="s">
@@ -7300,7 +7646,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="A253" cm="1">
+        <f t="array" ref="A253">ROW(253:253)-3</f>
         <v>250</v>
       </c>
       <c r="B253" t="s">
@@ -7314,7 +7661,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="A254" cm="1">
+        <f t="array" ref="A254">ROW(254:254)-3</f>
         <v>251</v>
       </c>
       <c r="B254" t="s">
@@ -7328,7 +7676,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="A255" cm="1">
+        <f t="array" ref="A255">ROW(255:255)-3</f>
         <v>252</v>
       </c>
       <c r="B255" t="s">
@@ -7342,7 +7691,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="A256" cm="1">
+        <f t="array" ref="A256">ROW(256:256)-3</f>
         <v>253</v>
       </c>
       <c r="B256" t="s">
@@ -7356,7 +7706,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" cm="1">
+        <f t="array" ref="A257">ROW(257:257)-3</f>
         <v>254</v>
       </c>
       <c r="B257" t="s">
@@ -7370,7 +7721,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" cm="1">
+        <f t="array" ref="A258">ROW(258:258)-3</f>
         <v>255</v>
       </c>
       <c r="B258" t="s">
@@ -7384,7 +7736,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" cm="1">
+        <f t="array" ref="A259">ROW(259:259)-3</f>
         <v>256</v>
       </c>
       <c r="B259" t="s">
@@ -7398,7 +7751,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" cm="1">
+        <f t="array" ref="A260">ROW(260:260)-3</f>
         <v>257</v>
       </c>
       <c r="B260" t="s">
@@ -7412,7 +7766,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" cm="1">
+        <f t="array" ref="A261">ROW(261:261)-3</f>
         <v>258</v>
       </c>
       <c r="B261" t="s">
@@ -7426,7 +7781,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" cm="1">
+        <f t="array" ref="A262">ROW(262:262)-3</f>
         <v>259</v>
       </c>
       <c r="B262" t="s">
@@ -7440,7 +7796,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" cm="1">
+        <f t="array" ref="A263">ROW(263:263)-3</f>
         <v>260</v>
       </c>
       <c r="B263" t="s">
@@ -7454,7 +7811,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" cm="1">
+        <f t="array" ref="A264">ROW(264:264)-3</f>
         <v>261</v>
       </c>
       <c r="B264" t="s">
@@ -7468,7 +7826,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" cm="1">
+        <f t="array" ref="A265">ROW(265:265)-3</f>
         <v>262</v>
       </c>
       <c r="B265" t="s">
@@ -7482,7 +7841,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" cm="1">
+        <f t="array" ref="A266">ROW(266:266)-3</f>
         <v>263</v>
       </c>
       <c r="B266" t="s">
@@ -7496,7 +7856,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" cm="1">
+        <f t="array" ref="A267">ROW(267:267)-3</f>
         <v>264</v>
       </c>
       <c r="B267" t="s">
@@ -7510,7 +7871,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" cm="1">
+        <f t="array" ref="A268">ROW(268:268)-3</f>
         <v>265</v>
       </c>
       <c r="B268" t="s">
@@ -7524,7 +7886,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" cm="1">
+        <f t="array" ref="A269">ROW(269:269)-3</f>
         <v>266</v>
       </c>
       <c r="B269" t="s">
@@ -7538,7 +7901,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" cm="1">
+        <f t="array" ref="A270">ROW(270:270)-3</f>
         <v>267</v>
       </c>
       <c r="B270" t="s">
@@ -7552,7 +7916,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" cm="1">
+        <f t="array" ref="A271">ROW(271:271)-3</f>
         <v>268</v>
       </c>
       <c r="B271" t="s">
@@ -7566,7 +7931,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" cm="1">
+        <f t="array" ref="A272">ROW(272:272)-3</f>
         <v>269</v>
       </c>
       <c r="B272" t="s">
@@ -7580,7 +7946,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" cm="1">
+        <f t="array" ref="A273">ROW(273:273)-3</f>
         <v>270</v>
       </c>
       <c r="B273" t="s">
@@ -7594,7 +7961,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" cm="1">
+        <f t="array" ref="A274">ROW(274:274)-3</f>
         <v>271</v>
       </c>
       <c r="B274" t="s">
@@ -7608,7 +7976,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="A275" cm="1">
+        <f t="array" ref="A275">ROW(275:275)-3</f>
         <v>272</v>
       </c>
       <c r="B275" t="s">
@@ -7622,7 +7991,8 @@
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" cm="1">
+        <f t="array" ref="A276">ROW(276:276)-3</f>
         <v>273</v>
       </c>
       <c r="B276" t="s">
@@ -7636,7 +8006,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" cm="1">
+        <f t="array" ref="A277">ROW(277:277)-3</f>
         <v>274</v>
       </c>
       <c r="B277" t="s">
@@ -7650,7 +8021,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" cm="1">
+        <f t="array" ref="A278">ROW(278:278)-3</f>
         <v>275</v>
       </c>
       <c r="B278" t="s">
@@ -7664,7 +8036,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" cm="1">
+        <f t="array" ref="A279">ROW(279:279)-3</f>
         <v>276</v>
       </c>
       <c r="B279" t="s">
@@ -7678,7 +8051,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" cm="1">
+        <f t="array" ref="A280">ROW(280:280)-3</f>
         <v>277</v>
       </c>
       <c r="B280" t="s">
@@ -7692,7 +8066,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" cm="1">
+        <f t="array" ref="A281">ROW(281:281)-3</f>
         <v>278</v>
       </c>
       <c r="B281" t="s">
@@ -7706,7 +8081,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" cm="1">
+        <f t="array" ref="A282">ROW(282:282)-3</f>
         <v>279</v>
       </c>
       <c r="B282" t="s">
@@ -7720,7 +8096,8 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" cm="1">
+        <f t="array" ref="A283">ROW(283:283)-3</f>
         <v>280</v>
       </c>
       <c r="B283" t="s">
@@ -7734,7 +8111,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" cm="1">
+        <f t="array" ref="A284">ROW(284:284)-3</f>
         <v>281</v>
       </c>
       <c r="B284" t="s">
@@ -7748,7 +8126,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" cm="1">
+        <f t="array" ref="A285">ROW(285:285)-3</f>
         <v>282</v>
       </c>
       <c r="B285" t="s">
@@ -7762,7 +8141,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" cm="1">
+        <f t="array" ref="A286">ROW(286:286)-3</f>
         <v>283</v>
       </c>
       <c r="B286" t="s">
@@ -7776,7 +8156,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" cm="1">
+        <f t="array" ref="A287">ROW(287:287)-3</f>
         <v>284</v>
       </c>
       <c r="B287" t="s">
@@ -7790,7 +8171,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" cm="1">
+        <f t="array" ref="A288">ROW(288:288)-3</f>
         <v>285</v>
       </c>
       <c r="B288" t="s">
@@ -7804,7 +8186,8 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" cm="1">
+        <f t="array" ref="A289">ROW(289:289)-3</f>
         <v>286</v>
       </c>
       <c r="B289" t="s">
@@ -7818,7 +8201,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" cm="1">
+        <f t="array" ref="A290">ROW(290:290)-3</f>
         <v>287</v>
       </c>
       <c r="B290" t="s">
@@ -7832,7 +8216,8 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" cm="1">
+        <f t="array" ref="A291">ROW(291:291)-3</f>
         <v>288</v>
       </c>
       <c r="B291" t="s">
@@ -7846,7 +8231,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="A292" cm="1">
+        <f t="array" ref="A292">ROW(292:292)-3</f>
         <v>289</v>
       </c>
       <c r="B292" t="s">
@@ -7860,7 +8246,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="A293" cm="1">
+        <f t="array" ref="A293">ROW(293:293)-3</f>
         <v>290</v>
       </c>
       <c r="B293" t="s">
@@ -7874,7 +8261,8 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="A294" cm="1">
+        <f t="array" ref="A294">ROW(294:294)-3</f>
         <v>291</v>
       </c>
       <c r="B294" t="s">
@@ -7888,7 +8276,8 @@
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="A295" cm="1">
+        <f t="array" ref="A295">ROW(295:295)-3</f>
         <v>292</v>
       </c>
       <c r="B295" t="s">
@@ -7901,242 +8290,363 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" cm="1">
+        <f t="array" ref="A296">ROW(296:296)-3</f>
         <v>293</v>
       </c>
       <c r="B296" t="s">
+        <v>899</v>
+      </c>
+      <c r="C296" t="s">
+        <v>898</v>
+      </c>
+      <c r="D296" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" cm="1">
+        <f t="array" ref="A297">ROW(297:297)-3</f>
+        <v>294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>906</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D297" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" cm="1">
+        <f t="array" ref="A298">ROW(298:298)-3</f>
+        <v>295</v>
+      </c>
+      <c r="B298" t="s">
+        <v>903</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D298" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A299" cm="1">
+        <f t="array" ref="A299">ROW(299:299)-3</f>
+        <v>296</v>
+      </c>
+      <c r="B299" t="s">
         <v>883</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>294</v>
-      </c>
-      <c r="B297" t="s">
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A300" cm="1">
+        <f t="array" ref="A300">ROW(300:300)-3</f>
+        <v>297</v>
+      </c>
+      <c r="B300" t="s">
         <v>884</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D300" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A301" cm="1">
+        <f t="array" ref="A301">ROW(301:301)-3</f>
+        <v>298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>885</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D301" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>295</v>
-      </c>
-      <c r="B298" t="s">
-        <v>885</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D298" s="3" t="s">
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A302" cm="1">
+        <f t="array" ref="A302">ROW(302:302)-3</f>
+        <v>299</v>
+      </c>
+      <c r="B302" t="s">
+        <v>886</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>296</v>
-      </c>
-      <c r="B299" t="s">
-        <v>886</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D299" s="3" t="s">
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A303" cm="1">
+        <f t="array" ref="A303">ROW(303:303)-3</f>
+        <v>300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>887</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>297</v>
-      </c>
-      <c r="B300" t="s">
-        <v>887</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D300" s="3" t="s">
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A304" cm="1">
+        <f t="array" ref="A304">ROW(304:304)-3</f>
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
+        <v>888</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>298</v>
-      </c>
-      <c r="B301" t="s">
-        <v>888</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D301" s="3" t="s">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" cm="1">
+        <f t="array" ref="A305">ROW(305:305)-3</f>
+        <v>302</v>
+      </c>
+      <c r="B305" t="s">
+        <v>889</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D305" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <v>299</v>
-      </c>
-      <c r="B302" t="s">
-        <v>889</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D302" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" cm="1">
+        <f t="array" ref="A306">ROW(306:306)-3</f>
+        <v>303</v>
+      </c>
+      <c r="B306" t="s">
+        <v>890</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D306" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <v>300</v>
-      </c>
-      <c r="B303" t="s">
-        <v>890</v>
-      </c>
-      <c r="C303" s="1" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" cm="1">
+        <f t="array" ref="A307">ROW(307:307)-3</f>
+        <v>304</v>
+      </c>
+      <c r="B307" t="s">
+        <v>891</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D307" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>301</v>
-      </c>
-      <c r="B304" t="s">
-        <v>891</v>
-      </c>
-      <c r="C304" s="1" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" cm="1">
+        <f t="array" ref="A308">ROW(308:308)-3</f>
+        <v>305</v>
+      </c>
+      <c r="B308" t="s">
+        <v>892</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D308" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305">
-        <v>302</v>
-      </c>
-      <c r="B305" t="s">
-        <v>892</v>
-      </c>
-      <c r="C305" s="1" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" cm="1">
+        <f t="array" ref="A309">ROW(309:309)-3</f>
+        <v>306</v>
+      </c>
+      <c r="B309" t="s">
+        <v>893</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D309" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <v>303</v>
-      </c>
-      <c r="B306" t="s">
-        <v>893</v>
-      </c>
-      <c r="C306" s="1" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" cm="1">
+        <f t="array" ref="A310">ROW(310:310)-3</f>
+        <v>307</v>
+      </c>
+      <c r="B310" t="s">
+        <v>894</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D310" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <v>304</v>
-      </c>
-      <c r="B307" t="s">
-        <v>894</v>
-      </c>
-      <c r="C307" s="1" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" cm="1">
+        <f t="array" ref="A311">ROW(311:311)-3</f>
+        <v>308</v>
+      </c>
+      <c r="B311" t="s">
+        <v>895</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D311" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308">
-        <v>305</v>
-      </c>
-      <c r="B308" t="s">
-        <v>895</v>
-      </c>
-      <c r="C308" s="1" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" cm="1">
+        <f t="array" ref="A312">ROW(312:312)-3</f>
+        <v>309</v>
+      </c>
+      <c r="B312" t="s">
+        <v>896</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D312" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309">
-        <v>306</v>
-      </c>
-      <c r="B309" t="s">
-        <v>896</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D309" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310">
-        <v>307</v>
-      </c>
-      <c r="B310" t="s">
-        <v>899</v>
-      </c>
-      <c r="C310" t="s">
-        <v>898</v>
-      </c>
-      <c r="D310" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311">
-        <v>308</v>
-      </c>
-      <c r="B311" t="s">
-        <v>906</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D311" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>309</v>
-      </c>
-      <c r="B312" t="s">
-        <v>903</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D312" t="s">
-        <v>905</v>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" cm="1">
+        <f t="array" ref="A313">ROW(313:313)-3</f>
+        <v>310</v>
+      </c>
+      <c r="B313" t="s">
+        <v>936</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D313" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" cm="1">
+        <f t="array" ref="A314">ROW(314:314)-3</f>
+        <v>311</v>
+      </c>
+      <c r="B314" t="s">
+        <v>933</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D314" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" cm="1">
+        <f t="array" ref="A315">ROW(315:315)-3</f>
+        <v>312</v>
+      </c>
+      <c r="B315" t="s">
+        <v>939</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D315" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" cm="1">
+        <f t="array" ref="A316">ROW(316:316)-3</f>
+        <v>313</v>
+      </c>
+      <c r="B316" t="s">
+        <v>940</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="D316" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" cm="1">
+        <f t="array" ref="A317">ROW(317:317)-3</f>
+        <v>314</v>
+      </c>
+      <c r="B317" t="s">
+        <v>944</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D317" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" cm="1">
+        <f t="array" ref="A318">ROW(318:318)-3</f>
+        <v>315</v>
+      </c>
+      <c r="B318" t="s">
+        <v>945</v>
+      </c>
+      <c r="C318" t="s">
+        <v>946</v>
+      </c>
+      <c r="D318" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>316</v>
+      </c>
+      <c r="B319" t="s">
+        <v>951</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D319" t="s">
+        <v>953</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21F1FD-1A78-4776-A53B-83C6B2DA9764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F39BE3-E39B-489C-BAF0-A6EF128AD8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="984">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3165,6 +3165,110 @@
   <si>
     <t>Heritage</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow17_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow17_1</t>
+  </si>
+  <si>
+    <t>mainmenu_grow17_2</t>
+  </si>
+  <si>
+    <t>mainmenu_grow17_3</t>
+  </si>
+  <si>
+    <t>mainmenu_grow17_4</t>
+  </si>
+  <si>
+    <t>强化后可以让一只价值较低的植物协同作战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化后可以让一只价值中等的植物协同作战，当前可与价值较低的植物协调作战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化后可以让一只价值较高的植物协同作战，当前可与价值中等的植物协调作战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化后可以让两只价值较高的植物协同作战，当前可与一只高价值的植物协调作战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让两只价值较高的植物协同作战</t>
+  </si>
+  <si>
+    <t>After strengthening, it can make a plant of lower value cooperate in combat</t>
+  </si>
+  <si>
+    <t>After strengthening, it can make a plant of medium value cooperate in combat, and currently can coordinate with plants of lower value</t>
+  </si>
+  <si>
+    <t>After strengthening, it can make a plant of higher value cooperate in combat, and currently can coordinate with plants of medium value</t>
+  </si>
+  <si>
+    <t>After strengthening, it can make two plants of higher value cooperate in combat, and currently can coordinate with a plant of high value</t>
+  </si>
+  <si>
+    <t>It can make two plants of higher value cooperate in combat</t>
+  </si>
+  <si>
+    <t>grow_addPlant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botanist</t>
+  </si>
+  <si>
+    <t>mainmenu_grow18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加初始携带{0}阳光，当前等级{1},总共携带阳光{2}。可以开局携带阳光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow19</t>
+  </si>
+  <si>
+    <t>强化增加初始携带{0}金币，当前等级{1},总共携带金币{2}。可以开局携带金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strengthening increases the initial carrying capacity of {0} sunlight, current level {1}, total carrying capacity of {2} sunlight. You can start with sunlight</t>
+  </si>
+  <si>
+    <t>Strengthening increases the initial carrying capacity of {0} gold coins, current level {1}, total carrying capacity of {2} gold coins. You can start with gold coins</t>
+  </si>
+  <si>
+    <t>grow_addSun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_addMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光合作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱袋子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>Money bag</t>
   </si>
 </sst>
 </file>
@@ -3542,11 +3646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
+      <pane ySplit="3" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8636,7 +8740,8 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319">
+      <c r="A319" cm="1">
+        <f t="array" ref="A319">ROW(319:319)-3</f>
         <v>316</v>
       </c>
       <c r="B319" t="s">
@@ -8647,6 +8752,156 @@
       </c>
       <c r="D319" t="s">
         <v>953</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" cm="1">
+        <f t="array" ref="A320">ROW(320:320)-3</f>
+        <v>317</v>
+      </c>
+      <c r="B320" t="s">
+        <v>954</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D320" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" cm="1">
+        <f t="array" ref="A321">ROW(321:321)-3</f>
+        <v>318</v>
+      </c>
+      <c r="B321" t="s">
+        <v>955</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D321" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" cm="1">
+        <f t="array" ref="A322">ROW(322:322)-3</f>
+        <v>319</v>
+      </c>
+      <c r="B322" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="D322" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" cm="1">
+        <f t="array" ref="A323">ROW(323:323)-3</f>
+        <v>320</v>
+      </c>
+      <c r="B323" t="s">
+        <v>957</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D323" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" cm="1">
+        <f t="array" ref="A324">ROW(324:324)-3</f>
+        <v>321</v>
+      </c>
+      <c r="B324" t="s">
+        <v>958</v>
+      </c>
+      <c r="C324" t="s">
+        <v>963</v>
+      </c>
+      <c r="D324" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" cm="1">
+        <f t="array" ref="A325">ROW(325:325)-3</f>
+        <v>322</v>
+      </c>
+      <c r="B325" t="s">
+        <v>969</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D325" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" cm="1">
+        <f t="array" ref="A326">ROW(326:326)-3</f>
+        <v>323</v>
+      </c>
+      <c r="B326" t="s">
+        <v>972</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D326" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" cm="1">
+        <f t="array" ref="A327">ROW(327:327)-3</f>
+        <v>324</v>
+      </c>
+      <c r="B327" t="s">
+        <v>974</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D327" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" cm="1">
+        <f t="array" ref="A328">ROW(328:328)-3</f>
+        <v>325</v>
+      </c>
+      <c r="B328" t="s">
+        <v>978</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D328" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" cm="1">
+        <f t="array" ref="A329">ROW(329:329)-3</f>
+        <v>326</v>
+      </c>
+      <c r="B329" t="s">
+        <v>979</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D329" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F39BE3-E39B-489C-BAF0-A6EF128AD8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA7D17-8A06-4113-8D1A-2B11C6D4F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-450" yWindow="210" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1011">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3014,22 +3005,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化增加{0}%伤害，当前等级{1},总共增加伤害{2}。增加攻击百分比伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%攻击速度，当前等级{1},总共增加攻击速度{2}。减少攻击冷却</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%范围，当前等级{1},总共增加范围{2}。增加攻击范围和拾取范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化增加{0}%移动速度，当前等级{1},总共增加移动速度{2}。移动会更快</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>强化增加{0}护甲，当前等级{1},总共增加护甲{2}。减少收到的伤害</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3059,21 +3034,6 @@
     <t>Enhance increases strength by {0}, current level {1}, total strength increase by {2}. Increases base damage of attacks</t>
   </si>
   <si>
-    <t>Enhance increases damage by {0}%, current level {1}, total damage increase by {2}. Increases percentage damage of attacks</t>
-  </si>
-  <si>
-    <t>Enhance increases attack speed by {0}%, current level {1}, total attack speed increase by {2}. Reduces attack cooldown</t>
-  </si>
-  <si>
-    <t>Enhance increases range by {0}%, current level {1}, total range increase by {2}. Increases attack range and pickup range</t>
-  </si>
-  <si>
-    <t>Enhance increases critical strike rate by {0}%, current level {1}, total critical strike rate increase by {2}. Attacks have a chance to cause more damage</t>
-  </si>
-  <si>
-    <t>Enhance increases movement speed by {0}%, current level {1}, total increase in movement speed {2}. Move faster</t>
-  </si>
-  <si>
     <t>Enhance increases {0} armor, current level {1}, total increase in armor {2}. Reduce damage received</t>
   </si>
   <si>
@@ -3089,10 +3049,6 @@
     <t>Enhance increases {0} botany, current level {1}, total increase in botany {2}. Additional percentage damage of plant attacks</t>
   </si>
   <si>
-    <t>强化增加{0}%暴击率，当前等级{1},总共增加暴击率{2}。攻击有概率造成更多伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mainmenu_grow15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3269,6 +3225,138 @@
   </si>
   <si>
     <t>Money bag</t>
+  </si>
+  <si>
+    <t>grow_resurrection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}次免疫死亡次数，当前等级{1},总共能免疫死亡{2}次。生命值归零后可以免疫伤害并恢复一半生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titanium Alloy Brain</t>
+  </si>
+  <si>
+    <t>Enhancement increases the number of immune deaths by {0} times. The current level is {1}, and the total number of immune deaths is {2}. After the health value reaches zero, it can be immune to damage and recover half of the health value.</t>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>grow_text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_curse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow21</t>
+  </si>
+  <si>
+    <t>强化增加{0}%僵尸数量，当前等级{1},总共增加{2}%僵尸数量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_physicalRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%奔跑的体力恢复速率，当前等级{1},总共增加{2}%体力恢复速率。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Enhanced: Increases the number of zombies by {0}%, current level {1}, total increase of zombies by {2}%.</t>
+  </si>
+  <si>
+    <t>Stamina Recovery</t>
+  </si>
+  <si>
+    <t>Enhanced: Increases the speed of physical recovery while running by {0}%, current level {1}, total increase of physical recovery by {2}%.</t>
+  </si>
+  <si>
+    <t>grow_runTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow23</t>
+  </si>
+  <si>
+    <t>强化增加{0}秒奔跑的体力，当前等级{1},总共增加{2}秒奔跑体力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>Enhanced to increase running stamina by {0} seconds, current level {1}, total increase of running stamina by {2} seconds.</t>
+  </si>
+  <si>
+    <t>强化增加{0}%伤害，当前等级{1},总共增加伤害{2}%。增加攻击百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%攻击速度，当前等级{1},总共增加攻击速度{2}%。减少攻击冷却</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%范围，当前等级{1},总共增加范围{2}%。增加攻击范围和拾取范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%暴击率，当前等级{1},总共增加暴击率{2}%。攻击有概率造成更多伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}%移动速度，当前等级{1},总共增加移动速度{2}%。移动会更快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancement increases damage by {0}%; current level {1}, total increased damage by {2}%. Increases attack percentage damage</t>
+  </si>
+  <si>
+    <t>Enhancement increases attack speed by {0}%; current level {1}, total increased attack speed by {2}%. Reduces attack cooldown</t>
+  </si>
+  <si>
+    <t>Enhancement increases range by {0}%; current level {1}, total increased range by {2}%. Increases attack range and pickup range</t>
+  </si>
+  <si>
+    <t>Enhancement increases critical hit rate by {0}%; current level {1}, total increased critical hit rate by {2}%. Attacks have a chance to cause more damage</t>
+  </si>
+  <si>
+    <t>Enhancement increases movement speed by {0}%; current level {1}, total increased movement speed by {2}%. Moves faster</t>
   </si>
 </sst>
 </file>
@@ -3646,11 +3734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C332" sqref="C332"/>
+      <pane ySplit="3" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8466,7 +8554,7 @@
         <v>907</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8481,7 +8569,7 @@
         <v>908</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8496,7 +8584,7 @@
         <v>909</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8508,10 +8596,10 @@
         <v>887</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>910</v>
+        <v>1001</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>922</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8523,10 +8611,10 @@
         <v>888</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>911</v>
+        <v>1002</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>923</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8538,10 +8626,10 @@
         <v>889</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>912</v>
+        <v>1003</v>
       </c>
       <c r="D305" t="s">
-        <v>924</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,10 +8641,10 @@
         <v>890</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>932</v>
+        <v>1004</v>
       </c>
       <c r="D306" t="s">
-        <v>925</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8568,10 +8656,10 @@
         <v>891</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>913</v>
+        <v>1005</v>
       </c>
       <c r="D307" t="s">
-        <v>926</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8583,10 +8671,10 @@
         <v>892</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D308" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8598,10 +8686,10 @@
         <v>893</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D309" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,10 +8701,10 @@
         <v>894</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D310" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8628,10 +8716,10 @@
         <v>895</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D311" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8643,10 +8731,10 @@
         <v>896</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D312" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8655,13 +8743,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>936</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>937</v>
+        <v>926</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="D313" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8670,13 +8758,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>933</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="D314" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8685,13 +8773,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>939</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>941</v>
+        <v>929</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="D315" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8700,13 +8788,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>940</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>942</v>
+        <v>930</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="D316" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8715,13 +8803,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>944</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>943</v>
+        <v>934</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="D317" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8730,13 +8818,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="C318" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D318" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8745,13 +8833,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>951</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>952</v>
+        <v>941</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="D319" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8760,13 +8848,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
+        <v>944</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D320" t="s">
         <v>954</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="D320" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8775,13 +8863,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
+        <v>945</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D321" t="s">
         <v>955</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="D321" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8790,13 +8878,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
+        <v>946</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D322" t="s">
         <v>956</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="D322" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,13 +8893,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
+        <v>947</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D323" t="s">
         <v>957</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="D323" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8820,13 +8908,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
+        <v>948</v>
+      </c>
+      <c r="C324" t="s">
+        <v>953</v>
+      </c>
+      <c r="D324" t="s">
         <v>958</v>
-      </c>
-      <c r="C324" t="s">
-        <v>963</v>
-      </c>
-      <c r="D324" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8835,13 +8923,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>969</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>970</v>
+        <v>959</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="D325" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,13 +8938,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D326" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8865,13 +8953,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D327" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8880,13 +8968,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>978</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>980</v>
+        <v>968</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="D328" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8895,13 +8983,148 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
+        <v>969</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D329" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" cm="1">
+        <f t="array" ref="A330">ROW(330:330)-3</f>
+        <v>327</v>
+      </c>
+      <c r="B330" t="s">
+        <v>974</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D330" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" cm="1">
+        <f t="array" ref="A331">ROW(331:331)-3</f>
+        <v>328</v>
+      </c>
+      <c r="B331" t="s">
+        <v>976</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D331" t="s">
         <v>979</v>
       </c>
-      <c r="C329" s="4" t="s">
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" cm="1">
+        <f t="array" ref="A332">ROW(332:332)-3</f>
+        <v>329</v>
+      </c>
+      <c r="B332" t="s">
+        <v>982</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D332" t="s">
         <v>981</v>
       </c>
-      <c r="D329" t="s">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" cm="1">
+        <f t="array" ref="A333">ROW(333:333)-3</f>
+        <v>330</v>
+      </c>
+      <c r="B333" t="s">
         <v>983</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D333" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" cm="1">
+        <f t="array" ref="A334">ROW(334:334)-3</f>
+        <v>331</v>
+      </c>
+      <c r="B334" t="s">
+        <v>985</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D334" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" cm="1">
+        <f t="array" ref="A335">ROW(335:335)-3</f>
+        <v>332</v>
+      </c>
+      <c r="B335" t="s">
+        <v>988</v>
+      </c>
+      <c r="C335" t="s">
+        <v>987</v>
+      </c>
+      <c r="D335" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" cm="1">
+        <f t="array" ref="A336">ROW(336:336)-3</f>
+        <v>333</v>
+      </c>
+      <c r="B336" t="s">
+        <v>990</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D336" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" cm="1">
+        <f t="array" ref="A337">ROW(337:337)-3</f>
+        <v>334</v>
+      </c>
+      <c r="B337" t="s">
+        <v>995</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D337" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" cm="1">
+        <f t="array" ref="A338">ROW(338:338)-3</f>
+        <v>335</v>
+      </c>
+      <c r="B338" t="s">
+        <v>997</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA7D17-8A06-4113-8D1A-2B11C6D4F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D1C7E-1987-4642-A371-79D3A8B321BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-450" yWindow="210" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="960" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="1023">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3357,6 +3357,48 @@
   </si>
   <si>
     <t>Enhancement increases movement speed by {0}%; current level {1}, total increased movement speed by {2}%. Moves faster</t>
+  </si>
+  <si>
+    <t>grow_dashTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_dashRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow24</t>
+  </si>
+  <si>
+    <t>mainmenu_grow25</t>
+  </si>
+  <si>
+    <t>强化增加{0}%翻滚的体力恢复速率，当前等级{1},总共增加{2}%翻滚体力恢复速率。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化增加{0}翻滚次数，当前等级{1},总共增加{2}翻滚次数。灵活的翻滚能躲避僵尸的攻击。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rolling</t>
+  </si>
+  <si>
+    <t>Rolling Stamina</t>
+  </si>
+  <si>
+    <t>Enhanced: Increases the number of rolls by {0}, current level {1}, total increase of {2} rolls. Flexible rolling can dodge zombie attacks.</t>
+  </si>
+  <si>
+    <t>Enhanced: Increases the stamina recovery rate of rolling by {0}%, current level {1}, total increase of {2}% stamina recovery rate of rolling.</t>
   </si>
 </sst>
 </file>
@@ -3734,11 +3776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C307" sqref="C307"/>
+      <pane ySplit="3" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D339" sqref="D339:D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9000,7 +9042,7 @@
       <c r="B330" t="s">
         <v>974</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C330" s="1" t="s">
         <v>975</v>
       </c>
       <c r="D330" t="s">
@@ -9030,7 +9072,7 @@
       <c r="B332" t="s">
         <v>982</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C332" s="1" t="s">
         <v>980</v>
       </c>
       <c r="D332" t="s">
@@ -9045,7 +9087,7 @@
       <c r="B333" t="s">
         <v>983</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C333" s="1" t="s">
         <v>984</v>
       </c>
       <c r="D333" t="s">
@@ -9105,7 +9147,7 @@
       <c r="B337" t="s">
         <v>995</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C337" s="1" t="s">
         <v>996</v>
       </c>
       <c r="D337" t="s">
@@ -9125,6 +9167,66 @@
       </c>
       <c r="D338" t="s">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" cm="1">
+        <f t="array" ref="A339">ROW(339:339)-3</f>
+        <v>336</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" cm="1">
+        <f t="array" ref="A340">ROW(340:340)-3</f>
+        <v>337</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" cm="1">
+        <f t="array" ref="A341">ROW(341:341)-3</f>
+        <v>338</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" cm="1">
+        <f t="array" ref="A342">ROW(342:342)-3</f>
+        <v>339</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D1C7E-1987-4642-A371-79D3A8B321BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B1F2D-7DC8-4287-A5D1-81534D34ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="960" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1324">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3399,13 +3399,1013 @@
   </si>
   <si>
     <t>Enhanced: Increases the stamina recovery rate of rolling by {0}%, current level {1}, total increase of {2}% stamina recovery rate of rolling.</t>
+  </si>
+  <si>
+    <t>初见僵潮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战利品？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕猎者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小试牛刀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>融会贯通</t>
+  </si>
+  <si>
+    <t>出神入化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头好痒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双发豌豆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加特林豌豆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米加农炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蒲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧郁菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地刺王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁桶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄球头盔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报纸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁栅栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶梯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰碎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买买买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传哪来了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无坚不摧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强身健体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯快不破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁壁垒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰缠万贯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>热爱园艺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉人天相</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚积薄发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title2</t>
+  </si>
+  <si>
+    <t>achievement_title3</t>
+  </si>
+  <si>
+    <t>achievement_title4</t>
+  </si>
+  <si>
+    <t>achievement_title5</t>
+  </si>
+  <si>
+    <t>achievement_title6</t>
+  </si>
+  <si>
+    <t>achievement_title7</t>
+  </si>
+  <si>
+    <t>achievement_title8</t>
+  </si>
+  <si>
+    <t>achievement_title9</t>
+  </si>
+  <si>
+    <t>achievement_title10</t>
+  </si>
+  <si>
+    <t>achievement_title11</t>
+  </si>
+  <si>
+    <t>achievement_title12</t>
+  </si>
+  <si>
+    <t>achievement_title13</t>
+  </si>
+  <si>
+    <t>achievement_title14</t>
+  </si>
+  <si>
+    <t>achievement_title15</t>
+  </si>
+  <si>
+    <t>achievement_title16</t>
+  </si>
+  <si>
+    <t>achievement_title17</t>
+  </si>
+  <si>
+    <t>achievement_title18</t>
+  </si>
+  <si>
+    <t>achievement_title19</t>
+  </si>
+  <si>
+    <t>achievement_title20</t>
+  </si>
+  <si>
+    <t>achievement_title21</t>
+  </si>
+  <si>
+    <t>achievement_title22</t>
+  </si>
+  <si>
+    <t>achievement_title23</t>
+  </si>
+  <si>
+    <t>achievement_title24</t>
+  </si>
+  <si>
+    <t>achievement_title25</t>
+  </si>
+  <si>
+    <t>achievement_title26</t>
+  </si>
+  <si>
+    <t>achievement_title27</t>
+  </si>
+  <si>
+    <t>achievement_title28</t>
+  </si>
+  <si>
+    <t>achievement_title29</t>
+  </si>
+  <si>
+    <t>achievement_title30</t>
+  </si>
+  <si>
+    <t>achievement_title31</t>
+  </si>
+  <si>
+    <t>achievement_title32</t>
+  </si>
+  <si>
+    <t>achievement_title33</t>
+  </si>
+  <si>
+    <t>achievement_title34</t>
+  </si>
+  <si>
+    <t>achievement_title35</t>
+  </si>
+  <si>
+    <t>achievement_title36</t>
+  </si>
+  <si>
+    <t>achievement_title37</t>
+  </si>
+  <si>
+    <t>achievement_title38</t>
+  </si>
+  <si>
+    <t>祭坛等级全部升满</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运达到25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光达到500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量达到20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用传送门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用菠菜的飞头攻击累计击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用火爆辣椒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用寒冰菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀扶梯僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀铁栅栏僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀路障僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀读报僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀巨人僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀橄榄球僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀铁桶僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀投篮僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用灰烬植物击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次大喷菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次购买水花盆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次玉米投手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计进化过2次双发射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次豌豆射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次被僵尸吃掉脑子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集500个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集200个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集50个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集10000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集2000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集300个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次开始冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info2</t>
+  </si>
+  <si>
+    <t>achievement_info3</t>
+  </si>
+  <si>
+    <t>achievement_info4</t>
+  </si>
+  <si>
+    <t>achievement_info5</t>
+  </si>
+  <si>
+    <t>achievement_info6</t>
+  </si>
+  <si>
+    <t>achievement_info7</t>
+  </si>
+  <si>
+    <t>achievement_info8</t>
+  </si>
+  <si>
+    <t>achievement_info9</t>
+  </si>
+  <si>
+    <t>achievement_info10</t>
+  </si>
+  <si>
+    <t>achievement_info11</t>
+  </si>
+  <si>
+    <t>achievement_info12</t>
+  </si>
+  <si>
+    <t>achievement_info13</t>
+  </si>
+  <si>
+    <t>achievement_info14</t>
+  </si>
+  <si>
+    <t>achievement_info15</t>
+  </si>
+  <si>
+    <t>achievement_info16</t>
+  </si>
+  <si>
+    <t>achievement_info17</t>
+  </si>
+  <si>
+    <t>achievement_info18</t>
+  </si>
+  <si>
+    <t>achievement_info19</t>
+  </si>
+  <si>
+    <t>achievement_info20</t>
+  </si>
+  <si>
+    <t>achievement_info21</t>
+  </si>
+  <si>
+    <t>achievement_info22</t>
+  </si>
+  <si>
+    <t>achievement_info23</t>
+  </si>
+  <si>
+    <t>achievement_info24</t>
+  </si>
+  <si>
+    <t>achievement_info25</t>
+  </si>
+  <si>
+    <t>achievement_info26</t>
+  </si>
+  <si>
+    <t>achievement_info27</t>
+  </si>
+  <si>
+    <t>achievement_info28</t>
+  </si>
+  <si>
+    <t>achievement_info29</t>
+  </si>
+  <si>
+    <t>achievement_info30</t>
+  </si>
+  <si>
+    <t>achievement_info31</t>
+  </si>
+  <si>
+    <t>achievement_info32</t>
+  </si>
+  <si>
+    <t>achievement_info33</t>
+  </si>
+  <si>
+    <t>achievement_info34</t>
+  </si>
+  <si>
+    <t>achievement_info35</t>
+  </si>
+  <si>
+    <t>achievement_info36</t>
+  </si>
+  <si>
+    <t>achievement_info37</t>
+  </si>
+  <si>
+    <t>achievement_info38</t>
+  </si>
+  <si>
+    <t>解锁双发豌豆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁加特林豌豆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁玉米加农炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁香蒲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁忧郁菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁双子向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁地刺王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁毁灭菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具篮球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具铁桶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具橄榄球头盔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具路牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具报纸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具路障</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具铁栅栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具扶梯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具冰碎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具车钥匙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_lock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_lock2</t>
+  </si>
+  <si>
+    <t>achievement_lock3</t>
+  </si>
+  <si>
+    <t>achievement_lock4</t>
+  </si>
+  <si>
+    <t>achievement_lock5</t>
+  </si>
+  <si>
+    <t>achievement_lock6</t>
+  </si>
+  <si>
+    <t>achievement_lock7</t>
+  </si>
+  <si>
+    <t>achievement_lock8</t>
+  </si>
+  <si>
+    <t>achievement_lock9</t>
+  </si>
+  <si>
+    <t>achievement_lock10</t>
+  </si>
+  <si>
+    <t>achievement_lock11</t>
+  </si>
+  <si>
+    <t>achievement_lock12</t>
+  </si>
+  <si>
+    <t>achievement_lock13</t>
+  </si>
+  <si>
+    <t>achievement_lock14</t>
+  </si>
+  <si>
+    <t>achievement_lock15</t>
+  </si>
+  <si>
+    <t>achievement_lock16</t>
+  </si>
+  <si>
+    <t>achievement_lock17</t>
+  </si>
+  <si>
+    <t>achievement_lock18</t>
+  </si>
+  <si>
+    <t>achievement_lock19</t>
+  </si>
+  <si>
+    <t>achievement_lock20</t>
+  </si>
+  <si>
+    <t>achievement_lock21</t>
+  </si>
+  <si>
+    <t>achievement_lock22</t>
+  </si>
+  <si>
+    <t>achievement_lock23</t>
+  </si>
+  <si>
+    <t>achievement_lock24</t>
+  </si>
+  <si>
+    <t>achievement_lock25</t>
+  </si>
+  <si>
+    <t>achievement_lock26</t>
+  </si>
+  <si>
+    <t>achievement_lock27</t>
+  </si>
+  <si>
+    <t>achievement_lock28</t>
+  </si>
+  <si>
+    <t>achievement_lock29</t>
+  </si>
+  <si>
+    <t>achievement_lock30</t>
+  </si>
+  <si>
+    <t>achievement_lock31</t>
+  </si>
+  <si>
+    <t>achievement_lock32</t>
+  </si>
+  <si>
+    <t>achievement_lock33</t>
+  </si>
+  <si>
+    <t>achievement_lock34</t>
+  </si>
+  <si>
+    <t>achievement_lock35</t>
+  </si>
+  <si>
+    <t>achievement_lock36</t>
+  </si>
+  <si>
+    <t>achievement_lock37</t>
+  </si>
+  <si>
+    <t>achievement_lock38</t>
+  </si>
+  <si>
+    <t>First encounter with zombies</t>
+  </si>
+  <si>
+    <t>Loot?</t>
+  </si>
+  <si>
+    <t>Harvester</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Mastering</t>
+  </si>
+  <si>
+    <t>Itchy head</t>
+  </si>
+  <si>
+    <t>Double-shot peas</t>
+  </si>
+  <si>
+    <t>Gatling peas</t>
+  </si>
+  <si>
+    <t>Corn cannon</t>
+  </si>
+  <si>
+    <t>Depression mushrooms</t>
+  </si>
+  <si>
+    <t>Twin sunflowers</t>
+  </si>
+  <si>
+    <t>Earth thorn king</t>
+  </si>
+  <si>
+    <t>Destruction mushrooms</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Barrels</t>
+  </si>
+  <si>
+    <t>Football helmets</t>
+  </si>
+  <si>
+    <t>Signboards</t>
+  </si>
+  <si>
+    <t>Newspapers</t>
+  </si>
+  <si>
+    <t>Roadblocks</t>
+  </si>
+  <si>
+    <t>Iron fences</t>
+  </si>
+  <si>
+    <t>Escalators</t>
+  </si>
+  <si>
+    <t>Ice shatters</t>
+  </si>
+  <si>
+    <t>Flames</t>
+  </si>
+  <si>
+    <t>Buy, buy, buy</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Where did it come from</t>
+  </si>
+  <si>
+    <t>Indestructible</t>
+  </si>
+  <si>
+    <t>Strengthening the body</t>
+  </si>
+  <si>
+    <t>Only speed can break through</t>
+  </si>
+  <si>
+    <t>Iron barrier</t>
+  </si>
+  <si>
+    <t>Wealthy</t>
+  </si>
+  <si>
+    <t>Love gardening</t>
+  </si>
+  <si>
+    <t>Lucky people</t>
+  </si>
+  <si>
+    <t>Solid accumulation</t>
+  </si>
+  <si>
+    <t>First adventure</t>
+  </si>
+  <si>
+    <t>Collect 30 in total 0 zombie heads</t>
+  </si>
+  <si>
+    <t>Collected 2,000 zombie heads in total</t>
+  </si>
+  <si>
+    <t>Collected 10,000 zombie heads in total</t>
+  </si>
+  <si>
+    <t>Collected 50 zombie heads in one adventure</t>
+  </si>
+  <si>
+    <t>Collected 200 zombie heads in one adventure</t>
+  </si>
+  <si>
+    <t>Collected 500 zombie heads in one adventure</t>
+  </si>
+  <si>
+    <t>First time having your brain eaten by a zombie</t>
+  </si>
+  <si>
+    <t>Cultivated 4 times of pea shooters</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of dual shooters</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of corn pitchers</t>
+  </si>
+  <si>
+    <t>Buyed a water flower pot for the first time</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of giant mushrooms</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of sunflowers</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of ground spikes</t>
+  </si>
+  <si>
+    <t>Killed 10 enemies with ash plants Zombies</t>
+  </si>
+  <si>
+    <t>Killed a basketball zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a barrel zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a football zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a giant zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a newspaper zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a roadblock zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a fence zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed an escalator zombie for the first time</t>
+  </si>
+  <si>
+    <t>Used ice mushrooms for the first time</t>
+  </si>
+  <si>
+    <t>Used flaming peppers for the first time</t>
+  </si>
+  <si>
+    <t>Killed 10 zombies with Spinach's flying head attack</t>
+  </si>
+  <si>
+    <t>Used a portal for the first time</t>
+  </si>
+  <si>
+    <t>Strength reached 20</t>
+  </si>
+  <si>
+    <t>Health reached 100</t>
+  </si>
+  <si>
+    <t>Attack speed reached 50</t>
+  </si>
+  <si>
+    <t>Armor reached 50</t>
+  </si>
+  <si>
+    <t>Botany reached 100</t>
+  </si>
+  <si>
+    <t>Gold reached to 100</t>
+  </si>
+  <si>
+    <t>Sunshine reaches 500</t>
+  </si>
+  <si>
+    <t>Luck reaches 25</t>
+  </si>
+  <si>
+    <t>Altar levels are fully upgraded</t>
+  </si>
+  <si>
+    <t>Unlock Corn Cannon</t>
+  </si>
+  <si>
+    <t>Unlock Thorn King</t>
+  </si>
+  <si>
+    <t>Unlock Prop Ice Crusher</t>
+  </si>
+  <si>
+    <t>First purchase</t>
+  </si>
+  <si>
+    <t>Unlock Twin Peas</t>
+  </si>
+  <si>
+    <t>Unlock Gatling Peas</t>
+  </si>
+  <si>
+    <t>Unlock Cattails</t>
+  </si>
+  <si>
+    <t>Unlock Melancholy Mushrooms</t>
+  </si>
+  <si>
+    <t>Unlock Twin Sunflowers</t>
+  </si>
+  <si>
+    <t>Unlock Destruction Mushrooms</t>
+  </si>
+  <si>
+    <t>Unlock Prop Basketballs</t>
+  </si>
+  <si>
+    <t>Unlock Prop Barrels</t>
+  </si>
+  <si>
+    <t>Unlock Prop Football Helmets</t>
+  </si>
+  <si>
+    <t>Unlock Prop Signs</t>
+  </si>
+  <si>
+    <t>Unlock Prop Newspapers</t>
+  </si>
+  <si>
+    <t>Unlock Prop Roadblocks</t>
+  </si>
+  <si>
+    <t>Unlock Prop Fences</t>
+  </si>
+  <si>
+    <t>Unlock Prop Escalators</t>
+  </si>
+  <si>
+    <t>Unlock Prop Flames</t>
+  </si>
+  <si>
+    <t>Unlock Prop Car Keys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3467,6 +4467,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3494,7 +4500,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3776,11 +4782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D339" sqref="D339:D342"/>
+      <pane ySplit="3" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J434" sqref="J434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9177,7 +10183,7 @@
       <c r="B339" t="s">
         <v>1011</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C339" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="D339" t="s">
@@ -9192,7 +10198,7 @@
       <c r="B340" t="s">
         <v>1012</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C340" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="D340" t="s">
@@ -9227,6 +10233,1147 @@
       </c>
       <c r="D342" t="s">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D354" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D376" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B395" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B433" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B440" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B442" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B444" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B455" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B456" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B1F2D-7DC8-4287-A5D1-81534D34ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A8A120-7260-4F2D-A9A3-B8BADFA2BFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4785,8 +4785,8 @@
   <dimension ref="A1:F456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J434" sqref="J434"/>
+      <pane ySplit="3" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10236,6 +10236,10 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" cm="1">
+        <f t="array" ref="A343">ROW(343:343)-3</f>
+        <v>340</v>
+      </c>
       <c r="B343" t="s">
         <v>1061</v>
       </c>
@@ -10247,6 +10251,10 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" cm="1">
+        <f t="array" ref="A344">ROW(344:344)-3</f>
+        <v>341</v>
+      </c>
       <c r="B344" t="s">
         <v>1062</v>
       </c>
@@ -10258,6 +10266,10 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" cm="1">
+        <f t="array" ref="A345">ROW(345:345)-3</f>
+        <v>342</v>
+      </c>
       <c r="B345" t="s">
         <v>1063</v>
       </c>
@@ -10269,6 +10281,10 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" cm="1">
+        <f t="array" ref="A346">ROW(346:346)-3</f>
+        <v>343</v>
+      </c>
       <c r="B346" t="s">
         <v>1064</v>
       </c>
@@ -10280,6 +10296,10 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" cm="1">
+        <f t="array" ref="A347">ROW(347:347)-3</f>
+        <v>344</v>
+      </c>
       <c r="B347" t="s">
         <v>1065</v>
       </c>
@@ -10291,6 +10311,10 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" cm="1">
+        <f t="array" ref="A348">ROW(348:348)-3</f>
+        <v>345</v>
+      </c>
       <c r="B348" t="s">
         <v>1066</v>
       </c>
@@ -10302,6 +10326,10 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" cm="1">
+        <f t="array" ref="A349">ROW(349:349)-3</f>
+        <v>346</v>
+      </c>
       <c r="B349" t="s">
         <v>1067</v>
       </c>
@@ -10313,6 +10341,10 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" cm="1">
+        <f t="array" ref="A350">ROW(350:350)-3</f>
+        <v>347</v>
+      </c>
       <c r="B350" t="s">
         <v>1068</v>
       </c>
@@ -10324,6 +10356,10 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" cm="1">
+        <f t="array" ref="A351">ROW(351:351)-3</f>
+        <v>348</v>
+      </c>
       <c r="B351" t="s">
         <v>1069</v>
       </c>
@@ -10335,6 +10371,10 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" cm="1">
+        <f t="array" ref="A352">ROW(352:352)-3</f>
+        <v>349</v>
+      </c>
       <c r="B352" t="s">
         <v>1070</v>
       </c>
@@ -10345,7 +10385,11 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" cm="1">
+        <f t="array" ref="A353">ROW(353:353)-3</f>
+        <v>350</v>
+      </c>
       <c r="B353" t="s">
         <v>1071</v>
       </c>
@@ -10356,7 +10400,11 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" cm="1">
+        <f t="array" ref="A354">ROW(354:354)-3</f>
+        <v>351</v>
+      </c>
       <c r="B354" t="s">
         <v>1072</v>
       </c>
@@ -10367,7 +10415,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" cm="1">
+        <f t="array" ref="A355">ROW(355:355)-3</f>
+        <v>352</v>
+      </c>
       <c r="B355" t="s">
         <v>1073</v>
       </c>
@@ -10378,7 +10430,11 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" cm="1">
+        <f t="array" ref="A356">ROW(356:356)-3</f>
+        <v>353</v>
+      </c>
       <c r="B356" t="s">
         <v>1074</v>
       </c>
@@ -10389,7 +10445,11 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" cm="1">
+        <f t="array" ref="A357">ROW(357:357)-3</f>
+        <v>354</v>
+      </c>
       <c r="B357" t="s">
         <v>1075</v>
       </c>
@@ -10400,7 +10460,11 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" cm="1">
+        <f t="array" ref="A358">ROW(358:358)-3</f>
+        <v>355</v>
+      </c>
       <c r="B358" t="s">
         <v>1076</v>
       </c>
@@ -10411,7 +10475,11 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" cm="1">
+        <f t="array" ref="A359">ROW(359:359)-3</f>
+        <v>356</v>
+      </c>
       <c r="B359" t="s">
         <v>1077</v>
       </c>
@@ -10422,7 +10490,11 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" cm="1">
+        <f t="array" ref="A360">ROW(360:360)-3</f>
+        <v>357</v>
+      </c>
       <c r="B360" t="s">
         <v>1078</v>
       </c>
@@ -10433,7 +10505,11 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" cm="1">
+        <f t="array" ref="A361">ROW(361:361)-3</f>
+        <v>358</v>
+      </c>
       <c r="B361" t="s">
         <v>1079</v>
       </c>
@@ -10444,7 +10520,11 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" cm="1">
+        <f t="array" ref="A362">ROW(362:362)-3</f>
+        <v>359</v>
+      </c>
       <c r="B362" t="s">
         <v>1080</v>
       </c>
@@ -10455,7 +10535,11 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" cm="1">
+        <f t="array" ref="A363">ROW(363:363)-3</f>
+        <v>360</v>
+      </c>
       <c r="B363" t="s">
         <v>1081</v>
       </c>
@@ -10466,7 +10550,11 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" cm="1">
+        <f t="array" ref="A364">ROW(364:364)-3</f>
+        <v>361</v>
+      </c>
       <c r="B364" t="s">
         <v>1082</v>
       </c>
@@ -10477,7 +10565,11 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" cm="1">
+        <f t="array" ref="A365">ROW(365:365)-3</f>
+        <v>362</v>
+      </c>
       <c r="B365" t="s">
         <v>1083</v>
       </c>
@@ -10488,7 +10580,11 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" cm="1">
+        <f t="array" ref="A366">ROW(366:366)-3</f>
+        <v>363</v>
+      </c>
       <c r="B366" t="s">
         <v>1084</v>
       </c>
@@ -10499,7 +10595,11 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" cm="1">
+        <f t="array" ref="A367">ROW(367:367)-3</f>
+        <v>364</v>
+      </c>
       <c r="B367" t="s">
         <v>1085</v>
       </c>
@@ -10510,7 +10610,11 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" cm="1">
+        <f t="array" ref="A368">ROW(368:368)-3</f>
+        <v>365</v>
+      </c>
       <c r="B368" t="s">
         <v>1086</v>
       </c>
@@ -10521,7 +10625,11 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" cm="1">
+        <f t="array" ref="A369">ROW(369:369)-3</f>
+        <v>366</v>
+      </c>
       <c r="B369" t="s">
         <v>1087</v>
       </c>
@@ -10532,7 +10640,11 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" cm="1">
+        <f t="array" ref="A370">ROW(370:370)-3</f>
+        <v>367</v>
+      </c>
       <c r="B370" t="s">
         <v>1088</v>
       </c>
@@ -10543,7 +10655,11 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" cm="1">
+        <f t="array" ref="A371">ROW(371:371)-3</f>
+        <v>368</v>
+      </c>
       <c r="B371" t="s">
         <v>1089</v>
       </c>
@@ -10554,7 +10670,11 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" cm="1">
+        <f t="array" ref="A372">ROW(372:372)-3</f>
+        <v>369</v>
+      </c>
       <c r="B372" t="s">
         <v>1090</v>
       </c>
@@ -10565,7 +10685,11 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" cm="1">
+        <f t="array" ref="A373">ROW(373:373)-3</f>
+        <v>370</v>
+      </c>
       <c r="B373" t="s">
         <v>1091</v>
       </c>
@@ -10576,7 +10700,11 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" cm="1">
+        <f t="array" ref="A374">ROW(374:374)-3</f>
+        <v>371</v>
+      </c>
       <c r="B374" t="s">
         <v>1092</v>
       </c>
@@ -10587,7 +10715,11 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" cm="1">
+        <f t="array" ref="A375">ROW(375:375)-3</f>
+        <v>372</v>
+      </c>
       <c r="B375" t="s">
         <v>1093</v>
       </c>
@@ -10598,7 +10730,11 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" cm="1">
+        <f t="array" ref="A376">ROW(376:376)-3</f>
+        <v>373</v>
+      </c>
       <c r="B376" t="s">
         <v>1094</v>
       </c>
@@ -10609,7 +10745,11 @@
         <v>961</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" cm="1">
+        <f t="array" ref="A377">ROW(377:377)-3</f>
+        <v>374</v>
+      </c>
       <c r="B377" t="s">
         <v>1095</v>
       </c>
@@ -10620,7 +10760,11 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" cm="1">
+        <f t="array" ref="A378">ROW(378:378)-3</f>
+        <v>375</v>
+      </c>
       <c r="B378" t="s">
         <v>1096</v>
       </c>
@@ -10631,7 +10775,11 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" cm="1">
+        <f t="array" ref="A379">ROW(379:379)-3</f>
+        <v>376</v>
+      </c>
       <c r="B379" t="s">
         <v>1097</v>
       </c>
@@ -10642,7 +10790,11 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" cm="1">
+        <f t="array" ref="A380">ROW(380:380)-3</f>
+        <v>377</v>
+      </c>
       <c r="B380" t="s">
         <v>1098</v>
       </c>
@@ -10653,7 +10805,11 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" cm="1">
+        <f t="array" ref="A381">ROW(381:381)-3</f>
+        <v>378</v>
+      </c>
       <c r="B381" t="s">
         <v>1137</v>
       </c>
@@ -10664,7 +10820,11 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" cm="1">
+        <f t="array" ref="A382">ROW(382:382)-3</f>
+        <v>379</v>
+      </c>
       <c r="B382" t="s">
         <v>1138</v>
       </c>
@@ -10675,7 +10835,11 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" cm="1">
+        <f t="array" ref="A383">ROW(383:383)-3</f>
+        <v>380</v>
+      </c>
       <c r="B383" t="s">
         <v>1139</v>
       </c>
@@ -10686,7 +10850,11 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" cm="1">
+        <f t="array" ref="A384">ROW(384:384)-3</f>
+        <v>381</v>
+      </c>
       <c r="B384" t="s">
         <v>1140</v>
       </c>
@@ -10697,7 +10865,11 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" cm="1">
+        <f t="array" ref="A385">ROW(385:385)-3</f>
+        <v>382</v>
+      </c>
       <c r="B385" t="s">
         <v>1141</v>
       </c>
@@ -10708,7 +10880,11 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" cm="1">
+        <f t="array" ref="A386">ROW(386:386)-3</f>
+        <v>383</v>
+      </c>
       <c r="B386" t="s">
         <v>1142</v>
       </c>
@@ -10719,7 +10895,11 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" cm="1">
+        <f t="array" ref="A387">ROW(387:387)-3</f>
+        <v>384</v>
+      </c>
       <c r="B387" t="s">
         <v>1143</v>
       </c>
@@ -10730,7 +10910,11 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" cm="1">
+        <f t="array" ref="A388">ROW(388:388)-3</f>
+        <v>385</v>
+      </c>
       <c r="B388" t="s">
         <v>1144</v>
       </c>
@@ -10741,7 +10925,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" cm="1">
+        <f t="array" ref="A389">ROW(389:389)-3</f>
+        <v>386</v>
+      </c>
       <c r="B389" t="s">
         <v>1145</v>
       </c>
@@ -10752,7 +10940,11 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" cm="1">
+        <f t="array" ref="A390">ROW(390:390)-3</f>
+        <v>387</v>
+      </c>
       <c r="B390" t="s">
         <v>1146</v>
       </c>
@@ -10763,7 +10955,11 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" cm="1">
+        <f t="array" ref="A391">ROW(391:391)-3</f>
+        <v>388</v>
+      </c>
       <c r="B391" t="s">
         <v>1147</v>
       </c>
@@ -10774,7 +10970,11 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" cm="1">
+        <f t="array" ref="A392">ROW(392:392)-3</f>
+        <v>389</v>
+      </c>
       <c r="B392" t="s">
         <v>1148</v>
       </c>
@@ -10785,7 +10985,11 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" cm="1">
+        <f t="array" ref="A393">ROW(393:393)-3</f>
+        <v>390</v>
+      </c>
       <c r="B393" t="s">
         <v>1149</v>
       </c>
@@ -10796,7 +11000,11 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" cm="1">
+        <f t="array" ref="A394">ROW(394:394)-3</f>
+        <v>391</v>
+      </c>
       <c r="B394" t="s">
         <v>1150</v>
       </c>
@@ -10807,7 +11015,11 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" cm="1">
+        <f t="array" ref="A395">ROW(395:395)-3</f>
+        <v>392</v>
+      </c>
       <c r="B395" t="s">
         <v>1151</v>
       </c>
@@ -10818,7 +11030,11 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" cm="1">
+        <f t="array" ref="A396">ROW(396:396)-3</f>
+        <v>393</v>
+      </c>
       <c r="B396" t="s">
         <v>1152</v>
       </c>
@@ -10829,7 +11045,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" cm="1">
+        <f t="array" ref="A397">ROW(397:397)-3</f>
+        <v>394</v>
+      </c>
       <c r="B397" t="s">
         <v>1153</v>
       </c>
@@ -10840,7 +11060,11 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" cm="1">
+        <f t="array" ref="A398">ROW(398:398)-3</f>
+        <v>395</v>
+      </c>
       <c r="B398" t="s">
         <v>1154</v>
       </c>
@@ -10851,7 +11075,11 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" cm="1">
+        <f t="array" ref="A399">ROW(399:399)-3</f>
+        <v>396</v>
+      </c>
       <c r="B399" t="s">
         <v>1155</v>
       </c>
@@ -10862,7 +11090,11 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" cm="1">
+        <f t="array" ref="A400">ROW(400:400)-3</f>
+        <v>397</v>
+      </c>
       <c r="B400" t="s">
         <v>1156</v>
       </c>
@@ -10873,7 +11105,11 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" cm="1">
+        <f t="array" ref="A401">ROW(401:401)-3</f>
+        <v>398</v>
+      </c>
       <c r="B401" t="s">
         <v>1157</v>
       </c>
@@ -10884,7 +11120,11 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" cm="1">
+        <f t="array" ref="A402">ROW(402:402)-3</f>
+        <v>399</v>
+      </c>
       <c r="B402" t="s">
         <v>1158</v>
       </c>
@@ -10895,7 +11135,11 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" cm="1">
+        <f t="array" ref="A403">ROW(403:403)-3</f>
+        <v>400</v>
+      </c>
       <c r="B403" t="s">
         <v>1159</v>
       </c>
@@ -10906,7 +11150,11 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" cm="1">
+        <f t="array" ref="A404">ROW(404:404)-3</f>
+        <v>401</v>
+      </c>
       <c r="B404" t="s">
         <v>1160</v>
       </c>
@@ -10917,7 +11165,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" cm="1">
+        <f t="array" ref="A405">ROW(405:405)-3</f>
+        <v>402</v>
+      </c>
       <c r="B405" t="s">
         <v>1161</v>
       </c>
@@ -10928,7 +11180,11 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" cm="1">
+        <f t="array" ref="A406">ROW(406:406)-3</f>
+        <v>403</v>
+      </c>
       <c r="B406" t="s">
         <v>1162</v>
       </c>
@@ -10939,7 +11195,11 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" cm="1">
+        <f t="array" ref="A407">ROW(407:407)-3</f>
+        <v>404</v>
+      </c>
       <c r="B407" t="s">
         <v>1163</v>
       </c>
@@ -10950,7 +11210,11 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" cm="1">
+        <f t="array" ref="A408">ROW(408:408)-3</f>
+        <v>405</v>
+      </c>
       <c r="B408" t="s">
         <v>1164</v>
       </c>
@@ -10961,7 +11225,11 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" cm="1">
+        <f t="array" ref="A409">ROW(409:409)-3</f>
+        <v>406</v>
+      </c>
       <c r="B409" t="s">
         <v>1165</v>
       </c>
@@ -10972,7 +11240,11 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" cm="1">
+        <f t="array" ref="A410">ROW(410:410)-3</f>
+        <v>407</v>
+      </c>
       <c r="B410" t="s">
         <v>1166</v>
       </c>
@@ -10983,7 +11255,11 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" cm="1">
+        <f t="array" ref="A411">ROW(411:411)-3</f>
+        <v>408</v>
+      </c>
       <c r="B411" t="s">
         <v>1167</v>
       </c>
@@ -10994,7 +11270,11 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" cm="1">
+        <f t="array" ref="A412">ROW(412:412)-3</f>
+        <v>409</v>
+      </c>
       <c r="B412" t="s">
         <v>1168</v>
       </c>
@@ -11005,7 +11285,11 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" cm="1">
+        <f t="array" ref="A413">ROW(413:413)-3</f>
+        <v>410</v>
+      </c>
       <c r="B413" t="s">
         <v>1169</v>
       </c>
@@ -11016,7 +11300,11 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" cm="1">
+        <f t="array" ref="A414">ROW(414:414)-3</f>
+        <v>411</v>
+      </c>
       <c r="B414" t="s">
         <v>1170</v>
       </c>
@@ -11027,7 +11315,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" cm="1">
+        <f t="array" ref="A415">ROW(415:415)-3</f>
+        <v>412</v>
+      </c>
       <c r="B415" t="s">
         <v>1171</v>
       </c>
@@ -11038,7 +11330,11 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" cm="1">
+        <f t="array" ref="A416">ROW(416:416)-3</f>
+        <v>413</v>
+      </c>
       <c r="B416" t="s">
         <v>1172</v>
       </c>
@@ -11049,7 +11345,11 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" cm="1">
+        <f t="array" ref="A417">ROW(417:417)-3</f>
+        <v>414</v>
+      </c>
       <c r="B417" t="s">
         <v>1173</v>
       </c>
@@ -11060,7 +11360,11 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" cm="1">
+        <f t="array" ref="A418">ROW(418:418)-3</f>
+        <v>415</v>
+      </c>
       <c r="B418" t="s">
         <v>1174</v>
       </c>
@@ -11071,48 +11375,84 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" cm="1">
+        <f t="array" ref="A419">ROW(419:419)-3</f>
+        <v>416</v>
+      </c>
       <c r="B419" t="s">
         <v>1194</v>
       </c>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" cm="1">
+        <f t="array" ref="A420">ROW(420:420)-3</f>
+        <v>417</v>
+      </c>
       <c r="B420" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" cm="1">
+        <f t="array" ref="A421">ROW(421:421)-3</f>
+        <v>418</v>
+      </c>
       <c r="B421" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" cm="1">
+        <f t="array" ref="A422">ROW(422:422)-3</f>
+        <v>419</v>
+      </c>
       <c r="B422" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" cm="1">
+        <f t="array" ref="A423">ROW(423:423)-3</f>
+        <v>420</v>
+      </c>
       <c r="B423" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" cm="1">
+        <f t="array" ref="A424">ROW(424:424)-3</f>
+        <v>421</v>
+      </c>
       <c r="B424" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" cm="1">
+        <f t="array" ref="A425">ROW(425:425)-3</f>
+        <v>422</v>
+      </c>
       <c r="B425" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" cm="1">
+        <f t="array" ref="A426">ROW(426:426)-3</f>
+        <v>423</v>
+      </c>
       <c r="B426" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" cm="1">
+        <f t="array" ref="A427">ROW(427:427)-3</f>
+        <v>424</v>
+      </c>
       <c r="B427" t="s">
         <v>1202</v>
       </c>
@@ -11123,7 +11463,11 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" cm="1">
+        <f t="array" ref="A428">ROW(428:428)-3</f>
+        <v>425</v>
+      </c>
       <c r="B428" t="s">
         <v>1203</v>
       </c>
@@ -11134,7 +11478,11 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" cm="1">
+        <f t="array" ref="A429">ROW(429:429)-3</f>
+        <v>426</v>
+      </c>
       <c r="B429" t="s">
         <v>1204</v>
       </c>
@@ -11145,7 +11493,11 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" cm="1">
+        <f t="array" ref="A430">ROW(430:430)-3</f>
+        <v>427</v>
+      </c>
       <c r="B430" t="s">
         <v>1205</v>
       </c>
@@ -11156,7 +11508,11 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" cm="1">
+        <f t="array" ref="A431">ROW(431:431)-3</f>
+        <v>428</v>
+      </c>
       <c r="B431" t="s">
         <v>1206</v>
       </c>
@@ -11167,7 +11523,11 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" cm="1">
+        <f t="array" ref="A432">ROW(432:432)-3</f>
+        <v>429</v>
+      </c>
       <c r="B432" t="s">
         <v>1207</v>
       </c>
@@ -11178,7 +11538,11 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" cm="1">
+        <f t="array" ref="A433">ROW(433:433)-3</f>
+        <v>430</v>
+      </c>
       <c r="B433" t="s">
         <v>1208</v>
       </c>
@@ -11189,7 +11553,11 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" cm="1">
+        <f t="array" ref="A434">ROW(434:434)-3</f>
+        <v>431</v>
+      </c>
       <c r="B434" t="s">
         <v>1209</v>
       </c>
@@ -11200,7 +11568,11 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" cm="1">
+        <f t="array" ref="A435">ROW(435:435)-3</f>
+        <v>432</v>
+      </c>
       <c r="B435" t="s">
         <v>1210</v>
       </c>
@@ -11211,7 +11583,11 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" cm="1">
+        <f t="array" ref="A436">ROW(436:436)-3</f>
+        <v>433</v>
+      </c>
       <c r="B436" t="s">
         <v>1211</v>
       </c>
@@ -11222,7 +11598,11 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" cm="1">
+        <f t="array" ref="A437">ROW(437:437)-3</f>
+        <v>434</v>
+      </c>
       <c r="B437" t="s">
         <v>1212</v>
       </c>
@@ -11233,7 +11613,11 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" cm="1">
+        <f t="array" ref="A438">ROW(438:438)-3</f>
+        <v>435</v>
+      </c>
       <c r="B438" t="s">
         <v>1213</v>
       </c>
@@ -11244,7 +11628,11 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" cm="1">
+        <f t="array" ref="A439">ROW(439:439)-3</f>
+        <v>436</v>
+      </c>
       <c r="B439" t="s">
         <v>1214</v>
       </c>
@@ -11255,7 +11643,11 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" cm="1">
+        <f t="array" ref="A440">ROW(440:440)-3</f>
+        <v>437</v>
+      </c>
       <c r="B440" t="s">
         <v>1215</v>
       </c>
@@ -11266,7 +11658,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" cm="1">
+        <f t="array" ref="A441">ROW(441:441)-3</f>
+        <v>438</v>
+      </c>
       <c r="B441" t="s">
         <v>1216</v>
       </c>
@@ -11277,7 +11673,11 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" cm="1">
+        <f t="array" ref="A442">ROW(442:442)-3</f>
+        <v>439</v>
+      </c>
       <c r="B442" t="s">
         <v>1217</v>
       </c>
@@ -11288,7 +11688,11 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" cm="1">
+        <f t="array" ref="A443">ROW(443:443)-3</f>
+        <v>440</v>
+      </c>
       <c r="B443" t="s">
         <v>1218</v>
       </c>
@@ -11299,7 +11703,11 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" cm="1">
+        <f t="array" ref="A444">ROW(444:444)-3</f>
+        <v>441</v>
+      </c>
       <c r="B444" t="s">
         <v>1219</v>
       </c>
@@ -11310,7 +11718,11 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" cm="1">
+        <f t="array" ref="A445">ROW(445:445)-3</f>
+        <v>442</v>
+      </c>
       <c r="B445" t="s">
         <v>1220</v>
       </c>
@@ -11321,57 +11733,101 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" cm="1">
+        <f t="array" ref="A446">ROW(446:446)-3</f>
+        <v>443</v>
+      </c>
       <c r="B446" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" cm="1">
+        <f t="array" ref="A447">ROW(447:447)-3</f>
+        <v>444</v>
+      </c>
       <c r="B447" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" cm="1">
+        <f t="array" ref="A448">ROW(448:448)-3</f>
+        <v>445</v>
+      </c>
       <c r="B448" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" cm="1">
+        <f t="array" ref="A449">ROW(449:449)-3</f>
+        <v>446</v>
+      </c>
       <c r="B449" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" cm="1">
+        <f t="array" ref="A450">ROW(450:450)-3</f>
+        <v>447</v>
+      </c>
       <c r="B450" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" cm="1">
+        <f t="array" ref="A451">ROW(451:451)-3</f>
+        <v>448</v>
+      </c>
       <c r="B451" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" cm="1">
+        <f t="array" ref="A452">ROW(452:452)-3</f>
+        <v>449</v>
+      </c>
       <c r="B452" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" cm="1">
+        <f t="array" ref="A453">ROW(453:453)-3</f>
+        <v>450</v>
+      </c>
       <c r="B453" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" cm="1">
+        <f t="array" ref="A454">ROW(454:454)-3</f>
+        <v>451</v>
+      </c>
       <c r="B454" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" cm="1">
+        <f t="array" ref="A455">ROW(455:455)-3</f>
+        <v>452</v>
+      </c>
       <c r="B455" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" cm="1">
+        <f t="array" ref="A456">ROW(456:456)-3</f>
+        <v>453</v>
+      </c>
       <c r="B456" t="s">
         <v>1231</v>
       </c>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A8A120-7260-4F2D-A9A3-B8BADFA2BFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0C0028-06F4-41FF-A188-6036706AAE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1326">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3492,10 +3492,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>扶梯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>冰碎</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3723,10 +3719,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次击杀扶梯僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次击杀铁栅栏僵尸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4188,9 +4180,6 @@
     <t>Iron fences</t>
   </si>
   <si>
-    <t>Escalators</t>
-  </si>
-  <si>
     <t>Ice shatters</t>
   </si>
   <si>
@@ -4299,9 +4288,6 @@
     <t>Killed a fence zombie for the first time</t>
   </si>
   <si>
-    <t>Killed an escalator zombie for the first time</t>
-  </si>
-  <si>
     <t>Used ice mushrooms for the first time</t>
   </si>
   <si>
@@ -4399,6 +4385,29 @@
   </si>
   <si>
     <t>Unlock Prop Car Keys</t>
+  </si>
+  <si>
+    <t>mainmenu_dash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zamboni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀冰车僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill the Ice Truck Zombie for the first time</t>
   </si>
 </sst>
 </file>
@@ -4782,11 +4791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F456"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C451" sqref="C451"/>
+      <pane ySplit="3" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7436,13 +7445,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>402</v>
+        <v>1320</v>
       </c>
       <c r="C156" t="s">
-        <v>404</v>
+        <v>1013</v>
       </c>
       <c r="D156" t="s">
-        <v>405</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -7451,13 +7460,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C157" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="D157" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -7466,13 +7475,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D158" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -7481,13 +7490,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C159" t="s">
-        <v>862</v>
+        <v>443</v>
       </c>
       <c r="D159" t="s">
-        <v>863</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -7496,13 +7505,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s">
-        <v>445</v>
+        <v>862</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>863</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -7511,13 +7520,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D161" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -7526,13 +7535,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C162" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D162" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -7541,13 +7550,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C163" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D163" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,13 +7565,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C164" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D164" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -7571,13 +7580,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D165" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -7586,13 +7595,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C166" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -7601,13 +7610,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D167" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -7616,13 +7625,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C168" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D168" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -7631,13 +7640,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C169" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D169" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -7646,13 +7655,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D170" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -7661,13 +7670,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D171" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -7676,13 +7685,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C172" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D172" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -7691,13 +7700,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D173" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -7706,13 +7715,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C174" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D174" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -7721,13 +7730,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D175" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -7736,13 +7745,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C176" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D176" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -7751,13 +7760,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D177" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -7766,13 +7775,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D178" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -7781,13 +7790,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C179" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D179" t="s">
-        <v>828</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -7796,13 +7805,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C180" t="s">
-        <v>875</v>
+        <v>483</v>
       </c>
       <c r="D180" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -7811,13 +7820,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C181" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D181" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -7826,13 +7835,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C182" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D182" t="s">
-        <v>485</v>
+        <v>839</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -7841,13 +7850,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C183" t="s">
-        <v>493</v>
+        <v>877</v>
       </c>
       <c r="D183" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -7856,13 +7865,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="C184" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D184" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -7871,13 +7880,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C185" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D185" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -7886,13 +7895,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C186" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D186" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -7901,13 +7910,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C187" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D187" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -7916,13 +7925,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C188" t="s">
-        <v>878</v>
+        <v>497</v>
       </c>
       <c r="D188" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -7931,13 +7940,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C189" t="s">
-        <v>488</v>
+        <v>878</v>
       </c>
       <c r="D189" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -7946,13 +7955,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C190" t="s">
-        <v>879</v>
+        <v>488</v>
       </c>
       <c r="D190" t="s">
-        <v>854</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -7961,13 +7970,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C191" t="s">
-        <v>490</v>
+        <v>879</v>
       </c>
       <c r="D191" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -7976,13 +7985,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D192" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -7991,13 +8000,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C193" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D193" t="s">
-        <v>519</v>
+        <v>859</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -8006,13 +8015,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C194" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D194" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -8021,13 +8030,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C195" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D195" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -8036,13 +8045,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C196" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D196" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8051,13 +8060,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C197" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D197" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8066,13 +8075,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C198" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D198" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -8081,13 +8090,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C199" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D199" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -8096,13 +8105,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C200" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D200" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -8111,13 +8120,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C201" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D201" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -8126,13 +8135,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C202" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D202" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -8141,13 +8150,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C203" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D203" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -8156,13 +8165,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C204" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D204" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -8171,13 +8180,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C205" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D205" t="s">
-        <v>376</v>
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -8186,13 +8195,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D206" t="s">
-        <v>560</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -8201,13 +8210,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C207" t="s">
-        <v>806</v>
+        <v>559</v>
       </c>
       <c r="D207" t="s">
-        <v>807</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -8216,13 +8225,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C208" t="s">
-        <v>576</v>
+        <v>806</v>
       </c>
       <c r="D208" t="s">
-        <v>577</v>
+        <v>807</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,13 +8240,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C209" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -8246,13 +8255,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>827</v>
+        <v>564</v>
       </c>
       <c r="C210" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D210" t="s">
-        <v>814</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -8261,13 +8270,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>565</v>
+        <v>827</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D211" t="s">
-        <v>582</v>
+        <v>814</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -8276,13 +8285,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C212" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D212" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -8291,13 +8300,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C213" t="s">
-        <v>864</v>
+        <v>583</v>
       </c>
       <c r="D213" t="s">
-        <v>865</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -8306,13 +8315,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C214" t="s">
-        <v>585</v>
+        <v>864</v>
       </c>
       <c r="D214" t="s">
-        <v>586</v>
+        <v>865</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -8321,13 +8330,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C215" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D215" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -8336,13 +8345,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C216" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D216" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -8351,13 +8360,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C217" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="D217" t="s">
-        <v>826</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8366,13 +8375,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="D218" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8381,13 +8390,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D219" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8396,13 +8405,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C220" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D220" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -8411,13 +8420,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>733</v>
+        <v>574</v>
       </c>
       <c r="C221" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D221" t="s">
-        <v>732</v>
+        <v>596</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -8426,13 +8435,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C222" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D222" t="s">
-        <v>667</v>
+        <v>732</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -8441,13 +8450,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C223" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D223" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -8456,13 +8465,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C224" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D224" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -8471,13 +8480,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C225" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D225" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -8486,13 +8495,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C226" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D226" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -8501,13 +8510,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C227" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D227" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -8516,28 +8525,28 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C228" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D228" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" cm="1">
         <f t="array" ref="A229">ROW(229:229)-3</f>
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C229" t="s">
-        <v>605</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>674</v>
+        <v>604</v>
+      </c>
+      <c r="D229" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8546,13 +8555,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8561,13 +8570,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C231" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8576,13 +8585,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C232" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8591,13 +8600,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C233" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8606,13 +8615,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C234" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8621,13 +8630,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C235" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8636,13 +8645,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C236" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8651,13 +8660,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C237" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8666,13 +8675,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C238" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8681,13 +8690,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C239" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8696,13 +8705,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C240" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8711,13 +8720,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C241" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8726,13 +8735,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C242" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8741,13 +8750,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C243" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8756,13 +8765,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C244" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8771,13 +8780,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C245" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8786,13 +8795,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C246" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8801,13 +8810,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C247" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8816,13 +8825,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C248" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8831,13 +8840,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C249" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8846,13 +8855,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C250" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8861,13 +8870,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C251" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8876,13 +8885,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C252" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8891,13 +8900,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C253" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8906,13 +8915,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C254" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8921,13 +8930,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C255" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8936,13 +8945,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C256" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8951,13 +8960,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C257" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8966,13 +8975,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C258" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8981,13 +8990,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C259" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8996,13 +9005,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C260" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9011,13 +9020,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C261" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9026,13 +9035,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C262" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9041,13 +9050,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C263" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9056,13 +9065,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C264" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9071,13 +9080,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C265" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9086,13 +9095,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C266" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9101,13 +9110,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C267" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9116,13 +9125,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C268" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9131,13 +9140,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C269" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9146,13 +9155,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C270" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9161,13 +9170,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C271" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9176,13 +9185,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C272" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9191,13 +9200,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C273" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9206,13 +9215,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C274" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9221,13 +9230,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C275" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9236,13 +9245,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C276" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9251,13 +9260,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C277" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9266,13 +9275,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C278" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9281,13 +9290,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C279" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9296,13 +9305,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C280" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9311,13 +9320,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C281" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>484</v>
+        <v>725</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9326,13 +9335,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C282" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>726</v>
+        <v>484</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9341,13 +9350,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C283" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>489</v>
+        <v>726</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9356,13 +9365,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C284" t="s">
-        <v>881</v>
+        <v>659</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9371,13 +9380,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C285" t="s">
-        <v>660</v>
+        <v>881</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9386,13 +9395,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C286" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>727</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9401,13 +9410,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C287" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9416,13 +9425,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C288" t="s">
-        <v>866</v>
+        <v>662</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>868</v>
+        <v>728</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9431,13 +9440,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C289" t="s">
-        <v>663</v>
+        <v>866</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9446,13 +9455,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C290" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>729</v>
+        <v>867</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9461,13 +9470,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C291" t="s">
-        <v>880</v>
+        <v>664</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9476,13 +9485,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C292" t="s">
-        <v>665</v>
+        <v>880</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>487</v>
+        <v>730</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9491,13 +9500,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C293" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>731</v>
+        <v>487</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9506,13 +9515,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>869</v>
+        <v>805</v>
       </c>
       <c r="C294" t="s">
-        <v>870</v>
+        <v>666</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>871</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9521,28 +9530,28 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C295" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A296" cm="1">
         <f t="array" ref="A296">ROW(296:296)-3</f>
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="C296" t="s">
-        <v>898</v>
-      </c>
-      <c r="D296" t="s">
-        <v>900</v>
+        <v>873</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -9551,13 +9560,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>906</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
+      </c>
+      <c r="C297" t="s">
+        <v>898</v>
       </c>
       <c r="D297" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -9566,28 +9575,28 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D298" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" cm="1">
         <f t="array" ref="A299">ROW(299:299)-3</f>
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>897</v>
+        <v>904</v>
+      </c>
+      <c r="D299" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9596,13 +9605,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9611,13 +9620,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9626,13 +9635,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9641,13 +9650,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1001</v>
+        <v>909</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1006</v>
+        <v>917</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9656,28 +9665,28 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A305" cm="1">
         <f t="array" ref="A305">ROW(305:305)-3</f>
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1008</v>
+        <v>1002</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -9686,13 +9695,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D306" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -9701,13 +9710,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D307" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -9716,13 +9725,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>910</v>
+        <v>1005</v>
       </c>
       <c r="D308" t="s">
-        <v>918</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -9731,13 +9740,13 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D309" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -9746,13 +9755,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D310" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -9761,13 +9770,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D311" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -9776,13 +9785,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D312" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -9791,13 +9800,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>926</v>
+        <v>896</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="D313" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -9806,13 +9815,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D314" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -9821,13 +9830,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D315" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -9836,13 +9845,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D316" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -9851,13 +9860,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D317" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -9866,13 +9875,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>935</v>
-      </c>
-      <c r="C318" t="s">
-        <v>936</v>
+        <v>934</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="D318" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -9881,13 +9890,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>941</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
+      </c>
+      <c r="C319" t="s">
+        <v>936</v>
       </c>
       <c r="D319" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -9896,13 +9905,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="D320" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -9911,13 +9920,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D321" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -9926,13 +9935,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D322" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -9941,13 +9950,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D323" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -9956,13 +9965,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>948</v>
-      </c>
-      <c r="C324" t="s">
-        <v>953</v>
+        <v>947</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="D324" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -9971,13 +9980,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>959</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>960</v>
+        <v>948</v>
+      </c>
+      <c r="C325" t="s">
+        <v>953</v>
       </c>
       <c r="D325" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -9986,13 +9995,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D326" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -10001,13 +10010,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D327" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -10016,13 +10025,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D328" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -10031,13 +10040,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D329" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -10046,13 +10055,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D330" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -10061,13 +10070,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D331" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -10076,13 +10085,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D332" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -10091,13 +10100,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D333" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -10106,13 +10115,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D334" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -10121,13 +10130,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>988</v>
-      </c>
-      <c r="C335" t="s">
-        <v>987</v>
+        <v>985</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>986</v>
       </c>
       <c r="D335" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -10136,13 +10145,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>990</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
+      </c>
+      <c r="C336" t="s">
+        <v>987</v>
       </c>
       <c r="D336" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -10151,13 +10160,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D337" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -10166,13 +10175,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D338" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -10181,13 +10190,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="D339" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -10196,13 +10205,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D340" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -10211,13 +10220,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D341" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -10226,13 +10235,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D342" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -10241,13 +10250,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1023</v>
+        <v>1016</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1017</v>
       </c>
       <c r="D343" t="s">
-        <v>1232</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -10256,13 +10265,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1024</v>
+        <v>1060</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1023</v>
       </c>
       <c r="D344" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -10271,13 +10280,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1025</v>
+        <v>1061</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1024</v>
       </c>
       <c r="D345" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -10286,13 +10295,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C346" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D346" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -10301,13 +10310,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C347" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D347" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -10316,13 +10325,13 @@
         <v>345</v>
       </c>
       <c r="B348" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>1028</v>
+        <v>1064</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1027</v>
       </c>
       <c r="D348" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10331,13 +10340,13 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1029</v>
+        <v>1065</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>1028</v>
       </c>
       <c r="D349" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10346,13 +10355,13 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C350" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D350" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10361,13 +10370,13 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C351" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D351" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10376,13 +10385,13 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C352" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D352" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10391,13 +10400,13 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C353" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D353" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10406,13 +10415,13 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C354" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D354" t="s">
-        <v>53</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10421,13 +10430,13 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C355" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D355" t="s">
-        <v>1242</v>
+        <v>53</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -10436,13 +10445,13 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C356" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D356" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10451,13 +10460,13 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C357" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D357" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10466,13 +10475,13 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C358" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D358" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10481,13 +10490,13 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C359" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D359" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10496,13 +10505,13 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C360" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D360" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -10511,13 +10520,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C361" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D361" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -10526,13 +10535,13 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C362" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D362" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -10541,13 +10550,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C363" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D363" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -10556,13 +10565,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C364" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D364" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -10571,13 +10580,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C365" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D365" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -10586,13 +10595,13 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C366" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D366" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -10601,13 +10610,13 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C367" t="s">
-        <v>1047</v>
+        <v>1322</v>
       </c>
       <c r="D367" t="s">
-        <v>1254</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -10616,13 +10625,13 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C368" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D368" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -10631,13 +10640,13 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C369" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D369" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -10646,13 +10655,13 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C370" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D370" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -10661,13 +10670,13 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C371" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D371" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -10676,13 +10685,13 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C372" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D372" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -10691,13 +10700,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C373" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D373" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -10706,13 +10715,13 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C374" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D374" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -10721,13 +10730,13 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C375" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D375" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -10736,13 +10745,13 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C376" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D376" t="s">
-        <v>961</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -10751,13 +10760,13 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C377" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D377" t="s">
-        <v>1263</v>
+        <v>961</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -10766,13 +10775,13 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C378" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D378" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -10781,13 +10790,13 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C379" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D379" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -10796,13 +10805,13 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C380" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D380" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -10811,13 +10820,13 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1136</v>
+        <v>1097</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1059</v>
       </c>
       <c r="D381" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -10826,13 +10835,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D382" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -10841,13 +10850,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D383" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -10856,13 +10865,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D384" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -10871,13 +10880,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D385" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -10886,13 +10895,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D386" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -10901,13 +10910,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D387" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -10916,13 +10925,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D388" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -10931,13 +10940,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D389" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -10946,13 +10955,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D390" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -10961,13 +10970,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D391" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -10976,13 +10985,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D392" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -10991,13 +11000,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D393" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11006,13 +11015,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D394" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11021,13 +11030,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D395" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11036,13 +11045,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D396" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11051,13 +11060,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D397" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11066,13 +11075,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D398" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11081,13 +11090,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D399" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11096,13 +11105,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D400" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11111,13 +11120,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D401" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11126,13 +11135,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D402" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11141,13 +11150,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D403" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11156,13 +11165,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D404" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11171,13 +11180,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1112</v>
+        <v>1324</v>
       </c>
       <c r="D405" t="s">
-        <v>1291</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11186,13 +11195,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="D406" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11201,13 +11210,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="D407" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11216,13 +11225,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="D408" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11231,13 +11240,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="D409" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11246,13 +11255,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="D410" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11261,13 +11270,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="D411" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11276,13 +11285,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="D412" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11291,13 +11300,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="D413" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11306,13 +11315,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="D414" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11321,13 +11330,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="D415" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11336,13 +11345,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="D416" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11351,13 +11360,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="D417" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11366,13 +11375,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="D418" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11381,9 +11390,14 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C419" s="1"/>
+        <v>1172</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" cm="1">
@@ -11391,8 +11405,9 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1195</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="C420" s="1"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" cm="1">
@@ -11400,7 +11415,7 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11409,7 +11424,7 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -11418,7 +11433,7 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11427,7 +11442,7 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11436,7 +11451,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -11445,7 +11460,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11454,13 +11469,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1308</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11469,13 +11478,13 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C428" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D428" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11484,13 +11493,13 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C429" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D429" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11499,13 +11508,13 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C430" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D430" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -11514,13 +11523,13 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C431" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D431" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -11529,13 +11538,13 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C432" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D432" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -11544,13 +11553,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C433" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D433" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -11559,13 +11568,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C434" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D434" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -11574,13 +11583,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C435" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D435" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -11589,13 +11598,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C436" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D436" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -11604,13 +11613,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C437" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D437" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -11619,13 +11628,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C438" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D438" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -11634,13 +11643,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C439" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D439" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -11649,13 +11658,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C440" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D440" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -11664,13 +11673,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C441" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D441" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -11679,13 +11688,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C442" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D442" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -11694,13 +11703,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C443" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D443" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -11709,13 +11718,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C444" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D444" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -11724,13 +11733,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C445" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D445" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -11739,7 +11748,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1221</v>
+        <v>1218</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -11748,7 +11763,7 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -11757,7 +11772,7 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -11766,7 +11781,7 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -11775,7 +11790,7 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -11784,7 +11799,7 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -11793,7 +11808,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -11802,7 +11817,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -11811,7 +11826,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -11820,7 +11835,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -11829,7 +11844,16 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1231</v>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" cm="1">
+        <f t="array" ref="A457">ROW(457:457)-3</f>
+        <v>454</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0C0028-06F4-41FF-A188-6036706AAE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36D8972-FB40-41CD-A2AA-F547BA84BD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3751,26 +3760,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>累计培养2次地刺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养2次向日葵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养2次大喷菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次购买水花盆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>累计培养2次玉米投手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>累计进化过2次双发射手</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3787,14 +3780,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一局冒险中收集200个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局冒险中收集50个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总共收集10000个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4231,183 +4216,214 @@
     <t>Collected 10,000 zombie heads in total</t>
   </si>
   <si>
-    <t>Collected 50 zombie heads in one adventure</t>
-  </si>
-  <si>
-    <t>Collected 200 zombie heads in one adventure</t>
+    <t>First time having your brain eaten by a zombie</t>
+  </si>
+  <si>
+    <t>Cultivated 4 times of pea shooters</t>
+  </si>
+  <si>
+    <t>Cultivated 2 times of dual shooters</t>
+  </si>
+  <si>
+    <t>Buyed a water flower pot for the first time</t>
+  </si>
+  <si>
+    <t>Killed 10 enemies with ash plants Zombies</t>
+  </si>
+  <si>
+    <t>Killed a basketball zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a barrel zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a football zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a giant zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a newspaper zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a roadblock zombie for the first time</t>
+  </si>
+  <si>
+    <t>Killed a fence zombie for the first time</t>
+  </si>
+  <si>
+    <t>Used ice mushrooms for the first time</t>
+  </si>
+  <si>
+    <t>Used flaming peppers for the first time</t>
+  </si>
+  <si>
+    <t>Killed 10 zombies with Spinach's flying head attack</t>
+  </si>
+  <si>
+    <t>Used a portal for the first time</t>
+  </si>
+  <si>
+    <t>Strength reached 20</t>
+  </si>
+  <si>
+    <t>Health reached 100</t>
+  </si>
+  <si>
+    <t>Attack speed reached 50</t>
+  </si>
+  <si>
+    <t>Armor reached 50</t>
+  </si>
+  <si>
+    <t>Botany reached 100</t>
+  </si>
+  <si>
+    <t>Gold reached to 100</t>
+  </si>
+  <si>
+    <t>Sunshine reaches 500</t>
+  </si>
+  <si>
+    <t>Luck reaches 25</t>
+  </si>
+  <si>
+    <t>Altar levels are fully upgraded</t>
+  </si>
+  <si>
+    <t>Unlock Corn Cannon</t>
+  </si>
+  <si>
+    <t>Unlock Thorn King</t>
+  </si>
+  <si>
+    <t>Unlock Prop Ice Crusher</t>
+  </si>
+  <si>
+    <t>First purchase</t>
+  </si>
+  <si>
+    <t>Unlock Twin Peas</t>
+  </si>
+  <si>
+    <t>Unlock Gatling Peas</t>
+  </si>
+  <si>
+    <t>Unlock Cattails</t>
+  </si>
+  <si>
+    <t>Unlock Melancholy Mushrooms</t>
+  </si>
+  <si>
+    <t>Unlock Twin Sunflowers</t>
+  </si>
+  <si>
+    <t>Unlock Destruction Mushrooms</t>
+  </si>
+  <si>
+    <t>Unlock Prop Basketballs</t>
+  </si>
+  <si>
+    <t>Unlock Prop Barrels</t>
+  </si>
+  <si>
+    <t>Unlock Prop Football Helmets</t>
+  </si>
+  <si>
+    <t>Unlock Prop Signs</t>
+  </si>
+  <si>
+    <t>Unlock Prop Newspapers</t>
+  </si>
+  <si>
+    <t>Unlock Prop Roadblocks</t>
+  </si>
+  <si>
+    <t>Unlock Prop Fences</t>
+  </si>
+  <si>
+    <t>Unlock Prop Escalators</t>
+  </si>
+  <si>
+    <t>Unlock Prop Flames</t>
+  </si>
+  <si>
+    <t>Unlock Prop Car Keys</t>
+  </si>
+  <si>
+    <t>mainmenu_dash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zamboni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀冰车僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill the Ice Truck Zombie for the first time</t>
+  </si>
+  <si>
+    <t>一局冒险中收集100个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集1000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collected 100 zombie heads in one adventure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Collected 500 zombie heads in one adventure</t>
-  </si>
-  <si>
-    <t>First time having your brain eaten by a zombie</t>
-  </si>
-  <si>
-    <t>Cultivated 4 times of pea shooters</t>
-  </si>
-  <si>
-    <t>Cultivated 2 times of dual shooters</t>
-  </si>
-  <si>
-    <t>Cultivated 2 times of corn pitchers</t>
-  </si>
-  <si>
-    <t>Buyed a water flower pot for the first time</t>
-  </si>
-  <si>
-    <t>Cultivated 2 times of giant mushrooms</t>
-  </si>
-  <si>
-    <t>Cultivated 2 times of sunflowers</t>
-  </si>
-  <si>
-    <t>Cultivated 2 times of ground spikes</t>
-  </si>
-  <si>
-    <t>Killed 10 enemies with ash plants Zombies</t>
-  </si>
-  <si>
-    <t>Killed a basketball zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a barrel zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a football zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a giant zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a newspaper zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a roadblock zombie for the first time</t>
-  </si>
-  <si>
-    <t>Killed a fence zombie for the first time</t>
-  </si>
-  <si>
-    <t>Used ice mushrooms for the first time</t>
-  </si>
-  <si>
-    <t>Used flaming peppers for the first time</t>
-  </si>
-  <si>
-    <t>Killed 10 zombies with Spinach's flying head attack</t>
-  </si>
-  <si>
-    <t>Used a portal for the first time</t>
-  </si>
-  <si>
-    <t>Strength reached 20</t>
-  </si>
-  <si>
-    <t>Health reached 100</t>
-  </si>
-  <si>
-    <t>Attack speed reached 50</t>
-  </si>
-  <si>
-    <t>Armor reached 50</t>
-  </si>
-  <si>
-    <t>Botany reached 100</t>
-  </si>
-  <si>
-    <t>Gold reached to 100</t>
-  </si>
-  <si>
-    <t>Sunshine reaches 500</t>
-  </si>
-  <si>
-    <t>Luck reaches 25</t>
-  </si>
-  <si>
-    <t>Altar levels are fully upgraded</t>
-  </si>
-  <si>
-    <t>Unlock Corn Cannon</t>
-  </si>
-  <si>
-    <t>Unlock Thorn King</t>
-  </si>
-  <si>
-    <t>Unlock Prop Ice Crusher</t>
-  </si>
-  <si>
-    <t>First purchase</t>
-  </si>
-  <si>
-    <t>Unlock Twin Peas</t>
-  </si>
-  <si>
-    <t>Unlock Gatling Peas</t>
-  </si>
-  <si>
-    <t>Unlock Cattails</t>
-  </si>
-  <si>
-    <t>Unlock Melancholy Mushrooms</t>
-  </si>
-  <si>
-    <t>Unlock Twin Sunflowers</t>
-  </si>
-  <si>
-    <t>Unlock Destruction Mushrooms</t>
-  </si>
-  <si>
-    <t>Unlock Prop Basketballs</t>
-  </si>
-  <si>
-    <t>Unlock Prop Barrels</t>
-  </si>
-  <si>
-    <t>Unlock Prop Football Helmets</t>
-  </si>
-  <si>
-    <t>Unlock Prop Signs</t>
-  </si>
-  <si>
-    <t>Unlock Prop Newspapers</t>
-  </si>
-  <si>
-    <t>Unlock Prop Roadblocks</t>
-  </si>
-  <si>
-    <t>Unlock Prop Fences</t>
-  </si>
-  <si>
-    <t>Unlock Prop Escalators</t>
-  </si>
-  <si>
-    <t>Unlock Prop Flames</t>
-  </si>
-  <si>
-    <t>Unlock Prop Car Keys</t>
-  </si>
-  <si>
-    <t>mainmenu_dash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮胎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zamboni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀冰车僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kill the Ice Truck Zombie for the first time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collected 1000 zombie heads in one adventure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次玉米投手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次大喷菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated 4 times of giant mushrooms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated 4 times of sunflowers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated 4 times of ground spikes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated 4 times of corn pitchers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4794,8 +4810,8 @@
   <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D405" sqref="D405"/>
+      <pane ySplit="3" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7445,13 +7461,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="C156" t="s">
         <v>1013</v>
       </c>
       <c r="D156" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -10271,7 +10287,7 @@
         <v>1023</v>
       </c>
       <c r="D344" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -10286,7 +10302,7 @@
         <v>1024</v>
       </c>
       <c r="D345" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -10301,7 +10317,7 @@
         <v>1025</v>
       </c>
       <c r="D346" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -10316,7 +10332,7 @@
         <v>1026</v>
       </c>
       <c r="D347" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -10331,7 +10347,7 @@
         <v>1027</v>
       </c>
       <c r="D348" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10346,7 +10362,7 @@
         <v>1028</v>
       </c>
       <c r="D349" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10361,7 +10377,7 @@
         <v>1029</v>
       </c>
       <c r="D350" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10376,7 +10392,7 @@
         <v>1030</v>
       </c>
       <c r="D351" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10391,7 +10407,7 @@
         <v>1031</v>
       </c>
       <c r="D352" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10406,7 +10422,7 @@
         <v>1032</v>
       </c>
       <c r="D353" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10421,7 +10437,7 @@
         <v>1033</v>
       </c>
       <c r="D354" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10451,7 +10467,7 @@
         <v>1035</v>
       </c>
       <c r="D356" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10466,7 +10482,7 @@
         <v>1036</v>
       </c>
       <c r="D357" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10481,7 +10497,7 @@
         <v>1037</v>
       </c>
       <c r="D358" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10496,7 +10512,7 @@
         <v>1038</v>
       </c>
       <c r="D359" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10511,7 +10527,7 @@
         <v>1039</v>
       </c>
       <c r="D360" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -10526,7 +10542,7 @@
         <v>1040</v>
       </c>
       <c r="D361" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -10541,7 +10557,7 @@
         <v>1041</v>
       </c>
       <c r="D362" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -10556,7 +10572,7 @@
         <v>1042</v>
       </c>
       <c r="D363" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -10571,7 +10587,7 @@
         <v>1043</v>
       </c>
       <c r="D364" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -10586,7 +10602,7 @@
         <v>1044</v>
       </c>
       <c r="D365" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -10601,7 +10617,7 @@
         <v>1045</v>
       </c>
       <c r="D366" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -10613,10 +10629,10 @@
         <v>1083</v>
       </c>
       <c r="C367" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="D367" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -10631,7 +10647,7 @@
         <v>1046</v>
       </c>
       <c r="D368" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -10646,7 +10662,7 @@
         <v>1047</v>
       </c>
       <c r="D369" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -10661,7 +10677,7 @@
         <v>1048</v>
       </c>
       <c r="D370" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -10676,7 +10692,7 @@
         <v>1049</v>
       </c>
       <c r="D371" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -10691,7 +10707,7 @@
         <v>1050</v>
       </c>
       <c r="D372" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -10706,7 +10722,7 @@
         <v>1051</v>
       </c>
       <c r="D373" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -10721,7 +10737,7 @@
         <v>1052</v>
       </c>
       <c r="D374" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -10736,7 +10752,7 @@
         <v>1053</v>
       </c>
       <c r="D375" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -10751,7 +10767,7 @@
         <v>1054</v>
       </c>
       <c r="D376" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -10781,7 +10797,7 @@
         <v>1056</v>
       </c>
       <c r="D378" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -10796,7 +10812,7 @@
         <v>1057</v>
       </c>
       <c r="D379" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -10811,7 +10827,7 @@
         <v>1058</v>
       </c>
       <c r="D380" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -10826,7 +10842,7 @@
         <v>1059</v>
       </c>
       <c r="D381" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -10835,13 +10851,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D382" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -10850,13 +10866,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D383" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -10865,13 +10881,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="D384" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -10880,13 +10896,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="D385" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -10895,13 +10911,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1130</v>
+        <v>1313</v>
       </c>
       <c r="D386" t="s">
-        <v>1268</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -10910,13 +10926,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="D387" t="s">
-        <v>1269</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -10925,13 +10941,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1128</v>
+        <v>1314</v>
       </c>
       <c r="D388" t="s">
-        <v>1270</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -10940,13 +10956,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D389" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -10955,13 +10971,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D390" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -10970,13 +10986,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D391" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -10985,13 +11001,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1124</v>
+        <v>1318</v>
       </c>
       <c r="D392" t="s">
-        <v>1274</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11000,13 +11016,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D393" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11015,13 +11031,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1122</v>
+        <v>1319</v>
       </c>
       <c r="D394" t="s">
-        <v>1276</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11030,13 +11046,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1121</v>
+        <v>1320</v>
       </c>
       <c r="D395" t="s">
-        <v>1277</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11045,13 +11061,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1120</v>
+        <v>1321</v>
       </c>
       <c r="D396" t="s">
-        <v>1278</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11060,13 +11076,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="D397" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11075,13 +11091,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="D398" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11090,13 +11106,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="D399" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11105,13 +11121,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="D400" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11120,13 +11136,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="D401" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11135,13 +11151,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="D402" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11150,13 +11166,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="D403" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11165,13 +11181,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="D404" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11180,13 +11196,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="D405" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11195,13 +11211,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="D406" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11210,13 +11226,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="D407" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11225,13 +11241,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="D408" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11240,13 +11256,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="D409" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11255,13 +11271,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="D410" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11270,13 +11286,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="D411" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11285,13 +11301,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="D412" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11300,13 +11316,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="D413" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11315,13 +11331,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="D414" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11330,13 +11346,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="D415" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11345,13 +11361,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="D416" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11360,13 +11376,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="D417" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11375,13 +11391,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="D418" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11390,13 +11406,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="D419" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -11405,7 +11421,7 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C420" s="1"/>
     </row>
@@ -11415,7 +11431,7 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11424,7 +11440,7 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -11433,7 +11449,7 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11442,7 +11458,7 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11451,7 +11467,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -11460,7 +11476,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11469,7 +11485,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11478,13 +11494,13 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C428" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D428" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11493,13 +11509,13 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C429" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D429" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11508,13 +11524,13 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C430" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D430" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -11523,13 +11539,13 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C431" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D431" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -11538,13 +11554,13 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C432" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D432" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -11553,13 +11569,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C433" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D433" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -11568,13 +11584,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C434" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D434" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -11583,13 +11599,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C435" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D435" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -11598,13 +11614,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C436" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="D436" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -11613,13 +11629,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C437" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D437" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -11628,13 +11644,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C438" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D438" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -11643,13 +11659,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C439" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="D439" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -11658,13 +11674,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C440" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D440" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -11673,13 +11689,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C441" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D441" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -11688,13 +11704,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C442" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D442" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -11703,13 +11719,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C443" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D443" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -11718,13 +11734,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C444" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D444" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -11733,13 +11749,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C445" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D445" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -11748,13 +11764,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C446" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D446" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -11763,7 +11779,7 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -11772,7 +11788,7 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -11781,7 +11797,7 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -11790,7 +11806,7 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -11799,7 +11815,7 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -11808,7 +11824,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -11817,7 +11833,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -11826,7 +11842,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -11835,7 +11851,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -11844,7 +11860,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -11853,7 +11869,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0745ED5-7130-4F87-8157-2AF5AE61D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F04E5-0B24-44EA-84FE-D18D2AF7EDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1341">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -824,9 +815,6 @@
     <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
   </si>
   <si>
-    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
-  </si>
-  <si>
     <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
   </si>
   <si>
@@ -1989,18 +1977,6 @@
     <t>Attack speed\nThe speed of the pan's movement increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack speed, such as the mallet</t>
   </si>
   <si>
-    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成1.5倍伤害</t>
-  </si>
-  <si>
-    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; to cause 1.5 times the damage</t>
-  </si>
-  <si>
-    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车\n&lt;color=#00ff00&gt;跑步的速度为基础速度的1.5倍&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart\n &lt;color=#00ff00&gt;Running speed is 1.5 times the base speed&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>护甲|&lt;color=#ff0000&gt;上限90%&lt;/color&gt;\n受到的伤害减少{0}%&lt;/color&gt;\n能有效阻挡僵尸吃掉脑子</t>
   </si>
   <si>
@@ -3008,10 +2984,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>强化增加{0}护甲，当前等级{1},总共增加护甲{2}。减少收到的伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>强化增加{0}幸运，当前等级{1},总共增加幸运{2}。增加钱币，阳光掉落概率，稀有物品刷新概率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4449,6 +4421,60 @@
   <si>
     <t>&lt;color=#00ff00&gt;CobCannon&lt;/color&gt;\r\nCan use {0} sunlight to cultivate\r\nIrregularly launch corn missiles to destroy zombies</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_CriticalDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%CriticalDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%暴击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率\n攻击有{0}%&lt;/color&gt;造成额外伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害\n暴击时额外造成{0}%&lt;/color&gt;伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical hit rate\nAttacks have {0}%&lt;/color&gt; of extra damage</t>
+  </si>
+  <si>
+    <t>Critical hit damage\nCritical hits cause {0}%&lt;/color&gt; of extra damage</t>
+  </si>
+  <si>
+    <t>property_CriticalDamage_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度\n基础移速增加{0}%&lt;/color&gt;\n某些道具的也会受到攻击范围的影响，如小推车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movement speed\nThe basic movement speed increases by {0}%&lt;/color&gt;\nSome items are also affected by the attack range, such as the cart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow26</t>
+  </si>
+  <si>
+    <t>强化增加{0}%暴击伤害，当前等级{1},总共增加伤害{2}%。默认暴击造成伤害150%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strengthening increases critical hit damage by {0}%, current level {1}, total increased damage {2}%. Default critical hit damage is 150%</t>
+  </si>
+  <si>
+    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也受到了影响</t>
+  </si>
+  <si>
+    <t>强化增加{0}护甲，当前等级{1},总共增加护甲{2}。减少受到的伤害</t>
   </si>
 </sst>
 </file>
@@ -4832,11 +4858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F459"/>
+  <dimension ref="A1:F462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="3" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5518,13 +5544,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C43" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D43" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -5606,7 +5632,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
@@ -5694,7 +5720,7 @@
         <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -5782,7 +5808,7 @@
         <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -5848,7 +5874,7 @@
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
@@ -6222,7 +6248,7 @@
         <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E75" t="s">
         <v>80</v>
@@ -6241,7 +6267,7 @@
         <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D76" t="s">
         <v>230</v>
@@ -6332,7 +6358,7 @@
         <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
@@ -6370,7 +6396,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C82" t="s">
         <v>160</v>
@@ -6392,13 +6418,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="C83" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D83" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6407,13 +6433,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C84" t="s">
         <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6422,13 +6448,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C85" t="s">
         <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6437,13 +6463,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>1339</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6452,13 +6478,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6467,13 +6493,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6482,13 +6508,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6497,13 +6523,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6512,13 +6538,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6527,13 +6553,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6542,13 +6568,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6557,13 +6583,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6572,13 +6598,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6587,13 +6613,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -6602,13 +6628,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -6617,13 +6643,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -6632,13 +6658,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -6647,13 +6673,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,13 +6688,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -6677,13 +6703,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -6692,13 +6718,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -6707,13 +6733,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -6722,13 +6748,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -6737,13 +6763,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -6752,13 +6778,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D107" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -6767,13 +6793,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -6782,13 +6808,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -6797,13 +6823,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -6812,13 +6838,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6827,13 +6853,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6842,13 +6868,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6857,13 +6883,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6872,13 +6898,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,13 +6913,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6902,13 +6928,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6917,13 +6943,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C118" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" t="s">
         <v>362</v>
-      </c>
-      <c r="D118" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6932,13 +6958,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C119" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" t="s">
         <v>364</v>
-      </c>
-      <c r="D119" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6947,13 +6973,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D120" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6962,13 +6988,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -6977,13 +7003,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -6992,13 +7018,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,13 +7033,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7022,13 +7048,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7037,13 +7063,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D126" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7052,13 +7078,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7067,13 +7093,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D128" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7082,13 +7108,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D129" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,13 +7123,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7112,13 +7138,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D131" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7127,13 +7153,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D132" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7142,13 +7168,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7157,13 +7183,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D134" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7172,13 +7198,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D135" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7187,13 +7213,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D136" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7202,13 +7228,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D137" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7217,13 +7243,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C138" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D138" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7232,13 +7258,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D139" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7247,13 +7273,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7262,13 +7288,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" t="s">
         <v>367</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>368</v>
-      </c>
-      <c r="D141" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7277,13 +7303,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" t="s">
         <v>370</v>
       </c>
-      <c r="C142" t="s">
-        <v>371</v>
-      </c>
       <c r="D142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7292,13 +7318,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" t="s">
         <v>372</v>
       </c>
-      <c r="C143" t="s">
-        <v>373</v>
-      </c>
       <c r="D143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7307,13 +7333,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" t="s">
         <v>376</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>377</v>
-      </c>
-      <c r="D144" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7322,13 +7348,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
+        <v>536</v>
+      </c>
+      <c r="C145" t="s">
         <v>537</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>538</v>
-      </c>
-      <c r="D145" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7337,13 +7363,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
+        <v>378</v>
+      </c>
+      <c r="C146" t="s">
         <v>379</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>380</v>
-      </c>
-      <c r="D146" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,13 +7378,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
+        <v>397</v>
+      </c>
+      <c r="C147" t="s">
         <v>398</v>
       </c>
-      <c r="C147" t="s">
-        <v>399</v>
-      </c>
       <c r="D147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7367,13 +7393,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
+        <v>409</v>
+      </c>
+      <c r="C148" t="s">
         <v>410</v>
       </c>
-      <c r="C148" t="s">
-        <v>411</v>
-      </c>
       <c r="D148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7382,13 +7408,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" t="s">
         <v>412</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>413</v>
-      </c>
-      <c r="D149" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7397,13 +7423,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
+        <v>466</v>
+      </c>
+      <c r="C150" t="s">
         <v>467</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>468</v>
-      </c>
-      <c r="D150" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -7412,13 +7438,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
+        <v>381</v>
+      </c>
+      <c r="C151" t="s">
         <v>382</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>383</v>
-      </c>
-      <c r="D151" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -7427,13 +7453,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" t="s">
+        <v>384</v>
+      </c>
+      <c r="D152" t="s">
         <v>385</v>
-      </c>
-      <c r="D152" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -7442,13 +7468,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" t="s">
         <v>388</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>389</v>
-      </c>
-      <c r="D153" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -7457,13 +7483,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" t="s">
         <v>391</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>392</v>
-      </c>
-      <c r="D154" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -7472,13 +7498,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
+        <v>403</v>
+      </c>
+      <c r="C155" t="s">
         <v>404</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>405</v>
-      </c>
-      <c r="D155" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -7487,13 +7513,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" t="s">
         <v>407</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>408</v>
-      </c>
-      <c r="D156" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -7502,13 +7528,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
+        <v>393</v>
+      </c>
+      <c r="C157" t="s">
         <v>394</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>395</v>
-      </c>
-      <c r="D157" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -7517,13 +7543,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C158" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D158" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,13 +7558,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C159" t="s">
+        <v>401</v>
+      </c>
+      <c r="D159" t="s">
         <v>402</v>
-      </c>
-      <c r="D159" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -7547,13 +7573,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
+        <v>415</v>
+      </c>
+      <c r="C160" t="s">
+        <v>441</v>
+      </c>
+      <c r="D160" t="s">
         <v>416</v>
-      </c>
-      <c r="C160" t="s">
-        <v>442</v>
-      </c>
-      <c r="D160" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -7562,13 +7588,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
+        <v>417</v>
+      </c>
+      <c r="C161" t="s">
+        <v>440</v>
+      </c>
+      <c r="D161" t="s">
         <v>418</v>
-      </c>
-      <c r="C161" t="s">
-        <v>441</v>
-      </c>
-      <c r="D161" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -7577,13 +7603,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C162" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D162" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -7592,13 +7618,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" t="s">
+        <v>442</v>
+      </c>
+      <c r="D163" t="s">
         <v>421</v>
-      </c>
-      <c r="C163" t="s">
-        <v>443</v>
-      </c>
-      <c r="D163" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -7607,13 +7633,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C164" t="s">
+        <v>422</v>
+      </c>
+      <c r="D164" t="s">
         <v>423</v>
-      </c>
-      <c r="D164" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -7622,13 +7648,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
+        <v>426</v>
+      </c>
+      <c r="C165" t="s">
+        <v>425</v>
+      </c>
+      <c r="D165" t="s">
         <v>427</v>
-      </c>
-      <c r="C165" t="s">
-        <v>426</v>
-      </c>
-      <c r="D165" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -7637,13 +7663,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C166" t="s">
+        <v>428</v>
+      </c>
+      <c r="D166" t="s">
         <v>429</v>
-      </c>
-      <c r="D166" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -7652,13 +7678,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
+        <v>432</v>
+      </c>
+      <c r="C167" t="s">
         <v>433</v>
       </c>
-      <c r="C167" t="s">
-        <v>434</v>
-      </c>
       <c r="D167" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -7667,13 +7693,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C168" t="s">
+        <v>434</v>
+      </c>
+      <c r="D168" t="s">
         <v>435</v>
-      </c>
-      <c r="D168" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -7682,13 +7708,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C169" t="s">
+        <v>437</v>
+      </c>
+      <c r="D169" t="s">
         <v>438</v>
-      </c>
-      <c r="D169" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -7697,13 +7723,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
+        <v>443</v>
+      </c>
+      <c r="C170" t="s">
         <v>444</v>
       </c>
-      <c r="C170" t="s">
-        <v>445</v>
-      </c>
       <c r="D170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -7712,13 +7738,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
+        <v>445</v>
+      </c>
+      <c r="C171" t="s">
         <v>446</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>447</v>
-      </c>
-      <c r="D171" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -7727,13 +7753,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
+        <v>448</v>
+      </c>
+      <c r="C172" t="s">
         <v>449</v>
       </c>
-      <c r="C172" t="s">
-        <v>450</v>
-      </c>
       <c r="D172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -7742,13 +7768,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D173" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -7757,13 +7783,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
+        <v>452</v>
+      </c>
+      <c r="C174" t="s">
         <v>453</v>
       </c>
-      <c r="C174" t="s">
-        <v>454</v>
-      </c>
       <c r="D174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -7772,13 +7798,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C175" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D175" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -7787,13 +7813,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C176" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D176" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -7802,13 +7828,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C177" t="s">
+        <v>462</v>
+      </c>
+      <c r="D177" t="s">
         <v>463</v>
-      </c>
-      <c r="D177" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -7817,13 +7843,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
+        <v>470</v>
+      </c>
+      <c r="C178" t="s">
+        <v>469</v>
+      </c>
+      <c r="D178" t="s">
         <v>471</v>
-      </c>
-      <c r="C178" t="s">
-        <v>470</v>
-      </c>
-      <c r="D178" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -7832,13 +7858,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C179" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -7847,13 +7873,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
+        <v>474</v>
+      </c>
+      <c r="C180" t="s">
         <v>475</v>
       </c>
-      <c r="C180" t="s">
-        <v>476</v>
-      </c>
       <c r="D180" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -7862,13 +7888,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C181" t="s">
+        <v>478</v>
+      </c>
+      <c r="D181" t="s">
         <v>479</v>
-      </c>
-      <c r="D181" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -7877,13 +7903,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C182" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D182" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -7892,13 +7918,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C183" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D183" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -7907,13 +7933,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C184" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D184" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -7922,13 +7948,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C185" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D185" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -7937,13 +7963,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C186" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D186" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -7952,13 +7978,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C187" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D187" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -7967,13 +7993,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C188" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D188" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -7982,13 +8008,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C189" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D189" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -7997,13 +8023,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>504</v>
+        <v>1326</v>
       </c>
       <c r="C190" t="s">
-        <v>495</v>
+        <v>1328</v>
       </c>
       <c r="D190" t="s">
-        <v>514</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -8012,13 +8038,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C191" t="s">
-        <v>876</v>
+        <v>494</v>
       </c>
       <c r="D191" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,13 +8053,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C192" t="s">
-        <v>486</v>
+        <v>871</v>
       </c>
       <c r="D192" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -8042,13 +8068,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C193" t="s">
-        <v>877</v>
+        <v>485</v>
       </c>
       <c r="D193" t="s">
-        <v>852</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -8057,13 +8083,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C194" t="s">
-        <v>488</v>
+        <v>872</v>
       </c>
       <c r="D194" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -8072,13 +8098,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C195" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D195" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -8087,13 +8113,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C196" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D196" t="s">
-        <v>517</v>
+        <v>852</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8102,13 +8128,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C197" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D197" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8117,13 +8143,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C198" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D198" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -8132,13 +8158,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C199" t="s">
+        <v>521</v>
+      </c>
+      <c r="D199" t="s">
         <v>524</v>
-      </c>
-      <c r="D199" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -8147,13 +8173,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C200" t="s">
         <v>523</v>
       </c>
       <c r="D200" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -8162,13 +8188,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C201" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D201" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -8177,13 +8203,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C202" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D202" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -8192,13 +8218,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C203" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D203" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -8207,13 +8233,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C204" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D204" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -8222,13 +8248,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C205" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D205" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -8237,13 +8263,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C206" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D206" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -8252,13 +8278,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C207" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D207" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -8267,13 +8293,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C208" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D208" t="s">
-        <v>374</v>
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -8282,13 +8308,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C209" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D209" t="s">
-        <v>558</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -8297,13 +8323,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C210" t="s">
-        <v>804</v>
+        <v>556</v>
       </c>
       <c r="D210" t="s">
-        <v>805</v>
+        <v>557</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -8312,13 +8338,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C211" t="s">
-        <v>574</v>
+        <v>799</v>
       </c>
       <c r="D211" t="s">
-        <v>575</v>
+        <v>800</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -8327,13 +8353,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C212" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D212" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -8342,13 +8368,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>825</v>
+        <v>561</v>
       </c>
       <c r="C213" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D213" t="s">
-        <v>812</v>
+        <v>576</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,13 +8383,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>563</v>
+        <v>820</v>
       </c>
       <c r="C214" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D214" t="s">
-        <v>580</v>
+        <v>807</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -8372,13 +8398,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D215" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -8387,13 +8413,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C216" t="s">
-        <v>862</v>
+        <v>580</v>
       </c>
       <c r="D216" t="s">
-        <v>863</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -8402,13 +8428,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C217" t="s">
-        <v>583</v>
+        <v>857</v>
       </c>
       <c r="D217" t="s">
-        <v>584</v>
+        <v>858</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8417,13 +8443,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C218" t="s">
-        <v>585</v>
+        <v>1329</v>
       </c>
       <c r="D218" t="s">
-        <v>586</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8432,13 +8458,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>568</v>
+        <v>1333</v>
       </c>
       <c r="C219" t="s">
-        <v>587</v>
+        <v>1330</v>
       </c>
       <c r="D219" t="s">
-        <v>588</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8447,13 +8473,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C220" t="s">
-        <v>560</v>
+        <v>1334</v>
       </c>
       <c r="D220" t="s">
-        <v>824</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -8462,13 +8488,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C221" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D221" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -8477,13 +8503,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C222" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="D222" t="s">
-        <v>592</v>
+        <v>819</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -8492,13 +8518,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C223" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D223" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -8507,13 +8533,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>731</v>
+        <v>570</v>
       </c>
       <c r="C224" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D224" t="s">
-        <v>730</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -8522,13 +8548,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>732</v>
+        <v>571</v>
       </c>
       <c r="C225" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D225" t="s">
-        <v>665</v>
+        <v>589</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -8537,13 +8563,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C226" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D226" t="s">
-        <v>666</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -8552,13 +8578,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C227" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D227" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -8567,13 +8593,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C228" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D228" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -8582,13 +8608,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C229" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D229" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -8597,13 +8623,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C230" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D230" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -8612,43 +8638,43 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C231" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D231" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" cm="1">
         <f t="array" ref="A232">ROW(232:232)-3</f>
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C232" t="s">
-        <v>603</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="D232" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" cm="1">
         <f t="array" ref="A233">ROW(233:233)-3</f>
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C233" t="s">
-        <v>604</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>673</v>
+        <v>597</v>
+      </c>
+      <c r="D233" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8657,13 +8683,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C234" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8672,13 +8698,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C235" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8687,13 +8713,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C236" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8702,13 +8728,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C237" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8717,13 +8743,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C238" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8732,13 +8758,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C239" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8747,13 +8773,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C240" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8762,13 +8788,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C241" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8777,13 +8803,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C242" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8792,13 +8818,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C243" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8807,13 +8833,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C244" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8822,13 +8848,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C245" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8837,13 +8863,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C246" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8852,13 +8878,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C247" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8867,13 +8893,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C248" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8882,13 +8908,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C249" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8897,13 +8923,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C250" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8912,13 +8938,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C251" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8927,13 +8953,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C252" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8942,13 +8968,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C253" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8957,13 +8983,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C254" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8972,13 +8998,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C255" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8987,13 +9013,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C256" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9002,13 +9028,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C257" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9017,13 +9043,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C258" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9032,13 +9058,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C259" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9047,13 +9073,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C260" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9062,13 +9088,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C261" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9077,13 +9103,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C262" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9092,13 +9118,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C263" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9107,13 +9133,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C264" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9122,13 +9148,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C265" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9137,13 +9163,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C266" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9152,13 +9178,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C267" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9167,13 +9193,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C268" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9182,13 +9208,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C269" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9197,13 +9223,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C270" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9212,13 +9238,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C271" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9227,13 +9253,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C272" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9242,13 +9268,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C273" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9257,13 +9283,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C274" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9272,13 +9298,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C275" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9287,13 +9313,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C276" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9302,13 +9328,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C277" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9317,13 +9343,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C278" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9332,13 +9358,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C279" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9347,13 +9373,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C280" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9362,13 +9388,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C281" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9377,13 +9403,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C282" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9392,13 +9418,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C283" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9407,13 +9433,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C284" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>482</v>
+        <v>717</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9422,13 +9448,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C285" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9437,13 +9463,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C286" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9452,13 +9478,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C287" t="s">
-        <v>879</v>
+        <v>651</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>490</v>
+        <v>719</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9467,13 +9493,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C288" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9482,13 +9508,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C289" t="s">
-        <v>659</v>
+        <v>874</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>725</v>
+        <v>489</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9497,13 +9523,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C290" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>726</v>
+        <v>483</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9512,13 +9538,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C291" t="s">
-        <v>864</v>
+        <v>654</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>866</v>
+        <v>720</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9527,13 +9553,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C292" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>865</v>
+        <v>721</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9542,13 +9568,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C293" t="s">
-        <v>662</v>
+        <v>859</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>727</v>
+        <v>861</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9557,13 +9583,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C294" t="s">
-        <v>878</v>
+        <v>656</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>728</v>
+        <v>860</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9572,13 +9598,13 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C295" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>485</v>
+        <v>722</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9587,13 +9613,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C296" t="s">
-        <v>664</v>
+        <v>873</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9602,13 +9628,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="C297" t="s">
-        <v>868</v>
+        <v>658</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>869</v>
+        <v>484</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9617,43 +9643,43 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>870</v>
+        <v>798</v>
       </c>
       <c r="C298" t="s">
-        <v>871</v>
+        <v>659</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A299" cm="1">
         <f t="array" ref="A299">ROW(299:299)-3</f>
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="C299" t="s">
-        <v>896</v>
-      </c>
-      <c r="D299" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A300" cm="1">
         <f t="array" ref="A300">ROW(300:300)-3</f>
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>904</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D300" t="s">
-        <v>900</v>
+        <v>865</v>
+      </c>
+      <c r="C300" t="s">
+        <v>866</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -9662,43 +9688,43 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>901</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
+      </c>
+      <c r="C301" t="s">
+        <v>891</v>
       </c>
       <c r="D301" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" cm="1">
         <f t="array" ref="A302">ROW(302:302)-3</f>
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D302" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D302" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" cm="1">
         <f t="array" ref="A303">ROW(303:303)-3</f>
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>913</v>
+        <v>897</v>
+      </c>
+      <c r="D303" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9707,13 +9733,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9722,13 +9748,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C305" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9737,13 +9763,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>999</v>
+        <v>901</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>1004</v>
+        <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9752,43 +9778,43 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1000</v>
+        <v>902</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A308" cm="1">
         <f t="array" ref="A308">ROW(308:308)-3</f>
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A309" cm="1">
         <f t="array" ref="A309">ROW(309:309)-3</f>
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1007</v>
+        <v>994</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -9797,13 +9823,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D310" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -9812,13 +9838,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>908</v>
+        <v>996</v>
       </c>
       <c r="D311" t="s">
-        <v>916</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -9827,13 +9853,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>909</v>
+        <v>997</v>
       </c>
       <c r="D312" t="s">
-        <v>917</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -9842,13 +9868,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D313" t="s">
         <v>910</v>
-      </c>
-      <c r="D313" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -9857,13 +9883,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D314" t="s">
         <v>911</v>
-      </c>
-      <c r="D314" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -9872,13 +9898,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D315" t="s">
         <v>912</v>
-      </c>
-      <c r="D315" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -9887,13 +9913,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="D316" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -9902,13 +9928,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="D317" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -9917,13 +9943,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D318" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -9932,13 +9958,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="D319" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -9947,13 +9973,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D320" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -9962,13 +9988,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>933</v>
-      </c>
-      <c r="C321" t="s">
-        <v>934</v>
+        <v>922</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="D321" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -9977,13 +10003,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D322" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -9992,13 +10018,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>942</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
+      </c>
+      <c r="C323" t="s">
+        <v>928</v>
       </c>
       <c r="D323" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -10007,13 +10033,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="D324" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -10022,13 +10048,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D325" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -10037,13 +10063,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D326" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -10052,13 +10078,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>946</v>
-      </c>
-      <c r="C327" t="s">
-        <v>951</v>
+        <v>938</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="D327" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -10067,13 +10093,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="D328" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -10082,13 +10108,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>960</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>961</v>
+        <v>940</v>
+      </c>
+      <c r="C329" t="s">
+        <v>945</v>
       </c>
       <c r="D329" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -10097,13 +10123,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="D330" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -10112,13 +10138,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="D331" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -10127,13 +10153,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="D332" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -10142,13 +10168,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="D333" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -10157,13 +10183,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="D334" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -10172,13 +10198,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="D335" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -10187,13 +10213,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="D336" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -10202,13 +10228,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="D337" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -10217,13 +10243,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>986</v>
-      </c>
-      <c r="C338" t="s">
-        <v>985</v>
+        <v>975</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="D338" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -10232,13 +10258,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D339" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -10247,13 +10273,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>993</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>994</v>
+        <v>980</v>
+      </c>
+      <c r="C340" t="s">
+        <v>979</v>
       </c>
       <c r="D340" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -10262,13 +10288,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D341" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -10277,13 +10303,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="D342" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -10292,13 +10318,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="D343" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -10307,13 +10333,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="D344" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -10322,13 +10348,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D345" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -10337,13 +10363,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1021</v>
+        <v>1007</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1010</v>
       </c>
       <c r="D346" t="s">
-        <v>1222</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -10352,13 +10378,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>1059</v>
+        <v>1008</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="D347" t="s">
-        <v>1223</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -10366,14 +10392,14 @@
         <f t="array" ref="A348">ROW(348:348)-3</f>
         <v>345</v>
       </c>
-      <c r="B348" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1023</v>
+      <c r="B348" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1337</v>
       </c>
       <c r="D348" t="s">
-        <v>1224</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10382,13 +10408,13 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="C349" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D349" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10397,13 +10423,13 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1025</v>
+        <v>1053</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="D350" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10412,13 +10438,13 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>1026</v>
+        <v>1054</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1017</v>
       </c>
       <c r="D351" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10427,13 +10453,13 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C352" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="D352" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10442,13 +10468,13 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C353" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="D353" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10457,13 +10483,13 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1029</v>
+        <v>1057</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>1020</v>
       </c>
       <c r="D354" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10472,13 +10498,13 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="C355" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="D355" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -10487,13 +10513,13 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="C356" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="D356" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10502,13 +10528,13 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C357" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="D357" t="s">
-        <v>53</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10517,13 +10543,13 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C358" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="D358" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10532,13 +10558,13 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C359" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="D359" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10547,13 +10573,13 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="C360" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D360" t="s">
-        <v>1234</v>
+        <v>53</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -10562,13 +10588,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C361" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="D361" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -10577,13 +10603,13 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="C362" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="D362" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -10592,13 +10618,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="C363" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="D363" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -10607,13 +10633,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="C364" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="D364" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -10622,13 +10648,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="C365" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D365" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -10637,13 +10663,13 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="C366" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D366" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -10652,13 +10678,13 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="C367" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="D367" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -10667,13 +10693,13 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="C368" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D368" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -10682,13 +10708,13 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="C369" t="s">
-        <v>1307</v>
+        <v>1035</v>
       </c>
       <c r="D369" t="s">
-        <v>1308</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -10697,13 +10723,13 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="C370" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="D370" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -10712,13 +10738,13 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="C371" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="D371" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -10727,13 +10753,13 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="C372" t="s">
-        <v>1046</v>
+        <v>1301</v>
       </c>
       <c r="D372" t="s">
-        <v>1245</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -10742,13 +10768,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="C373" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="D373" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -10757,13 +10783,13 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C374" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="D374" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -10772,13 +10798,13 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="C375" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="D375" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -10787,13 +10813,13 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="C376" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="D376" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -10802,13 +10828,13 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C377" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="D377" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -10817,13 +10843,13 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="C378" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="D378" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -10832,13 +10858,13 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="C379" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="D379" t="s">
-        <v>959</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -10847,13 +10873,13 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="C380" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="D380" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -10862,13 +10888,13 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="C381" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="D381" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -10877,13 +10903,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="C382" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="D382" t="s">
-        <v>1254</v>
+        <v>953</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -10892,13 +10918,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="C383" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="D383" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -10907,13 +10933,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1126</v>
+        <v>1087</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1049</v>
       </c>
       <c r="D384" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -10922,13 +10948,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1125</v>
+        <v>1088</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1050</v>
       </c>
       <c r="D385" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -10937,13 +10963,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1124</v>
+        <v>1089</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1051</v>
       </c>
       <c r="D386" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -10952,13 +10978,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D387" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -10967,13 +10993,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1311</v>
+        <v>1119</v>
       </c>
       <c r="D388" t="s">
-        <v>1313</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -10982,13 +11008,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D389" t="s">
-        <v>1314</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -10997,13 +11023,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1312</v>
+        <v>1117</v>
       </c>
       <c r="D390" t="s">
-        <v>1315</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11012,13 +11038,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1121</v>
+        <v>1305</v>
       </c>
       <c r="D391" t="s">
-        <v>1260</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11027,13 +11053,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D392" t="s">
-        <v>1261</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11042,13 +11068,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1119</v>
+        <v>1306</v>
       </c>
       <c r="D393" t="s">
-        <v>1262</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11057,13 +11083,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1316</v>
+        <v>1115</v>
       </c>
       <c r="D394" t="s">
-        <v>1323</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11072,13 +11098,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D395" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11087,13 +11113,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1317</v>
+        <v>1113</v>
       </c>
       <c r="D396" t="s">
-        <v>1320</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11102,13 +11128,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="D397" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11117,13 +11143,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1319</v>
+        <v>1112</v>
       </c>
       <c r="D398" t="s">
-        <v>1322</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11132,13 +11158,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1117</v>
+        <v>1311</v>
       </c>
       <c r="D399" t="s">
-        <v>1264</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11147,13 +11173,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1116</v>
+        <v>1312</v>
       </c>
       <c r="D400" t="s">
-        <v>1265</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11162,13 +11188,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1115</v>
+        <v>1313</v>
       </c>
       <c r="D401" t="s">
-        <v>1266</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11177,13 +11203,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D402" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11192,13 +11218,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D403" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11207,13 +11233,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D404" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11222,13 +11248,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D405" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11237,13 +11263,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D406" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11252,13 +11278,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1309</v>
+        <v>1106</v>
       </c>
       <c r="D407" t="s">
-        <v>1310</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11267,13 +11293,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D408" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11282,13 +11308,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D409" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11297,13 +11323,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1107</v>
+        <v>1303</v>
       </c>
       <c r="D410" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11312,13 +11338,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D411" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11327,13 +11353,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D412" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11342,13 +11368,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D413" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11357,13 +11383,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D414" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11372,13 +11398,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D415" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11387,13 +11413,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D416" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11402,13 +11428,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D417" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11417,13 +11443,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D418" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11432,13 +11458,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D419" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -11447,13 +11473,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D420" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -11462,13 +11488,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D421" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11477,9 +11503,14 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C422" s="1"/>
+        <v>1156</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" cm="1">
@@ -11487,7 +11518,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1185</v>
+        <v>1157</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11496,7 +11533,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1186</v>
+        <v>1158</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11505,8 +11548,9 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1187</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="C425" s="1"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" cm="1">
@@ -11514,7 +11558,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11523,7 +11567,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11532,7 +11576,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11541,7 +11585,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11550,13 +11594,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1289</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -11565,13 +11603,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1290</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -11580,13 +11612,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C432" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1285</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -11595,13 +11621,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="C433" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="D433" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -11610,13 +11636,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="C434" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="D434" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -11625,13 +11651,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="C435" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="D435" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -11640,13 +11666,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="C436" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="D436" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -11655,13 +11681,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="C437" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="D437" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -11670,13 +11696,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="C438" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="D438" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -11685,13 +11711,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="C439" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="D439" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -11700,13 +11726,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="C440" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="D440" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -11715,13 +11741,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="C441" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="D441" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -11730,13 +11756,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="C442" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="D442" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -11745,13 +11771,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C443" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="D443" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -11760,13 +11786,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="C444" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="D444" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -11775,13 +11801,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="C445" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="D445" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -11790,13 +11816,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C446" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="D446" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -11805,13 +11831,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C447" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="D447" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -11820,112 +11846,157 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C448" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="D448" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" cm="1">
         <f t="array" ref="A449">ROW(449:449)-3</f>
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1202</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" cm="1">
         <f t="array" ref="A450">ROW(450:450)-3</f>
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1203</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" cm="1">
         <f t="array" ref="A451">ROW(451:451)-3</f>
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" cm="1">
         <f t="array" ref="A452">ROW(452:452)-3</f>
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" cm="1">
         <f t="array" ref="A453">ROW(453:453)-3</f>
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" cm="1">
         <f t="array" ref="A454">ROW(454:454)-3</f>
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" cm="1">
         <f t="array" ref="A455">ROW(455:455)-3</f>
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" cm="1">
         <f t="array" ref="A456">ROW(456:456)-3</f>
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" cm="1">
         <f t="array" ref="A457">ROW(457:457)-3</f>
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" cm="1">
         <f t="array" ref="A458">ROW(458:458)-3</f>
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" cm="1">
         <f t="array" ref="A459">ROW(459:459)-3</f>
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1221</v>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" cm="1">
+        <f t="array" ref="A460">ROW(460:460)-3</f>
+        <v>457</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" cm="1">
+        <f t="array" ref="A461">ROW(461:461)-3</f>
+        <v>458</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" cm="1">
+        <f t="array" ref="A462">ROW(462:462)-3</f>
+        <v>459</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F04E5-0B24-44EA-84FE-D18D2AF7EDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0F5D1-DE3B-4236-9A38-7207BEE14085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1785" windowWidth="27210" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1437">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -941,9 +941,6 @@
     <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
   </si>
   <si>
@@ -2654,9 +2651,6 @@
     <t>&lt;color=#9932CD&gt;Street Sign&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Speed&lt;/color&gt;\r\nThe spoils from the giant zombie. This heavy thing affects my movement speed too much.</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
-  </si>
-  <si>
     <t>Power\nThe basic damage caused by the pan is increased by {0}&lt;/color&gt;\nThe knockback Power is increased by &lt;color=#00ff00&gt; + value + %&lt;/color&gt;</t>
   </si>
   <si>
@@ -4475,6 +4469,334 @@
   </si>
   <si>
     <t>强化增加{0}护甲，当前等级{1},总共增加护甲{2}。减少受到的伤害</t>
+  </si>
+  <si>
+    <t>propInfo_brokenEggshell</t>
+  </si>
+  <si>
+    <t>propInfo_dangerReminder</t>
+  </si>
+  <si>
+    <t>propInfo_goggles</t>
+  </si>
+  <si>
+    <t>propInfo_staff</t>
+  </si>
+  <si>
+    <t>propInfo_shell</t>
+  </si>
+  <si>
+    <t>propInfo_gong</t>
+  </si>
+  <si>
+    <t>propInfo_gongStick</t>
+  </si>
+  <si>
+    <t>propInfo_ignitedBomb</t>
+  </si>
+  <si>
+    <t>propInfo_pumpkin</t>
+  </si>
+  <si>
+    <t>propInfo_wing</t>
+  </si>
+  <si>
+    <t>propInfo_pennant</t>
+  </si>
+  <si>
+    <t>propInfo_damagedSkateboard</t>
+  </si>
+  <si>
+    <t>propInfo_butter</t>
+  </si>
+  <si>
+    <t>propInfo_actionBars</t>
+  </si>
+  <si>
+    <t>propInfo_recorder</t>
+  </si>
+  <si>
+    <t>propInfo_mask</t>
+  </si>
+  <si>
+    <t>propInfo_drumsticks</t>
+  </si>
+  <si>
+    <t>propInfo_cloud</t>
+  </si>
+  <si>
+    <t>propInfo_iceCake</t>
+  </si>
+  <si>
+    <t>propInfo_batWings</t>
+  </si>
+  <si>
+    <t>propInfo_hemline</t>
+  </si>
+  <si>
+    <t>propInfo_umbrella</t>
+  </si>
+  <si>
+    <t>propInfo_brokenHat</t>
+  </si>
+  <si>
+    <t>propInfo_pinecone</t>
+  </si>
+  <si>
+    <t>propInfo_zombieRightHand</t>
+  </si>
+  <si>
+    <t>propInfo_zombieLeftHand</t>
+  </si>
+  <si>
+    <t>propInfo_imitator</t>
+  </si>
+  <si>
+    <t>propInfo_base</t>
+  </si>
+  <si>
+    <t>propInfo_zombieBanOrder</t>
+  </si>
+  <si>
+    <t>propInfo_PoleVaulting</t>
+  </si>
+  <si>
+    <t>propInfo_cart</t>
+  </si>
+  <si>
+    <t>propInfo_unknownButton</t>
+  </si>
+  <si>
+    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broken Eggshell\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Armor&lt;/color&gt;\r\nIt can be seen that a new life has been bred</t>
+  </si>
+  <si>
+    <t>Danger Reminder\r\n&lt;color=#00ff00&gt;+5 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Damage&lt;/color&gt;\r\nThe area ahead is very dangerous, let's explore it later</t>
+  </si>
+  <si>
+    <t>Goggles\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\n&lt;c olor=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Strength&lt;/color&gt;\r\nCan effectively protect the eyes\r\n&lt;color=#9932CD&gt;Can attack flying balloon zombies&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Staff\r\n&lt;color=#00ff00&gt;+15 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Critical Rate&lt;/color&gt;\r\nIt is a staff that can cast magic</t>
+  </si>
+  <si>
+    <t>Shell\r\n&lt;color=#00ff00&gt;+4 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Speed&lt;/color&gt;\r\nCan effectively protect my brain</t>
+  </si>
+  <si>
+    <t>Gong stick\r\n&lt;color=#00ff00&gt;+3 Life Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Botany&lt;/color&gt;\r\nGong stick used for beating gongs. Beating the gongs and drums will attract more zombies\r\n&lt;color =#ff0000&gt;The number of zombies increased by 5%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Bombs lit by the gong\r\n&lt;color=#00ff00&gt;+4 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Luck&lt;/color&gt;\r\nIt feels like it will explode immediately</t>
+  </si>
+  <si>
+    <t>Pumpkin\r\n&lt;color=#00ff00&gt;+4 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Health Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Luck&lt;/color&gt;\r\n&lt;c olor=#ff0000&gt;-1 Critical Hit Rate&lt;/color&gt;\r\nA delicious-looking pumpkin</t>
+  </si>
+  <si>
+    <t>Wings\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Critical Hit Rate&lt;/color&gt;\r\nThe wings of the plane, the speed should be very fast</t>
+  </si>
+  <si>
+    <t>Broken skateboard\r\n&lt;color=#00ff00&gt;+5 speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 strength&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 luck&lt;/color&gt;\r\nBroken skateboard, you may fall if you use it</t>
+  </si>
+  <si>
+    <t>Butter\r\n&lt;color=#00ff00&gt;+4 health recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 critical hit rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 speed&lt;/color&gt;\r\n&lt;color= #ff0000&gt;-10 Critical Damage&lt;/color&gt;\r\nI heard that the Corn Pitcher might be able to throw butter</t>
+  </si>
+  <si>
+    <t>Joystick\r\n&lt;color=#00ff00&gt;+4 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Luck&lt;/color&gt;\r\nIt seems to be a game joystick, it seems to be broken</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Recorder&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Gold&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Botany&lt;/color&gt; \r\n&lt;color=#ff0000&gt;-2 Strength&lt;/color&gt;\r\nShould also be used to play tapes</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Masked Face&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Critical Hit Rate&lt;/color&gt;\r\nMasked Superman!</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Chicken Leg&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Health Recovery&lt;/color&gt;\r\nBig fragrant chicken leg</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Cloud&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Critical Hit Rate&lt;/color&gt;\r\nFalling from the sky?</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Ice&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\nShiny Ice</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Bat Wings&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/ color&gt;\r\n&lt;color=#ff0000&gt;-2 Strength&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Skirt&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;/color&gt; can effectively protect me</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Umbrella&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Health Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/ color&gt;\r\n&lt;color=#00ff00&gt;+4 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Range&lt;/color&gt;The most handsome boy</t>
+  </si>
+  <si>
+    <t>Broken hat\r\n&lt;color=#00ff00&gt;+5 Maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Armor&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Strength&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Range&lt;/color&gt;\r\nCan barely block a little bit</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Zombie Left Hand&lt;/color&gt;\r\n&lt;color=#00f f00&gt;+10 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Luck&lt;/color&gt;\r\nThe zombie's left hand looks full of power</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Zombie Right Hand&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt; -10 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Luck&lt;/color&gt;\r\nThe zombie's right hand looks full of power</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Imitator&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 HP Recovery&lt;/color&gt;\r\n</t>
+  </si>
+  <si>
+    <t>Imitator\r\n&lt;color=#00ff00&gt;+1 Strength&lt;/color&gt;\r\nSomething unknown base</t>
+  </si>
+  <si>
+    <t>Zombie Ban\r\n&lt;color=#00ff00&gt;+5 HP Recovery&lt;/color&gt; or&gt;\r\n&lt;color=#ff0000&gt;-1 Strength&lt;/color&gt;\r\nZombies are prohibited here\r\n&lt;color=#00ff00&gt;The number of zombies is reduced by 10%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Pole Vault&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Health Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\nPole Vault Zombie Rod</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Cart&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\nCart with flame skin</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Unknown button&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\nI don't know what the button controls, exciting</t>
+  </si>
+  <si>
+    <t>Gong\r\n&lt;color=#00ff00&gt;+4 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Speed&lt;/color&gt;\r\nBeat the gongs and drums to attract more zombies\r\n&lt;color=#ff0000&gt;Increase the number of zombies by 5%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Banner&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Health Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\nBanner of zombies, it seems they like brains\r\n&lt;color=#ff0000&gt;The number of zombies increases by 5%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Pine cone&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 HP Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Armor&lt;/color&gt;\r\nCute</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4858,11 +5180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F462"/>
+  <dimension ref="A1:F494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5544,13 +5866,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D43" t="s">
         <v>1318</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1320</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -5632,7 +5954,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
@@ -5720,7 +6042,7 @@
         <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -5808,7 +6130,7 @@
         <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -5874,7 +6196,7 @@
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
@@ -6248,7 +6570,7 @@
         <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E75" t="s">
         <v>80</v>
@@ -6267,7 +6589,7 @@
         <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D76" t="s">
         <v>230</v>
@@ -6358,7 +6680,7 @@
         <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
@@ -6396,7 +6718,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C82" t="s">
         <v>160</v>
@@ -6418,13 +6740,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C83" t="s">
         <v>1321</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1323</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6433,13 +6755,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
         <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6448,13 +6770,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
         <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6463,13 +6785,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C86" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6478,13 +6800,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
         <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6493,13 +6815,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
         <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6508,13 +6830,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
         <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6523,13 +6845,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
         <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6538,13 +6860,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
         <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6553,13 +6875,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C92" t="s">
         <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6568,13 +6890,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C93" t="s">
         <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6583,13 +6905,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C94" t="s">
         <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6598,13 +6920,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C95" t="s">
         <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6613,13 +6935,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s">
         <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -6628,13 +6950,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C97" t="s">
         <v>248</v>
       </c>
       <c r="D97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,13 +6965,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
         <v>249</v>
       </c>
       <c r="D98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -6658,13 +6980,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C99" t="s">
         <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -6673,13 +6995,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C100" t="s">
         <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6688,13 +7010,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
         <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -6703,13 +7025,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D102" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -6718,13 +7040,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
         <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,13 +7055,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C104" t="s">
         <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -6748,13 +7070,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
         <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -6763,13 +7085,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
         <v>256</v>
       </c>
       <c r="D106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -6778,13 +7100,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s">
         <v>257</v>
       </c>
       <c r="D107" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -6793,13 +7115,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C108" t="s">
         <v>258</v>
       </c>
       <c r="D108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -6808,13 +7130,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C109" t="s">
         <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -6823,13 +7145,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110" t="s">
         <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -6838,13 +7160,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C111" t="s">
         <v>261</v>
       </c>
       <c r="D111" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6853,13 +7175,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
         <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6868,13 +7190,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C113" t="s">
         <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6883,13 +7205,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C114" t="s">
         <v>264</v>
       </c>
       <c r="D114" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6898,13 +7220,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C115" t="s">
         <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6913,13 +7235,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C116" t="s">
         <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6928,13 +7250,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
         <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,13 +7265,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C118" t="s">
+        <v>360</v>
+      </c>
+      <c r="D118" t="s">
         <v>361</v>
-      </c>
-      <c r="D118" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6958,13 +7280,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" t="s">
         <v>363</v>
-      </c>
-      <c r="D119" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6973,13 +7295,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C120" t="s">
         <v>268</v>
       </c>
       <c r="D120" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6988,13 +7310,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
         <v>269</v>
       </c>
       <c r="D121" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -7003,13 +7325,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C122" t="s">
         <v>270</v>
       </c>
       <c r="D122" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -7018,13 +7340,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
         <v>271</v>
       </c>
       <c r="D123" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7033,13 +7355,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C124" t="s">
         <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7048,13 +7370,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C125" t="s">
         <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7063,13 +7385,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
         <v>274</v>
       </c>
       <c r="D126" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7078,13 +7400,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C127" t="s">
         <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7093,13 +7415,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C128" t="s">
         <v>276</v>
       </c>
       <c r="D128" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7108,13 +7430,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s">
         <v>277</v>
       </c>
       <c r="D129" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7123,13 +7445,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C130" t="s">
         <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7138,13 +7460,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C131" t="s">
         <v>279</v>
       </c>
       <c r="D131" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7153,13 +7475,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
-        <v>280</v>
+        <v>1435</v>
       </c>
       <c r="D132" t="s">
-        <v>806</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7168,13 +7490,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7183,13 +7505,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D134" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7198,13 +7520,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7213,13 +7535,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D136" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7228,13 +7550,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D137" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7243,13 +7565,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D138" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7258,13 +7580,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D139" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7273,13 +7595,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D140" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7288,13 +7610,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" t="s">
         <v>366</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>367</v>
-      </c>
-      <c r="D141" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7303,13 +7625,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" t="s">
         <v>369</v>
       </c>
-      <c r="C142" t="s">
-        <v>370</v>
-      </c>
       <c r="D142" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7318,13 +7640,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
+        <v>370</v>
+      </c>
+      <c r="C143" t="s">
         <v>371</v>
       </c>
-      <c r="C143" t="s">
-        <v>372</v>
-      </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7333,13 +7655,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" t="s">
         <v>375</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>376</v>
-      </c>
-      <c r="D144" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,13 +7670,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
+        <v>535</v>
+      </c>
+      <c r="C145" t="s">
         <v>536</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>537</v>
-      </c>
-      <c r="D145" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7363,13 +7685,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
         <v>378</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>379</v>
-      </c>
-      <c r="D146" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7378,13 +7700,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
+        <v>396</v>
+      </c>
+      <c r="C147" t="s">
         <v>397</v>
       </c>
-      <c r="C147" t="s">
-        <v>398</v>
-      </c>
       <c r="D147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7393,13 +7715,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" t="s">
         <v>409</v>
       </c>
-      <c r="C148" t="s">
-        <v>410</v>
-      </c>
       <c r="D148" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7408,13 +7730,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
+        <v>410</v>
+      </c>
+      <c r="C149" t="s">
         <v>411</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>412</v>
-      </c>
-      <c r="D149" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7423,13 +7745,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
+        <v>465</v>
+      </c>
+      <c r="C150" t="s">
         <v>466</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>467</v>
-      </c>
-      <c r="D150" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -7438,13 +7760,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C151" t="s">
         <v>381</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>382</v>
-      </c>
-      <c r="D151" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,13 +7775,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C152" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" t="s">
         <v>384</v>
-      </c>
-      <c r="D152" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -7468,13 +7790,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" t="s">
         <v>387</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>388</v>
-      </c>
-      <c r="D153" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -7483,13 +7805,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" t="s">
         <v>390</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>391</v>
-      </c>
-      <c r="D154" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -7498,13 +7820,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" t="s">
         <v>403</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>404</v>
-      </c>
-      <c r="D155" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -7513,13 +7835,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
+        <v>405</v>
+      </c>
+      <c r="C156" t="s">
         <v>406</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>407</v>
-      </c>
-      <c r="D156" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -7528,13 +7850,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" t="s">
         <v>393</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>394</v>
-      </c>
-      <c r="D157" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -7543,13 +7865,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C158" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D158" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -7558,13 +7880,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C159" t="s">
+        <v>400</v>
+      </c>
+      <c r="D159" t="s">
         <v>401</v>
-      </c>
-      <c r="D159" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -7573,13 +7895,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
+        <v>414</v>
+      </c>
+      <c r="C160" t="s">
+        <v>440</v>
+      </c>
+      <c r="D160" t="s">
         <v>415</v>
-      </c>
-      <c r="C160" t="s">
-        <v>441</v>
-      </c>
-      <c r="D160" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -7588,13 +7910,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" t="s">
         <v>417</v>
-      </c>
-      <c r="C161" t="s">
-        <v>440</v>
-      </c>
-      <c r="D161" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -7603,13 +7925,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C162" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D162" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -7618,13 +7940,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" t="s">
+        <v>441</v>
+      </c>
+      <c r="D163" t="s">
         <v>420</v>
-      </c>
-      <c r="C163" t="s">
-        <v>442</v>
-      </c>
-      <c r="D163" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -7633,13 +7955,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C164" t="s">
+        <v>421</v>
+      </c>
+      <c r="D164" t="s">
         <v>422</v>
-      </c>
-      <c r="D164" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -7648,13 +7970,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
+        <v>425</v>
+      </c>
+      <c r="C165" t="s">
+        <v>424</v>
+      </c>
+      <c r="D165" t="s">
         <v>426</v>
-      </c>
-      <c r="C165" t="s">
-        <v>425</v>
-      </c>
-      <c r="D165" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -7663,13 +7985,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C166" t="s">
+        <v>427</v>
+      </c>
+      <c r="D166" t="s">
         <v>428</v>
-      </c>
-      <c r="D166" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -7678,13 +8000,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
+        <v>431</v>
+      </c>
+      <c r="C167" t="s">
         <v>432</v>
       </c>
-      <c r="C167" t="s">
-        <v>433</v>
-      </c>
       <c r="D167" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -7693,13 +8015,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C168" t="s">
+        <v>433</v>
+      </c>
+      <c r="D168" t="s">
         <v>434</v>
-      </c>
-      <c r="D168" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -7708,13 +8030,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C169" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" t="s">
         <v>437</v>
-      </c>
-      <c r="D169" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -7723,13 +8045,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" t="s">
         <v>443</v>
       </c>
-      <c r="C170" t="s">
-        <v>444</v>
-      </c>
       <c r="D170" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -7738,13 +8060,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171" t="s">
         <v>445</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>446</v>
-      </c>
-      <c r="D171" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -7753,13 +8075,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
+        <v>447</v>
+      </c>
+      <c r="C172" t="s">
         <v>448</v>
       </c>
-      <c r="C172" t="s">
-        <v>449</v>
-      </c>
       <c r="D172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -7768,13 +8090,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C173" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D173" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -7783,13 +8105,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
+        <v>451</v>
+      </c>
+      <c r="C174" t="s">
         <v>452</v>
       </c>
-      <c r="C174" t="s">
-        <v>453</v>
-      </c>
       <c r="D174" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -7798,13 +8120,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C175" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D175" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -7813,13 +8135,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D176" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -7828,13 +8150,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C177" t="s">
+        <v>461</v>
+      </c>
+      <c r="D177" t="s">
         <v>462</v>
-      </c>
-      <c r="D177" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -7843,13 +8165,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
+        <v>469</v>
+      </c>
+      <c r="C178" t="s">
+        <v>468</v>
+      </c>
+      <c r="D178" t="s">
         <v>470</v>
-      </c>
-      <c r="C178" t="s">
-        <v>469</v>
-      </c>
-      <c r="D178" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -7858,13 +8180,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C179" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D179" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -7873,13 +8195,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
+        <v>473</v>
+      </c>
+      <c r="C180" t="s">
         <v>474</v>
       </c>
-      <c r="C180" t="s">
-        <v>475</v>
-      </c>
       <c r="D180" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -7888,13 +8210,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C181" t="s">
+        <v>477</v>
+      </c>
+      <c r="D181" t="s">
         <v>478</v>
-      </c>
-      <c r="D181" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -7903,13 +8225,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D182" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -7918,13 +8240,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C183" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D183" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -7933,13 +8255,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C184" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D184" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -7948,13 +8270,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C185" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -7963,13 +8285,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C186" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D186" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -7978,13 +8300,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D187" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,13 +8315,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D188" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -8008,13 +8330,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C189" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D189" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -8023,13 +8345,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C190" t="s">
         <v>1326</v>
       </c>
-      <c r="C190" t="s">
-        <v>1328</v>
-      </c>
       <c r="D190" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -8038,13 +8360,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C191" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D191" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -8053,13 +8375,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C192" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D192" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -8068,13 +8390,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C193" t="s">
+        <v>484</v>
+      </c>
+      <c r="D193" t="s">
         <v>485</v>
-      </c>
-      <c r="D193" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -8083,13 +8405,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C194" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D194" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -8098,13 +8420,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C195" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D195" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -8113,13 +8435,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D196" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8128,13 +8450,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C197" t="s">
+        <v>514</v>
+      </c>
+      <c r="D197" t="s">
         <v>515</v>
-      </c>
-      <c r="D197" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8143,13 +8465,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C198" t="s">
+        <v>517</v>
+      </c>
+      <c r="D198" t="s">
         <v>518</v>
-      </c>
-      <c r="D198" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -8158,13 +8480,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D199" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -8173,13 +8495,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C200" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D200" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -8188,13 +8510,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C201" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D201" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -8203,13 +8525,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
+        <v>529</v>
+      </c>
+      <c r="C202" t="s">
         <v>530</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>531</v>
-      </c>
-      <c r="D202" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -8218,13 +8540,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C203" t="s">
+        <v>532</v>
+      </c>
+      <c r="D203" t="s">
         <v>533</v>
-      </c>
-      <c r="D203" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -8233,13 +8555,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
+        <v>538</v>
+      </c>
+      <c r="C204" t="s">
         <v>539</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>540</v>
-      </c>
-      <c r="D204" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,13 +8570,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
+        <v>541</v>
+      </c>
+      <c r="C205" t="s">
         <v>542</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>543</v>
-      </c>
-      <c r="D205" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -8263,13 +8585,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
+        <v>544</v>
+      </c>
+      <c r="C206" t="s">
         <v>545</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>546</v>
-      </c>
-      <c r="D206" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,13 +8600,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C207" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" t="s">
         <v>548</v>
-      </c>
-      <c r="D207" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -8293,13 +8615,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C208" t="s">
+        <v>550</v>
+      </c>
+      <c r="D208" t="s">
         <v>551</v>
-      </c>
-      <c r="D208" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -8308,13 +8630,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
+        <v>553</v>
+      </c>
+      <c r="C209" t="s">
         <v>554</v>
       </c>
-      <c r="C209" t="s">
-        <v>555</v>
-      </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -8323,13 +8645,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C210" t="s">
+        <v>555</v>
+      </c>
+      <c r="D210" t="s">
         <v>556</v>
-      </c>
-      <c r="D210" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,13 +8660,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C211" t="s">
+        <v>798</v>
+      </c>
+      <c r="D211" t="s">
         <v>799</v>
-      </c>
-      <c r="D211" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -8353,13 +8675,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
+        <v>571</v>
+      </c>
+      <c r="C212" t="s">
         <v>572</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>573</v>
-      </c>
-      <c r="D212" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -8368,13 +8690,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C213" t="s">
+        <v>574</v>
+      </c>
+      <c r="D213" t="s">
         <v>575</v>
-      </c>
-      <c r="D213" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -8383,13 +8705,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C214" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D214" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -8398,13 +8720,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C215" t="s">
+        <v>577</v>
+      </c>
+      <c r="D215" t="s">
         <v>578</v>
-      </c>
-      <c r="D215" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -8413,13 +8735,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C216" t="s">
+        <v>579</v>
+      </c>
+      <c r="D216" t="s">
         <v>580</v>
-      </c>
-      <c r="D216" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -8428,13 +8750,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C217" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D217" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8443,13 +8765,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C218" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D218" t="s">
         <v>1329</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8458,13 +8780,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C219" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D219" t="s">
         <v>1330</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8473,13 +8795,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C220" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D220" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -8488,13 +8810,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C221" t="s">
+        <v>581</v>
+      </c>
+      <c r="D221" t="s">
         <v>582</v>
-      </c>
-      <c r="D221" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -8503,13 +8825,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C222" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D222" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -8518,13 +8840,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C223" t="s">
+        <v>583</v>
+      </c>
+      <c r="D223" t="s">
         <v>584</v>
-      </c>
-      <c r="D223" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -8533,13 +8855,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C224" t="s">
+        <v>585</v>
+      </c>
+      <c r="D224" t="s">
         <v>586</v>
-      </c>
-      <c r="D224" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -8548,13 +8870,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C225" t="s">
+        <v>587</v>
+      </c>
+      <c r="D225" t="s">
         <v>588</v>
-      </c>
-      <c r="D225" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -8563,13 +8885,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C226" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D226" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -8578,13 +8900,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C227" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D227" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -8593,13 +8915,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C228" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D228" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -8608,13 +8930,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C229" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D229" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -8623,13 +8945,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C230" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D230" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -8638,13 +8960,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C231" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D231" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -8653,13 +8975,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C232" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D232" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -8668,13 +8990,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C233" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D233" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8683,13 +9005,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C234" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8698,13 +9020,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C235" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8713,13 +9035,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C236" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8728,13 +9050,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C237" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8743,13 +9065,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C238" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8758,13 +9080,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C239" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8773,13 +9095,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C240" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8788,13 +9110,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C241" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8803,13 +9125,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C242" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8818,13 +9140,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C243" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8833,13 +9155,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C244" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8848,13 +9170,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C245" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8863,13 +9185,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C246" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8878,13 +9200,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C247" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8893,13 +9215,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C248" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8908,13 +9230,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C249" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8923,13 +9245,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C250" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8938,13 +9260,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C251" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8953,13 +9275,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C252" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8968,13 +9290,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C253" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8983,13 +9305,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C254" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8998,13 +9320,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C255" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9013,13 +9335,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C256" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9028,13 +9350,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C257" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9043,13 +9365,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C258" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9058,13 +9380,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C259" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9073,13 +9395,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C260" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9088,13 +9410,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C261" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9103,13 +9425,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C262" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9118,13 +9440,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C263" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9133,13 +9455,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C264" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9148,13 +9470,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C265" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9163,13 +9485,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C266" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9178,13 +9500,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C267" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9193,13 +9515,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C268" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9208,13 +9530,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C269" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9223,13 +9545,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C270" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9238,13 +9560,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C271" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9253,13 +9575,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C272" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9268,13 +9590,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C273" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9283,13 +9605,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C274" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9298,13 +9620,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C275" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9313,13 +9635,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C276" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9328,13 +9650,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C277" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9343,13 +9665,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C278" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9358,13 +9680,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C279" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9373,13 +9695,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C280" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9388,13 +9710,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C281" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9403,13 +9725,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C282" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9418,13 +9740,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C283" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9433,13 +9755,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C284" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9448,13 +9770,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C285" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9463,13 +9785,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C286" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9478,13 +9800,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C287" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9493,13 +9815,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C288" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9508,13 +9830,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C289" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9523,13 +9845,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C290" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9538,13 +9860,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C291" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9553,13 +9875,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C292" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9568,13 +9890,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C293" t="s">
+        <v>857</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9583,13 +9905,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C294" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9598,13 +9920,13 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C295" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9613,13 +9935,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C296" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9628,13 +9950,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C297" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9643,13 +9965,13 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C298" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9658,13 +9980,13 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
+        <v>860</v>
+      </c>
+      <c r="C299" t="s">
+        <v>861</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="C299" t="s">
-        <v>863</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9673,13 +9995,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
+        <v>863</v>
+      </c>
+      <c r="C300" t="s">
+        <v>864</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="C300" t="s">
-        <v>866</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -9688,13 +10010,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C301" t="s">
+        <v>889</v>
+      </c>
+      <c r="D301" t="s">
         <v>891</v>
-      </c>
-      <c r="D301" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -9703,13 +10025,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D302" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -9718,13 +10040,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
+        <v>894</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D303" t="s">
         <v>896</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D303" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9733,13 +10055,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9748,13 +10070,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9763,13 +10085,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9778,13 +10100,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9793,13 +10115,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9808,13 +10130,13 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -9823,13 +10145,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D310" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -9838,13 +10160,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D311" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -9853,13 +10175,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D312" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -9868,13 +10190,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D313" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -9883,13 +10205,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D314" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -9898,13 +10220,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D315" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -9913,13 +10235,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D316" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -9928,13 +10250,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D317" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -9943,13 +10265,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
+        <v>916</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D318" t="s">
         <v>918</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D318" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -9958,13 +10280,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
+        <v>913</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D319" t="s">
         <v>915</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D319" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -9973,13 +10295,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
+        <v>919</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="D320" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -9988,13 +10310,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
+        <v>920</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="D321" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -10003,13 +10325,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D322" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -10018,13 +10340,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C323" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D323" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -10033,13 +10355,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
+        <v>931</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D324" t="s">
         <v>933</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D324" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -10048,13 +10370,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D325" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -10063,13 +10385,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D326" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -10078,13 +10400,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D327" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -10093,13 +10415,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D328" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -10108,13 +10430,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C329" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D329" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -10123,13 +10445,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
+        <v>949</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D330" t="s">
         <v>951</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D330" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -10138,13 +10460,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D331" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -10153,13 +10475,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D332" t="s">
         <v>957</v>
-      </c>
-      <c r="D332" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -10168,13 +10490,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
+        <v>958</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" t="s">
         <v>962</v>
-      </c>
-      <c r="D333" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -10183,13 +10505,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
+        <v>959</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" t="s">
         <v>963</v>
-      </c>
-      <c r="D334" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -10198,13 +10520,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D335" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -10213,13 +10535,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D336" t="s">
         <v>969</v>
-      </c>
-      <c r="D336" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -10228,13 +10550,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D337" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -10243,13 +10565,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D338" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -10258,13 +10580,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D339" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -10273,13 +10595,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C340" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D340" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -10288,13 +10610,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D341" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -10303,13 +10625,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D342" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -10318,13 +10640,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D343" t="s">
         <v>990</v>
-      </c>
-      <c r="D343" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -10333,13 +10655,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="D344" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -10348,13 +10670,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="D345" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -10363,13 +10685,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D346" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -10378,13 +10700,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D347" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -10393,13 +10715,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D348" t="s">
         <v>1336</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10408,13 +10730,13 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C349" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D349" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10423,13 +10745,13 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D350" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10438,13 +10760,13 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C351" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D351" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10453,13 +10775,13 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C352" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D352" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10468,13 +10790,13 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C353" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D353" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10483,13 +10805,13 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D354" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10498,13 +10820,13 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C355" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D355" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -10513,13 +10835,13 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C356" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D356" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10528,13 +10850,13 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C357" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D357" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10543,13 +10865,13 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C358" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D358" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10558,13 +10880,13 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C359" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D359" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10573,10 +10895,10 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C360" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D360" t="s">
         <v>53</v>
@@ -10588,13 +10910,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C361" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D361" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -10603,13 +10925,13 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C362" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D362" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -10618,13 +10940,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C363" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D363" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -10633,13 +10955,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C364" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D364" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -10648,13 +10970,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C365" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D365" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -10663,13 +10985,13 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C366" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D366" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -10678,13 +11000,13 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C367" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D367" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -10693,13 +11015,13 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C368" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D368" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -10708,13 +11030,13 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C369" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D369" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -10723,13 +11045,13 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C370" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D370" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -10738,13 +11060,13 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C371" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D371" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -10753,13 +11075,13 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C372" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D372" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -10768,13 +11090,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C373" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D373" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -10783,13 +11105,13 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C374" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D374" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -10798,13 +11120,13 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C375" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D375" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -10813,13 +11135,13 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C376" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D376" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -10828,13 +11150,13 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C377" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D377" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -10843,13 +11165,13 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C378" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D378" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -10858,13 +11180,13 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C379" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D379" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -10873,13 +11195,13 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C380" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D380" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -10888,13 +11210,13 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C381" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D381" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -10903,13 +11225,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C382" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D382" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -10918,13 +11240,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C383" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D383" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -10933,13 +11255,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C384" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D384" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -10948,13 +11270,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C385" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D385" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -10963,13 +11285,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C386" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D386" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -10978,13 +11300,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D387" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -10993,13 +11315,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D388" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -11008,13 +11330,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D389" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -11023,13 +11345,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D390" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11038,13 +11360,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C391" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D391" t="s">
         <v>1305</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11053,13 +11375,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D392" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11068,13 +11390,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D393" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11083,13 +11405,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D394" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11098,13 +11420,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D395" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11113,13 +11435,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D396" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11128,13 +11450,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D397" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11143,13 +11465,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D398" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11158,13 +11480,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D399" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11173,13 +11495,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D400" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11188,13 +11510,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D401" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11203,13 +11525,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D402" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11218,13 +11540,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D403" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11233,13 +11555,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D404" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11248,13 +11570,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D405" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11263,13 +11585,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D406" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11278,13 +11600,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D407" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11293,13 +11615,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D408" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11308,13 +11630,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D409" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11323,13 +11645,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D410" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11338,13 +11660,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D411" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11353,13 +11675,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D412" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11368,13 +11690,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D413" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11383,13 +11705,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D414" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11398,13 +11720,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D415" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11413,13 +11735,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D416" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11428,13 +11750,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D417" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11443,13 +11765,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D418" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11458,13 +11780,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D419" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -11473,13 +11795,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D420" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -11488,13 +11810,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D421" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11503,13 +11825,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D422" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -11518,13 +11840,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D423" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11533,13 +11855,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D424" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11548,7 +11870,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -11558,7 +11880,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11567,7 +11889,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11576,7 +11898,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11585,7 +11907,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11594,7 +11916,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -11603,7 +11925,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -11612,7 +11934,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -11621,13 +11943,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C433" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D433" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -11636,13 +11958,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C434" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D434" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -11651,13 +11973,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C435" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D435" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -11666,13 +11988,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C436" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D436" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -11681,13 +12003,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C437" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D437" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -11696,13 +12018,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C438" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D438" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -11711,13 +12033,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C439" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D439" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -11726,13 +12048,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C440" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D440" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -11741,13 +12063,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C441" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D441" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -11756,13 +12078,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C442" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D442" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -11771,13 +12093,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C443" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D443" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -11786,13 +12108,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C444" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D444" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -11801,13 +12123,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C445" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D445" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -11816,13 +12138,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C446" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D446" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -11831,13 +12153,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C447" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D447" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -11846,13 +12168,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C448" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D448" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -11861,13 +12183,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C449" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D449" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -11876,13 +12198,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C450" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D450" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -11891,13 +12213,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C451" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D451" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -11906,7 +12228,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -11915,7 +12237,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -11924,7 +12246,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -11933,7 +12255,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -11942,7 +12264,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -11951,7 +12273,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -11960,7 +12282,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -11969,7 +12291,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -11978,7 +12300,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -11987,7 +12309,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -11996,7 +12318,487 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1215</v>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" cm="1">
+        <f t="array" ref="A463">ROW(463:463)-3</f>
+        <v>460</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" cm="1">
+        <f t="array" ref="A464">ROW(464:464)-3</f>
+        <v>461</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" cm="1">
+        <f t="array" ref="A465">ROW(465:465)-3</f>
+        <v>462</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" cm="1">
+        <f t="array" ref="A466">ROW(466:466)-3</f>
+        <v>463</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" cm="1">
+        <f t="array" ref="A467">ROW(467:467)-3</f>
+        <v>464</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" cm="1">
+        <f t="array" ref="A468">ROW(468:468)-3</f>
+        <v>465</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" cm="1">
+        <f t="array" ref="A469">ROW(469:469)-3</f>
+        <v>466</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" cm="1">
+        <f t="array" ref="A470">ROW(470:470)-3</f>
+        <v>467</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471" cm="1">
+        <f t="array" ref="A471">ROW(471:471)-3</f>
+        <v>468</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" cm="1">
+        <f t="array" ref="A472">ROW(472:472)-3</f>
+        <v>469</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" cm="1">
+        <f t="array" ref="A473">ROW(473:473)-3</f>
+        <v>470</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" cm="1">
+        <f t="array" ref="A474">ROW(474:474)-3</f>
+        <v>471</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475" cm="1">
+        <f t="array" ref="A475">ROW(475:475)-3</f>
+        <v>472</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476" cm="1">
+        <f t="array" ref="A476">ROW(476:476)-3</f>
+        <v>473</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" cm="1">
+        <f t="array" ref="A477">ROW(477:477)-3</f>
+        <v>474</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" cm="1">
+        <f t="array" ref="A478">ROW(478:478)-3</f>
+        <v>475</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" cm="1">
+        <f t="array" ref="A479">ROW(479:479)-3</f>
+        <v>476</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" cm="1">
+        <f t="array" ref="A480">ROW(480:480)-3</f>
+        <v>477</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" cm="1">
+        <f t="array" ref="A481">ROW(481:481)-3</f>
+        <v>478</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" cm="1">
+        <f t="array" ref="A482">ROW(482:482)-3</f>
+        <v>479</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" cm="1">
+        <f t="array" ref="A483">ROW(483:483)-3</f>
+        <v>480</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" cm="1">
+        <f t="array" ref="A484">ROW(484:484)-3</f>
+        <v>481</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" cm="1">
+        <f t="array" ref="A485">ROW(485:485)-3</f>
+        <v>482</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" cm="1">
+        <f t="array" ref="A486">ROW(486:486)-3</f>
+        <v>483</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" cm="1">
+        <f t="array" ref="A487">ROW(487:487)-3</f>
+        <v>484</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" cm="1">
+        <f t="array" ref="A488">ROW(488:488)-3</f>
+        <v>485</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" cm="1">
+        <f t="array" ref="A489">ROW(489:489)-3</f>
+        <v>486</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" cm="1">
+        <f t="array" ref="A490">ROW(490:490)-3</f>
+        <v>487</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" cm="1">
+        <f t="array" ref="A491">ROW(491:491)-3</f>
+        <v>488</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" cm="1">
+        <f t="array" ref="A492">ROW(492:492)-3</f>
+        <v>489</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" cm="1">
+        <f t="array" ref="A493">ROW(493:493)-3</f>
+        <v>490</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" cm="1">
+        <f t="array" ref="A494">ROW(494:494)-3</f>
+        <v>491</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0F5D1-DE3B-4236-9A38-7207BEE14085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120F5F8D-5159-4481-B6F9-7E9A8354453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1785" windowWidth="27210" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-675" yWindow="750" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1449">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3680,38 +3680,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次使用火爆辣椒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次使用寒冰菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀铁栅栏僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀路障僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀读报僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次击杀巨人僵尸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次击杀橄榄球僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀铁桶僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次击杀投篮僵尸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3931,10 +3903,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解锁道具扶梯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁道具冰碎</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4302,9 +4270,6 @@
     <t>Unlock Prop Fences</t>
   </si>
   <si>
-    <t>Unlock Prop Escalators</t>
-  </si>
-  <si>
     <t>Unlock Prop Flames</t>
   </si>
   <si>
@@ -4319,14 +4284,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>轮胎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zamboni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次击杀冰车僵尸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4797,6 +4754,93 @@
   <si>
     <t>&lt;color=#9932CD&gt;Bulldozer&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Power&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Speed&lt;/color&gt;\r\nIt can transport soil and exercise the body, but it is not very mobile when it is old.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具冰车轮胎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock prop zamboni tire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propInfo_zamboni</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Zamboni Tire&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Health Recovery&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Attack Speed&lt;/color&gt;\r\nTire written from the zamboni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_lock80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁道具撑杆跳杆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀铁桶僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀橄榄球僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀读报僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀路障僵尸20只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀铁栅栏僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用寒冰菇20次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用火爆辣椒20次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀20次撑杆跳僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰车轮胎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zamboni Tire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑杆跳杆</t>
+  </si>
+  <si>
+    <t>Pole vault</t>
+  </si>
+  <si>
+    <t>Kill 20 pole vault zombies cumulatively</t>
+  </si>
+  <si>
+    <t>Unlock the pole vault prop</t>
   </si>
 </sst>
 </file>
@@ -5180,11 +5224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F494"/>
+  <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <pane ySplit="3" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5866,13 +5910,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="C43" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="D43" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -6589,7 +6633,7 @@
         <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="D76" t="s">
         <v>230</v>
@@ -6718,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="C82" t="s">
         <v>160</v>
@@ -6740,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="C83" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="D83" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6788,7 +6832,7 @@
         <v>290</v>
       </c>
       <c r="C86" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -7478,10 +7522,10 @@
         <v>336</v>
       </c>
       <c r="C132" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="D132" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7865,13 +7909,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="C158" t="s">
         <v>1003</v>
       </c>
       <c r="D158" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8345,13 +8389,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="C190" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="D190" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -8768,10 +8812,10 @@
         <v>564</v>
       </c>
       <c r="C218" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="D218" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8780,13 +8824,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="C219" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="D219" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8798,10 +8842,10 @@
         <v>565</v>
       </c>
       <c r="C220" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="D220" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -10193,7 +10237,7 @@
         <v>883</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="D313" t="s">
         <v>908</v>
@@ -10715,13 +10759,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="D348" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10736,7 +10780,7 @@
         <v>1013</v>
       </c>
       <c r="D349" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10751,7 +10795,7 @@
         <v>1014</v>
       </c>
       <c r="D350" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10766,7 +10810,7 @@
         <v>1015</v>
       </c>
       <c r="D351" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10781,7 +10825,7 @@
         <v>1016</v>
       </c>
       <c r="D352" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10796,7 +10840,7 @@
         <v>1017</v>
       </c>
       <c r="D353" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10811,7 +10855,7 @@
         <v>1018</v>
       </c>
       <c r="D354" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10826,7 +10870,7 @@
         <v>1019</v>
       </c>
       <c r="D355" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -10841,7 +10885,7 @@
         <v>1020</v>
       </c>
       <c r="D356" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10856,7 +10900,7 @@
         <v>1021</v>
       </c>
       <c r="D357" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10871,7 +10915,7 @@
         <v>1022</v>
       </c>
       <c r="D358" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10886,7 +10930,7 @@
         <v>1023</v>
       </c>
       <c r="D359" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10916,7 +10960,7 @@
         <v>1025</v>
       </c>
       <c r="D361" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -10931,7 +10975,7 @@
         <v>1026</v>
       </c>
       <c r="D362" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -10946,7 +10990,7 @@
         <v>1027</v>
       </c>
       <c r="D363" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -10961,7 +11005,7 @@
         <v>1028</v>
       </c>
       <c r="D364" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -10976,7 +11020,7 @@
         <v>1029</v>
       </c>
       <c r="D365" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -10991,7 +11035,7 @@
         <v>1030</v>
       </c>
       <c r="D366" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -11006,7 +11050,7 @@
         <v>1031</v>
       </c>
       <c r="D367" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -11021,7 +11065,7 @@
         <v>1032</v>
       </c>
       <c r="D368" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11036,7 +11080,7 @@
         <v>1033</v>
       </c>
       <c r="D369" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11051,7 +11095,7 @@
         <v>1034</v>
       </c>
       <c r="D370" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11066,7 +11110,7 @@
         <v>1035</v>
       </c>
       <c r="D371" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11078,10 +11122,10 @@
         <v>1073</v>
       </c>
       <c r="C372" t="s">
-        <v>1299</v>
+        <v>1443</v>
       </c>
       <c r="D372" t="s">
-        <v>1300</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11096,7 +11140,7 @@
         <v>1036</v>
       </c>
       <c r="D373" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11111,7 +11155,7 @@
         <v>1037</v>
       </c>
       <c r="D374" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -11126,7 +11170,7 @@
         <v>1038</v>
       </c>
       <c r="D375" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -11141,7 +11185,7 @@
         <v>1039</v>
       </c>
       <c r="D376" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -11156,7 +11200,7 @@
         <v>1040</v>
       </c>
       <c r="D377" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -11171,7 +11215,7 @@
         <v>1041</v>
       </c>
       <c r="D378" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -11186,7 +11230,7 @@
         <v>1042</v>
       </c>
       <c r="D379" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -11201,7 +11245,7 @@
         <v>1043</v>
       </c>
       <c r="D380" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -11216,7 +11260,7 @@
         <v>1044</v>
       </c>
       <c r="D381" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -11246,7 +11290,7 @@
         <v>1046</v>
       </c>
       <c r="D383" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -11261,7 +11305,7 @@
         <v>1047</v>
       </c>
       <c r="D384" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -11276,7 +11320,7 @@
         <v>1048</v>
       </c>
       <c r="D385" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -11291,7 +11335,7 @@
         <v>1049</v>
       </c>
       <c r="D386" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -11300,13 +11344,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D387" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -11315,13 +11359,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D388" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -11330,13 +11374,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D389" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -11345,13 +11389,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="D390" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11360,13 +11404,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="D391" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11375,13 +11419,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D392" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11390,13 +11434,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="D393" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11405,13 +11449,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D394" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11420,13 +11464,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D395" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11435,13 +11479,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D396" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11450,13 +11494,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="D397" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11465,13 +11509,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="D398" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11480,13 +11524,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="D399" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11495,13 +11539,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="D400" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11510,13 +11554,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="D401" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11525,13 +11569,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D402" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11540,13 +11584,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="D403" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11555,13 +11599,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1107</v>
+        <v>1435</v>
       </c>
       <c r="D404" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11570,13 +11614,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1106</v>
+        <v>1436</v>
       </c>
       <c r="D405" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11585,13 +11629,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D406" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11600,13 +11644,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1104</v>
+        <v>1437</v>
       </c>
       <c r="D407" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11615,13 +11659,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1103</v>
+        <v>1438</v>
       </c>
       <c r="D408" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11630,13 +11674,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1102</v>
+        <v>1439</v>
       </c>
       <c r="D409" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11645,13 +11689,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="D410" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11660,13 +11704,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1101</v>
+        <v>1440</v>
       </c>
       <c r="D411" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11675,13 +11719,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1100</v>
+        <v>1441</v>
       </c>
       <c r="D412" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11690,13 +11734,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="D413" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11705,13 +11749,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="D414" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11720,13 +11764,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="D415" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11735,13 +11779,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="D416" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11750,13 +11794,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="D417" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11765,13 +11809,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="D418" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11780,13 +11824,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="D419" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -11795,13 +11839,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="D420" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -11810,13 +11854,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="D421" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11825,13 +11869,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="D422" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -11840,13 +11884,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="D423" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11855,13 +11899,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="D424" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11870,7 +11914,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -11880,7 +11924,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11889,7 +11933,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11898,7 +11942,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11907,7 +11951,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11916,7 +11960,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -11925,7 +11969,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -11934,7 +11978,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -11943,13 +11987,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="C433" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="D433" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -11958,13 +12002,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="C434" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D434" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -11973,13 +12017,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="C435" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="D435" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -11988,13 +12032,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="C436" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="D436" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12003,13 +12047,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="C437" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="D437" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12018,13 +12062,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="C438" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D438" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12033,13 +12077,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="C439" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D439" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12048,13 +12092,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C440" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="D440" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12063,13 +12107,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C441" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="D441" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12078,13 +12122,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C442" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="D442" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12093,13 +12137,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="C443" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="D443" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12108,13 +12152,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="C444" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="D444" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12123,13 +12167,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="C445" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="D445" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12138,13 +12182,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="C446" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="D446" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12153,13 +12197,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="C447" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="D447" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -12168,13 +12212,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C448" t="s">
-        <v>1172</v>
+        <v>1426</v>
       </c>
       <c r="D448" t="s">
-        <v>1294</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -12183,13 +12227,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C449" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="D449" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -12198,13 +12242,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="C450" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="D450" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -12213,13 +12257,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C451" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="D451" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -12228,7 +12272,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -12237,7 +12281,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -12246,7 +12290,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -12255,7 +12299,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -12264,7 +12308,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -12273,7 +12317,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -12282,7 +12326,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -12291,7 +12335,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -12300,7 +12344,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -12309,7 +12353,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -12318,7 +12362,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -12327,13 +12371,13 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="C463" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="D463" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -12342,13 +12386,13 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="C464" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="D464" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -12357,13 +12401,13 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="C465" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="D465" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -12372,13 +12416,13 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="C466" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="D466" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -12387,13 +12431,13 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="C467" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="D467" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -12402,13 +12446,13 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
       <c r="C468" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="D468" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,13 +12461,13 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="C469" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="D469" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -12432,13 +12476,13 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="C470" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="D470" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -12447,13 +12491,13 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="C471" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="D471" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -12462,13 +12506,13 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="C472" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="D472" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -12477,13 +12521,13 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="C473" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="D473" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -12492,13 +12536,13 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="C474" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="D474" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -12507,13 +12551,13 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="C475" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="D475" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -12522,13 +12566,13 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="C476" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="D476" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -12537,13 +12581,13 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C477" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="D477" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -12552,13 +12596,13 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C478" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="D478" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -12567,13 +12611,13 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="C479" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="D479" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -12582,13 +12626,13 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="C480" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="D480" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -12597,13 +12641,13 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="C481" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="D481" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -12612,13 +12656,13 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="C482" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="D482" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -12627,13 +12671,13 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="C483" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="D483" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -12642,13 +12686,13 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="C484" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="D484" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -12657,13 +12701,13 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="C485" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="D485" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -12672,13 +12716,13 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="C486" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="D486" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -12687,13 +12731,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="C487" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="D487" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -12702,13 +12746,13 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="C488" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="D488" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -12717,13 +12761,13 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="C489" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="D489" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -12732,13 +12776,13 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="C490" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="D490" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -12747,13 +12791,13 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="C491" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="D491" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -12762,13 +12806,13 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="C492" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="D492" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -12777,13 +12821,13 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="C493" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="D493" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -12792,13 +12836,73 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="C494" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="D494" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" cm="1">
+        <f t="array" ref="A495">ROW(495:495)-3</f>
+        <v>492</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" cm="1">
+        <f t="array" ref="A496">ROW(496:496)-3</f>
+        <v>493</v>
+      </c>
+      <c r="B496" t="s">
         <v>1431</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" cm="1">
+        <f t="array" ref="A497">ROW(497:497)-3</f>
+        <v>494</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" cm="1">
+        <f t="array" ref="A498">ROW(498:498)-3</f>
+        <v>495</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1448</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120F5F8D-5159-4481-B6F9-7E9A8354453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1292A62-CF4B-47AD-A528-08D0385E7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-675" yWindow="750" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1455">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4841,6 +4850,28 @@
   </si>
   <si>
     <t>Unlock the pole vault prop</t>
+  </si>
+  <si>
+    <t>sell_one</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售一个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell ​​one</t>
+  </si>
+  <si>
+    <t>Sell all</t>
   </si>
 </sst>
 </file>
@@ -5224,11 +5255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
+      <pane ySplit="3" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12905,6 +12936,36 @@
         <v>1448</v>
       </c>
     </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" cm="1">
+        <f t="array" ref="A499">ROW(499:499)-3</f>
+        <v>496</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" cm="1">
+        <f t="array" ref="A500">ROW(500:500)-3</f>
+        <v>497</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1454</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1292A62-CF4B-47AD-A528-08D0385E7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EA29C-012B-42F5-8685-59B4FF73139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1995" windowWidth="38400" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1605">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -146,9 +137,6 @@
     <t>三叶草</t>
   </si>
   <si>
-    <t>香蒲</t>
-  </si>
-  <si>
     <t>樱桃炸弹</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>大喷菇</t>
   </si>
   <si>
-    <t>加特林豌豆射手</t>
-  </si>
-  <si>
     <t>多嘴小蘑菇</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>大蒜</t>
   </si>
   <si>
-    <t>墓碑吞噬者</t>
-  </si>
-  <si>
     <t>魅惑菇</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>金盏花</t>
   </si>
   <si>
-    <t>路灯</t>
-  </si>
-  <si>
     <t>小喷菇</t>
   </si>
   <si>
@@ -498,9 +477,6 @@
     <t>&lt;color=#00ff00&gt;三叶草&lt;/color&gt;\r\n购买后使用{0}阳光培养\r\n培养成功应该能增加幸运值\r\n而且可以吹风</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;香蒲&lt;/color&gt;\r\n购买后可以使用{0}阳光在&lt;color=#00ff00&gt;荷叶&lt;/color&gt;上培养\r\n必须要有荷叶!!!\r\n能进行一个全屏的攻击，而且能戳破气球</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;大嘴花&lt;/color&gt;\r\n购买后可以使用{0}阳光培养\r\n她可以把僵尸进行一整个的吞\r\n把僵尸消化干净</t>
   </si>
   <si>
@@ -519,16 +495,6 @@
     <t>&lt;color=#00ff00&gt;吸金菇&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n有概率吸取场上掉落的金币\r\n这样就不要一个一个收集钱币了</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;荷叶&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n有了荷叶就能种植香蒲了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;大蒜&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n虽然不能消灭僵尸\r\n但是吃下可以增加我的基础属性\r\n&lt;color=#ff0000&gt;会减少10伤害，5幸运&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;墓碑吞噬者&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n有一定概率吞噬掉僵尸的墓碑，使之不能出场</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;魅惑菇&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n可以魅惑一只僵尸攻击同类</t>
   </si>
   <si>
@@ -713,10 +679,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;咖啡豆&lt;/color&gt;\r\n购买后可以使用{0}阳光培养\r\n虽然不能消灭僵尸\r\n但是吃下可以增加我的基础属性\r\n&lt;color=#ff0000&gt;会减少8最大生命值和5护甲&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;Marigold&lt;/color&gt;\r\nCan be cultivated with {0} sunlight\r\nCoins will be generated every once in a while</t>
   </si>
   <si>
@@ -2707,9 +2669,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Little Mushroom's Hat\r\n&lt;color=#00ff00&gt;+2 Lucky&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3 Botany&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 MaximumHP&lt;/color&gt;\r\nYou can study it carefully.</t>
   </si>
   <si>
@@ -2744,9 +2703,6 @@
     <t>&lt;color=#9932CD&gt;GloomShroomroom&lt;/color&gt;\r\nYou can use {0} sunlight to evolve the Big Ejection Mushroom\r\nRelease a large number of delays around\r\nThe smoke can cause multiple PercentageDamage</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;Torchwoodmp&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nCan increase the PercentageDamage of all peas, very powerful</t>
   </si>
   <si>
@@ -3422,10 +3378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>香蒲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>忧郁菇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3864,10 +3816,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解锁香蒲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁忧郁菇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4872,6 +4820,519 @@
   </si>
   <si>
     <t>Sell all</t>
+  </si>
+  <si>
+    <t>tujian_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图鉴—目录</t>
+  </si>
+  <si>
+    <t>tujian_title2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图鉴—植物</t>
+  </si>
+  <si>
+    <t>tujian_title3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图鉴—僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_title4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图鉴—人物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看植物</t>
+  </si>
+  <si>
+    <t>tujian_lookplant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_lookzombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看僵尸</t>
+  </si>
+  <si>
+    <t>图鉴索引</t>
+  </si>
+  <si>
+    <t>tujian_return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_huafei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_xiaohao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large illustrations - Catalog</t>
+  </si>
+  <si>
+    <t>Large illustrations - Plants</t>
+  </si>
+  <si>
+    <t>Large illustrations - Zombies</t>
+  </si>
+  <si>
+    <t>Large illustrations - People</t>
+  </si>
+  <si>
+    <t>View plants</t>
+  </si>
+  <si>
+    <t>View zombies</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Cost:</t>
+  </si>
+  <si>
+    <t>Consumption:</t>
+  </si>
+  <si>
+    <t>咬咬碑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫尾草</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;咖啡豆&lt;/color&gt;\r\n购买后可以使用{0}阳光培养\r\n虽然不能消灭僵尸\r\n但是吃下可以增加我的基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;大蒜&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n虽然不能消灭僵尸\r\n但是吃下可以增加我的基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;猫尾草&lt;/color&gt;\r\n购买后可以使用{0}阳光在&lt;color=#00ff00&gt;荷叶&lt;/color&gt;上培养\r\n必须要有荷叶!!!\r\n能进行一个全屏的攻击，而且能戳破气球</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;荷叶&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n有了荷叶就能种植猫尾草了</t>
+  </si>
+  <si>
+    <t>猫尾草</t>
+  </si>
+  <si>
+    <t>解锁猫尾草</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;咬咬碑&lt;/color&gt;\r\n可以使用{0}阳光培养\r\n有一定概率吞噬掉僵尸的墓碑，使之不能出场</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Peashooter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Repeater</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cactus</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Blover</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cattail</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CherryBomb</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Chomper</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CoffeeBean</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Cornpult</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_FumeShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GatlingPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GloomShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_GoldMagent</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_LilyPad</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Gralic</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Gravebuster</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_HypnoShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_MagentShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Marigold</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Plantern</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PuffShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PumpkinHead</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_ScaredyShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SnowPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Spikerock</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Spikeweed</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SplitPea</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Starfruit</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_SunFlower</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_TallNut</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Threepeater</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Torchwood</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_TwinSunflower</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_WallNut</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_IceShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Jalapeno</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_DoomShroom</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_Squash</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_PotatoMine</t>
+  </si>
+  <si>
+    <t>plantIllustrationsInfo_CobCannon</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;豌豆射手，目视前方，发射豌豆进行攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——更快的发射豌豆\r\n基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n 攻击检测范围——看到更远的僵尸\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n子弹速度——豌豆速度变快</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Pea shooter, look forward, shoot peas to attack&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Trainable abilities:&lt;/color&gt;\r\nCooling time - shoot peas faster\r\nBasic damage - increase basic damage\r\nPercentage damage - increase damage percentage\r\nAttack detection range - see zombies farther away\r\nSplash damage - peas explode and cause damage to zombies within the range\r\nBullet speed - peas become faster</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;双发豌豆射手，豌豆射手的进化版，能同时发射两颗豌豆&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——更快的发射豌豆\r\n 基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n 攻击检测范围——看到更远的僵尸\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n子弹速度——豌豆速度变快</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Double-shot pea shooter, an evolution of the pea shooter, can shoot two peas at the same time&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Trainable abilities:&lt;/color&gt;\r\nCooling time - shoot peas faster\r\nBasic damage - increase basic damage\r\nPercentage damage - increase damage percentage\r\n Attack detection range - see zombies farther away\r\nSplash damage - peas explode and cause damage to zombies within the range\r\nBullet speed - peas become faster</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;仙人掌，检测前方直线，发射有20%几率暴击的刺弹，可以攻击气球僵尸&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n穿透个数——攻击可穿透数量增加\r\n冷却时间——更快发射刺弹\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n子弹速度——刺弹速度更快\r\n暴击伤害——增加暴击造成的伤害\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Cactus, detects the straight line ahead, fires thorn bullets with a 20% chance of critical hit, can attack balloon zombies&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nNumber of penetrations - increase the number of penetrations that can be made\r\nCooling time - fire thorn bullets faster\r\nBasic damage - increase the basic damage caused\r\nPercentage damage - increase the damage percentage\r\nBullet speed - — Faster stabbing speed\r\nCritical damage——Increases the damage caused by critical hits\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;三叶草，往右边方向吹风，顺风时速度更快&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n幸运——培养增加幸运值\r\n攻击速度——培养增加攻击速度\r\n风速——顺风时速度更快\r\n恢复——逆风时会恢复生命\r\n风阻——僵尸逆风时速度降低\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Clover, blows the wind to the right, faster when it is in the right direction&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nLuck——Cultivate to increase luck value\r\nAttack speed——Cultivate to increase attack speed\r\nWind speed——Faster when in the right direction\r\nRecovery——Recovers health when against the wind\r\nWind resistance——Zombies slow down when against the wind\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;猫尾草，需要水花盆，荷叶，猫尾草种子种植，全屏攻击僵尸，发射30%几率暴击的刺弹&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n穿透个数——攻击可穿透数量增加\r\n暴击伤害——增加暴击造成的伤害\r\n冷却时间——发射刺弹更快\r\n子弹速度——刺弹追踪移动更快\r\n生命恢复——培养增加生命恢复\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Cattail grass, requires water flower pots, lotus leaves, and cattail grass seeds Plant, attack zombies across the screen, and fire thorn bullets with a 30% chance of critical hits. &lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage - Increases basic damage caused\r\nPercentage damage - Increases damage percentage\r\nNumber of penetrations - Increases the number of penetrations that can be made\r\nCritical damage - Increases the damage caused by critical hits\r\nCooling time - Fires thorn bullets faster\r\nBullet speed - The thorn bullets track and move faster\r\nLife recovery - Cultivate to increase life recovery\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;樱桃炸弹，可以将范围内所有僵尸炸成灰烬&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n肾上腺素——培养增加肾上腺素\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n消耗阳光减少——释放消耗的阳光减少\r\n爆炸范围——爆炸影响的范围\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Cherry bomb, which can blow up all zombies within the range Ashes&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage——Increases the basic damage caused\r\nPercentage Damage——Increases the damage percentage\r\nCooling Time——Recovers faster during release time\r\nConversion Sunlight Rate——The ratio of zombies hit by the explosion to sunlight\r\nAdrenaline——Cultivate to increase adrenaline\r\nOrdinary Zombie Instant Death Rate——The probability of ordinary zombies (non-giants and zombie kings) being directly killed by the explosion\r\nLarge Zombie Injury Increase——Increases the damage received by giants and zombie kings\r\nReduce Sunlight Consumption——Reduces the sunlight consumed by the release\r\nExplosion Range ——The range of explosion impact\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;大嘴花，可以一口吞噬小型僵尸，以及撕咬攻击巨人和僵王&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n消化速度——吞噬后再次吞噬的时间\r\n攻击检测范围——吞噬距离\r\n一次性吞噬个数——一次性可以吞噬的数量\r\n转换金币率——将吞噬的僵尸消化转换成金币的比例\r\n转换阳光率——将吞噬的僵尸消化转换成阳光的比例\r\n基础伤害——对巨型僵尸造成的基础伤害增加\r\n百分比伤害——对巨型僵尸伤害百分比增加\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Big Mouth Flower, can swallow small zombies in one bite, and bite and attack giants and zombie kings&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nDigestion speed——The time it takes to swallow again after swallowing\r\nAttack detection range——Devour distance\r\nNumber of swallows at one time——The number that can be swallowed at one time\r\nConversion rate of gold coins——The ratio of digestion of swallowed zombies to gold coins\r\nConversion rate of sunlight——The ratio of digestion of swallowed zombies to sunlight\r\nBasic damage——Caused to giant zombies Increase the basic damage\r\nPercentage damage - Increase the percentage of damage to giant zombies\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;咖啡豆，加工后是打工人必备的，吃下可以增加属性&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n肾上腺素——培养增加肾上腺素\r\n幸运——培养增加幸运\r\n植物学——培养增加植物学\r\n范围——培养增加范围\r\n伤害——培养增加伤害\r\n攻击速度——培养增加攻击速度\r\n速度——培养增加速度\r\n力量——培养增加力量\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Coffee beans, after processing, are a must for workers, eating them can increase attributes&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nAdrenaline - Cultivate to increase adrenaline\r\nLuck - Cultivate to increase luck\r\nBotany - Cultivate to increase botany\r\nRange - Cultivate to increase range\r\nDamage - Cultivate to increase damage\r\nAttack speed - Cultivate to increase attack speed\r\nSpeed ​​- Cultivate to increase speed\r\n Strength - Cultivate to increase strength\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;玉米投手，投掷玉米进行攻击，有概率投掷黄油&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n最大生命值——培养增加最大生命值\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n黄油概率——培养投掷黄油的概率\r\n冷却时间——投掷速度变快\r\n子弹速度——投掷物飞行速度变快\r\n黄油控制时间——黄油控制时间增加\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Corn pitcher, throw corn to attack, with a chance to throw butter&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nMaximum health - Cultivate to increase maximum health\r\nBasic damage - Increase the basic damage caused\r\nPercentage damage - Increase the damage percentage\r\nButter probability - Cultivate the probability of throwing butter\r\nCooling time - Throwing speed becomes faster\r\nBullet speed - The flying speed of the projectile becomes faster\r\nButter control time - Increase the butter control time\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;大喷菇，朝前方喷射毒气弹，对一条直线所有僵尸造成伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——攻击距离也会随之增加\r\n冷却时间——喷射速度变快\r\n暴击率——攻击将有概率暴击\r\n暴击伤害——增加暴击造成的伤害\r\n伤害段数*2概率——一次喷射造成两次伤害的概率\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Big Spray Mushroom, sprays poison gas bombs forward, causing damage to all zombies in a straight line&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage——Increases the basic damage caused\r\nPercentage Damage——Increases the damage percentage\r\nAttack Detection Range——Attack distance will also increase\r\nCooling Time——Spraying speed becomes faster\r\nCritical Hit Rate——Attacks will have a chance to crit\r\nCritical Damage——Increases the damage caused by critical hits\r\nDamage Segment Number*2 Probability——Probability of causing two damages in one spray\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;机枪豌豆是双发豌豆的进化版，可以发射四枚豌豆进行攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——更快的发射豌豆\r\n基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——看到更远的僵尸\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n子弹速度——豌豆速度变快\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Machine Gun Pea is the evolution of Double Pea, which can fire four peas to attack&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nCooling Time——Fire peas faster\r\nBasic Damage——Increases the basic damage caused\r\nPercentage Damage——Increases the damage percentage\r\nAttack Detection Range——See zombies farther away\r\nSplash Damage——Peas explode and cause damage to zombies within the range\r\nBullet Speed——Peas become faster\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;多嘴小喷菇是大喷菇的进化版，无限对范围喷射毒气弹&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——攻击距离也会随之增加\r\n冷却时间——喷射速度变快\r\n暴击率——攻击将有概率暴击\r\n暴击伤害——增加暴击造成的伤害\r\n伤害段数*2概率——一次喷射造成两次伤害的概率\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Muttish Small Spray Mushroom is the evolution of Big Spray Mushroom, which can spray poison gas bombs in an unlimited range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage——Increases the basic damage caused\r\nPercentage Damage——Increases the damage percentage\r\nAttack Detection Range— —The attack distance will also increase\r\nCooling time——The spray speed will be faster\r\nCritical hit rate——The attack will have a chance to be critical\r\nCritical hit damage——Increase the damage caused by critical hit\r\nDamage segment*2 probability——The probability of causing two damages in one spray\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;吸金菇，自动拾取场上掉落的金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n金币——培养增加金币\r\n幸运——培养增加幸运\r\n植物学——培养增加植物学\r\n吸取金币个数——默认只能吸取一个金币\r\n冷却时间——拾取金币的间隔时间\r\n吸取持续时间——拾取金币的持续时间\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Absorb gold mushrooms and automatically pick up the gold coins dropped on the field&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nGold coins——Cultivate to increase gold coins\r\nLuck——Cultivate to increase luck\r\nBotany——Cultivate to increase botany\r\nNumber of gold coins absorbed— —By default, only one gold coin can be absorbed\r\nCooling time——the interval between picking up gold coins\r\nAbsorption duration——the duration of picking up gold coins\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;荷叶，培养猫尾草的必须植物&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n无</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Lotus leaf, a necessary plant for cultivating cattail grass&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nNone</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;大蒜，嘶~不辣&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n生命恢复——培养增加生命恢复\r\n肾上腺素——培养增加肾上腺素\r\n范围——培养增加范围\r\n植物学——培养增加植物学\r\n最大生命值——培养增加最大生命值\r\n攻击速度——培养增加攻击速度\r\n速度——培养增加速度\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Garlic, hiss~not spicy&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nLife recovery——cultivate to increase life recovery\r\nAdrenaline— — Cultivate to increase adrenaline\r\nRange—Cultivate to increase range\r\nBotany—Cultivate to increase botany\r\nMaximum health—Cultivate to increase maximum health\r\nAttack speed—Cultivate to increase attack speed\r\nSpeed—Cultivate to increase speed\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;咬咬碑，僵尸出现时会咬掉他们的墓碑，可有效减少僵尸的出现&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n僵尸数量减少概率——增加触发概率\r\n玩家对僵尸增伤——对最终伤害的再增伤\r\n金币转换率——将墓碑转换为金币的概率\r\n金币——培养增加金币\r\n伤害——培养增加伤害\r\n护甲——培养增加护甲\r\n冷却时间——咬掉一个墓碑后的冷却时间\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Bite the tombstone, when zombies appear, they will bite off their tombstones, which can effectively reduce the appearance of zombies&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nProbability of reducing the number of zombies—Increase the trigger probability\r\nPlayer's damage to zombies—Additional increase in final damage Injury\r\nGold Coin Conversion Rate——Probability of converting tombstones into gold coins\r\nGold Coins——Cultivate to increase gold coins\r\nDamage——Cultivate to increase damage\r\nArmor——Cultivate to increase armor\r\nCooling Time——Cooling time after biting off a tombstone\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;魅惑菇，让僵尸们为我们所用，攻击其他僵尸&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——被魅惑的僵尸造成的基础伤害增加\r\n百分比伤害——被魅惑的僵尸伤害百分比增加\r\n被魅惑者攻击次数——被魅惑的僵尸攻击次数结束后会死亡\r\n连续触发概率——触发魅惑后可再次触发的概率\r\n幸运——培养增加幸运\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Charm Mushroom, let the zombies work for us and attack other zombies&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Ability:&lt;/color&gt;\r\nBasic Damage——Increase the basic damage caused by the charmed zombies\r\nPercentage Damage——Increase the damage percentage of the charmed zombies\r\n Attack times by charmers - charmed zombies will die after the number of attacks ends\r\nContinuous trigger probability - the probability of triggering again after the charm is triggered\r\nLuck - cultivate to increase luck\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;磁力菇，可以吸取铁制品变废为宝，僵尸没有防护生命值会降低&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n金币——培养增加金币\r\n幸运——培养增加幸运\r\n冷却时间——吸取铁的间隔时间\r\n换取金币增加——收废品金额变多\r\n吸取铁制品个数——一波最多吸取的个数\r\n吸取持续时间——吸取持续时间\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Magnetic mushrooms can absorb iron products and turn them into treasure. Zombies will have lower health without protection&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nGold coins - cultivate to increase gold coins\r\nLuck - cultivate to increase luck\r\nCooling time - the interval between absorbing iron\r\nIncrease in exchange for gold coins - the amount of waste collected increases\r \nNumber of iron products absorbed - the maximum number absorbed in one wave\r\nAbsorption duration - absorption duration\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;金盏花，可以生产银币，有概率生产金币和钻石&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n金币——培养增加金币\r\n幸运——培养增加幸运\r\n冷却时间——生产钱币的间隔时间\r\n掉落金币概率——掉落金币的概率提升\r\n掉落双倍概率——有概率掉落双倍\r\n掉落钻石概率——掉落钻石的概率提升\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Marigold, can produce silver coins, with a chance to produce gold coins and diamonds&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nGold coins - cultivate to increase gold coins\r\nLuck - cultivate to increase luck\r\nCooling time - the interval between producing coins\r\nProbability of dropping gold coins - the probability of dropping gold coins is increased\r\nDouble drop probability - there is a chance to drop double\r\nProbability of dropping diamonds - drop Diamond probability increased\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;路灯花，角色在附近可以增加攻击速度，僵尸受光影响移动速度会减缓&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n攻击检测范围——光的范围\r\n范围攻速提升增加——角色攻击速度提升值\r\n范围生命恢复——角色在范围内可恢复生命\r\n范围伤害增加——角色在范围内可增加最终伤害\r\n攻击速度——培养增加攻击速度\r\n范围——培养增加范围\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Street lamp flower, the character can increase the attack speed nearby, and the zombie's movement speed will be slowed down by the light&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nAttack detection range——light range\r\nRange attack speed increase increase——character attack speed increase value\r\nRange life recovery——character can recover life within the range\r\nRange damage increase——character can increase final damage within the range\r\nAttack speed——cultivation increases attack speed\r\nRange——cultivation increases range\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;小喷菇，向前方发射毒弹，永远长不大，拥有无限成长的能力&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——攻击距离增加\r\n冷却时间——喷射速度变快\r\n子弹速度——毒弹飞行速度变快\r\n溅射伤害——毒弹爆裂可造成范围伤害\r\n发射子弹概率变多——可以像双发或者机枪一样反射子弹了\r\n子弹大小——发射的毒弹大小\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Little Spray Mushroom, fires poisonous bullets forward, never grows up, and has the ability to grow infinitely&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage——Increases the basic damage caused\r\nPercentage Damage——Increases the damage percentage\r\nAttack Detection Range——Increases the attack distance\r\nCooling Time——Increases the ejection speed\r\nBullet Speed——Increases the flight speed of poisonous bullets\r\nSplash Damage——Poisonous bullets can cause range damage when they explode\r\nThe probability of firing bullets increases——Can reflect bullets like double-shot or machine guns\r\nBullet Size——The size of the poisonous bullet fired\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;南瓜，用他的外壳保护角色，使角色免疫一次死亡&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n触发后恢复生命值提升——触发后生命值恢复比例\r\n护甲——培养增加护甲\r\n最大生命值——培养增加最大生命值\r\n生命恢复——培养增加生命恢复\r\n攻击概率掉落南瓜——攻击有概率掉落南瓜，拾取恢复生命值\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Pumpkin, uses its shell to protect the character, making the character immune to one death&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nIncreases the HP recovery after triggering——The HP recovery ratio after triggering\r\nArmor ——Cultivate to increase armor\r\nMaximum health value——Cultivate to increase maximum health value\r\nHealth recovery——Cultivate to increase health recovery\r\nAttack probability to drop pumpkin——Attack with a probability to drop pumpkin, pick up to restore health\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;胆小菇，附近没有僵尸时向前方发射毒弹，附近有僵尸时会缩入地下然后对头顶僵尸造成伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——攻击距离增加\r\n冷却时间——喷射速度变快\r\n子弹速度——毒弹飞行速度变快\r\n溅射伤害——毒弹爆裂可造成范围伤害\r\n发射子弹概率变多——可以像双发或者机枪一样反射子弹了\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Cowardly mushroom, when there are no zombies nearby, it will shoot poison bullets forward, when there are zombies nearby, it will shrink into the ground and then cause damage to the zombies above its head&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nBasic damage——Increase the basic damage caused\r\nPercentage damage——Increase the damage percentage\r\nAttack detection range——Increase the attack distance\r\nCooling time——The spray speed becomes faster\r\nBullet speed——The flight speed of poison bullets becomes faster\r\nSplash damage——Poison bullets explode and cause range damage\r\nThe probability of firing bullets becomes higher——It can reflect bullets like double-shot or machine guns\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;寒冰豌豆，可以发射寒冰豌豆，被攻击到的僵尸会被减速&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——发射速度变快\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——攻击距离增加\r\n溅射伤害——豌豆可造成范围伤害和减速\r\n子弹速度——毒弹飞行速度变快\r\n减速百分比——减速的比例增加\r\n减速持续时间——减速持续时间增加\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Ice peas, can fire ice peas, attacked The zombies hit will be slowed down.&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nCooling Time——Fire Speed ​​Increases\r\nBasic Damage——Increases Basic Damage Caused\r\nPercentage Damage——Increases Damage Percentage\r\nAttack Detection Range——Increases Attack Distance\r\nSplash Damage——Peas can cause range damage and slow down\r\nBullet Speed——Poison Bullet Flying Speed ​​Increases\r\nDeceleration Percentage——Increases Deceleration Proportion\r\nDeceleration Duration——Increases Deceleration Duration\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;地刺王是地刺的进化版，可以破坏更多载具，对踩到的僵尸造成更多伤害并减速&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n可破坏载具的数量——达到最大值会消失减速百分比——减速的比例增加\r\n减速持续时间——减速持续时间增加\r\n肾上腺素——培养增加肾上腺素\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;The Ground Spike King is an evolved version of the Ground Spike, which can destroy more vehicles, cause more damage to the zombies stepped on, and slow down&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage——Increases Basic Damage Caused\r\nPercentage Damage——Increases Damage Percentage\r\nNumber of Destructible Vehicles——Disappears when the Maximum Value is Reached Speed ​​percentage - increase the deceleration ratio\r\nDeceleration duration - increase the deceleration duration\r\nAdrenaline - cultivate to increase adrenaline\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;地刺，可以破坏载具，对踩到的僵尸造成伤害并减速&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n可破坏载具的数量——达到最大值会消失减速百分比——减速的比例增加\r\n减速持续时间——减速持续时间增加\r\n肾上腺素——培养增加肾上腺素\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Ground spikes, can destroy vehicles, cause damage to zombies that step on them and slow them down&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nBasic damage - increase the basic damage caused\r\nPercentage damage - increase the damage percentage\r\nNumber of destructible vehicles - will disappear when reaching the maximum valueDeceleration percentage - increase the deceleration ratio\r\nDeceleration duration - increase the deceleration duration\r\nAdrenaline - cultivate to increase adrenaline\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;裂荚豌豆射手，目视前后方，发射多枚豌豆进行攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——更快的发射豌豆\r\n基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——看到更远的僵尸\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n子弹速度——豌豆速度变快\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Splitting pea shooter, look ahead and behind, and launch multiple peas to attack&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nCooling time - launch peas faster\r\nBasic damage ——Increases the basic damage caused\r\nPercentage damage——Increases the damage percentage\r\nAttack detection range——Sees zombies farther away\r\nSplash damage——Peas explode and cause damage to zombies within the range\r\nBullet speed——Peas become faster\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;杨桃，向五个方向发射杨桃子弹进行攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——更快的发射杨桃子弹\r\n子弹速度——杨桃子弹速度变快\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n幸运——培养增加幸运\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Starfruit, fires starfruit bullets in five directions to attack&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage ——Increases the basic damage caused\r\nPercentage damage——Increases the damage percentage\r\nCooling time——Fires caramel bullets faster\r\nBullet speed——Caramel bullets are faster\r\nSplash damage——Peas explode and cause damage to zombies within the range\r\nLuck——Cultivate to increase luck\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;向日葵，可以生产阳光，给植物提供保障&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n阳光——培养增加阳光\r\n幸运——培养增加幸运\r\n冷却时间——生产阳光的间隔时间\r\n生成阳光质量——生产阳光的大小变大变多\r\n掉落双倍概率——有概率掉落双倍\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Sunflowers can produce sunlight and provide protection for plants&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nSunlight——Cultivate to increase sunlight\r\nLuck——Cultivate to increase luck\r\nCooling time——Produce sunlight Interval time\r\nGenerate sunlight quality - the size of sunlight produced becomes larger and more\r\nDouble drop probability - there is a probability of double drop\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;高坚果，无畏的性格，在场时会承担僵尸所有攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n承受生命值——可承受的伤害\r\n最终爆炸概率——生命值归零时爆炸的概率\r\n反伤伤害——被攻击时反弹的伤害\r\n最大生命值——培养增加最大生命值\r\n护甲——培养增加护甲\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;High nuts, fearless personality, will bear all attacks of zombies when present&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nBearing health value - bearable damage\r\nFinal explosion probability - the probability of explosion when the health value reaches zero\r\nRebound damage - the damage rebounded when attacked\r\nMaximum health value - cultivate to increase the maximum health value\r\nArmor - cultivate to increase armor\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;三发豌豆，可以发射三枚豌豆进行攻击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冷却时间——更快的发射豌豆\r\n基础伤害 ——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n攻击检测范围——看到更远的僵尸\r\n溅射伤害——豌豆爆开对范围内僵尸造成伤害\r\n子弹速度——豌豆速度变快\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Three peas, can launch three peas to attack&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nCooling time-shooing peas faster\r\nBasic damage ——Increases the basic damage caused\r\nPercentage damage——Increases the percentage of damage\r\nAttack detection range——Sees zombies farther away\r\nSplash damage——Peas explode and cause damage to zombies within the range\r\nBullet speed——Peas become faster\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;火炬树桩，可以增强在场的所有豌豆&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n豌豆增伤——豌豆造成的最终伤害增加\r\n豌豆溅射伤害——豌豆造成的溅射伤害增加\r\n豌豆速度——豌豆速度增加\r\n阳光——培养增加阳光\r\n肾上腺素——培养增加肾上腺素\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Torch stump can enhance all peas present&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nPea damage increase——Increases the final damage caused by peas\r\nPea splash damage——Increases the splash damage caused by peas\r\nPea speed——Increases the speed of peas\r\nSunlight——Cultivate to increase sunlight\r\nAdrenaline——Cultivate to increase adrenaline\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;双子向日葵是向日葵的进化版，一次性可以生产两枚阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n阳光——培养增加阳光\r\n幸运——培养增加幸运\r\n冷却时间——生产阳光的间隔时间\r\n生成阳光质量——生产阳光的大小变大变多\r\n掉落双倍概率——有概率掉落双倍\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F37 59&gt;Twin Sunflower is the evolution of Sunflower, which can produce two suns at a time&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nSunshine - Cultivate to increase sunlight\r\nLuck - Cultivate to increase luck\r\nCooling Time - The interval between producing sunlight\r\nGenerated Sunshine Quality - The size of produced sunlight becomes larger and more\r\nDouble Drop Probability - There is a probability of dropping double\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;坚果，像保龄球一样滚出并撞向沿路的僵尸并造成伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n滚动速度——滚动的速度增加\r\n冷却时间——再次滚动的间隔时间\r\n爆炸坚果概率——碰到僵尸里面爆炸\r\n速度——培养增加速度\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Nuts, roll out like bowling balls and hit zombies along the way to cause damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable Abilities:&lt;/color&gt;\r\nBasic Damage - Increase the basic damage caused\r\nPercentage Damage - Damage Percentage increase\r\nRolling speed - Increase the speed of rolling\r\nCooling time - The interval between rolling again\r\nProbability of exploding nuts - Explode inside zombies\r\nSpeed ​​- Cultivation increases speed\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;寒冰菇，可以冰冻全场的僵尸，使僵尸无法行动，可以清理僵王的火球路径&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n冰冻时间——冰冻的时间增加\r\n冷却时间——再次释放的恢复时间\r\n消耗阳光减少——释放消耗的阳光减少\r\n冰冻期间攻速增加——冰冻的时间内攻击速度增加\r\n幸运——培养增加幸运\r\n生命恢复——培养增加生命恢复\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Ice mushrooms can freeze all zombies in the field, making them unable to move, and can clear the path of the zombie king's fireball&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable ability:&lt;/color&gt;\r\nFreezing time - Increase the freezing time\r\nCooling time - Recovery time for releasing again\r\nSunlight consumption reduction - Reduce the sunlight consumed by releasing\r\nAttack speed increase during freezing - Increase attack speed during freezing\r\nLuck - Cultivation increases luck\r\nLife recovery - — Cultivate to increase life recovery\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;火爆辣椒，对一条直线进行火焰覆盖，可以清理冰面&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n肾上腺素——培养增加肾上腺素\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n消耗阳光减少——释放消耗的阳光减少\r\n爆炸范围——爆炸影响的范围变宽\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt; Fiery pepper, cover a straight line with flames, can clear the ice surface&lt;/color&gt;\r\n&lt;color=#ff0000&gt; Cultivable ability:&lt;/color&gt;\r\n Basic damage - increase the basic damage caused\r\n Percentage damage - increase the damage percentage\r\n Cooling time - release time recovery faster\r\n Conversion rate of sunlight - the ratio of zombies exploded to sunlight\r\n Adrenaline - Cultivate to increase adrenaline\r\n Ordinary zombie instant death rate - the probability of ordinary zombies (non-giants and zombie kings) being directly killed by explosion\r\n Large zombie damage increase - increase the damage received by giants and zombie kings\r\n Reduced sunlight consumption - reduced sunlight consumption when released\r\n Explosion range Range - the range of the explosion is wider\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;毁灭菇，对所有在场的僵尸进行毁灭性打击，但是会留下无法消除的坑&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n肾上腺素——培养增加肾上腺素\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n消耗阳光减少——释放消耗的阳光减少\r\n爆炸范围——爆炸影响的范围变宽\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Destruction mushroom, a devastating blow to all zombies present, but will leave a pit that cannot be eliminated&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage - increased basic damage caused\r\nPercentage damage - increased damage percentage\r\nCooling time - faster recovery of release time\r\nConversion rate of sunlight - the ratio of zombies exploded to sunlight\r\nAdrenaline - cultivation increases adrenaline\r\nOrdinary zombie instant death rate - the probability of ordinary zombies (non-giants and zombie kings) being directly killed by explosion\r\nLarge zombie damage increase - increased damage received by giants and zombie kings\r\nSunshine consumption reduction - release consumption The amount of sunlight is reduced\r\nExplosion range - the range of the explosion is widened\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;窝瓜会压扁第一个接近它的僵尸&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n消耗阳光减少——释放消耗的阳光减少\r\n连坐概率——可以连续压多次\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;The squid will crush the first zombie that approaches it&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Ability to be cultivated:&lt;/color&gt;\r\nBasic damage - the basic damage caused is increased\r\nPercentage damage - the damage percentage is increased\r\nCooling time - the release time is restored faster\r\nConversion rate of sunlight - the ratio of the zombies that are exploded to sunlight\r\nOrdinary zombie instant death rate - the probability of ordinary zombies (non-giants and zombie kings) being directly killed by the explosion\r\nLarge zombie damage increase - the damage received by giants and zombie kings is increased\r\nConsumption of sunlight is reduced - the release of consumed sunlight is reduced\r\nProbability of joint responsibility - can be crushed multiple times in a row\r \n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;土豆雷，需要一段时间来成长，出土后会将靠近的僵尸炸成灰烬&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n肾上腺素——培养增加肾上腺素\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n消耗阳光减少——释放消耗的阳光减少\r\n爆炸范围——爆炸影响的范围变宽\r\n出土时间——出土时间减少\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Potato mines, which take some time to grow. After being unearthed, they will blow nearby zombies into ashes.&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage - Increases the basic damage caused\r\nPercentage damage - Increases the damage percentage\r\nCooling time - Faster recovery during release\r\nConversion rate of sunlight - The ratio of zombies that are blown up to sunlight\r\nAdrenaline - Increase adrenaline through cultivation\r\nInstant death rate of ordinary zombies - The probability of ordinary zombies (non-giants and zombie kings) being directly killed by explosions\r\nIncrease damage to large zombies - Increases the damage received by giants and zombie kings\r\nReduce sunlight consumption - Reduce the sunlight consumed by releasing\r\nExplosion range - Explosion shadow The range of the sound is wider\r\nUnearth time - the unearth time is reduced\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;玉米加农炮是玉米投射的进化版，可以投掷玉米炸弹对僵尸进行毁灭性打击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;可培养能力：&lt;/color&gt;\r\n基础伤害——造成的基础伤害增加\r\n百分比伤害——伤害百分比增加\r\n冷却时间——释放时间恢复更快\r\n转换阳光率——将炸到的僵尸转换成阳光的比例\r\n普通僵尸即死率——普通僵尸（非巨人和僵王）直接炸死的概率\r\n大型僵尸增伤——巨人和僵王收到的伤害增加\r\n爆炸范围——爆炸影响的范围变宽\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Corn Cannon is an evolved version of corn projection, which can throw corn bombs to deal a devastating blow to zombies&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage - the basic damage caused is increased\r\nPercentage damage - the damage percentage is increased\r\nCooling time - the release time is restored faster\r\nConversion rate of sunlight - the ratio of zombies that are exploded to sunlight\r\nOrdinary zombie instant death rate - the probability of ordinary zombies (non-giants and zombie kings) being directly killed by explosions\r\nLarge zombie damage increase - the damage received by giants and zombie kings is increased\r\nExplosion range - the range affected by the explosion is wider\r\n</t>
   </si>
 </sst>
 </file>
@@ -5255,11 +5716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D496" sqref="D496"/>
+      <pane ySplit="3" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H529" sqref="H529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5317,13 +5778,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -5333,13 +5794,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5349,13 +5810,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -5365,13 +5826,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -5381,13 +5842,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>1474</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5397,13 +5858,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -5413,13 +5874,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -5429,13 +5890,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5445,13 +5906,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -5461,13 +5922,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -5477,13 +5938,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>1475</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -5493,13 +5954,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -5509,13 +5970,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -5525,13 +5986,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -5541,13 +6002,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -5557,13 +6018,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>1472</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -5573,13 +6034,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -5589,13 +6050,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -5605,13 +6066,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -5621,13 +6082,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>1473</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -5637,13 +6098,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -5653,13 +6114,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -5669,13 +6130,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -5685,13 +6146,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -5701,13 +6162,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -5717,13 +6178,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5733,13 +6194,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -5749,13 +6210,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -5765,13 +6226,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -5781,13 +6242,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -5797,13 +6258,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -5813,13 +6274,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -5829,13 +6290,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -5845,13 +6306,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -5861,13 +6322,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -5877,13 +6338,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -5893,13 +6354,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -5909,13 +6370,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -5925,13 +6386,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -5941,13 +6402,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="C43" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="D43" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -5957,16 +6418,16 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F44" t="str">
         <f>REPLACEB(D44,16,LENB(E44),E44)</f>
@@ -5979,16 +6440,16 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ref="F45:F82" si="0">REPLACEB(D45,16,LENB(E45),E45)</f>
@@ -6001,16 +6462,16 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" t="str">
         <f>REPLACEB(D46,16,LENB(E46),E46)</f>
@@ -6023,16 +6484,16 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -6045,16 +6506,16 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>1480</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -6067,16 +6528,16 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -6089,16 +6550,16 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -6111,20 +6572,20 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>1477</v>
       </c>
       <c r="D51" t="s">
-        <v>820</v>
+        <v>1476</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 8 MaximumHP and 5 armor&lt;/color&gt;</v>
+        <v>&lt;color=#00ff00&gt;CoffeeBeanns&lt;/color&gt;\r\nAfter purchase, you can use {0} sunlight to cultivate\r\nAlthough you can't kill zombies\r\nBut eating them can increase my basic attributes</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6133,16 +6594,16 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -6155,16 +6616,16 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -6177,16 +6638,16 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -6199,16 +6660,16 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -6221,16 +6682,16 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -6243,16 +6704,16 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>1481</v>
       </c>
       <c r="D57" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -6265,20 +6726,20 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>1478</v>
       </c>
       <c r="D58" t="s">
-        <v>832</v>
+        <v>1479</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes\r\n&lt;color=#ff0000&gt;will reduce 10 PercentageDamage, 5 Lucky&lt;/color&gt;</v>
+        <v>&lt;color=#00ff00&gt;Gralic&lt;/color&gt;\r\nCan be cultivated using {0} sunlight\r\nAlthough it cannot kill zombies\r\nBut eating it can increase my basic attributes</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6287,16 +6748,16 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>1484</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -6309,16 +6770,16 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -6331,16 +6792,16 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -6353,16 +6814,16 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -6375,16 +6836,16 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -6397,16 +6858,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -6419,16 +6880,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -6441,16 +6902,16 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -6463,16 +6924,16 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -6485,16 +6946,16 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
@@ -6507,16 +6968,16 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="0"/>
@@ -6529,16 +6990,16 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="0"/>
@@ -6551,16 +7012,16 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="0"/>
@@ -6573,16 +7034,16 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="0"/>
@@ -6595,16 +7056,16 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="0"/>
@@ -6617,16 +7078,16 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="0"/>
@@ -6639,16 +7100,16 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="0"/>
@@ -6661,16 +7122,16 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="0"/>
@@ -6683,16 +7144,16 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="0"/>
@@ -6705,16 +7166,16 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="0"/>
@@ -6727,16 +7188,16 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="0"/>
@@ -6749,16 +7210,16 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="0"/>
@@ -6771,16 +7232,16 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="0"/>
@@ -6793,16 +7254,16 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="0"/>
@@ -6815,13 +7276,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="C83" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="D83" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6830,13 +7291,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6845,13 +7306,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6860,13 +7321,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6875,13 +7336,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D87" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6890,13 +7351,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6905,13 +7366,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6920,13 +7381,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6935,13 +7396,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6950,13 +7411,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6965,13 +7426,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6980,13 +7441,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6995,13 +7456,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -7010,13 +7471,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -7025,13 +7486,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -7040,13 +7501,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D98" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -7055,13 +7516,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -7070,13 +7531,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -7085,13 +7546,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -7100,13 +7561,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D102" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -7115,13 +7576,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -7130,13 +7591,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -7145,13 +7606,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D105" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -7160,13 +7621,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D106" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -7175,13 +7636,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -7190,13 +7651,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D108" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -7205,13 +7666,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D109" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,13 +7681,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D110" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -7235,13 +7696,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D111" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -7250,13 +7711,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -7265,13 +7726,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D113" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -7280,13 +7741,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D114" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -7295,13 +7756,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D115" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -7310,13 +7771,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D116" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -7325,13 +7786,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -7340,13 +7801,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D118" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -7355,13 +7816,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C119" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D119" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -7370,13 +7831,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D120" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -7385,13 +7846,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -7400,13 +7861,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -7415,13 +7876,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D123" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7430,13 +7891,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D124" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7445,13 +7906,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D125" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7460,13 +7921,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D126" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7475,13 +7936,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D127" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7490,13 +7951,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7505,13 +7966,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D129" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7520,13 +7981,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D130" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7535,13 +7996,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D131" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7550,13 +8011,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="D132" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7565,13 +8026,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7580,13 +8041,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C134" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D134" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7595,13 +8056,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D135" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7610,13 +8071,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C136" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D136" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7625,13 +8086,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D137" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7640,13 +8101,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7655,13 +8116,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7670,13 +8131,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D140" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7685,13 +8146,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7700,13 +8161,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C142" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7715,13 +8176,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D143" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7730,13 +8191,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D144" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7745,13 +8206,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C145" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D145" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7760,13 +8221,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D146" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7775,13 +8236,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D147" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7790,13 +8251,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C148" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D148" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7805,13 +8266,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C149" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D149" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7820,13 +8281,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D150" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -7835,13 +8296,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C151" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D151" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -7850,13 +8311,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D152" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -7865,13 +8326,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D153" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -7880,13 +8341,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C154" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D154" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -7895,13 +8356,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C155" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D155" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -7910,13 +8371,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C156" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -7925,13 +8386,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C157" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D157" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -7940,13 +8401,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="C158" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="D158" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -7955,13 +8416,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C159" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D159" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -7970,13 +8431,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C160" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D160" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -7985,13 +8446,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C161" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D161" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -8000,13 +8461,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C162" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D162" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -8015,13 +8476,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C163" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D163" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -8030,13 +8491,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C164" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D164" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -8045,13 +8506,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D165" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -8060,13 +8521,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C166" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D166" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -8075,13 +8536,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C167" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D167" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -8090,13 +8551,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C168" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D168" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -8105,13 +8566,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D169" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -8120,13 +8581,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C170" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D170" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -8135,13 +8596,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C171" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -8150,13 +8611,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C172" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D172" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -8165,13 +8626,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C173" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D173" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -8180,13 +8641,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C174" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D174" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -8195,13 +8656,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D175" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -8210,13 +8671,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D176" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -8225,13 +8686,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C177" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D177" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -8240,13 +8701,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C178" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D178" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -8255,13 +8716,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C179" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D179" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -8270,13 +8731,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C180" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -8285,13 +8746,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C181" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D181" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -8300,13 +8761,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C182" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D182" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -8315,13 +8776,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C183" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="D183" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -8330,13 +8791,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C184" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="D184" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -8345,13 +8806,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C185" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="D185" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -8360,13 +8821,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D186" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -8375,13 +8836,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D187" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -8390,13 +8851,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C188" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D188" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -8405,13 +8866,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D189" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -8420,13 +8881,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="C190" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="D190" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -8435,13 +8896,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C191" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D191" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -8450,13 +8911,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C192" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D192" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -8465,13 +8926,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C193" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D193" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -8480,13 +8941,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C194" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D194" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -8495,13 +8956,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C195" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D195" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -8510,13 +8971,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C196" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D196" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8525,13 +8986,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C197" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D197" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8540,13 +9001,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C198" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D198" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -8555,13 +9016,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C199" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D199" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -8570,13 +9031,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C200" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D200" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -8585,13 +9046,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D201" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -8600,13 +9061,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C202" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D202" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -8615,13 +9076,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C203" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D203" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -8630,13 +9091,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C204" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D204" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,13 +9106,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C205" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D205" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -8660,13 +9121,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C206" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D206" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -8675,13 +9136,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C207" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D207" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,13 +9151,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C208" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D208" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -8705,13 +9166,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C209" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D209" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -8720,13 +9181,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C210" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D210" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -8735,13 +9196,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C211" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D211" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -8750,13 +9211,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C212" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D212" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -8765,13 +9226,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C213" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D213" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -8780,13 +9241,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C214" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D214" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -8795,13 +9256,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C215" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D215" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -8810,13 +9271,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C216" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D216" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -8825,13 +9286,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C217" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="D217" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8840,13 +9301,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C218" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="D218" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8855,13 +9316,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="C219" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="D219" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8870,13 +9331,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C220" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="D220" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -8885,13 +9346,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C221" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D221" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -8900,13 +9361,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C222" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D222" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -8915,13 +9376,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C223" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D223" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -8930,13 +9391,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C224" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D224" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,13 +9406,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C225" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D225" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -8960,13 +9421,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C226" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D226" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -8975,13 +9436,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C227" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D227" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -8990,13 +9451,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C228" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D228" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -9005,13 +9466,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C229" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D229" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -9020,13 +9481,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C230" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D230" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -9035,13 +9496,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C231" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D231" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -9050,13 +9511,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="C232" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D232" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -9065,13 +9526,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C233" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D233" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9080,13 +9541,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C234" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9095,13 +9556,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C235" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9110,13 +9571,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C236" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9125,13 +9586,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C237" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9140,13 +9601,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C238" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9155,13 +9616,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C239" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9170,13 +9631,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C240" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9185,13 +9646,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C241" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9200,13 +9661,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C242" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9215,13 +9676,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C243" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9230,13 +9691,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C244" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9245,13 +9706,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C245" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9260,13 +9721,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C246" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9275,13 +9736,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="C247" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9290,13 +9751,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C248" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9305,13 +9766,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C249" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9320,13 +9781,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C250" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9335,13 +9796,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C251" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9350,13 +9811,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C252" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9365,13 +9826,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C253" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9380,13 +9841,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C254" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9395,13 +9856,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C255" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9410,13 +9871,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C256" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9425,13 +9886,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="C257" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9440,13 +9901,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C258" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9455,13 +9916,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C259" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9470,13 +9931,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C260" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9485,13 +9946,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C261" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9500,13 +9961,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C262" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9515,13 +9976,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C263" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9530,13 +9991,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C264" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9545,13 +10006,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C265" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9560,13 +10021,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C266" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9575,13 +10036,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C267" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9590,13 +10051,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C268" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9605,13 +10066,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C269" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9620,13 +10081,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C270" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9635,13 +10096,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C271" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9650,13 +10111,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C272" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9665,13 +10126,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C273" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9680,13 +10141,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C274" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9695,13 +10156,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C275" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9710,13 +10171,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C276" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9725,13 +10186,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C277" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9740,13 +10201,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C278" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9755,13 +10216,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C279" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9770,13 +10231,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C280" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9785,13 +10246,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C281" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9800,13 +10261,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C282" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9815,13 +10276,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C283" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9830,13 +10291,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C284" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9845,13 +10306,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C285" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9860,13 +10321,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C286" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9875,13 +10336,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C287" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9890,13 +10351,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C288" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9905,13 +10366,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C289" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9920,13 +10381,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C290" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9935,13 +10396,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C291" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9950,13 +10411,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C292" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9965,13 +10426,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C293" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9980,13 +10441,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C294" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9995,13 +10456,13 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C295" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10010,13 +10471,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C296" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10025,13 +10486,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C297" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10040,13 +10501,13 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C298" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10055,13 +10516,13 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C299" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10070,13 +10531,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C300" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -10085,13 +10546,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C301" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="D301" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -10100,13 +10561,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="D302" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -10115,13 +10576,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="D303" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10130,13 +10591,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10145,13 +10606,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10160,13 +10621,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10175,13 +10636,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10190,13 +10651,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10205,13 +10666,13 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -10220,13 +10681,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="D310" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -10235,13 +10696,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="D311" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -10250,13 +10711,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="D312" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -10265,13 +10726,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="D313" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -10280,13 +10741,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D314" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -10295,13 +10756,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D315" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -10310,13 +10771,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D316" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -10325,13 +10786,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D317" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -10340,13 +10801,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="D318" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -10355,13 +10816,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="D319" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -10370,13 +10831,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="D320" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -10385,13 +10846,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D321" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -10400,13 +10861,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D322" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -10415,13 +10876,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="C323" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D323" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -10430,13 +10891,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D324" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -10445,13 +10906,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="D325" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -10460,13 +10921,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="D326" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -10475,13 +10936,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="D327" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -10490,13 +10951,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="D328" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -10505,13 +10966,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="C329" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="D329" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -10520,13 +10981,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="D330" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -10535,13 +10996,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="D331" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -10550,13 +11011,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="D332" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -10565,13 +11026,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D333" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -10580,13 +11041,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D334" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -10595,13 +11056,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="D335" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -10610,13 +11071,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="D336" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -10625,13 +11086,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="D337" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -10640,13 +11101,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="D338" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -10655,13 +11116,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="D339" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -10670,13 +11131,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C340" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="D340" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -10685,13 +11146,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="D341" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -10700,13 +11161,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="D342" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -10715,13 +11176,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="D343" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -10730,13 +11191,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="D344" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -10745,13 +11206,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="D345" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -10760,13 +11221,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="D346" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -10775,13 +11236,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="D347" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -10790,13 +11251,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="D348" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -10805,13 +11266,13 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C349" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="D349" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -10820,13 +11281,13 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="D350" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -10835,13 +11296,13 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="C351" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="D351" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -10850,13 +11311,13 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="C352" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="D352" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -10865,13 +11326,13 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="C353" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="D353" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -10880,13 +11341,13 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D354" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -10895,13 +11356,13 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="C355" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="D355" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -10910,13 +11371,13 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="C356" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="D356" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -10925,13 +11386,13 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C357" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="D357" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -10940,13 +11401,13 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C358" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D358" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -10955,13 +11416,13 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="C359" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="D359" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -10970,13 +11431,13 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="C360" t="s">
-        <v>1024</v>
+        <v>1482</v>
       </c>
       <c r="D360" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -10985,13 +11446,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="C361" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="D361" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -11000,13 +11461,13 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="C362" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="D362" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -11015,13 +11476,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C363" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="D363" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -11030,13 +11491,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="C364" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="D364" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -11045,13 +11506,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="C365" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="D365" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -11060,13 +11521,13 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C366" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="D366" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -11075,13 +11536,13 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="C367" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="D367" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -11090,13 +11551,13 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C368" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="D368" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11105,13 +11566,13 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="C369" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="D369" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11120,13 +11581,13 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C370" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="D370" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11135,13 +11596,13 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="C371" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="D371" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11150,13 +11611,13 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="C372" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="D372" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11165,13 +11626,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="C373" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="D373" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11180,13 +11641,13 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C374" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="D374" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -11195,13 +11656,13 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C375" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="D375" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -11210,13 +11671,13 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="C376" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="D376" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -11225,13 +11686,13 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="C377" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="D377" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -11240,13 +11701,13 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="C378" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="D378" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -11255,13 +11716,13 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="C379" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="D379" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -11270,13 +11731,13 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="C380" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D380" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -11285,13 +11746,13 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="C381" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="D381" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -11300,13 +11761,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C382" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="D382" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -11315,13 +11776,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="C383" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="D383" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -11330,13 +11791,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="C384" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D384" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -11345,13 +11806,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C385" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D385" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -11360,13 +11821,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="C386" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="D386" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -11375,13 +11836,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="D387" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -11390,13 +11851,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="D388" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -11405,13 +11866,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="D389" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -11420,13 +11881,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="D390" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11435,13 +11896,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="D391" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11450,13 +11911,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="D392" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11465,13 +11926,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="D393" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11480,13 +11941,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="D394" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11495,13 +11956,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="D395" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11510,13 +11971,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="D396" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -11525,13 +11986,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="D397" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -11540,13 +12001,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="D398" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -11555,13 +12016,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="D399" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -11570,13 +12031,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="D400" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -11585,13 +12046,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="D401" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -11600,13 +12061,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="D402" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11615,13 +12076,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="D403" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11630,13 +12091,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="D404" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11645,13 +12106,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="D405" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11660,13 +12121,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="D406" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11675,13 +12136,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="D407" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11690,13 +12151,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="D408" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11705,13 +12166,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="D409" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11720,13 +12181,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="D410" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11735,13 +12196,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
       <c r="D411" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11750,13 +12211,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="D412" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11765,13 +12226,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="D413" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -11780,13 +12241,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="D414" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11795,13 +12256,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="D415" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11810,13 +12271,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="D416" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -11825,13 +12286,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="D417" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -11840,13 +12301,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="D418" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -11855,13 +12316,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="D419" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -11870,13 +12331,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="D420" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -11885,13 +12346,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="D421" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -11900,13 +12361,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="D422" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -11915,13 +12376,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="D423" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11930,13 +12391,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="D424" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11945,7 +12406,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -11955,7 +12416,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11964,7 +12425,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -11973,7 +12434,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -11982,7 +12443,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11991,7 +12452,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12000,7 +12461,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12009,7 +12470,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -12018,13 +12479,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="C433" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="D433" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -12033,13 +12494,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="C434" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="D434" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12048,13 +12509,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C435" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="D435" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12063,13 +12524,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="C436" t="s">
-        <v>1153</v>
+        <v>1483</v>
       </c>
       <c r="D436" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12078,13 +12539,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="C437" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="D437" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12093,13 +12554,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="C438" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="D438" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12108,13 +12569,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="C439" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="D439" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12123,13 +12584,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="C440" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="D440" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12138,13 +12599,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C441" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="D441" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12153,13 +12614,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C442" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="D442" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12168,13 +12629,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="C443" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="D443" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12183,13 +12644,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="C444" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="D444" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12198,13 +12659,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="C445" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="D445" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12213,13 +12674,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="C446" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="D446" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12228,13 +12689,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="C447" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="D447" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -12243,13 +12704,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C448" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="D448" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -12258,13 +12719,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="C449" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="D449" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -12273,13 +12734,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="C450" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="D450" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -12288,13 +12749,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="C451" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="D451" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -12303,7 +12764,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -12312,7 +12773,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -12321,7 +12782,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -12330,7 +12791,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -12339,7 +12800,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -12348,7 +12809,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -12357,7 +12818,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -12366,7 +12827,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -12375,7 +12836,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -12384,7 +12845,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -12393,7 +12854,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -12402,13 +12863,13 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="C463" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="D463" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,13 +12878,13 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="C464" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="D464" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -12432,13 +12893,13 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="C465" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="D465" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -12447,13 +12908,13 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="C466" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="D466" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -12462,13 +12923,13 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="C467" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="D467" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -12477,13 +12938,13 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="C468" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="D468" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -12492,13 +12953,13 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="C469" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="D469" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -12507,13 +12968,13 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="C470" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="D470" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -12522,13 +12983,13 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="C471" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="D471" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -12537,13 +12998,13 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="C472" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="D472" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -12552,13 +13013,13 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="C473" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="D473" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -12567,13 +13028,13 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="C474" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="D474" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -12582,13 +13043,13 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="C475" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="D475" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -12597,13 +13058,13 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="C476" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="D476" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -12612,13 +13073,13 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="C477" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="D477" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -12627,13 +13088,13 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="C478" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="D478" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -12642,13 +13103,13 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="C479" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="D479" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -12657,13 +13118,13 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="C480" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="D480" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -12672,13 +13133,13 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="C481" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="D481" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -12687,13 +13148,13 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="C482" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="D482" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -12702,13 +13163,13 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="C483" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="D483" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -12717,13 +13178,13 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="C484" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="D484" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -12732,13 +13193,13 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="C485" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="D485" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -12747,13 +13208,13 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="C486" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="D486" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -12762,13 +13223,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="C487" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="D487" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -12777,13 +13238,13 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="C488" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="D488" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -12792,13 +13253,13 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="C489" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="D489" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -12807,13 +13268,13 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="C490" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="D490" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -12822,13 +13283,13 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="C491" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="D491" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -12837,13 +13298,13 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="C492" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="D492" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -12852,13 +13313,13 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="C493" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="D493" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -12867,13 +13328,13 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="C494" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="D494" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -12882,13 +13343,13 @@
         <v>492</v>
       </c>
       <c r="B495" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="C495" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="D495" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -12897,13 +13358,13 @@
         <v>493</v>
       </c>
       <c r="B496" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="C496" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="D496" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -12912,13 +13373,13 @@
         <v>494</v>
       </c>
       <c r="B497" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="D497" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -12927,13 +13388,13 @@
         <v>495</v>
       </c>
       <c r="B498" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="C498" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="D498" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -12942,13 +13403,13 @@
         <v>496</v>
       </c>
       <c r="B499" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="C499" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="D499" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -12957,13 +13418,763 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" cm="1">
+        <f t="array" ref="A501">ROW(501:501)-3</f>
+        <v>498</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" cm="1">
+        <f t="array" ref="A502">ROW(502:502)-3</f>
+        <v>499</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" cm="1">
+        <f t="array" ref="A503">ROW(503:503)-3</f>
+        <v>500</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" cm="1">
+        <f t="array" ref="A504">ROW(504:504)-3</f>
+        <v>501</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" cm="1">
+        <f t="array" ref="A505">ROW(505:505)-3</f>
+        <v>502</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C505" t="s">
         <v>1450</v>
       </c>
-      <c r="C500" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D500" t="s">
+      <c r="D505" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" cm="1">
+        <f t="array" ref="A506">ROW(506:506)-3</f>
+        <v>503</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" cm="1">
+        <f t="array" ref="A507">ROW(507:507)-3</f>
+        <v>504</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" cm="1">
+        <f t="array" ref="A508">ROW(508:508)-3</f>
+        <v>505</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C508" t="s">
         <v>1454</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" cm="1">
+        <f t="array" ref="A509">ROW(509:509)-3</f>
+        <v>506</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" cm="1">
+        <f t="array" ref="A510">ROW(510:510)-3</f>
+        <v>507</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" cm="1">
+        <f t="array" ref="A511">ROW(511:511)-3</f>
+        <v>508</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" cm="1">
+        <f t="array" ref="A512">ROW(512:512)-3</f>
+        <v>509</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" cm="1">
+        <f t="array" ref="A513">ROW(513:513)-3</f>
+        <v>510</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" cm="1">
+        <f t="array" ref="A514">ROW(514:514)-3</f>
+        <v>511</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" cm="1">
+        <f t="array" ref="A515">ROW(515:515)-3</f>
+        <v>512</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" cm="1">
+        <f t="array" ref="A516">ROW(516:516)-3</f>
+        <v>513</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" cm="1">
+        <f t="array" ref="A517">ROW(517:517)-3</f>
+        <v>514</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" cm="1">
+        <f t="array" ref="A518">ROW(518:518)-3</f>
+        <v>515</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" cm="1">
+        <f t="array" ref="A519">ROW(519:519)-3</f>
+        <v>516</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" cm="1">
+        <f t="array" ref="A520">ROW(520:520)-3</f>
+        <v>517</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" cm="1">
+        <f t="array" ref="A521">ROW(521:521)-3</f>
+        <v>518</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" cm="1">
+        <f t="array" ref="A522">ROW(522:522)-3</f>
+        <v>519</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" cm="1">
+        <f t="array" ref="A523">ROW(523:523)-3</f>
+        <v>520</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" cm="1">
+        <f t="array" ref="A524">ROW(524:524)-3</f>
+        <v>521</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" cm="1">
+        <f t="array" ref="A525">ROW(525:525)-3</f>
+        <v>522</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" cm="1">
+        <f t="array" ref="A526">ROW(526:526)-3</f>
+        <v>523</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" cm="1">
+        <f t="array" ref="A527">ROW(527:527)-3</f>
+        <v>524</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" cm="1">
+        <f t="array" ref="A528">ROW(528:528)-3</f>
+        <v>525</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" cm="1">
+        <f t="array" ref="A529">ROW(529:529)-3</f>
+        <v>526</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" cm="1">
+        <f t="array" ref="A530">ROW(530:530)-3</f>
+        <v>527</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" cm="1">
+        <f t="array" ref="A531">ROW(531:531)-3</f>
+        <v>528</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" cm="1">
+        <f t="array" ref="A532">ROW(532:532)-3</f>
+        <v>529</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" cm="1">
+        <f t="array" ref="A533">ROW(533:533)-3</f>
+        <v>530</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" cm="1">
+        <f t="array" ref="A534">ROW(534:534)-3</f>
+        <v>531</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" cm="1">
+        <f t="array" ref="A535">ROW(535:535)-3</f>
+        <v>532</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" cm="1">
+        <f t="array" ref="A536">ROW(536:536)-3</f>
+        <v>533</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" cm="1">
+        <f t="array" ref="A537">ROW(537:537)-3</f>
+        <v>534</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" cm="1">
+        <f t="array" ref="A538">ROW(538:538)-3</f>
+        <v>535</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" cm="1">
+        <f t="array" ref="A539">ROW(539:539)-3</f>
+        <v>536</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" cm="1">
+        <f t="array" ref="A540">ROW(540:540)-3</f>
+        <v>537</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" cm="1">
+        <f t="array" ref="A541">ROW(541:541)-3</f>
+        <v>538</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" cm="1">
+        <f t="array" ref="A542">ROW(542:542)-3</f>
+        <v>539</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" cm="1">
+        <f t="array" ref="A543">ROW(543:543)-3</f>
+        <v>540</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" cm="1">
+        <f t="array" ref="A544">ROW(544:544)-3</f>
+        <v>541</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" cm="1">
+        <f t="array" ref="A545">ROW(545:545)-3</f>
+        <v>542</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" cm="1">
+        <f t="array" ref="A546">ROW(546:546)-3</f>
+        <v>543</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" cm="1">
+        <f t="array" ref="A547">ROW(547:547)-3</f>
+        <v>544</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" cm="1">
+        <f t="array" ref="A548">ROW(548:548)-3</f>
+        <v>545</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" cm="1">
+        <f t="array" ref="A549">ROW(549:549)-3</f>
+        <v>546</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" cm="1">
+        <f t="array" ref="A550">ROW(550:550)-3</f>
+        <v>547</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1604</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EA29C-012B-42F5-8685-59B4FF73139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9BF1C-59C7-46BD-B96C-D471198D4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1995" windowWidth="38400" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="38400" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1683">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5333,6 +5342,260 @@
   </si>
   <si>
     <t>&lt;color=#2F3759&gt;Corn Cannon is an evolved version of corn projection, which can throw corn bombs to deal a devastating blow to zombies&lt;/color&gt;\r\n&lt;color=#ff0000&gt;Cultivable abilities:&lt;/color&gt;\r\nBasic damage - the basic damage caused is increased\r\nPercentage damage - the damage percentage is increased\r\nCooling time - the release time is restored faster\r\nConversion rate of sunlight - the ratio of zombies that are exploded to sunlight\r\nOrdinary zombie instant death rate - the probability of ordinary zombies (non-giants and zombie kings) being directly killed by explosions\r\nLarge zombie damage increase - the damage received by giants and zombie kings is increased\r\nExplosion range - the range affected by the explosion is wider\r\n</t>
+  </si>
+  <si>
+    <t>僵尸博士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投篮僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰车僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑杆僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>读报僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄球僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁网门僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;巨人僵尸是一种巨型僵尸，他喜欢吃被砸扁的脑子&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;极高&lt;/color&gt;\r\n当巨人僵尸走到的时候，大地都在震颤\r\n当你距离巨人僵尸过远时他会使用从天而降的泰山压顶技巧\r\n当你在他的视野范围内时，他会扑向你或者用手里的路牌砸你的脑子\r\n要打败巨人僵尸需要强大的力量以及身体强度</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;投篮僵尸有着精准的投篮手法，他投掷的篮球每一颗都会落到头顶&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;地刺、地刺王&lt;/color&gt;\r\n在投篮僵尸有把握的距离内，他才会进行投掷，每一击都是必中的，在篮球落到头顶前需要保护头顶所以不能进行攻击\r\n可能某些道具能有效保护头顶而不需要格外注意投篮僵尸</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;冰车僵尸会留下冰道减缓移动速度&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;地刺、地刺王&lt;/color&gt;\r\n冰车僵尸对脑髓不敢兴趣，他只喜欢在冰道上滑行。\r\n他想把整个世界都变成冰面！！</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;气球僵尸漂浮在空中，躲过大多数攻击&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;仙人掌、猫尾草&lt;/color&gt;\r\n气球僵尸就像秃鹫一样盘旋骚扰，一旦有机会便会发起猛攻。\r\n除了仙人掌和猫尾草外还有部分道具也能制裁他</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;经常运动的运动健将，也会使用杆投掷进行攻击&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n当脑髓距离很远时他会使用他的杆子进行投掷，使目标不能行动再靠近\r\n不要贸然靠近他，不然他会挥舞手中的杆子进行打击。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;他的报纸似乎换材质了，不是很容易破损&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低，失去报纸后，极高&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n他正痴迷于完成他的数独难题，被僵尸浪潮推动着，速度不是很快\r\n但是他的报纸被损毁后，他将会发狂。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;橄榄球僵尸的头盔异常僵硬但也阻碍了他的视野&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;磁力菇&lt;/color&gt;\r\n作为一名橄榄球运动员，他的速度和强度是非常强的，他的橄榄球套装使他几乎没有弱点。\r\n当他失去他的头盔后，他的头便是弱点。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;旗帜僵尸相传带领了一波又一波僵尸攻击植物&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n旗帜僵尸一直冲锋在最前面，这样他私下需要锻炼自己的速度。\r\n他手里的旗帜不仅是摆设，兴许也能抵挡攻击\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;他的铁丝网门是有效的盾牌，能保护自己不受伤害&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;磁力菇&lt;/color&gt;\r\n在目睹了铁桶僵尸头盔的坚硬后，铁网门僵尸发现铁网门的材质一样，并且防御的面积更大，于是便顺手把铁网门从门框上取了下来。\r\n但是遇到磁力菇后，他和一只普通僵尸（铁桶僵尸）面面相觑。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;他的铁桶头盔能极大程度承受伤害，相较于路障僵尸，他能察觉到哪些物品的材质更坚硬,视野更不清晰。&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n弱点：&lt;color=#ff0000&gt;磁力菇&lt;/color&gt;\r\n在一次偶然的机会下，他被扣上了铁桶，然后他发现他的头变得异常坚韧，他以为他天下无敌了。\r\n直到他遇到了磁力菇，他变成了普通僵尸。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;他的路障头盔使他比普通僵尸坚硬，但是也影响了他的视距，察觉脑髓的能力下降了。&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;中等&lt;/color&gt;\r\n和普通僵尸一样异常喜爱脑髓，但是他比普通僵尸聪明的地方在于他懂得利用道具来保护自己。\r\n在普通僵尸盲目向前时，他会捡起路边的交通路障来保护自己，使自己更容易吃到脑髓。</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;普通僵尸，很常见的僵尸。&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n这种僵尸喜爱脑髓以至疯狂，通常情况下速度较慢，但是接近脑髓时可能会爆发出惊人的移动速度而追求，亦或使出奋不顾身的技巧前扑后继的追逐脑髓。\r\n老而臭的脑髓？腐烂的脑髓？都没关系，僵尸需要它们。\r\n</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieNormal</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieCone</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBucket</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieScreendoor</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieFlag</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieFootball</t>
+  </si>
+  <si>
+    <t>zombieName_ZombiePaper</t>
+  </si>
+  <si>
+    <t>zombieName_ZombiePolevaulter</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBalloon</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieZamboni</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieCatapult</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieGargantuan</t>
+  </si>
+  <si>
+    <t>zombieName_ZombieBoss</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieNormal</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieCone</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBucket</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieScreendoor</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieFlag</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieFootball</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombiePaper</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombiePolevaulter</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBalloon</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieZamboni</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieCatapult</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieGargantuan</t>
+  </si>
+  <si>
+    <t>zombieInfo_ZombieBoss</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Ordinary zombie, a very common zombie. &lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nThis kind of zombie loves brains to the point of madness. Usually, it is slow, but when it gets close to the brain, it may burst into amazing movement speed and pursue it, or use desperate skills to chase the brain. \r\nOld and smelly brains? Rotten brains? It doesn't matter, zombies need them. \r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;His roadblock helmet makes him stronger than ordinary zombies, but it also affects his vision, and his ability to detect brains is reduced. &lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nLike ordinary zombies, he loves brains very much, but he is smarter than ordinary zombies in that he knows how to use props to protect himself. \r\nWhen ordinary zombies move forward blindly, he will pick up traffic barriers on the roadside to protect himself, making it easier for him to eat brains.</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;His iron bucket helmet can withstand damage to a great extent. Compared with roadblock zombies, he can perceive which items are made of harder materials and have less clear vision. &lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Magnetic Mushroom&lt;/color&gt;\r\nBy chance, he was put in an iron barrel, and then he found that his head became unusually tough, and he thought he was invincible. \r\nUntil he met the magnetic mushroom, he became an ordinary zombie.</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;His wire mesh door is an effective shield that can protect him from harm&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Magnetic Mushroom&lt;/color&gt;\r\nAfter witnessing the hardness of the Iron Bucket Zombie's helmet, the Iron Mesh Door Zombie found that the material of the iron mesh door was the same and the defense area was larger, so he took the iron mesh door off the door frame. \r\nBut after encountering the magnetic mushroom, he and an ordinary zombie (iron bucket zombie) looked at each other in bewilderment.</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;It is said that the Banner Zombie led waves of zombies to attack plants&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nThe Banner Zombie always charges at the front, so he needs to practice his speed privately. \r\nThe flag in his hand is not only for decoration, but also for resisting attacks\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;The helmet of the football zombie is extremely stiff, but it also blocks his vision&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHealth: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Magnetic Mushroom&lt;/color&gt;\r\nAs a football player, his speed and strength are very strong, and his football suit makes him almost without weakness. \r\nWhen he loses his helmet, his head is his weakness</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;His newspaper seems to have changed its material, and is not easily damaged&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low, after losing the newspaper, very high&lt;/color&gt;\r\nHealth: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHe is obsessed with completing his Sudoku puzzle, and is pushed by the zombie wave, so his speed is not very fast\r\nBut after his newspaper is damaged, he will go crazy.</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Athletes who exercise regularly will also use pole throwing to attack&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nWhen the brain is far away, he will use his pole to throw, making the target unable to move before approaching\r\nDon't approach him rashly, otherwise he will swing the pole in his hand to attack.</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Balloon Zombies float in the air, avoiding most attacks&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Cactus, Cattail Grass&lt;/color&gt;\r\nBalloon Zombies hover and harass like vultures, and will launch a fierce attack once they have the chance. \r\nIn addition to cactus and cattail grass, some other items can also punish him</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Ice Truck Zombie will leave an ice track to slow down its movement&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Ground Spike, Ground Spike King&lt;/color&gt;\r\nIce Truck Zombie is not interested in brains, he only likes to slide on ice tracks. \r\nHe wants to turn the whole world into ice!!</t>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;The Shooting Zombie has precise shooting skills. Every basketball he throws will land on his head&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nWeakness: &lt;color=#ff0000&gt;Ground Spike, Ground Spike King&lt;/color&gt;\r\nThe Shooting Zombie will only throw when it is within a distance that he is sure of. , every shot is a sure hit. You need to protect your head before the basketball lands on it, so you can't attack.\r\nSome items may be able to effectively protect your head, so you don't need to pay special attention to shooting zombies.</t>
+  </si>
+  <si>
+    <t>Flag zombies</t>
+  </si>
+  <si>
+    <t>Football zombies</t>
+  </si>
+  <si>
+    <t>Newspaper zombies</t>
+  </si>
+  <si>
+    <t>Pole zombies</t>
+  </si>
+  <si>
+    <t>Balloon zombies</t>
+  </si>
+  <si>
+    <t>Ice car zombies</t>
+  </si>
+  <si>
+    <t>Basketball zombies</t>
+  </si>
+  <si>
+    <t>Giant zombies</t>
+  </si>
+  <si>
+    <t>Boss Zombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Giant zombie is a giant zombie that likes to eat flattened brains&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Medium&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Extremely High&lt;/color&gt;\r\nWhen the giant zombie walks, the ground is shaking\r\nWhen you are too far away from the giant zombie, he will use the technique of falling from the sky and crushing your head\r\nWhen you are within his field of vision, he will pounce on you or smash your head with the road sign in his hand\r\nTo defeat the giant zombie, you need strong power and physical strength</t>
+  </si>
+  <si>
+    <t>铁桶僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal zombies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cone zombies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket zombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron mesh door zombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;僵尸似乎靠体积大小确定臣服关系，僵王博士的机器人非常巨大，统治所有的僵尸，&lt;/color&gt;\r\n强度：&lt;color=#ff0000&gt;高&lt;/color&gt;\r\n速度：&lt;color=#ff0000&gt;低&lt;/color&gt;\r\n血量：&lt;color=#ff0000&gt;极高&lt;/color&gt;\r\n当你收到僵王博士的来信时，你就得准备迎接他的打击了，对于他来说这只是一个游戏\r\n当你距离僵王博士过远时他会一直向你投掷车辆进行范围打击\r\n当你在他的视野范围内时，他可能会向你投掷火球或者冰球，留下火道（扣除生命值）和冰道（减速），也得小心他会像踩死蚂蚁一样踩死你，或者拍苍蝇一样拍你</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2F3759&gt;Zombies seem to determine their submission by their size. Dr. Zombie King's robot is very huge and dominates all zombies.&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Extremely High&lt;/color&gt;\r\nWhen you receive a letter from Dr. Zombie King, you must be prepared for his attack. For him, this is just a game.\r\nWhen you are too far away from Dr. Zombie King, he will keep throwing vehicles at you for range attacks.\r\nWhen you are within his field of vision, he may throw fireballs or iceballs at you, leaving behind fire trails (deducting health points) and ice trails (slowing down). Be careful that he may crush you like an ant, or swat you like a fly.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5716,11 +5979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:F576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H529" sqref="H529"/>
+      <pane ySplit="3" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D574" sqref="D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14177,6 +14440,396 @@
         <v>1604</v>
       </c>
     </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" cm="1">
+        <f t="array" ref="A551">ROW(551:551)-3</f>
+        <v>548</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" cm="1">
+        <f t="array" ref="A552">ROW(552:552)-3</f>
+        <v>549</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" cm="1">
+        <f t="array" ref="A553">ROW(553:553)-3</f>
+        <v>550</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" cm="1">
+        <f t="array" ref="A554">ROW(554:554)-3</f>
+        <v>551</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" cm="1">
+        <f t="array" ref="A555">ROW(555:555)-3</f>
+        <v>552</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" cm="1">
+        <f t="array" ref="A556">ROW(556:556)-3</f>
+        <v>553</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" cm="1">
+        <f t="array" ref="A557">ROW(557:557)-3</f>
+        <v>554</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" cm="1">
+        <f t="array" ref="A558">ROW(558:558)-3</f>
+        <v>555</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" cm="1">
+        <f t="array" ref="A559">ROW(559:559)-3</f>
+        <v>556</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" cm="1">
+        <f t="array" ref="A560">ROW(560:560)-3</f>
+        <v>557</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" cm="1">
+        <f t="array" ref="A561">ROW(561:561)-3</f>
+        <v>558</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" cm="1">
+        <f t="array" ref="A562">ROW(562:562)-3</f>
+        <v>559</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" cm="1">
+        <f t="array" ref="A563">ROW(563:563)-3</f>
+        <v>560</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" cm="1">
+        <f t="array" ref="A564">ROW(564:564)-3</f>
+        <v>561</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" cm="1">
+        <f t="array" ref="A565">ROW(565:565)-3</f>
+        <v>562</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" cm="1">
+        <f t="array" ref="A566">ROW(566:566)-3</f>
+        <v>563</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" cm="1">
+        <f t="array" ref="A567">ROW(567:567)-3</f>
+        <v>564</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" cm="1">
+        <f t="array" ref="A568">ROW(568:568)-3</f>
+        <v>565</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" cm="1">
+        <f t="array" ref="A569">ROW(569:569)-3</f>
+        <v>566</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" cm="1">
+        <f t="array" ref="A570">ROW(570:570)-3</f>
+        <v>567</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" cm="1">
+        <f t="array" ref="A571">ROW(571:571)-3</f>
+        <v>568</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" cm="1">
+        <f t="array" ref="A572">ROW(572:572)-3</f>
+        <v>569</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" cm="1">
+        <f t="array" ref="A573">ROW(573:573)-3</f>
+        <v>570</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" cm="1">
+        <f t="array" ref="A574">ROW(574:574)-3</f>
+        <v>571</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" cm="1">
+        <f t="array" ref="A575">ROW(575:575)-3</f>
+        <v>572</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" cm="1">
+        <f t="array" ref="A576">ROW(576:576)-3</f>
+        <v>573</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1682</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9BF1C-59C7-46BD-B96C-D471198D4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDDB16-928C-44F2-9E2E-93DFD1926595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1560" windowWidth="38400" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1689">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5596,6 +5587,28 @@
   <si>
     <t>&lt;color=#2F3759&gt;Zombies seem to determine their submission by their size. Dr. Zombie King's robot is very huge and dominates all zombies.&lt;/color&gt;\r\nStrength: &lt;color=#ff0000&gt;High&lt;/color&gt;\r\nSpeed: &lt;color=#ff0000&gt;Low&lt;/color&gt;\r\nHP: &lt;color=#ff0000&gt;Extremely High&lt;/color&gt;\r\nWhen you receive a letter from Dr. Zombie King, you must be prepared for his attack. For him, this is just a game.\r\nWhen you are too far away from Dr. Zombie King, he will keep throwing vehicles at you for range attacks.\r\nWhen you are within his field of vision, he may throw fireballs or iceballs at you, leaving behind fire trails (deducting health points) and ice trails (slowing down). Be careful that he may crush you like an ant, or swat you like a fly.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_zombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次遇见后解锁图鉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次培养后解锁图鉴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tujian_plant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock the illustrated book after first encounter</t>
+  </si>
+  <si>
+    <t>Unlock the illustrated book after first training</t>
   </si>
 </sst>
 </file>
@@ -5692,12 +5705,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5979,11 +5993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F576"/>
+  <dimension ref="A1:F578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D574" sqref="D574"/>
+      <pane ySplit="3" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D577" sqref="D577:D578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14830,6 +14844,36 @@
         <v>1682</v>
       </c>
     </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" cm="1">
+        <f t="array" ref="A577">ROW(577:577)-3</f>
+        <v>574</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" cm="1">
+        <f t="array" ref="A578">ROW(578:578)-3</f>
+        <v>575</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1688</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDDB16-928C-44F2-9E2E-93DFD1926595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46109ED-8566-46BD-B591-B129701F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="38400" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#LocalText" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1692">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5609,6 +5618,17 @@
   </si>
   <si>
     <t>Unlock the illustrated book after first training</t>
+  </si>
+  <si>
+    <t>获得{0}种子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get {0} seeds</t>
   </si>
 </sst>
 </file>
@@ -5993,11 +6013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F578"/>
+  <dimension ref="A1:F579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D577" sqref="D577:D578"/>
+      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14852,7 +14872,7 @@
       <c r="B577" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="C577" s="5" t="s">
+      <c r="C577" s="1" t="s">
         <v>1684</v>
       </c>
       <c r="D577" t="s">
@@ -14867,11 +14887,26 @@
       <c r="B578" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="C578" s="5" t="s">
+      <c r="C578" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="D578" t="s">
         <v>1688</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" cm="1">
+        <f t="array" ref="A579">ROW(579:579)-3</f>
+        <v>576</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46109ED-8566-46BD-B591-B129701F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D7F4B-3C4D-4F25-ADB4-483266E691D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1698">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5629,6 +5620,28 @@
   </si>
   <si>
     <t>Get {0} seeds</t>
+  </si>
+  <si>
+    <t>种植的植物越多，冒险中出现植物卡片的间隔时间越短\r\n当前时间{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>温馨提示！\r\n植物种子可能出现在僵尸身上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_cooltimeTips</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden_getTips</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more plants you plant, the shorter the interval between plant cards appearing during the adventure\r\nCurrent time {0}</t>
+  </si>
+  <si>
+    <t>Warm reminder! \r\nPlant seeds may appear on zombies</t>
   </si>
 </sst>
 </file>
@@ -5725,13 +5738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6013,11 +6025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
+      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B581" sqref="B581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14902,11 +14914,41 @@
       <c r="B579" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C579" s="5" t="s">
+      <c r="C579" s="1" t="s">
         <v>1689</v>
       </c>
       <c r="D579" t="s">
         <v>1691</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" cm="1">
+        <f t="array" ref="A580">ROW(580:580)-3</f>
+        <v>577</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" cm="1">
+        <f t="array" ref="A581">ROW(581:581)-3</f>
+        <v>578</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1697</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D7F4B-3C4D-4F25-ADB4-483266E691D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BF7E5-A6F1-4EF1-B8CB-7E8803A2C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1704">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3669,22 +3678,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一局冒险中收集500个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总共收集10000个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总共收集2000个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集300个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次开始冒险</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4248,10 +4245,6 @@
     <t>Kill the Ice Truck Zombie for the first time</t>
   </si>
   <si>
-    <t>一局冒险中收集100个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>一局冒险中收集1000个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5642,6 +5635,43 @@
   </si>
   <si>
     <t>Warm reminder! \r\nPlant seeds may appear on zombies</t>
+  </si>
+  <si>
+    <t>总共收集5000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集40000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集200个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集2000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title100009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info100009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百发百中</t>
+  </si>
+  <si>
+    <t>Hit the target every time</t>
+  </si>
+  <si>
+    <t>Critical hit rate reaches 100</t>
   </si>
 </sst>
 </file>
@@ -6025,11 +6055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:F583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B581" sqref="B581"/>
+      <pane ySplit="3" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A582" sqref="A582:A583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6154,7 +6184,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -6250,7 +6280,7 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -6330,7 +6360,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -6394,7 +6424,7 @@
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -6711,13 +6741,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C43" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D43" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -6818,7 +6848,7 @@
         <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D48" t="s">
         <v>192</v>
@@ -6884,10 +6914,10 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D51" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
@@ -7016,7 +7046,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D57" t="s">
         <v>206</v>
@@ -7038,10 +7068,10 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D58" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="E58" t="s">
         <v>59</v>
@@ -7060,7 +7090,7 @@
         <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D59" t="s">
         <v>207</v>
@@ -7434,7 +7464,7 @@
         <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -7563,7 +7593,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C82" t="s">
         <v>152</v>
@@ -7585,13 +7615,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D83" t="s">
         <v>1295</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7633,7 +7663,7 @@
         <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D86" t="s">
         <v>336</v>
@@ -8323,10 +8353,10 @@
         <v>327</v>
       </c>
       <c r="C132" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D132" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8710,13 +8740,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C158" t="s">
         <v>992</v>
       </c>
       <c r="D158" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9190,13 +9220,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C190" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D190" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -9613,10 +9643,10 @@
         <v>555</v>
       </c>
       <c r="C218" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D218" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9625,13 +9655,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C219" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D219" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9643,10 +9673,10 @@
         <v>556</v>
       </c>
       <c r="C220" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D220" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -11038,7 +11068,7 @@
         <v>872</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D313" t="s">
         <v>897</v>
@@ -11560,13 +11590,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D348" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -11581,7 +11611,7 @@
         <v>1002</v>
       </c>
       <c r="D349" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -11596,7 +11626,7 @@
         <v>1003</v>
       </c>
       <c r="D350" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -11611,7 +11641,7 @@
         <v>1004</v>
       </c>
       <c r="D351" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -11626,7 +11656,7 @@
         <v>1005</v>
       </c>
       <c r="D352" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -11641,7 +11671,7 @@
         <v>1006</v>
       </c>
       <c r="D353" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -11656,7 +11686,7 @@
         <v>1007</v>
       </c>
       <c r="D354" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -11671,7 +11701,7 @@
         <v>1008</v>
       </c>
       <c r="D355" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -11686,7 +11716,7 @@
         <v>1009</v>
       </c>
       <c r="D356" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -11701,7 +11731,7 @@
         <v>1010</v>
       </c>
       <c r="D357" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -11716,7 +11746,7 @@
         <v>1011</v>
       </c>
       <c r="D358" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -11731,7 +11761,7 @@
         <v>1012</v>
       </c>
       <c r="D359" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -11743,7 +11773,7 @@
         <v>1049</v>
       </c>
       <c r="C360" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="D360" t="s">
         <v>49</v>
@@ -11761,7 +11791,7 @@
         <v>1013</v>
       </c>
       <c r="D361" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -11776,7 +11806,7 @@
         <v>1014</v>
       </c>
       <c r="D362" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -11791,7 +11821,7 @@
         <v>1015</v>
       </c>
       <c r="D363" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -11806,7 +11836,7 @@
         <v>1016</v>
       </c>
       <c r="D364" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -11821,7 +11851,7 @@
         <v>1017</v>
       </c>
       <c r="D365" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -11836,7 +11866,7 @@
         <v>1018</v>
       </c>
       <c r="D366" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -11851,7 +11881,7 @@
         <v>1019</v>
       </c>
       <c r="D367" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -11866,7 +11896,7 @@
         <v>1020</v>
       </c>
       <c r="D368" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11881,7 +11911,7 @@
         <v>1021</v>
       </c>
       <c r="D369" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11896,7 +11926,7 @@
         <v>1022</v>
       </c>
       <c r="D370" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11911,7 +11941,7 @@
         <v>1023</v>
       </c>
       <c r="D371" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11923,10 +11953,10 @@
         <v>1061</v>
       </c>
       <c r="C372" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D372" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11941,7 +11971,7 @@
         <v>1024</v>
       </c>
       <c r="D373" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11956,7 +11986,7 @@
         <v>1025</v>
       </c>
       <c r="D374" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -11971,7 +12001,7 @@
         <v>1026</v>
       </c>
       <c r="D375" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -11986,7 +12016,7 @@
         <v>1027</v>
       </c>
       <c r="D376" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -12001,7 +12031,7 @@
         <v>1028</v>
       </c>
       <c r="D377" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -12016,7 +12046,7 @@
         <v>1029</v>
       </c>
       <c r="D378" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -12031,7 +12061,7 @@
         <v>1030</v>
       </c>
       <c r="D379" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -12046,7 +12076,7 @@
         <v>1031</v>
       </c>
       <c r="D380" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -12061,7 +12091,7 @@
         <v>1032</v>
       </c>
       <c r="D381" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -12091,7 +12121,7 @@
         <v>1034</v>
       </c>
       <c r="D383" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -12106,7 +12136,7 @@
         <v>1035</v>
       </c>
       <c r="D384" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -12121,7 +12151,7 @@
         <v>1036</v>
       </c>
       <c r="D385" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -12136,7 +12166,7 @@
         <v>1037</v>
       </c>
       <c r="D386" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -12145,13 +12175,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D387" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -12160,13 +12190,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1098</v>
+        <v>1694</v>
       </c>
       <c r="D388" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -12175,13 +12205,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D389" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -12190,13 +12220,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1096</v>
+        <v>1695</v>
       </c>
       <c r="D390" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -12205,13 +12235,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1279</v>
+        <v>1696</v>
       </c>
       <c r="D391" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -12220,13 +12250,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1095</v>
+        <v>1276</v>
       </c>
       <c r="D392" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -12235,13 +12265,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1280</v>
+        <v>1697</v>
       </c>
       <c r="D393" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -12250,13 +12280,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="D394" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -12265,13 +12295,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="D395" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -12280,13 +12310,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="D396" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -12295,13 +12325,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D397" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -12310,13 +12340,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="D398" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -12325,13 +12355,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D399" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -12340,13 +12370,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D400" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -12355,13 +12385,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D401" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -12370,13 +12400,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="D402" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -12385,13 +12415,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="D403" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -12400,13 +12430,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D404" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -12415,13 +12445,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D405" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -12430,13 +12460,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="D406" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -12445,13 +12475,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D407" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -12460,13 +12490,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D408" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -12475,13 +12505,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D409" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -12490,13 +12520,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D410" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -12505,13 +12535,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D411" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -12520,13 +12550,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D412" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -12535,13 +12565,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="D413" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -12550,13 +12580,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="D414" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -12565,13 +12595,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="D415" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -12580,13 +12610,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="D416" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -12595,13 +12625,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="D417" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -12610,13 +12640,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="D418" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -12625,13 +12655,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="D419" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -12640,13 +12670,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="D420" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -12655,13 +12685,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="D421" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -12670,13 +12700,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="D422" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12685,13 +12715,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="D423" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12700,13 +12730,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="D424" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12715,7 +12745,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -12725,7 +12755,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12734,7 +12764,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12743,7 +12773,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12752,7 +12782,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12761,7 +12791,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12770,7 +12800,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12779,7 +12809,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -12788,13 +12818,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C433" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D433" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -12803,13 +12833,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C434" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D434" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12818,13 +12848,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C435" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D435" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12833,13 +12863,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C436" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D436" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12848,13 +12878,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C437" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D437" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12863,13 +12893,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C438" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D438" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12878,13 +12908,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C439" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D439" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12893,13 +12923,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C440" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D440" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12908,13 +12938,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C441" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D441" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12923,13 +12953,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C442" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D442" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12938,13 +12968,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C443" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D443" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12953,13 +12983,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C444" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D444" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12968,13 +12998,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C445" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D445" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12983,13 +13013,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C446" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D446" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12998,13 +13028,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C447" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D447" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -13013,13 +13043,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C448" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D448" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -13028,13 +13058,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C449" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D449" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -13043,13 +13073,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C450" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D450" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -13058,13 +13088,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C451" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D451" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -13073,7 +13103,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -13082,7 +13112,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -13091,7 +13121,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -13100,7 +13130,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -13109,7 +13139,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -13118,7 +13148,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -13127,7 +13157,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -13136,7 +13166,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -13145,7 +13175,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -13154,7 +13184,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -13163,7 +13193,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -13172,13 +13202,13 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C463" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D463" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -13187,13 +13217,13 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C464" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D464" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -13202,13 +13232,13 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C465" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D465" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -13217,13 +13247,13 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C466" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D466" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -13232,13 +13262,13 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C467" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D467" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -13247,13 +13277,13 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C468" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D468" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -13262,13 +13292,13 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C469" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D469" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -13277,13 +13307,13 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C470" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D470" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -13292,13 +13322,13 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C471" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D471" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -13307,13 +13337,13 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C472" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D472" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13322,13 +13352,13 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C473" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D473" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -13337,13 +13367,13 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C474" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D474" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -13352,13 +13382,13 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C475" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D475" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13367,13 +13397,13 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C476" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D476" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -13382,13 +13412,13 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C477" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D477" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -13397,13 +13427,13 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C478" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D478" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -13412,13 +13442,13 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C479" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D479" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -13427,13 +13457,13 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C480" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D480" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -13442,13 +13472,13 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C481" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D481" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -13457,13 +13487,13 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C482" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D482" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -13472,13 +13502,13 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C483" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D483" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -13487,13 +13517,13 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C484" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D484" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -13502,13 +13532,13 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C485" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D485" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13517,13 +13547,13 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C486" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D486" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -13532,13 +13562,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C487" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D487" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -13547,13 +13577,13 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C488" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D488" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -13562,13 +13592,13 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C489" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D489" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -13577,13 +13607,13 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C490" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D490" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -13592,13 +13622,13 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C491" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D491" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -13607,13 +13637,13 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C492" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D492" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -13622,13 +13652,13 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C493" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D493" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13637,13 +13667,13 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C494" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D494" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13652,13 +13682,13 @@
         <v>492</v>
       </c>
       <c r="B495" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C495" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D495" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -13667,13 +13697,13 @@
         <v>493</v>
       </c>
       <c r="B496" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C496" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D496" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -13682,13 +13712,13 @@
         <v>494</v>
       </c>
       <c r="B497" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D497" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -13697,13 +13727,13 @@
         <v>495</v>
       </c>
       <c r="B498" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C498" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D498" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -13712,13 +13742,13 @@
         <v>496</v>
       </c>
       <c r="B499" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D499" t="s">
         <v>1436</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -13727,13 +13757,13 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D500" t="s">
         <v>1437</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13742,13 +13772,13 @@
         <v>498</v>
       </c>
       <c r="B501" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C501" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D501" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -13757,13 +13787,13 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C502" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D502" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -13772,13 +13802,13 @@
         <v>500</v>
       </c>
       <c r="B503" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C503" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D503" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -13787,13 +13817,13 @@
         <v>501</v>
       </c>
       <c r="B504" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C504" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D504" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13802,13 +13832,13 @@
         <v>502</v>
       </c>
       <c r="B505" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C505" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D505" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -13817,13 +13847,13 @@
         <v>503</v>
       </c>
       <c r="B506" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C506" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D506" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13832,13 +13862,13 @@
         <v>504</v>
       </c>
       <c r="B507" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C507" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D507" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13847,13 +13877,13 @@
         <v>505</v>
       </c>
       <c r="B508" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C508" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="D508" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13862,13 +13892,13 @@
         <v>506</v>
       </c>
       <c r="B509" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C509" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D509" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -13877,13 +13907,13 @@
         <v>507</v>
       </c>
       <c r="B510" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C510" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D510" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -13892,13 +13922,13 @@
         <v>508</v>
       </c>
       <c r="B511" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C511" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D511" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -13907,13 +13937,13 @@
         <v>509</v>
       </c>
       <c r="B512" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C512" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D512" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -13922,13 +13952,13 @@
         <v>510</v>
       </c>
       <c r="B513" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C513" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D513" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
@@ -13937,13 +13967,13 @@
         <v>511</v>
       </c>
       <c r="B514" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C514" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D514" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
@@ -13952,13 +13982,13 @@
         <v>512</v>
       </c>
       <c r="B515" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C515" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D515" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
@@ -13967,13 +13997,13 @@
         <v>513</v>
       </c>
       <c r="B516" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C516" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D516" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
@@ -13982,13 +14012,13 @@
         <v>514</v>
       </c>
       <c r="B517" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C517" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D517" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
@@ -13997,13 +14027,13 @@
         <v>515</v>
       </c>
       <c r="B518" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C518" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D518" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -14012,13 +14042,13 @@
         <v>516</v>
       </c>
       <c r="B519" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C519" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D519" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
@@ -14027,13 +14057,13 @@
         <v>517</v>
       </c>
       <c r="B520" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C520" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D520" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
@@ -14042,13 +14072,13 @@
         <v>518</v>
       </c>
       <c r="B521" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C521" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D521" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
@@ -14057,13 +14087,13 @@
         <v>519</v>
       </c>
       <c r="B522" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C522" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D522" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14072,13 +14102,13 @@
         <v>520</v>
       </c>
       <c r="B523" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C523" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D523" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14087,13 +14117,13 @@
         <v>521</v>
       </c>
       <c r="B524" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C524" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D524" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
@@ -14102,13 +14132,13 @@
         <v>522</v>
       </c>
       <c r="B525" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C525" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D525" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
@@ -14117,13 +14147,13 @@
         <v>523</v>
       </c>
       <c r="B526" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C526" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D526" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
@@ -14132,13 +14162,13 @@
         <v>524</v>
       </c>
       <c r="B527" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C527" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D527" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
@@ -14147,13 +14177,13 @@
         <v>525</v>
       </c>
       <c r="B528" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C528" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D528" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -14162,13 +14192,13 @@
         <v>526</v>
       </c>
       <c r="B529" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C529" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D529" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -14177,13 +14207,13 @@
         <v>527</v>
       </c>
       <c r="B530" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C530" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D530" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -14192,13 +14222,13 @@
         <v>528</v>
       </c>
       <c r="B531" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C531" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D531" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -14207,13 +14237,13 @@
         <v>529</v>
       </c>
       <c r="B532" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C532" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D532" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -14222,13 +14252,13 @@
         <v>530</v>
       </c>
       <c r="B533" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C533" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D533" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
@@ -14237,13 +14267,13 @@
         <v>531</v>
       </c>
       <c r="B534" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C534" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D534" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
@@ -14252,13 +14282,13 @@
         <v>532</v>
       </c>
       <c r="B535" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C535" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D535" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -14267,13 +14297,13 @@
         <v>533</v>
       </c>
       <c r="B536" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C536" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D536" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -14282,13 +14312,13 @@
         <v>534</v>
       </c>
       <c r="B537" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C537" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D537" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
@@ -14297,13 +14327,13 @@
         <v>535</v>
       </c>
       <c r="B538" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C538" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D538" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -14312,13 +14342,13 @@
         <v>536</v>
       </c>
       <c r="B539" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C539" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D539" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -14327,13 +14357,13 @@
         <v>537</v>
       </c>
       <c r="B540" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C540" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D540" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -14342,13 +14372,13 @@
         <v>538</v>
       </c>
       <c r="B541" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C541" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D541" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -14357,13 +14387,13 @@
         <v>539</v>
       </c>
       <c r="B542" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C542" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D542" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -14372,13 +14402,13 @@
         <v>540</v>
       </c>
       <c r="B543" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C543" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D543" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
@@ -14387,13 +14417,13 @@
         <v>541</v>
       </c>
       <c r="B544" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C544" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D544" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
@@ -14402,13 +14432,13 @@
         <v>542</v>
       </c>
       <c r="B545" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C545" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D545" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
@@ -14417,13 +14447,13 @@
         <v>543</v>
       </c>
       <c r="B546" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C546" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D546" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
@@ -14432,13 +14462,13 @@
         <v>544</v>
       </c>
       <c r="B547" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C547" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D547" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
@@ -14447,13 +14477,13 @@
         <v>545</v>
       </c>
       <c r="B548" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C548" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D548" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
@@ -14462,13 +14492,13 @@
         <v>546</v>
       </c>
       <c r="B549" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C549" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D549" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
@@ -14477,13 +14507,13 @@
         <v>547</v>
       </c>
       <c r="B550" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C550" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D550" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
@@ -14492,13 +14522,13 @@
         <v>548</v>
       </c>
       <c r="B551" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D551" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
@@ -14507,13 +14537,13 @@
         <v>549</v>
       </c>
       <c r="B552" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D552" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
@@ -14522,13 +14552,13 @@
         <v>550</v>
       </c>
       <c r="B553" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="D553" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
@@ -14537,13 +14567,13 @@
         <v>551</v>
       </c>
       <c r="B554" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D554" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -14552,13 +14582,13 @@
         <v>552</v>
       </c>
       <c r="B555" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D555" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
@@ -14567,13 +14597,13 @@
         <v>553</v>
       </c>
       <c r="B556" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D556" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -14582,13 +14612,13 @@
         <v>554</v>
       </c>
       <c r="B557" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D557" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
@@ -14597,13 +14627,13 @@
         <v>555</v>
       </c>
       <c r="B558" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D558" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -14612,13 +14642,13 @@
         <v>556</v>
       </c>
       <c r="B559" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D559" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -14627,13 +14657,13 @@
         <v>557</v>
       </c>
       <c r="B560" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D560" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
@@ -14642,13 +14672,13 @@
         <v>558</v>
       </c>
       <c r="B561" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D561" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,13 +14687,13 @@
         <v>559</v>
       </c>
       <c r="B562" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D562" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -14672,13 +14702,13 @@
         <v>560</v>
       </c>
       <c r="B563" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D563" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -14687,13 +14717,13 @@
         <v>561</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="D564" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
@@ -14702,13 +14732,13 @@
         <v>562</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D565" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
@@ -14717,13 +14747,13 @@
         <v>563</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="D566" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
@@ -14732,13 +14762,13 @@
         <v>564</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D567" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
@@ -14747,13 +14777,13 @@
         <v>565</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D568" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -14762,13 +14792,13 @@
         <v>566</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D569" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
@@ -14777,13 +14807,13 @@
         <v>567</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D570" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
@@ -14792,13 +14822,13 @@
         <v>568</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="D571" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
@@ -14807,13 +14837,13 @@
         <v>569</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="D572" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
@@ -14822,13 +14852,13 @@
         <v>570</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D573" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
@@ -14837,13 +14867,13 @@
         <v>571</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="D574" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
@@ -14852,13 +14882,13 @@
         <v>572</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="D575" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
@@ -14867,13 +14897,13 @@
         <v>573</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D576" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
@@ -14882,13 +14912,13 @@
         <v>574</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D577" t="s">
         <v>1683</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D577" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -14897,13 +14927,13 @@
         <v>575</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="D578" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -14912,13 +14942,13 @@
         <v>576</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D579" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -14927,13 +14957,13 @@
         <v>577</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C580" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D580" t="s">
         <v>1692</v>
-      </c>
-      <c r="D580" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -14942,13 +14972,43 @@
         <v>578</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C581" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D581" t="s">
         <v>1693</v>
       </c>
-      <c r="D581" t="s">
-        <v>1697</v>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" cm="1">
+        <f t="array" ref="A582">ROW(582:582)-3</f>
+        <v>579</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" cm="1">
+        <f t="array" ref="A583">ROW(583:583)-3</f>
+        <v>580</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1703</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BF7E5-A6F1-4EF1-B8CB-7E8803A2C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC220EF-2D09-45DA-BEF5-28583D2ABA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3642,10 +3642,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用菠菜的飞头攻击累计击杀10只僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次购物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4140,9 +4136,6 @@
     <t>Used flaming peppers for the first time</t>
   </si>
   <si>
-    <t>Killed 10 zombies with Spinach's flying head attack</t>
-  </si>
-  <si>
     <t>Used a portal for the first time</t>
   </si>
   <si>
@@ -4482,10 +4475,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4608,9 +4597,6 @@
     <t>Danger Reminder\r\n&lt;color=#00ff00&gt;+5 Maximum Health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Adrenaline&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5 Damage&lt;/color&gt;\r\nThe area ahead is very dangerous, let's explore it later</t>
   </si>
   <si>
-    <t>Goggles\r\n&lt;color=#00ff00&gt;+5 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Luck&lt;/color&gt;\r\n&lt;c olor=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Strength&lt;/color&gt;\r\nCan effectively protect the eyes\r\n&lt;color=#9932CD&gt;Can attack flying balloon zombies&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Staff\r\n&lt;color=#00ff00&gt;+15 Critical Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3 Critical Rate&lt;/color&gt;\r\nIt is a staff that can cast magic</t>
   </si>
   <si>
@@ -5672,6 +5658,20 @@
   </si>
   <si>
     <t>Critical hit rate reaches 100</t>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goggles\r\n&lt;color=#00ff00&gt;+5 range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 luck&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 critical damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 strength&lt;/color&gt;\r\nCan effectively protect the eyes\r\n</t>
+  </si>
+  <si>
+    <t>使用僵尸尸体累计击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 10 zombies using zombie corpses</t>
   </si>
 </sst>
 </file>
@@ -6058,8 +6058,8 @@
   <dimension ref="A1:F583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A582" sqref="A582:A583"/>
+      <pane ySplit="3" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6184,7 +6184,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -6280,7 +6280,7 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -6360,7 +6360,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -6424,7 +6424,7 @@
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -6741,13 +6741,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D43" t="s">
         <v>1288</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1290</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -6848,7 +6848,7 @@
         <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D48" t="s">
         <v>192</v>
@@ -6914,10 +6914,10 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D51" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
@@ -7046,7 +7046,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D57" t="s">
         <v>206</v>
@@ -7068,10 +7068,10 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D58" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E58" t="s">
         <v>59</v>
@@ -7090,7 +7090,7 @@
         <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D59" t="s">
         <v>207</v>
@@ -7464,7 +7464,7 @@
         <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -7593,7 +7593,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C82" t="s">
         <v>152</v>
@@ -7615,13 +7615,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C83" t="s">
         <v>1291</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1293</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7663,7 +7663,7 @@
         <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D86" t="s">
         <v>336</v>
@@ -8353,10 +8353,10 @@
         <v>327</v>
       </c>
       <c r="C132" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D132" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8740,13 +8740,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C158" t="s">
         <v>992</v>
       </c>
       <c r="D158" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9220,13 +9220,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C190" t="s">
         <v>1296</v>
       </c>
-      <c r="C190" t="s">
-        <v>1298</v>
-      </c>
       <c r="D190" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -9643,10 +9643,10 @@
         <v>555</v>
       </c>
       <c r="C218" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D218" t="s">
         <v>1299</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9655,13 +9655,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C219" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D219" t="s">
         <v>1300</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9673,10 +9673,10 @@
         <v>556</v>
       </c>
       <c r="C220" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D220" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -11068,7 +11068,7 @@
         <v>872</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D313" t="s">
         <v>897</v>
@@ -11590,13 +11590,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D348" t="s">
         <v>1306</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -11611,7 +11611,7 @@
         <v>1002</v>
       </c>
       <c r="D349" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -11626,7 +11626,7 @@
         <v>1003</v>
       </c>
       <c r="D350" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -11641,7 +11641,7 @@
         <v>1004</v>
       </c>
       <c r="D351" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -11656,7 +11656,7 @@
         <v>1005</v>
       </c>
       <c r="D352" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -11671,7 +11671,7 @@
         <v>1006</v>
       </c>
       <c r="D353" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -11686,7 +11686,7 @@
         <v>1007</v>
       </c>
       <c r="D354" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -11701,7 +11701,7 @@
         <v>1008</v>
       </c>
       <c r="D355" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
         <v>1009</v>
       </c>
       <c r="D356" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -11731,7 +11731,7 @@
         <v>1010</v>
       </c>
       <c r="D357" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -11746,7 +11746,7 @@
         <v>1011</v>
       </c>
       <c r="D358" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -11761,7 +11761,7 @@
         <v>1012</v>
       </c>
       <c r="D359" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -11773,7 +11773,7 @@
         <v>1049</v>
       </c>
       <c r="C360" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D360" t="s">
         <v>49</v>
@@ -11791,7 +11791,7 @@
         <v>1013</v>
       </c>
       <c r="D361" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -11806,7 +11806,7 @@
         <v>1014</v>
       </c>
       <c r="D362" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -11821,7 +11821,7 @@
         <v>1015</v>
       </c>
       <c r="D363" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
         <v>1016</v>
       </c>
       <c r="D364" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -11851,7 +11851,7 @@
         <v>1017</v>
       </c>
       <c r="D365" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -11866,7 +11866,7 @@
         <v>1018</v>
       </c>
       <c r="D366" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -11881,7 +11881,7 @@
         <v>1019</v>
       </c>
       <c r="D367" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -11896,7 +11896,7 @@
         <v>1020</v>
       </c>
       <c r="D368" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11911,7 +11911,7 @@
         <v>1021</v>
       </c>
       <c r="D369" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11926,7 +11926,7 @@
         <v>1022</v>
       </c>
       <c r="D370" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11941,7 +11941,7 @@
         <v>1023</v>
       </c>
       <c r="D371" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11953,10 +11953,10 @@
         <v>1061</v>
       </c>
       <c r="C372" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D372" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11971,7 +11971,7 @@
         <v>1024</v>
       </c>
       <c r="D373" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11986,7 +11986,7 @@
         <v>1025</v>
       </c>
       <c r="D374" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
         <v>1026</v>
       </c>
       <c r="D375" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -12016,7 +12016,7 @@
         <v>1027</v>
       </c>
       <c r="D376" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -12031,7 +12031,7 @@
         <v>1028</v>
       </c>
       <c r="D377" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -12046,7 +12046,7 @@
         <v>1029</v>
       </c>
       <c r="D378" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -12061,7 +12061,7 @@
         <v>1030</v>
       </c>
       <c r="D379" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -12076,7 +12076,7 @@
         <v>1031</v>
       </c>
       <c r="D380" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -12091,7 +12091,7 @@
         <v>1032</v>
       </c>
       <c r="D381" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -12121,7 +12121,7 @@
         <v>1034</v>
       </c>
       <c r="D383" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
         <v>1035</v>
       </c>
       <c r="D384" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -12151,7 +12151,7 @@
         <v>1036</v>
       </c>
       <c r="D385" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -12166,7 +12166,7 @@
         <v>1037</v>
       </c>
       <c r="D386" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -12175,13 +12175,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D387" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -12190,13 +12190,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="D388" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -12205,13 +12205,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D389" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -12220,13 +12220,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D390" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -12235,13 +12235,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D391" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -12250,13 +12250,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C392" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D392" t="s">
         <v>1276</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -12265,13 +12265,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D393" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -12280,13 +12280,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D394" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -12295,13 +12295,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D395" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -12310,13 +12310,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D396" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -12325,13 +12325,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D397" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -12340,13 +12340,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D398" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -12355,13 +12355,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D399" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -12370,13 +12370,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D400" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -12385,13 +12385,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D401" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -12400,13 +12400,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D402" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -12415,13 +12415,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D403" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -12430,13 +12430,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D404" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -12445,13 +12445,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D405" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -12460,13 +12460,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D406" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -12475,13 +12475,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D407" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -12490,13 +12490,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D408" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -12505,13 +12505,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D409" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -12520,13 +12520,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D410" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -12535,13 +12535,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D411" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -12550,13 +12550,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D412" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -12565,13 +12565,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D413" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -12580,13 +12580,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1086</v>
+        <v>1702</v>
       </c>
       <c r="D414" t="s">
-        <v>1242</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -12595,13 +12595,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="D415" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -12610,13 +12610,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="D416" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -12625,13 +12625,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="D417" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -12640,13 +12640,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="D418" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -12655,13 +12655,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="D419" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -12670,13 +12670,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="D420" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -12685,13 +12685,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="D421" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -12700,13 +12700,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="D422" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12715,13 +12715,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="D423" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12730,13 +12730,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="D424" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12745,7 +12745,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -12755,7 +12755,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12773,7 +12773,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12782,7 +12782,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12791,7 +12791,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12800,7 +12800,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -12818,13 +12818,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C433" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D433" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -12833,13 +12833,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C434" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D434" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12848,13 +12848,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C435" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D435" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12863,13 +12863,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C436" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D436" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12878,13 +12878,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C437" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D437" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12893,13 +12893,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C438" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D438" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12908,13 +12908,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C439" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D439" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12923,13 +12923,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C440" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D440" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12938,13 +12938,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C441" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D441" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12953,13 +12953,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C442" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D442" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12968,13 +12968,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C443" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D443" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12983,13 +12983,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C444" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D444" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12998,13 +12998,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C445" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D445" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -13013,13 +13013,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C446" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D446" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -13028,13 +13028,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C447" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D447" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -13043,13 +13043,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C448" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D448" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -13058,13 +13058,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C449" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D449" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -13073,13 +13073,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C450" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D450" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -13088,13 +13088,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C451" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D451" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -13103,7 +13103,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -13112,7 +13112,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -13121,7 +13121,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -13130,7 +13130,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -13139,7 +13139,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -13148,7 +13148,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -13157,7 +13157,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -13166,7 +13166,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -13175,7 +13175,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -13184,7 +13184,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -13193,7 +13193,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -13202,13 +13202,13 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C463" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D463" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -13217,13 +13217,13 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C464" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D464" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -13232,13 +13232,13 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C465" t="s">
-        <v>1345</v>
+        <v>1700</v>
       </c>
       <c r="D465" t="s">
-        <v>1377</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -13247,13 +13247,13 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C466" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D466" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -13262,13 +13262,13 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C467" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D467" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -13277,13 +13277,13 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C468" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D468" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -13292,13 +13292,13 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C469" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D469" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -13307,13 +13307,13 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C470" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D470" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -13322,13 +13322,13 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C471" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D471" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -13337,13 +13337,13 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C472" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D472" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13352,13 +13352,13 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C473" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D473" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -13367,13 +13367,13 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C474" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D474" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -13382,13 +13382,13 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C475" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D475" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13397,13 +13397,13 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C476" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D476" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -13412,13 +13412,13 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C477" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D477" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -13427,13 +13427,13 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C478" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D478" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -13442,13 +13442,13 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C479" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D479" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -13457,13 +13457,13 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C480" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D480" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -13472,13 +13472,13 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C481" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="D481" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -13487,13 +13487,13 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C482" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D482" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -13502,13 +13502,13 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C483" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D483" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -13517,13 +13517,13 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C484" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D484" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -13532,13 +13532,13 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C485" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D485" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13547,13 +13547,13 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C486" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D486" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -13562,13 +13562,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C487" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D487" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -13577,13 +13577,13 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C488" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D488" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -13592,13 +13592,13 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C489" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D489" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -13607,13 +13607,13 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C490" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D490" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -13622,13 +13622,13 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C491" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D491" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -13637,13 +13637,13 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C492" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D492" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -13652,13 +13652,13 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C493" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D493" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13667,13 +13667,13 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C494" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D494" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13682,13 +13682,13 @@
         <v>492</v>
       </c>
       <c r="B495" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C495" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D495" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -13697,13 +13697,13 @@
         <v>493</v>
       </c>
       <c r="B496" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C496" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D496" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -13712,13 +13712,13 @@
         <v>494</v>
       </c>
       <c r="B497" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D497" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -13727,13 +13727,13 @@
         <v>495</v>
       </c>
       <c r="B498" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C498" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D498" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -13742,13 +13742,13 @@
         <v>496</v>
       </c>
       <c r="B499" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D499" t="s">
         <v>1432</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -13757,13 +13757,13 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D500" t="s">
         <v>1433</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13772,13 +13772,13 @@
         <v>498</v>
       </c>
       <c r="B501" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C501" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D501" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -13787,13 +13787,13 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C502" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D502" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -13802,13 +13802,13 @@
         <v>500</v>
       </c>
       <c r="B503" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C503" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D503" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -13817,13 +13817,13 @@
         <v>501</v>
       </c>
       <c r="B504" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C504" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D504" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13832,13 +13832,13 @@
         <v>502</v>
       </c>
       <c r="B505" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C505" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D505" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -13847,13 +13847,13 @@
         <v>503</v>
       </c>
       <c r="B506" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C506" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D506" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13862,13 +13862,13 @@
         <v>504</v>
       </c>
       <c r="B507" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C507" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D507" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13877,13 +13877,13 @@
         <v>505</v>
       </c>
       <c r="B508" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C508" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D508" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13892,13 +13892,13 @@
         <v>506</v>
       </c>
       <c r="B509" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C509" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D509" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -13907,13 +13907,13 @@
         <v>507</v>
       </c>
       <c r="B510" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C510" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D510" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -13922,13 +13922,13 @@
         <v>508</v>
       </c>
       <c r="B511" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C511" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D511" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -13937,13 +13937,13 @@
         <v>509</v>
       </c>
       <c r="B512" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C512" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D512" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -13952,13 +13952,13 @@
         <v>510</v>
       </c>
       <c r="B513" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C513" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D513" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
@@ -13967,13 +13967,13 @@
         <v>511</v>
       </c>
       <c r="B514" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C514" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D514" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
@@ -13982,13 +13982,13 @@
         <v>512</v>
       </c>
       <c r="B515" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C515" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D515" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
@@ -13997,13 +13997,13 @@
         <v>513</v>
       </c>
       <c r="B516" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C516" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D516" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
@@ -14012,13 +14012,13 @@
         <v>514</v>
       </c>
       <c r="B517" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C517" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D517" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
@@ -14027,13 +14027,13 @@
         <v>515</v>
       </c>
       <c r="B518" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C518" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D518" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -14042,13 +14042,13 @@
         <v>516</v>
       </c>
       <c r="B519" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C519" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D519" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
@@ -14057,13 +14057,13 @@
         <v>517</v>
       </c>
       <c r="B520" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C520" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D520" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
@@ -14072,13 +14072,13 @@
         <v>518</v>
       </c>
       <c r="B521" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C521" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D521" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
@@ -14087,13 +14087,13 @@
         <v>519</v>
       </c>
       <c r="B522" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C522" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D522" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14102,13 +14102,13 @@
         <v>520</v>
       </c>
       <c r="B523" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C523" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D523" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14117,13 +14117,13 @@
         <v>521</v>
       </c>
       <c r="B524" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C524" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D524" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
@@ -14132,13 +14132,13 @@
         <v>522</v>
       </c>
       <c r="B525" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C525" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D525" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
@@ -14147,13 +14147,13 @@
         <v>523</v>
       </c>
       <c r="B526" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C526" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D526" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
@@ -14162,13 +14162,13 @@
         <v>524</v>
       </c>
       <c r="B527" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="C527" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D527" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
@@ -14177,13 +14177,13 @@
         <v>525</v>
       </c>
       <c r="B528" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C528" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D528" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -14192,13 +14192,13 @@
         <v>526</v>
       </c>
       <c r="B529" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C529" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D529" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -14207,13 +14207,13 @@
         <v>527</v>
       </c>
       <c r="B530" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C530" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D530" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -14222,13 +14222,13 @@
         <v>528</v>
       </c>
       <c r="B531" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C531" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D531" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -14237,13 +14237,13 @@
         <v>529</v>
       </c>
       <c r="B532" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C532" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D532" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -14252,13 +14252,13 @@
         <v>530</v>
       </c>
       <c r="B533" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C533" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D533" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
@@ -14267,13 +14267,13 @@
         <v>531</v>
       </c>
       <c r="B534" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C534" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D534" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
@@ -14282,13 +14282,13 @@
         <v>532</v>
       </c>
       <c r="B535" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C535" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D535" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -14297,13 +14297,13 @@
         <v>533</v>
       </c>
       <c r="B536" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C536" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D536" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -14312,13 +14312,13 @@
         <v>534</v>
       </c>
       <c r="B537" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C537" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D537" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
@@ -14327,13 +14327,13 @@
         <v>535</v>
       </c>
       <c r="B538" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C538" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D538" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -14342,13 +14342,13 @@
         <v>536</v>
       </c>
       <c r="B539" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C539" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D539" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -14357,13 +14357,13 @@
         <v>537</v>
       </c>
       <c r="B540" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C540" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D540" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -14372,13 +14372,13 @@
         <v>538</v>
       </c>
       <c r="B541" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C541" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D541" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -14387,13 +14387,13 @@
         <v>539</v>
       </c>
       <c r="B542" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C542" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D542" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -14402,13 +14402,13 @@
         <v>540</v>
       </c>
       <c r="B543" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C543" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D543" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
@@ -14417,13 +14417,13 @@
         <v>541</v>
       </c>
       <c r="B544" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C544" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D544" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
@@ -14432,13 +14432,13 @@
         <v>542</v>
       </c>
       <c r="B545" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C545" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D545" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
@@ -14447,13 +14447,13 @@
         <v>543</v>
       </c>
       <c r="B546" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C546" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D546" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
@@ -14462,13 +14462,13 @@
         <v>544</v>
       </c>
       <c r="B547" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C547" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D547" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
@@ -14477,13 +14477,13 @@
         <v>545</v>
       </c>
       <c r="B548" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C548" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D548" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
@@ -14492,13 +14492,13 @@
         <v>546</v>
       </c>
       <c r="B549" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C549" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D549" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
@@ -14507,13 +14507,13 @@
         <v>547</v>
       </c>
       <c r="B550" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C550" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D550" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
@@ -14522,13 +14522,13 @@
         <v>548</v>
       </c>
       <c r="B551" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D551" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
@@ -14537,13 +14537,13 @@
         <v>549</v>
       </c>
       <c r="B552" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D552" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
@@ -14552,13 +14552,13 @@
         <v>550</v>
       </c>
       <c r="B553" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D553" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
@@ -14567,13 +14567,13 @@
         <v>551</v>
       </c>
       <c r="B554" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D554" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -14582,13 +14582,13 @@
         <v>552</v>
       </c>
       <c r="B555" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D555" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
@@ -14597,13 +14597,13 @@
         <v>553</v>
       </c>
       <c r="B556" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D556" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -14612,13 +14612,13 @@
         <v>554</v>
       </c>
       <c r="B557" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D557" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
@@ -14627,13 +14627,13 @@
         <v>555</v>
       </c>
       <c r="B558" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D558" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -14642,13 +14642,13 @@
         <v>556</v>
       </c>
       <c r="B559" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D559" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,13 +14657,13 @@
         <v>557</v>
       </c>
       <c r="B560" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D560" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
@@ -14672,13 +14672,13 @@
         <v>558</v>
       </c>
       <c r="B561" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D561" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -14687,13 +14687,13 @@
         <v>559</v>
       </c>
       <c r="B562" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D562" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -14702,13 +14702,13 @@
         <v>560</v>
       </c>
       <c r="B563" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D563" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -14717,13 +14717,13 @@
         <v>561</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D564" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
@@ -14732,13 +14732,13 @@
         <v>562</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D565" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
@@ -14747,13 +14747,13 @@
         <v>563</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D566" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
@@ -14762,13 +14762,13 @@
         <v>564</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="D567" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
@@ -14777,13 +14777,13 @@
         <v>565</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="D568" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -14792,13 +14792,13 @@
         <v>566</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D569" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
@@ -14807,13 +14807,13 @@
         <v>567</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="D570" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
@@ -14822,13 +14822,13 @@
         <v>568</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="D571" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
@@ -14837,13 +14837,13 @@
         <v>569</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D572" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
@@ -14852,13 +14852,13 @@
         <v>570</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D573" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
@@ -14867,13 +14867,13 @@
         <v>571</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D574" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
@@ -14882,13 +14882,13 @@
         <v>572</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D575" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
@@ -14897,13 +14897,13 @@
         <v>573</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="D576" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
@@ -14912,13 +14912,13 @@
         <v>574</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D577" t="s">
         <v>1679</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D577" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -14927,13 +14927,13 @@
         <v>575</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D578" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -14942,13 +14942,13 @@
         <v>576</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="D579" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -14957,13 +14957,13 @@
         <v>577</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C580" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D580" t="s">
         <v>1688</v>
-      </c>
-      <c r="D580" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -14972,13 +14972,13 @@
         <v>578</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="C581" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D581" t="s">
         <v>1689</v>
-      </c>
-      <c r="D581" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
@@ -14987,13 +14987,13 @@
         <v>579</v>
       </c>
       <c r="B582" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D582" t="s">
         <v>1698</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D582" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -15002,13 +15002,13 @@
         <v>580</v>
       </c>
       <c r="B583" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D583" t="s">
         <v>1699</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D583" t="s">
-        <v>1703</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC220EF-2D09-45DA-BEF5-28583D2ABA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98031AE7-716E-43F9-8DB9-EF9F7077E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1710">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5672,6 +5663,26 @@
   </si>
   <si>
     <t>Kill 10 zombies using zombie corpses</t>
+  </si>
+  <si>
+    <t>propInfo_purpleGarlic</t>
+  </si>
+  <si>
+    <t>propInfo_mint</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;薄荷&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n吃了感觉凉凉的\r\n使&lt;color=#00ff00&gt;紫皮大蒜&lt;/color&gt;的臭屁附带&lt;color=#00ff00&gt;8%减速效果&lt;/color&gt;，可叠加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Mint&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Recovery&lt;/color&gt;\r\nFeels cool after eating\r\nMakes the fart of &lt;color=#00ff00&gt;Purple Garlic&lt;/color&gt; have &lt;color=#00ff00&gt;8% Slowdown Effect&lt;/color&gt;, which can be stacked</t>
+  </si>
+  <si>
+    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s\r\n对屁中的僵尸造成{0}((1+植物学/25)*伤害%)伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple Garlic\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 HP per second&lt;/color&gt;\r\nAfter eating, you will fart constantly, feeling poisoned\r\n&lt;color=#00ff00&gt;Each fart will last 1s longer\r\nDeal {0}((1+Botany/25)*Damage%) damage to zombies in the fart&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -6055,11 +6066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F583"/>
+  <dimension ref="A1:F585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
+      <pane ySplit="3" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15011,6 +15022,36 @@
         <v>1699</v>
       </c>
     </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" cm="1">
+        <f t="array" ref="A584">ROW(584:584)-3</f>
+        <v>581</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" cm="1">
+        <f t="array" ref="A585">ROW(585:585)-3</f>
+        <v>582</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1707</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98031AE7-716E-43F9-8DB9-EF9F7077E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246F70F-BB1F-4658-9DA6-C4B7F78B9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1722">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -876,9 +885,6 @@
     <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
-  </si>
-  <si>
     <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
   </si>
   <si>
@@ -5678,11 +5684,56 @@
     <t>&lt;color=#0000ff&gt;Mint&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Max HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Recovery&lt;/color&gt;\r\nFeels cool after eating\r\nMakes the fart of &lt;color=#00ff00&gt;Purple Garlic&lt;/color&gt; have &lt;color=#00ff00&gt;8% Slowdown Effect&lt;/color&gt;, which can be stacked</t>
   </si>
   <si>
-    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s\r\n对屁中的僵尸造成{0}((1+植物学/25)*伤害%)伤害&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Purple Garlic\r\n&lt;color=#00ff00&gt;+5 Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 HP per second&lt;/color&gt;\r\nAfter eating, you will fart constantly, feeling poisoned\r\n&lt;color=#00ff00&gt;Each fart will last 1s longer\r\nDeal {0}((1+Botany/25)*Damage%) damage to zombies in the fart&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>propInfo_fireStar</t>
+  </si>
+  <si>
+    <t>propInfo_fireSeed</t>
+  </si>
+  <si>
+    <t>propInfo_fireBall</t>
+  </si>
+  <si>
+    <t>propInfo_fireElf</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害\r\n(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s\r\n对屁中的僵尸造成{0}((1+植物学/5)*伤害%)伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率）* 暴击伤害 ，冷却时间5s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率）* 暴击伤害 ，冷却时间4s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Flame to cause {0} damage (3 + Critical Rate) * Critical Damage , cooling time 4s&lt;/color&gt;\r\nThe flame can evolve into &lt;color=#9932CD&gt;fireball&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;fireball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 critical damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 critical rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon fireball to cause {0} damage (5 + critical rate)* critical damage , Cooldown time 3s&lt;/color&gt;\r\nThe fireball can evolve into &lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Fire Star\r\n&lt;color=#00ff00&gt;+2 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Fire Star to cause {0} damage (1 + Critical Rate) * Critical Damage, Cooldown time 5s&lt;/color&gt;\r\nFire Star can evolve into &lt;color=#0000ff&gt;Flame&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 50）火柱造成{1}伤害 （10+ 暴击率 * 2）* 暴击伤害 * 2 ，冷却时间2s&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Rate&lt;/color&gt;\r\nFire Spirit is the final evolution of flame\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + Critical Damage / 50) fire pillars to cause {1} damage (10 + Critical Rate * 2) * Critical Damage * 2, Cooldown time 2s&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6066,11 +6117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F585"/>
+  <dimension ref="A1:F589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C584" sqref="C584"/>
+      <pane ySplit="3" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H579" sqref="H579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6195,7 +6246,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -6291,7 +6342,7 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -6371,7 +6422,7 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -6435,7 +6486,7 @@
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -6752,13 +6803,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C43" t="s">
         <v>1286</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1287</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1288</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -6840,7 +6891,7 @@
         <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E47" t="s">
         <v>48</v>
@@ -6859,7 +6910,7 @@
         <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D48" t="s">
         <v>192</v>
@@ -6925,10 +6976,10 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D51" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
@@ -7016,7 +7067,7 @@
         <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
@@ -7057,7 +7108,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D57" t="s">
         <v>206</v>
@@ -7079,10 +7130,10 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D58" t="s">
         <v>1470</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1471</v>
       </c>
       <c r="E58" t="s">
         <v>59</v>
@@ -7101,7 +7152,7 @@
         <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D59" t="s">
         <v>207</v>
@@ -7456,7 +7507,7 @@
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E75" t="s">
         <v>76</v>
@@ -7475,7 +7526,7 @@
         <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -7566,7 +7617,7 @@
         <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E80" t="s">
         <v>81</v>
@@ -7604,7 +7655,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C82" t="s">
         <v>152</v>
@@ -7626,13 +7677,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C83" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D83" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7641,13 +7692,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
         <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7656,13 +7707,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
         <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -7671,13 +7722,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D86" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7686,13 +7737,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
         <v>229</v>
       </c>
       <c r="D87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7701,13 +7752,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
         <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -7716,13 +7767,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
         <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7731,13 +7782,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
         <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7746,13 +7797,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
         <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7761,13 +7812,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
         <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -7776,13 +7827,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
         <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -7791,13 +7842,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
         <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -7806,13 +7857,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
         <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -7821,13 +7872,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
         <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -7836,13 +7887,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -7851,13 +7902,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
         <v>240</v>
       </c>
       <c r="D98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -7866,13 +7917,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
         <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -7881,13 +7932,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
         <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -7896,13 +7947,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
         <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -7911,13 +7962,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -7926,13 +7977,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
         <v>244</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -7941,13 +7992,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
         <v>245</v>
       </c>
       <c r="D104" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -7956,13 +8007,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
         <v>246</v>
       </c>
       <c r="D105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -7971,13 +8022,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
         <v>247</v>
       </c>
       <c r="D106" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -7986,13 +8037,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
         <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8001,13 +8052,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" t="s">
         <v>249</v>
       </c>
       <c r="D108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8016,13 +8067,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
         <v>250</v>
       </c>
       <c r="D109" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8031,13 +8082,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110" t="s">
         <v>251</v>
       </c>
       <c r="D110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8046,13 +8097,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" t="s">
         <v>252</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,13 +8112,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C112" t="s">
         <v>253</v>
       </c>
       <c r="D112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8076,13 +8127,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
         <v>254</v>
       </c>
       <c r="D113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8091,13 +8142,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
         <v>255</v>
       </c>
       <c r="D114" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8106,13 +8157,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
         <v>256</v>
       </c>
       <c r="D115" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8121,13 +8172,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
         <v>257</v>
       </c>
       <c r="D116" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,13 +8187,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
         <v>258</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8151,13 +8202,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
+        <v>350</v>
+      </c>
+      <c r="D118" t="s">
         <v>351</v>
-      </c>
-      <c r="D118" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8166,13 +8217,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s">
+        <v>352</v>
+      </c>
+      <c r="D119" t="s">
         <v>353</v>
-      </c>
-      <c r="D119" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,13 +8232,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>1712</v>
       </c>
       <c r="D120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8196,13 +8247,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D121" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8211,13 +8262,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D122" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8226,13 +8277,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D123" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8241,13 +8292,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D124" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8256,13 +8307,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8271,13 +8322,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D126" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8286,13 +8337,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D127" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,13 +8352,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8316,13 +8367,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D129" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8331,13 +8382,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D130" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8346,13 +8397,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D131" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8361,13 +8412,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D132" t="s">
         <v>1403</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8376,13 +8427,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8391,13 +8442,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D134" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8406,13 +8457,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D135" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8421,13 +8472,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -8436,13 +8487,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D137" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8451,13 +8502,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8466,13 +8517,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D139" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8481,13 +8532,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D140" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -8496,13 +8547,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" t="s">
         <v>356</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>357</v>
-      </c>
-      <c r="D141" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8511,13 +8562,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" t="s">
         <v>359</v>
       </c>
-      <c r="C142" t="s">
-        <v>360</v>
-      </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8526,13 +8577,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" t="s">
         <v>361</v>
       </c>
-      <c r="C143" t="s">
-        <v>362</v>
-      </c>
       <c r="D143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8541,13 +8592,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C144" t="s">
         <v>365</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>366</v>
-      </c>
-      <c r="D144" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8556,13 +8607,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
+        <v>525</v>
+      </c>
+      <c r="C145" t="s">
         <v>526</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>527</v>
-      </c>
-      <c r="D145" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8571,13 +8622,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" t="s">
         <v>368</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>369</v>
-      </c>
-      <c r="D146" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8586,13 +8637,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" t="s">
         <v>387</v>
       </c>
-      <c r="C147" t="s">
-        <v>388</v>
-      </c>
       <c r="D147" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8601,13 +8652,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
+        <v>398</v>
+      </c>
+      <c r="C148" t="s">
         <v>399</v>
       </c>
-      <c r="C148" t="s">
-        <v>400</v>
-      </c>
       <c r="D148" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8616,13 +8667,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
+        <v>400</v>
+      </c>
+      <c r="C149" t="s">
         <v>401</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>402</v>
-      </c>
-      <c r="D149" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8631,13 +8682,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
+        <v>455</v>
+      </c>
+      <c r="C150" t="s">
         <v>456</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>457</v>
-      </c>
-      <c r="D150" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8646,13 +8697,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
+        <v>370</v>
+      </c>
+      <c r="C151" t="s">
         <v>371</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>372</v>
-      </c>
-      <c r="D151" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8661,13 +8712,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C152" t="s">
+        <v>373</v>
+      </c>
+      <c r="D152" t="s">
         <v>374</v>
-      </c>
-      <c r="D152" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,13 +8727,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
+        <v>376</v>
+      </c>
+      <c r="C153" t="s">
         <v>377</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>378</v>
-      </c>
-      <c r="D153" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8691,13 +8742,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" t="s">
         <v>380</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>381</v>
-      </c>
-      <c r="D154" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8706,13 +8757,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
+        <v>392</v>
+      </c>
+      <c r="C155" t="s">
         <v>393</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>394</v>
-      </c>
-      <c r="D155" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8721,13 +8772,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
+        <v>395</v>
+      </c>
+      <c r="C156" t="s">
         <v>396</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>397</v>
-      </c>
-      <c r="D156" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -8736,13 +8787,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
+        <v>382</v>
+      </c>
+      <c r="C157" t="s">
         <v>383</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>384</v>
-      </c>
-      <c r="D157" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8751,13 +8802,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C158" t="s">
+        <v>991</v>
+      </c>
+      <c r="D158" t="s">
         <v>1270</v>
-      </c>
-      <c r="C158" t="s">
-        <v>992</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8766,13 +8817,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C159" t="s">
+        <v>390</v>
+      </c>
+      <c r="D159" t="s">
         <v>391</v>
-      </c>
-      <c r="D159" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -8781,13 +8832,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
+        <v>404</v>
+      </c>
+      <c r="C160" t="s">
+        <v>430</v>
+      </c>
+      <c r="D160" t="s">
         <v>405</v>
-      </c>
-      <c r="C160" t="s">
-        <v>431</v>
-      </c>
-      <c r="D160" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -8796,13 +8847,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" t="s">
+        <v>429</v>
+      </c>
+      <c r="D161" t="s">
         <v>407</v>
-      </c>
-      <c r="C161" t="s">
-        <v>430</v>
-      </c>
-      <c r="D161" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -8811,13 +8862,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C162" t="s">
+        <v>841</v>
+      </c>
+      <c r="D162" t="s">
         <v>842</v>
-      </c>
-      <c r="D162" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -8826,13 +8877,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
+        <v>409</v>
+      </c>
+      <c r="C163" t="s">
+        <v>431</v>
+      </c>
+      <c r="D163" t="s">
         <v>410</v>
-      </c>
-      <c r="C163" t="s">
-        <v>432</v>
-      </c>
-      <c r="D163" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -8841,13 +8892,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C164" t="s">
+        <v>411</v>
+      </c>
+      <c r="D164" t="s">
         <v>412</v>
-      </c>
-      <c r="D164" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -8856,13 +8907,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
+        <v>415</v>
+      </c>
+      <c r="C165" t="s">
+        <v>414</v>
+      </c>
+      <c r="D165" t="s">
         <v>416</v>
-      </c>
-      <c r="C165" t="s">
-        <v>415</v>
-      </c>
-      <c r="D165" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -8871,13 +8922,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C166" t="s">
+        <v>417</v>
+      </c>
+      <c r="D166" t="s">
         <v>418</v>
-      </c>
-      <c r="D166" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -8886,13 +8937,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
+        <v>421</v>
+      </c>
+      <c r="C167" t="s">
         <v>422</v>
       </c>
-      <c r="C167" t="s">
-        <v>423</v>
-      </c>
       <c r="D167" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -8901,13 +8952,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C168" t="s">
+        <v>423</v>
+      </c>
+      <c r="D168" t="s">
         <v>424</v>
-      </c>
-      <c r="D168" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -8916,13 +8967,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C169" t="s">
+        <v>426</v>
+      </c>
+      <c r="D169" t="s">
         <v>427</v>
-      </c>
-      <c r="D169" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,13 +8982,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170" t="s">
         <v>433</v>
       </c>
-      <c r="C170" t="s">
-        <v>434</v>
-      </c>
       <c r="D170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -8946,13 +8997,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" t="s">
         <v>435</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>436</v>
-      </c>
-      <c r="D171" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -8961,13 +9012,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
+        <v>437</v>
+      </c>
+      <c r="C172" t="s">
         <v>438</v>
       </c>
-      <c r="C172" t="s">
-        <v>439</v>
-      </c>
       <c r="D172" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -8976,13 +9027,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D173" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -8991,13 +9042,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
+        <v>441</v>
+      </c>
+      <c r="C174" t="s">
         <v>442</v>
       </c>
-      <c r="C174" t="s">
-        <v>443</v>
-      </c>
       <c r="D174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9006,13 +9057,13 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D175" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9021,13 +9072,13 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C176" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9036,13 +9087,13 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
+        <v>451</v>
+      </c>
+      <c r="D177" t="s">
         <v>452</v>
-      </c>
-      <c r="D177" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9051,13 +9102,13 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
+        <v>459</v>
+      </c>
+      <c r="C178" t="s">
+        <v>458</v>
+      </c>
+      <c r="D178" t="s">
         <v>460</v>
-      </c>
-      <c r="C178" t="s">
-        <v>459</v>
-      </c>
-      <c r="D178" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9066,13 +9117,13 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D179" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9081,13 +9132,13 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
+        <v>463</v>
+      </c>
+      <c r="C180" t="s">
         <v>464</v>
       </c>
-      <c r="C180" t="s">
-        <v>465</v>
-      </c>
       <c r="D180" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9096,13 +9147,13 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C181" t="s">
+        <v>467</v>
+      </c>
+      <c r="D181" t="s">
         <v>468</v>
-      </c>
-      <c r="D181" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9111,13 +9162,13 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C182" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D182" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9126,13 +9177,13 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C183" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D183" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9141,13 +9192,13 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C184" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D184" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9156,13 +9207,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C185" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D185" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9171,13 +9222,13 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C186" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D186" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9186,13 +9237,13 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9201,13 +9252,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C188" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D188" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9216,13 +9267,13 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C189" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D189" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9231,13 +9282,13 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D190" t="s">
         <v>1294</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -9246,13 +9297,13 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C191" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D191" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9261,13 +9312,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C192" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -9276,13 +9327,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C193" t="s">
+        <v>474</v>
+      </c>
+      <c r="D193" t="s">
         <v>475</v>
-      </c>
-      <c r="D193" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9291,13 +9342,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C194" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D194" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9306,13 +9357,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C195" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D195" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9321,13 +9372,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C196" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D196" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9336,13 +9387,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C197" t="s">
+        <v>504</v>
+      </c>
+      <c r="D197" t="s">
         <v>505</v>
-      </c>
-      <c r="D197" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9351,13 +9402,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C198" t="s">
+        <v>507</v>
+      </c>
+      <c r="D198" t="s">
         <v>508</v>
-      </c>
-      <c r="D198" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9366,13 +9417,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C199" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D199" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9381,13 +9432,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C200" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D200" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9396,13 +9447,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C201" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D201" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9411,13 +9462,13 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
+        <v>519</v>
+      </c>
+      <c r="C202" t="s">
         <v>520</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>521</v>
-      </c>
-      <c r="D202" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9426,13 +9477,13 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C203" t="s">
+        <v>522</v>
+      </c>
+      <c r="D203" t="s">
         <v>523</v>
-      </c>
-      <c r="D203" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9441,13 +9492,13 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
+        <v>528</v>
+      </c>
+      <c r="C204" t="s">
         <v>529</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>530</v>
-      </c>
-      <c r="D204" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9456,13 +9507,13 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
+        <v>531</v>
+      </c>
+      <c r="C205" t="s">
         <v>532</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>533</v>
-      </c>
-      <c r="D205" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9471,13 +9522,13 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
+        <v>534</v>
+      </c>
+      <c r="C206" t="s">
         <v>535</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>536</v>
-      </c>
-      <c r="D206" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9486,13 +9537,13 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C207" t="s">
+        <v>537</v>
+      </c>
+      <c r="D207" t="s">
         <v>538</v>
-      </c>
-      <c r="D207" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9501,13 +9552,13 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C208" t="s">
+        <v>540</v>
+      </c>
+      <c r="D208" t="s">
         <v>541</v>
-      </c>
-      <c r="D208" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9516,13 +9567,13 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
+        <v>543</v>
+      </c>
+      <c r="C209" t="s">
         <v>544</v>
       </c>
-      <c r="C209" t="s">
-        <v>545</v>
-      </c>
       <c r="D209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9531,13 +9582,13 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C210" t="s">
+        <v>545</v>
+      </c>
+      <c r="D210" t="s">
         <v>546</v>
-      </c>
-      <c r="D210" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9546,13 +9597,13 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C211" t="s">
+        <v>788</v>
+      </c>
+      <c r="D211" t="s">
         <v>789</v>
-      </c>
-      <c r="D211" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9561,13 +9612,13 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
+        <v>561</v>
+      </c>
+      <c r="C212" t="s">
         <v>562</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>563</v>
-      </c>
-      <c r="D212" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9576,13 +9627,13 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C213" t="s">
+        <v>564</v>
+      </c>
+      <c r="D213" t="s">
         <v>565</v>
-      </c>
-      <c r="D213" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9591,13 +9642,13 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C214" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D214" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -9606,13 +9657,13 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C215" t="s">
+        <v>567</v>
+      </c>
+      <c r="D215" t="s">
         <v>568</v>
-      </c>
-      <c r="D215" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -9621,13 +9672,13 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C216" t="s">
+        <v>569</v>
+      </c>
+      <c r="D216" t="s">
         <v>570</v>
-      </c>
-      <c r="D216" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9636,13 +9687,13 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C217" t="s">
+        <v>843</v>
+      </c>
+      <c r="D217" t="s">
         <v>844</v>
-      </c>
-      <c r="D217" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9651,13 +9702,13 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C218" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D218" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9666,13 +9717,13 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C219" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D219" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9681,13 +9732,13 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C220" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D220" t="s">
         <v>1302</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -9696,13 +9747,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C221" t="s">
+        <v>571</v>
+      </c>
+      <c r="D221" t="s">
         <v>572</v>
-      </c>
-      <c r="D221" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -9711,13 +9762,13 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C222" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D222" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -9726,13 +9777,13 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C223" t="s">
+        <v>573</v>
+      </c>
+      <c r="D223" t="s">
         <v>574</v>
-      </c>
-      <c r="D223" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -9741,13 +9792,13 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C224" t="s">
+        <v>575</v>
+      </c>
+      <c r="D224" t="s">
         <v>576</v>
-      </c>
-      <c r="D224" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -9756,13 +9807,13 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C225" t="s">
+        <v>577</v>
+      </c>
+      <c r="D225" t="s">
         <v>578</v>
-      </c>
-      <c r="D225" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -9771,13 +9822,13 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C226" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D226" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -9786,13 +9837,13 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C227" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D227" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -9801,13 +9852,13 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C228" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D228" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -9816,13 +9867,13 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D229" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -9831,13 +9882,13 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C230" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D230" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -9846,13 +9897,13 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C231" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D231" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -9861,13 +9912,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D232" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -9876,13 +9927,13 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C233" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D233" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9891,13 +9942,13 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C234" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9906,13 +9957,13 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C235" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9921,13 +9972,13 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C236" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9936,13 +9987,13 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9951,13 +10002,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C238" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9966,13 +10017,13 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C239" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9981,13 +10032,13 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C240" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9996,13 +10047,13 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C241" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10011,13 +10062,13 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C242" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10026,13 +10077,13 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C243" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10041,13 +10092,13 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C244" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10056,13 +10107,13 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C245" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10071,13 +10122,13 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C246" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10086,13 +10137,13 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C247" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10101,13 +10152,13 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C248" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10116,13 +10167,13 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C249" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10131,13 +10182,13 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C250" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10146,13 +10197,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C251" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10161,13 +10212,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10176,13 +10227,13 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C253" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10191,13 +10242,13 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C254" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10206,13 +10257,13 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C255" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10221,13 +10272,13 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C256" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10236,13 +10287,13 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C257" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10251,13 +10302,13 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C258" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10266,13 +10317,13 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C259" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10281,13 +10332,13 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C260" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10296,13 +10347,13 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C261" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10311,13 +10362,13 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C262" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10326,13 +10377,13 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C263" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10341,13 +10392,13 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C264" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10356,13 +10407,13 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C265" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10371,13 +10422,13 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C266" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10386,13 +10437,13 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C267" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10401,13 +10452,13 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C268" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10416,13 +10467,13 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C269" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10431,13 +10482,13 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C270" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10446,13 +10497,13 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C271" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10461,13 +10512,13 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C272" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10476,13 +10527,13 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C273" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10491,13 +10542,13 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C274" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10506,13 +10557,13 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C275" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10521,13 +10572,13 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C276" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10536,13 +10587,13 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C277" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10551,13 +10602,13 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C278" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10566,13 +10617,13 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C279" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10581,13 +10632,13 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C280" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10596,13 +10647,13 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C281" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10611,13 +10662,13 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C282" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10626,13 +10677,13 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C283" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10641,13 +10692,13 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C284" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10656,13 +10707,13 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C285" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10671,13 +10722,13 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C286" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10686,13 +10737,13 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C287" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10701,13 +10752,13 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C288" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10716,13 +10767,13 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C289" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10731,13 +10782,13 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C290" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10746,13 +10797,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C291" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10761,13 +10812,13 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C292" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10776,13 +10827,13 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C293" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10791,13 +10842,13 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C294" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10806,13 +10857,13 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C295" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10821,13 +10872,13 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C296" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10836,13 +10887,13 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C297" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10851,13 +10902,13 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C298" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10866,13 +10917,13 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
+        <v>848</v>
+      </c>
+      <c r="C299" t="s">
         <v>849</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" s="3" t="s">
         <v>850</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10881,13 +10932,13 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
+        <v>851</v>
+      </c>
+      <c r="C300" t="s">
         <v>852</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -10896,13 +10947,13 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
+        <v>878</v>
+      </c>
+      <c r="C301" t="s">
+        <v>877</v>
+      </c>
+      <c r="D301" t="s">
         <v>879</v>
-      </c>
-      <c r="C301" t="s">
-        <v>878</v>
-      </c>
-      <c r="D301" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -10911,13 +10962,13 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D302" t="s">
         <v>881</v>
-      </c>
-      <c r="D302" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -10926,13 +10977,13 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
+        <v>882</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" t="s">
         <v>884</v>
-      </c>
-      <c r="D303" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10941,13 +10992,13 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10956,13 +11007,13 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10971,13 +11022,13 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -10986,13 +11037,13 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -11001,13 +11052,13 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -11016,13 +11067,13 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -11031,13 +11082,13 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D310" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -11046,13 +11097,13 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D311" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -11061,13 +11112,13 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D312" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -11076,13 +11127,13 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D313" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -11091,13 +11142,13 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D314" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -11106,13 +11157,13 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D315" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -11121,13 +11172,13 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D316" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -11136,13 +11187,13 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D317" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -11151,13 +11202,13 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
+        <v>904</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" t="s">
         <v>906</v>
-      </c>
-      <c r="D318" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -11166,13 +11217,13 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
+        <v>901</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" t="s">
         <v>903</v>
-      </c>
-      <c r="D319" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -11181,13 +11232,13 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D320" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -11196,13 +11247,13 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D321" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -11211,13 +11262,13 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D322" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -11226,13 +11277,13 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
+        <v>913</v>
+      </c>
+      <c r="C323" t="s">
         <v>914</v>
       </c>
-      <c r="C323" t="s">
-        <v>915</v>
-      </c>
       <c r="D323" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -11241,13 +11292,13 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
+        <v>919</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" t="s">
         <v>921</v>
-      </c>
-      <c r="D324" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -11256,13 +11307,13 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D325" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -11271,13 +11322,13 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D326" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -11286,13 +11337,13 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D327" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -11301,13 +11352,13 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D328" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -11316,13 +11367,13 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C329" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D329" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -11331,13 +11382,13 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
+        <v>937</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" t="s">
         <v>939</v>
-      </c>
-      <c r="D330" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -11346,13 +11397,13 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
+        <v>940</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="D331" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -11361,13 +11412,13 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
+        <v>942</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="D332" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -11376,13 +11427,13 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D333" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -11391,13 +11442,13 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D334" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -11406,13 +11457,13 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
+        <v>952</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="D335" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -11421,13 +11472,13 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
+        <v>954</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>956</v>
-      </c>
       <c r="D336" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -11436,13 +11487,13 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C337" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D337" t="s">
         <v>959</v>
-      </c>
-      <c r="D337" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -11451,13 +11502,13 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
+        <v>961</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="D338" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -11466,13 +11517,13 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
+        <v>963</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="D339" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -11481,13 +11532,13 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C340" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D340" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -11496,13 +11547,13 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D341" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -11511,13 +11562,13 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
+        <v>973</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="D342" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -11526,13 +11577,13 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
+        <v>975</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>977</v>
-      </c>
       <c r="D343" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -11541,13 +11592,13 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D344" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -11556,13 +11607,13 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D345" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -11571,13 +11622,13 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D346" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -11586,13 +11637,13 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
+        <v>994</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="D347" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -11601,13 +11652,13 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" t="s">
         <v>1305</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -11616,13 +11667,13 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C349" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D349" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -11631,13 +11682,13 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D350" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -11646,13 +11697,13 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C351" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D351" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -11661,13 +11712,13 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C352" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D352" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -11676,13 +11727,13 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C353" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D353" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -11691,13 +11742,13 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D354" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -11706,13 +11757,13 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C355" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D355" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -11721,13 +11772,13 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C356" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D356" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -11736,13 +11787,13 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C357" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D357" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -11751,13 +11802,13 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C358" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D358" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -11766,13 +11817,13 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C359" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D359" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -11781,10 +11832,10 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C360" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D360" t="s">
         <v>49</v>
@@ -11796,13 +11847,13 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C361" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D361" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -11811,13 +11862,13 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C362" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D362" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -11826,13 +11877,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C363" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D363" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -11841,13 +11892,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C364" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D364" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -11856,13 +11907,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C365" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D365" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -11871,13 +11922,13 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C366" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D366" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -11886,13 +11937,13 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C367" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D367" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -11901,13 +11952,13 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C368" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D368" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -11916,13 +11967,13 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C369" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D369" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -11931,13 +11982,13 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C370" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D370" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -11946,13 +11997,13 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C371" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D371" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -11961,13 +12012,13 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C372" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D372" t="s">
         <v>1422</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -11976,13 +12027,13 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C373" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D373" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -11991,13 +12042,13 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C374" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D374" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -12006,13 +12057,13 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C375" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D375" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -12021,13 +12072,13 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C376" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D376" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -12036,13 +12087,13 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C377" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D377" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -12051,13 +12102,13 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C378" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D378" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -12066,13 +12117,13 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C379" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D379" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -12081,13 +12132,13 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C380" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D380" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -12096,13 +12147,13 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C381" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D381" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -12111,13 +12162,13 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C382" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D382" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -12126,13 +12177,13 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C383" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D383" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -12141,13 +12192,13 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C384" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D384" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -12156,13 +12207,13 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C385" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D385" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -12171,13 +12222,13 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C386" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D386" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -12186,13 +12237,13 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D387" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -12201,13 +12252,13 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D388" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -12216,13 +12267,13 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D389" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -12231,13 +12282,13 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D390" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -12246,13 +12297,13 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D391" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -12261,13 +12312,13 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D392" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -12276,13 +12327,13 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D393" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -12291,13 +12342,13 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D394" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -12306,13 +12357,13 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D395" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -12321,13 +12372,13 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D396" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -12336,13 +12387,13 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D397" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -12351,13 +12402,13 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D398" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -12366,13 +12417,13 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D399" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -12381,13 +12432,13 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D400" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -12396,13 +12447,13 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D401" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -12411,13 +12462,13 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D402" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -12426,13 +12477,13 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D403" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -12441,13 +12492,13 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D404" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -12456,13 +12507,13 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D405" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -12471,13 +12522,13 @@
         <v>403</v>
       </c>
       <c r="B406" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D406" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -12486,13 +12537,13 @@
         <v>404</v>
       </c>
       <c r="B407" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D407" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -12501,13 +12552,13 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D408" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -12516,13 +12567,13 @@
         <v>406</v>
       </c>
       <c r="B409" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D409" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -12531,13 +12582,13 @@
         <v>407</v>
       </c>
       <c r="B410" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C410" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D410" t="s">
         <v>1272</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -12546,13 +12597,13 @@
         <v>408</v>
       </c>
       <c r="B411" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D411" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -12561,13 +12612,13 @@
         <v>409</v>
       </c>
       <c r="B412" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D412" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -12576,13 +12627,13 @@
         <v>410</v>
       </c>
       <c r="B413" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D413" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -12591,13 +12642,13 @@
         <v>411</v>
       </c>
       <c r="B414" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D414" t="s">
         <v>1702</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -12606,13 +12657,13 @@
         <v>412</v>
       </c>
       <c r="B415" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D415" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -12621,13 +12672,13 @@
         <v>413</v>
       </c>
       <c r="B416" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D416" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -12636,13 +12687,13 @@
         <v>414</v>
       </c>
       <c r="B417" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D417" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -12651,13 +12702,13 @@
         <v>415</v>
       </c>
       <c r="B418" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D418" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -12666,13 +12717,13 @@
         <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D419" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -12681,13 +12732,13 @@
         <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D420" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -12696,13 +12747,13 @@
         <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D421" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -12711,13 +12762,13 @@
         <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D422" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12726,13 +12777,13 @@
         <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D423" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12741,13 +12792,13 @@
         <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D424" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12756,7 +12807,7 @@
         <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C425" s="1"/>
     </row>
@@ -12766,7 +12817,7 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12775,7 +12826,7 @@
         <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12784,7 +12835,7 @@
         <v>425</v>
       </c>
       <c r="B428" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12793,7 +12844,7 @@
         <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12802,7 +12853,7 @@
         <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12811,7 +12862,7 @@
         <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12820,7 +12871,7 @@
         <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -12829,13 +12880,13 @@
         <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C433" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D433" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -12844,13 +12895,13 @@
         <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C434" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D434" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12859,13 +12910,13 @@
         <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C435" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D435" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12874,13 +12925,13 @@
         <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C436" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D436" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12889,13 +12940,13 @@
         <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C437" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D437" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12904,13 +12955,13 @@
         <v>435</v>
       </c>
       <c r="B438" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C438" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D438" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12919,13 +12970,13 @@
         <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C439" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D439" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12934,13 +12985,13 @@
         <v>437</v>
       </c>
       <c r="B440" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C440" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D440" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12949,13 +13000,13 @@
         <v>438</v>
       </c>
       <c r="B441" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C441" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D441" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12964,13 +13015,13 @@
         <v>439</v>
       </c>
       <c r="B442" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C442" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D442" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12979,13 +13030,13 @@
         <v>440</v>
       </c>
       <c r="B443" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C443" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D443" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12994,13 +13045,13 @@
         <v>441</v>
       </c>
       <c r="B444" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C444" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D444" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -13009,13 +13060,13 @@
         <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C445" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D445" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -13024,13 +13075,13 @@
         <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C446" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D446" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -13039,13 +13090,13 @@
         <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C447" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D447" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -13054,13 +13105,13 @@
         <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C448" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D448" t="s">
         <v>1405</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -13069,13 +13120,13 @@
         <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C449" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D449" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -13084,13 +13135,13 @@
         <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C450" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D450" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -13099,13 +13150,13 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C451" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D451" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -13114,7 +13165,7 @@
         <v>449</v>
       </c>
       <c r="B452" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -13123,7 +13174,7 @@
         <v>450</v>
       </c>
       <c r="B453" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -13132,7 +13183,7 @@
         <v>451</v>
       </c>
       <c r="B454" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -13141,7 +13192,7 @@
         <v>452</v>
       </c>
       <c r="B455" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -13150,7 +13201,7 @@
         <v>453</v>
       </c>
       <c r="B456" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -13159,7 +13210,7 @@
         <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -13168,7 +13219,7 @@
         <v>455</v>
       </c>
       <c r="B458" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -13177,7 +13228,7 @@
         <v>456</v>
       </c>
       <c r="B459" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -13186,7 +13237,7 @@
         <v>457</v>
       </c>
       <c r="B460" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -13195,7 +13246,7 @@
         <v>458</v>
       </c>
       <c r="B461" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -13204,7 +13255,7 @@
         <v>459</v>
       </c>
       <c r="B462" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -13213,13 +13264,13 @@
         <v>460</v>
       </c>
       <c r="B463" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C463" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D463" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -13228,13 +13279,13 @@
         <v>461</v>
       </c>
       <c r="B464" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C464" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D464" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -13243,13 +13294,13 @@
         <v>462</v>
       </c>
       <c r="B465" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C465" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D465" t="s">
         <v>1700</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -13258,13 +13309,13 @@
         <v>463</v>
       </c>
       <c r="B466" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C466" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D466" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -13273,13 +13324,13 @@
         <v>464</v>
       </c>
       <c r="B467" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C467" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D467" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -13288,13 +13339,13 @@
         <v>465</v>
       </c>
       <c r="B468" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C468" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D468" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -13303,13 +13354,13 @@
         <v>466</v>
       </c>
       <c r="B469" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C469" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D469" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -13318,13 +13369,13 @@
         <v>467</v>
       </c>
       <c r="B470" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C470" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D470" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -13333,13 +13384,13 @@
         <v>468</v>
       </c>
       <c r="B471" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C471" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D471" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -13348,13 +13399,13 @@
         <v>469</v>
       </c>
       <c r="B472" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C472" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D472" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13363,13 +13414,13 @@
         <v>470</v>
       </c>
       <c r="B473" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C473" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D473" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -13378,13 +13429,13 @@
         <v>471</v>
       </c>
       <c r="B474" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C474" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D474" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -13393,13 +13444,13 @@
         <v>472</v>
       </c>
       <c r="B475" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C475" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D475" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13408,13 +13459,13 @@
         <v>473</v>
       </c>
       <c r="B476" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C476" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D476" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -13423,13 +13474,13 @@
         <v>474</v>
       </c>
       <c r="B477" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C477" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D477" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -13438,13 +13489,13 @@
         <v>475</v>
       </c>
       <c r="B478" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C478" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D478" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -13453,13 +13504,13 @@
         <v>476</v>
       </c>
       <c r="B479" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C479" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D479" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -13468,13 +13519,13 @@
         <v>477</v>
       </c>
       <c r="B480" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C480" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D480" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -13483,13 +13534,13 @@
         <v>478</v>
       </c>
       <c r="B481" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C481" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D481" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -13498,13 +13549,13 @@
         <v>479</v>
       </c>
       <c r="B482" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C482" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D482" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -13513,13 +13564,13 @@
         <v>480</v>
       </c>
       <c r="B483" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C483" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D483" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -13528,13 +13579,13 @@
         <v>481</v>
       </c>
       <c r="B484" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C484" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D484" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -13543,13 +13594,13 @@
         <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C485" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D485" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13558,13 +13609,13 @@
         <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C486" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D486" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -13573,13 +13624,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C487" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D487" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -13588,13 +13639,13 @@
         <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C488" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D488" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -13603,13 +13654,13 @@
         <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C489" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D489" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -13618,13 +13669,13 @@
         <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C490" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D490" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -13633,13 +13684,13 @@
         <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C491" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D491" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -13648,13 +13699,13 @@
         <v>489</v>
       </c>
       <c r="B492" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C492" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D492" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -13663,13 +13714,13 @@
         <v>490</v>
       </c>
       <c r="B493" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C493" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D493" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13678,13 +13729,13 @@
         <v>491</v>
       </c>
       <c r="B494" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C494" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D494" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13693,13 +13744,13 @@
         <v>492</v>
       </c>
       <c r="B495" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D495" t="s">
         <v>1408</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -13708,13 +13759,13 @@
         <v>493</v>
       </c>
       <c r="B496" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C496" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D496" t="s">
         <v>1424</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -13723,13 +13774,13 @@
         <v>494</v>
       </c>
       <c r="B497" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D497" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -13738,13 +13789,13 @@
         <v>495</v>
       </c>
       <c r="B498" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C498" t="s">
         <v>1412</v>
       </c>
-      <c r="C498" t="s">
-        <v>1413</v>
-      </c>
       <c r="D498" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -13753,13 +13804,13 @@
         <v>496</v>
       </c>
       <c r="B499" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C499" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D499" t="s">
         <v>1431</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -13768,13 +13819,13 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C500" t="s">
         <v>1429</v>
       </c>
-      <c r="C500" t="s">
-        <v>1430</v>
-      </c>
       <c r="D500" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13783,13 +13834,13 @@
         <v>498</v>
       </c>
       <c r="B501" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C501" t="s">
         <v>1434</v>
       </c>
-      <c r="C501" t="s">
-        <v>1435</v>
-      </c>
       <c r="D501" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -13798,13 +13849,13 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C502" t="s">
         <v>1436</v>
       </c>
-      <c r="C502" t="s">
-        <v>1437</v>
-      </c>
       <c r="D502" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -13813,13 +13864,13 @@
         <v>500</v>
       </c>
       <c r="B503" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C503" t="s">
         <v>1438</v>
       </c>
-      <c r="C503" t="s">
-        <v>1439</v>
-      </c>
       <c r="D503" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -13828,13 +13879,13 @@
         <v>501</v>
       </c>
       <c r="B504" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C504" t="s">
         <v>1440</v>
       </c>
-      <c r="C504" t="s">
-        <v>1441</v>
-      </c>
       <c r="D504" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13843,13 +13894,13 @@
         <v>502</v>
       </c>
       <c r="B505" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C505" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D505" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -13858,13 +13909,13 @@
         <v>503</v>
       </c>
       <c r="B506" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C506" t="s">
         <v>1444</v>
       </c>
-      <c r="C506" t="s">
-        <v>1445</v>
-      </c>
       <c r="D506" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13873,13 +13924,13 @@
         <v>504</v>
       </c>
       <c r="B507" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C507" t="s">
         <v>1448</v>
       </c>
-      <c r="C507" t="s">
-        <v>1449</v>
-      </c>
       <c r="D507" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13888,13 +13939,13 @@
         <v>505</v>
       </c>
       <c r="B508" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C508" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D508" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13903,13 +13954,13 @@
         <v>506</v>
       </c>
       <c r="B509" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C509" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D509" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -13918,13 +13969,13 @@
         <v>507</v>
       </c>
       <c r="B510" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C510" t="s">
         <v>1451</v>
       </c>
-      <c r="C510" t="s">
-        <v>1452</v>
-      </c>
       <c r="D510" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -13933,13 +13984,13 @@
         <v>508</v>
       </c>
       <c r="B511" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C511" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D511" t="s">
         <v>1517</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -13948,13 +13999,13 @@
         <v>509</v>
       </c>
       <c r="B512" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C512" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D512" t="s">
         <v>1519</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -13963,13 +14014,13 @@
         <v>510</v>
       </c>
       <c r="B513" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C513" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D513" t="s">
         <v>1521</v>
-      </c>
-      <c r="D513" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
@@ -13978,13 +14029,13 @@
         <v>511</v>
       </c>
       <c r="B514" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C514" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D514" t="s">
         <v>1523</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
@@ -13993,13 +14044,13 @@
         <v>512</v>
       </c>
       <c r="B515" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C515" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D515" t="s">
         <v>1525</v>
-      </c>
-      <c r="D515" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
@@ -14008,13 +14059,13 @@
         <v>513</v>
       </c>
       <c r="B516" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C516" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D516" t="s">
         <v>1527</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
@@ -14023,13 +14074,13 @@
         <v>514</v>
       </c>
       <c r="B517" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C517" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D517" t="s">
         <v>1529</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
@@ -14038,13 +14089,13 @@
         <v>515</v>
       </c>
       <c r="B518" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C518" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D518" t="s">
         <v>1531</v>
-      </c>
-      <c r="D518" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -14053,13 +14104,13 @@
         <v>516</v>
       </c>
       <c r="B519" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C519" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D519" t="s">
         <v>1533</v>
-      </c>
-      <c r="D519" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
@@ -14068,13 +14119,13 @@
         <v>517</v>
       </c>
       <c r="B520" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C520" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D520" t="s">
         <v>1535</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
@@ -14083,13 +14134,13 @@
         <v>518</v>
       </c>
       <c r="B521" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C521" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D521" t="s">
         <v>1537</v>
-      </c>
-      <c r="D521" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
@@ -14098,13 +14149,13 @@
         <v>519</v>
       </c>
       <c r="B522" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C522" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D522" t="s">
         <v>1539</v>
-      </c>
-      <c r="D522" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14113,13 +14164,13 @@
         <v>520</v>
       </c>
       <c r="B523" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C523" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D523" t="s">
         <v>1541</v>
-      </c>
-      <c r="D523" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14128,13 +14179,13 @@
         <v>521</v>
       </c>
       <c r="B524" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C524" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D524" t="s">
         <v>1543</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
@@ -14143,13 +14194,13 @@
         <v>522</v>
       </c>
       <c r="B525" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C525" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D525" t="s">
         <v>1545</v>
-      </c>
-      <c r="D525" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
@@ -14158,13 +14209,13 @@
         <v>523</v>
       </c>
       <c r="B526" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C526" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D526" t="s">
         <v>1547</v>
-      </c>
-      <c r="D526" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
@@ -14173,13 +14224,13 @@
         <v>524</v>
       </c>
       <c r="B527" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C527" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D527" t="s">
         <v>1549</v>
-      </c>
-      <c r="D527" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
@@ -14188,13 +14239,13 @@
         <v>525</v>
       </c>
       <c r="B528" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C528" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D528" t="s">
         <v>1551</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -14203,13 +14254,13 @@
         <v>526</v>
       </c>
       <c r="B529" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C529" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D529" t="s">
         <v>1553</v>
-      </c>
-      <c r="D529" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -14218,13 +14269,13 @@
         <v>527</v>
       </c>
       <c r="B530" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C530" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D530" t="s">
         <v>1555</v>
-      </c>
-      <c r="D530" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -14233,13 +14284,13 @@
         <v>528</v>
       </c>
       <c r="B531" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C531" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D531" t="s">
         <v>1557</v>
-      </c>
-      <c r="D531" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -14248,13 +14299,13 @@
         <v>529</v>
       </c>
       <c r="B532" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C532" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D532" t="s">
         <v>1559</v>
-      </c>
-      <c r="D532" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -14263,13 +14314,13 @@
         <v>530</v>
       </c>
       <c r="B533" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C533" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D533" t="s">
         <v>1561</v>
-      </c>
-      <c r="D533" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
@@ -14278,13 +14329,13 @@
         <v>531</v>
       </c>
       <c r="B534" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C534" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D534" t="s">
         <v>1563</v>
-      </c>
-      <c r="D534" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
@@ -14293,13 +14344,13 @@
         <v>532</v>
       </c>
       <c r="B535" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C535" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D535" t="s">
         <v>1565</v>
-      </c>
-      <c r="D535" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -14308,13 +14359,13 @@
         <v>533</v>
       </c>
       <c r="B536" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C536" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D536" t="s">
         <v>1567</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -14323,13 +14374,13 @@
         <v>534</v>
       </c>
       <c r="B537" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C537" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D537" t="s">
         <v>1569</v>
-      </c>
-      <c r="D537" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
@@ -14338,13 +14389,13 @@
         <v>535</v>
       </c>
       <c r="B538" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C538" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D538" t="s">
         <v>1571</v>
-      </c>
-      <c r="D538" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -14353,13 +14404,13 @@
         <v>536</v>
       </c>
       <c r="B539" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C539" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D539" t="s">
         <v>1573</v>
-      </c>
-      <c r="D539" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -14368,13 +14419,13 @@
         <v>537</v>
       </c>
       <c r="B540" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C540" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D540" t="s">
         <v>1575</v>
-      </c>
-      <c r="D540" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -14383,13 +14434,13 @@
         <v>538</v>
       </c>
       <c r="B541" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C541" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D541" t="s">
         <v>1577</v>
-      </c>
-      <c r="D541" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -14398,13 +14449,13 @@
         <v>539</v>
       </c>
       <c r="B542" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C542" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D542" t="s">
         <v>1579</v>
-      </c>
-      <c r="D542" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -14413,13 +14464,13 @@
         <v>540</v>
       </c>
       <c r="B543" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C543" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D543" t="s">
         <v>1581</v>
-      </c>
-      <c r="D543" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
@@ -14428,13 +14479,13 @@
         <v>541</v>
       </c>
       <c r="B544" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C544" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D544" t="s">
         <v>1583</v>
-      </c>
-      <c r="D544" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
@@ -14443,13 +14494,13 @@
         <v>542</v>
       </c>
       <c r="B545" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C545" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D545" t="s">
         <v>1585</v>
-      </c>
-      <c r="D545" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
@@ -14458,13 +14509,13 @@
         <v>543</v>
       </c>
       <c r="B546" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C546" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D546" t="s">
         <v>1587</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
@@ -14473,13 +14524,13 @@
         <v>544</v>
       </c>
       <c r="B547" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C547" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D547" t="s">
         <v>1589</v>
-      </c>
-      <c r="D547" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
@@ -14488,13 +14539,13 @@
         <v>545</v>
       </c>
       <c r="B548" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C548" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D548" t="s">
         <v>1591</v>
-      </c>
-      <c r="D548" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
@@ -14503,13 +14554,13 @@
         <v>546</v>
       </c>
       <c r="B549" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C549" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D549" t="s">
         <v>1593</v>
-      </c>
-      <c r="D549" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
@@ -14518,13 +14569,13 @@
         <v>547</v>
       </c>
       <c r="B550" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C550" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D550" t="s">
         <v>1595</v>
-      </c>
-      <c r="D550" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
@@ -14533,13 +14584,13 @@
         <v>548</v>
       </c>
       <c r="B551" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D551" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
@@ -14548,13 +14599,13 @@
         <v>549</v>
       </c>
       <c r="B552" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D552" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
@@ -14563,13 +14614,13 @@
         <v>550</v>
       </c>
       <c r="B553" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D553" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
@@ -14578,13 +14629,13 @@
         <v>551</v>
       </c>
       <c r="B554" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D554" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -14593,13 +14644,13 @@
         <v>552</v>
       </c>
       <c r="B555" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D555" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
@@ -14608,13 +14659,13 @@
         <v>553</v>
       </c>
       <c r="B556" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D556" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -14623,13 +14674,13 @@
         <v>554</v>
       </c>
       <c r="B557" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D557" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
@@ -14638,13 +14689,13 @@
         <v>555</v>
       </c>
       <c r="B558" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D558" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -14653,13 +14704,13 @@
         <v>556</v>
       </c>
       <c r="B559" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D559" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -14668,13 +14719,13 @@
         <v>557</v>
       </c>
       <c r="B560" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D560" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
@@ -14683,13 +14734,13 @@
         <v>558</v>
       </c>
       <c r="B561" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D561" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -14698,13 +14749,13 @@
         <v>559</v>
       </c>
       <c r="B562" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D562" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -14713,13 +14764,13 @@
         <v>560</v>
       </c>
       <c r="B563" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D563" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -14728,13 +14779,13 @@
         <v>561</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D564" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
@@ -14743,13 +14794,13 @@
         <v>562</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D565" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
@@ -14758,13 +14809,13 @@
         <v>563</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D566" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
@@ -14773,13 +14824,13 @@
         <v>564</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D567" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
@@ -14788,13 +14839,13 @@
         <v>565</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D568" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -14803,13 +14854,13 @@
         <v>566</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D569" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
@@ -14818,13 +14869,13 @@
         <v>567</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D570" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
@@ -14833,13 +14884,13 @@
         <v>568</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D571" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
@@ -14848,13 +14899,13 @@
         <v>569</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D572" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
@@ -14863,13 +14914,13 @@
         <v>570</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D573" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
@@ -14878,13 +14929,13 @@
         <v>571</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D574" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
@@ -14893,13 +14944,13 @@
         <v>572</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D575" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
@@ -14908,13 +14959,13 @@
         <v>573</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C576" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D576" t="s">
         <v>1673</v>
-      </c>
-      <c r="D576" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
@@ -14923,13 +14974,13 @@
         <v>574</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="C577" s="1" t="s">
-        <v>1676</v>
-      </c>
       <c r="D577" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -14938,13 +14989,13 @@
         <v>575</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D578" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -14953,13 +15004,13 @@
         <v>576</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D579" t="s">
         <v>1682</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D579" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -14968,13 +15019,13 @@
         <v>577</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C580" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D580" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -14983,13 +15034,13 @@
         <v>578</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C581" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D581" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
@@ -14998,13 +15049,13 @@
         <v>579</v>
       </c>
       <c r="B582" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C582" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D582" t="s">
         <v>1697</v>
-      </c>
-      <c r="D582" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -15013,13 +15064,13 @@
         <v>580</v>
       </c>
       <c r="B583" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C583" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="C583" s="1" t="s">
-        <v>1696</v>
-      </c>
       <c r="D583" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
@@ -15028,13 +15079,13 @@
         <v>581</v>
       </c>
       <c r="B584" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C584" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="D584" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -15043,13 +15094,73 @@
         <v>582</v>
       </c>
       <c r="B585" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C585" t="s">
         <v>1705</v>
       </c>
-      <c r="C585" t="s">
+      <c r="D585" t="s">
         <v>1706</v>
       </c>
-      <c r="D585" t="s">
-        <v>1707</v>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" cm="1">
+        <f t="array" ref="A586">ROW(586:586)-3</f>
+        <v>583</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" cm="1">
+        <f t="array" ref="A587">ROW(587:587)-3</f>
+        <v>584</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" cm="1">
+        <f t="array" ref="A588">ROW(588:588)-3</f>
+        <v>585</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" cm="1">
+        <f t="array" ref="A589">ROW(589:589)-3</f>
+        <v>586</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1721</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246F70F-BB1F-4658-9DA6-C4B7F78B9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641F08F-B4A2-40B3-B6A9-D99F34DDB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1734">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5734,13 +5725,49 @@
   <si>
     <t>&lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Rate&lt;/color&gt;\r\nFire Spirit is the final evolution of flame\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + Critical Damage / 50) fire pillars to cause {1} damage (10 + Critical Rate * 2) * Critical Damage * 2, Cooldown time 2s&lt;/color&gt;\r\n</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Drop\r\n&lt;color=#00ff00&gt;+2 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (1 + HP Regeneration / 5 + HP / 6), cooldown time 8s\r\nSlow down (proportional: HP Regeneration) and knock back (strength: HP) enemies&lt;/color&gt;\r\nWater Drop can evolve into &lt;color=#0000ff&gt;Water Bead&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Water Bead&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (3+ HP Regeneration / 5 + HP / 6), cooling time 6s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater droplets can evolve into &lt;color=#9932CD&gt;Water Splash&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Water Splash&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 health recovery&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;Summon Water Splash Charge to cause {0} damage (5 + health recovery / 5 + health value / 6), cooling time 4s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater Splash can evolve into &lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 health recovery&lt;/color&gt;\r\nWater Spirit is the final evolution of Water\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + health / 100) water streams to cause {1} damage (10 + health recovery / 2.5 + health / 3), cooling time 2s&lt;/color&gt;\r\nWho is going to repair the dam!</t>
+  </si>
+  <si>
+    <t>propInfo_waterDroplet</t>
+  </si>
+  <si>
+    <t>propInfo_waterBead</t>
+  </si>
+  <si>
+    <t>propInfo_waterSplash</t>
+  </si>
+  <si>
+    <t>propInfo_waterElf</t>
+  </si>
+  <si>
+    <t>水滴\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水滴冲锋造成{0}伤害 （1 + 生命恢复 / 5 + 生命值 / 6），冷却时间8s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水滴可以进化为&lt;color=#0000ff&gt;水珠&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水珠&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水珠冲锋造成{0}伤害 （3+ 生命恢复 / 5 + 生命值 / 6），冷却时间6s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水珠可以进化为&lt;color=#9932CD&gt;水花&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;召唤水花冲锋造成{0}伤害 （5 + 生命恢复 / 5 + 生命值 / 6），冷却时间4s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水花可以进化为&lt;color=#ff0000&gt;水精灵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;水精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20生命恢复&lt;/color&gt;\r\n水精灵是水的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 生命值 / 100）水流造成{1}伤害 （10 + 生命恢复 / 2.5 + 生命值 / 3），冷却时间2s&lt;/color&gt;\r\n大坝谁修哈！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5808,6 +5835,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5830,12 +5864,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6117,11 +6152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F589"/>
+  <dimension ref="A1:F593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H579" sqref="H579"/>
+      <selection pane="bottomLeft" activeCell="E601" sqref="E601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15163,6 +15198,66 @@
         <v>1721</v>
       </c>
     </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" cm="1">
+        <f t="array" ref="A590">ROW(590:590)-3</f>
+        <v>587</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" cm="1">
+        <f t="array" ref="A591">ROW(591:591)-3</f>
+        <v>588</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" cm="1">
+        <f t="array" ref="A592">ROW(592:592)-3</f>
+        <v>589</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" cm="1">
+        <f t="array" ref="A593">ROW(593:593)-3</f>
+        <v>590</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641F08F-B4A2-40B3-B6A9-D99F34DDB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD3B5B3-483E-4C4E-9840-BED24305437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1746">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5761,6 +5770,45 @@
   </si>
   <si>
     <t>&lt;color=#ff0000&gt;水精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20生命恢复&lt;/color&gt;\r\n水精灵是水的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 生命值 / 100）水流造成{1}伤害 （10 + 生命恢复 / 2.5 + 生命值 / 3），冷却时间2s&lt;/color&gt;\r\n大坝谁修哈！</t>
+  </si>
+  <si>
+    <t>propInfo_darkCloud</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;乌云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1护甲&lt;/color&gt;\r\n正在下雨的乌云，随时会降下闪电\r\n&lt;color=#00ff00&gt;召唤乌云，在周围游走，造成{0}范围伤害 （5 + 肾上腺素 / 5）* 暴击伤害 ，冷却时间6s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Dark Cloud&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunlight&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Armor&lt;/color&gt;\r\nDark cloud that is raining, lightning may fall at any time\r\n&lt;color=#00ff00&gt;Summon dark cloud, wander around, causing {0} area damage (5 + Adrenaline / 5) * Critical Damage, cooling time 6s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propInfo_vampireScepter</t>
+  </si>
+  <si>
+    <t>吸血鬼权杖\r\n蕴含着巨大黑暗魔法的权杖\r\n&lt;color=#ff0000&gt;需要生命能量激活魔法，扣除50%最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;每击杀4只僵尸增加1点最大生命值&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Scepter\r\nA scepter containing great dark magic\r\n&lt;color=#ff0000&gt;Life energy is required to activate magic, deducting 50% of the maximum health value&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Each time 4 zombies are killed, 1 point of maximum health value is increased&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>propInfo_alloyHelmet</t>
+  </si>
+  <si>
+    <t>propInfo_alloyEye</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钛合金头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;\r\n非常坚硬的头盔，使我不惧头顶伤害\r\n&lt;color=#00ff00&gt;坚硬的头盔不惧投篮僵尸的篮球，但是会被篮球造成伤害了&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钛合金眼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n使我的眼神更加犀利，不惧天上的僵尸\r\n&lt;color=#00ff00&gt;能够正常攻击到气球僵尸了&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=# 0000ff&gt;Titanium alloy helmet&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+4 armor&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+10 maximum health&lt;/color&gt;\r\n&lt;color=# ff0000&gt;-5 range&lt;/color&gt;\r\n A very hard helmet that makes me not afraid of head injuries \r\n&lt;color=# 00ff00&gt;A hard helmet that is not afraid of shooting a stiff basketball, but can be injured by the basketball&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=# 0000ff&gt;Titanium alloy eyes&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+10 range&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+2 critical strike rate&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+2 armor&lt;/color&gt;\r\n&lt;color=# ff0000&gt;-5 speed&lt;/color&gt;\r\n This makes my eyes sharper and more fearless of zombies in the sky.&lt;/color=# 00ff00&gt;I can attack balloon zombies normally.&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -5839,6 +5887,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6152,11 +6201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F593"/>
+  <dimension ref="A1:F597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E601" sqref="E601"/>
+      <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15258,6 +15307,66 @@
         <v>1725</v>
       </c>
     </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" cm="1">
+        <f t="array" ref="A594">ROW(594:594)-3</f>
+        <v>591</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" cm="1">
+        <f t="array" ref="A595">ROW(595:595)-3</f>
+        <v>592</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" cm="1">
+        <f t="array" ref="A596">ROW(596:596)-3</f>
+        <v>593</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" cm="1">
+        <f t="array" ref="A597">ROW(597:597)-3</f>
+        <v>594</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1745</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD3B5B3-483E-4C4E-9840-BED24305437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C991654-0BE8-4FB6-BFB3-9FA14BA2623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1749">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5809,6 +5800,16 @@
   </si>
   <si>
     <t>&lt;color=# 0000ff&gt;Titanium alloy eyes&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+10 range&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+2 critical strike rate&lt;/color&gt;\r\n&lt;color=# 00ff00&gt;+2 armor&lt;/color&gt;\r\n&lt;color=# ff0000&gt;-5 speed&lt;/color&gt;\r\n This makes my eyes sharper and more fearless of zombies in the sky.&lt;/color=# 00ff00&gt;I can attack balloon zombies normally.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>propInfo_deathGod</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;死神&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20最大生命值&lt;/color&gt;\r\n献祭生命来召唤死神！！\r\n&lt;color=#00ff00&gt;当前生命值大于 50% 自动释放，消耗当前血量30%， 造成范围伤害 （消耗的血量 * 10） \r\n被该伤害击杀的僵尸灵魂将被收割，每个灵魂增加1最大生命值\r\n每攻击到1个目标恢复（消耗的血量 / 6）血量&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Death&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Maximum Health&lt;/color&gt;\r\nSacrifice your life to summon the Death!! \r\n&lt;color=#00ff00&gt;Automatically released when current health is greater than 50%, consuming 30% of current health and causing area damage (consumed health * 10) \r\nThe souls of zombies killed by this damage will be harvested, and each soul will increase 1 maximum health\r\nRestore (consumed health / 6) health for each target attacked&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -6201,11 +6202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F597"/>
+  <dimension ref="A1:F598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
+      <selection pane="bottomLeft" activeCell="C602" sqref="C602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15367,6 +15368,21 @@
         <v>1745</v>
       </c>
     </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" cm="1">
+        <f t="array" ref="A598">ROW(598:598)-3</f>
+        <v>595</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1748</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C991654-0BE8-4FB6-BFB3-9FA14BA2623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F948EF-3A0A-4A19-B4FB-E82911418F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1758">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5810,6 +5819,39 @@
   </si>
   <si>
     <t>&lt;color=#0000ff&gt;Death&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Maximum Health&lt;/color&gt;\r\nSacrifice your life to summon the Death!! \r\n&lt;color=#00ff00&gt;Automatically released when current health is greater than 50%, consuming 30% of current health and causing area damage (consumed health * 10) \r\nThe souls of zombies killed by this damage will be harvested, and each soul will increase 1 maximum health\r\nRestore (consumed health / 6) health for each target attacked&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>propInfo_pistol</t>
+  </si>
+  <si>
+    <t>propInfo_ak69</t>
+  </si>
+  <si>
+    <t>propInfo_gatling</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1幸运&lt;/color&gt;\r\n一把ak69步枪，突突突！\r\n&lt;color=#00ff00&gt;将一个手枪变为ak69,连续发射3颗子弹造成{0}（3 + 力量） * 伤害，冷却 4s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;加特林&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4速度&lt;/color&gt;\r\n冒蓝火的加特林，连续发射子弹！\r\n&lt;color=#00ff00&gt;将一个ak69变为加特林,连续发射5颗子弹造成{0}（5 + 力量） * 伤害 冷却3s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Luck&lt;/color&gt;\r\nAn ak69 rifle, bang bang bang! \r\n&lt;color=#00ff00&gt;Change a pistol into an AK69, fire 3 bullets continuously to deal {0}(3 + Strength) * damage, cooldown 4s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Gatling&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Speed&lt;/color&gt;\r\nGatling with blue flames, fires bullets continuously! \r\n&lt;color=#00ff00&gt;Change an AK69 into a Gatling, fire 5 bullets continuously to deal{0} (5 + Strength) * damage, cooldown 3s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4伤害&lt;/color&gt;\r\n一把小手枪，可以发射子弹\r\n&lt;color=#00ff00&gt;召唤手枪发射子弹造成{0}（1 + 力量 / 2） * 伤害 冷却5s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Damage&lt;/color&gt;\r\nA small pistol that can fire bullets\r\n&lt;color=#00ff00&gt;Summon a pistol that fires bullets that deal{0} (1 + Strength / 2) * Damage Cooling down 5s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6202,11 +6244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F598"/>
+  <dimension ref="A1:F601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C602" sqref="C602"/>
+      <selection pane="bottomLeft" activeCell="D601" sqref="D601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15383,6 +15425,51 @@
         <v>1748</v>
       </c>
     </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" cm="1">
+        <f t="array" ref="A599">ROW(599:599)-3</f>
+        <v>596</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" cm="1">
+        <f t="array" ref="A600">ROW(600:600)-3</f>
+        <v>597</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" cm="1">
+        <f t="array" ref="A601">ROW(601:601)-3</f>
+        <v>598</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1755</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F948EF-3A0A-4A19-B4FB-E82911418F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F11DDA-EF32-430D-AC91-312577B56A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1761">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5852,6 +5852,17 @@
   <si>
     <t>Pistol\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Damage&lt;/color&gt;\r\nA small pistol that can fire bullets\r\n&lt;color=#00ff00&gt;Summon a pistol that fires bullets that deal{0} (1 + Strength / 2) * Damage Cooling down 5s&lt;/color&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_closeAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close attack</t>
   </si>
 </sst>
 </file>
@@ -6244,11 +6255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F601"/>
+  <dimension ref="A1:F602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D601" sqref="D601"/>
+      <selection pane="bottomLeft" activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15470,6 +15481,21 @@
         <v>1755</v>
       </c>
     </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" cm="1">
+        <f t="array" ref="A602">ROW(602:602)-3</f>
+        <v>599</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1760</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F11DDA-EF32-430D-AC91-312577B56A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C5FC0-1B50-4AB3-BC5D-DF949F422F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -5814,13 +5805,6 @@
     <t>propInfo_deathGod</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;死神&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20最大生命值&lt;/color&gt;\r\n献祭生命来召唤死神！！\r\n&lt;color=#00ff00&gt;当前生命值大于 50% 自动释放，消耗当前血量30%， 造成范围伤害 （消耗的血量 * 10） \r\n被该伤害击杀的僵尸灵魂将被收割，每个灵魂增加1最大生命值\r\n每攻击到1个目标恢复（消耗的血量 / 6）血量&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Death&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Maximum Health&lt;/color&gt;\r\nSacrifice your life to summon the Death!! \r\n&lt;color=#00ff00&gt;Automatically released when current health is greater than 50%, consuming 30% of current health and causing area damage (consumed health * 10) \r\nThe souls of zombies killed by this damage will be harvested, and each soul will increase 1 maximum health\r\nRestore (consumed health / 6) health for each target attacked&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>propInfo_pistol</t>
   </si>
   <si>
@@ -5863,6 +5847,14 @@
   </si>
   <si>
     <t>Close attack</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;死神&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20最大生命值&lt;/color&gt;\r\n献祭生命来召唤死神！！\r\n&lt;color=#00ff00&gt;当前生命值大于 50% 自动释放，消耗当前血量30%， 造成范围伤害 （消耗的血量 * 5） \r\n被该伤害击杀的僵尸灵魂将被收割，每个灵魂增加1最大生命值\r\n每攻击到1个目标恢复（消耗的血量 / 6）血量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;每个波次开始需要献祭10%最大生命值给死神！且幸运永远为6&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Death&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Maximum Health&lt;/color&gt;\r\nSacrifice your life to summon the Death! ! \r\n&lt;color=#00ff00&gt;When the current health is greater than 50%, it will be automatically released, consuming 30% of the current health and causing range damage (consumed health * 5) \r\nThe souls of zombies killed by this damage will be harvested, and each soul will increase 1 maximum health\r\nEach attack will restore (consumed health / 6) health&lt;/color&gt;\r\n&lt;color=#ff0000&gt;At the beginning of each wave, you need to sacrifice 10% of your maximum health to the god of death! And your luck is always 6&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6259,7 +6251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B602" sqref="B602"/>
+      <selection pane="bottomLeft" activeCell="D607" sqref="D607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15430,10 +15422,10 @@
         <v>1746</v>
       </c>
       <c r="C598" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="D598" t="s">
-        <v>1748</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
@@ -15442,13 +15434,13 @@
         <v>596</v>
       </c>
       <c r="B599" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C599" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D599" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
@@ -15457,13 +15449,13 @@
         <v>597</v>
       </c>
       <c r="B600" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C600" t="s">
         <v>1750</v>
       </c>
-      <c r="C600" t="s">
+      <c r="D600" t="s">
         <v>1752</v>
-      </c>
-      <c r="D600" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -15472,13 +15464,13 @@
         <v>598</v>
       </c>
       <c r="B601" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C601" t="s">
         <v>1751</v>
       </c>
-      <c r="C601" t="s">
+      <c r="D601" t="s">
         <v>1753</v>
-      </c>
-      <c r="D601" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
@@ -15487,13 +15479,13 @@
         <v>599</v>
       </c>
       <c r="B602" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D602" t="s">
         <v>1758</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1760</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C5FC0-1B50-4AB3-BC5D-DF949F422F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960836D-AA2B-4D43-A188-58000FD2BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1764">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5854,6 +5854,16 @@
   </si>
   <si>
     <t>&lt;color=#0000ff&gt;Death&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Critical Hit Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20 Maximum Health&lt;/color&gt;\r\nSacrifice your life to summon the Death! ! \r\n&lt;color=#00ff00&gt;When the current health is greater than 50%, it will be automatically released, consuming 30% of the current health and causing range damage (consumed health * 5) \r\nThe souls of zombies killed by this damage will be harvested, and each soul will increase 1 maximum health\r\nEach attack will restore (consumed health / 6) health&lt;/color&gt;\r\n&lt;color=#ff0000&gt;At the beginning of each wave, you need to sacrifice 10% of your maximum health to the god of death! And your luck is always 6&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The next wave of zombies</t>
+  </si>
+  <si>
+    <t>下一波将出现的僵尸类型</t>
+  </si>
+  <si>
+    <t>nextzombieInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6247,11 +6257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F602"/>
+  <dimension ref="A1:F603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D607" sqref="D607"/>
+      <selection pane="bottomLeft" activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15488,6 +15498,21 @@
         <v>1758</v>
       </c>
     </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603" cm="1">
+        <f t="array" ref="A603">ROW(603:603)-3</f>
+        <v>600</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960836D-AA2B-4D43-A188-58000FD2BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B439CCC-7837-44C4-9BCA-04407A054835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1767">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5766,10 +5766,6 @@
     <t>propInfo_darkCloud</t>
   </si>
   <si>
-    <t>&lt;color=#9932CD&gt;乌云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1护甲&lt;/color&gt;\r\n正在下雨的乌云，随时会降下闪电\r\n&lt;color=#00ff00&gt;召唤乌云，在周围游走，造成{0}范围伤害 （5 + 肾上腺素 / 5）* 暴击伤害 ，冷却时间6s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#9932CD&gt;Dark Cloud&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100 Sunlight&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2 Luck&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Armor&lt;/color&gt;\r\nDark cloud that is raining, lightning may fall at any time\r\n&lt;color=#00ff00&gt;Summon dark cloud, wander around, causing {0} area damage (5 + Adrenaline / 5) * Critical Damage, cooling time 6s&lt;/color&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5814,30 +5810,6 @@
     <t>propInfo_gatling</t>
   </si>
   <si>
-    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1幸运&lt;/color&gt;\r\n一把ak69步枪，突突突！\r\n&lt;color=#00ff00&gt;将一个手枪变为ak69,连续发射3颗子弹造成{0}（3 + 力量） * 伤害，冷却 4s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;加特林&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4速度&lt;/color&gt;\r\n冒蓝火的加特林，连续发射子弹！\r\n&lt;color=#00ff00&gt;将一个ak69变为加特林,连续发射5颗子弹造成{0}（5 + 力量） * 伤害 冷却3s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Luck&lt;/color&gt;\r\nAn ak69 rifle, bang bang bang! \r\n&lt;color=#00ff00&gt;Change a pistol into an AK69, fire 3 bullets continuously to deal {0}(3 + Strength) * damage, cooldown 4s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Gatling&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Speed&lt;/color&gt;\r\nGatling with blue flames, fires bullets continuously! \r\n&lt;color=#00ff00&gt;Change an AK69 into a Gatling, fire 5 bullets continuously to deal{0} (5 + Strength) * damage, cooldown 3s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手枪\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4伤害&lt;/color&gt;\r\n一把小手枪，可以发射子弹\r\n&lt;color=#00ff00&gt;召唤手枪发射子弹造成{0}（1 + 力量 / 2） * 伤害 冷却5s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pistol\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Damage&lt;/color&gt;\r\nA small pistol that can fire bullets\r\n&lt;color=#00ff00&gt;Summon a pistol that fires bullets that deal{0} (1 + Strength / 2) * Damage Cooling down 5s&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mainmenu_closeAttack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5864,6 +5836,45 @@
   </si>
   <si>
     <t>nextzombieInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4伤害&lt;/color&gt;\r\n一把小手枪，可以发射子弹\r\n&lt;color=#00ff00&gt;召唤手枪发射子弹造成{0}（1 + 力量 / 2） * 伤害 冷却3s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Attack Speed&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Damage&lt;/color&gt;\r\nA small pistol that can fire bullets\r\n&lt;color=#00ff00&gt;Summon a pistol that fires bullets that deal{0} (1 + Strength / 2) * Damage Cooling down 3s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1幸运&lt;/color&gt;\r\n一把ak69步枪，突突突！\r\n&lt;color=#00ff00&gt;将一个手枪变为ak69,连续发射3颗子弹造成{0}（3 + 力量） * 伤害，冷却 2s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Hit Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Attack Speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Range&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Damage&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1 Luck&lt;/color&gt;\r\nAn ak69 rifle, bang bang bang! \r\n&lt;color=#00ff00&gt;Change a pistol into an AK69, fire 3 bullets continuously to deal {0}(3 + Strength) * damage, cooldown 2s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;加特林&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4速度&lt;/color&gt;\r\n冒蓝火的加特林，连续发射子弹！\r\n&lt;color=#00ff00&gt;将一个ak69变为加特林,连续发射5颗子弹造成{0}（5 + 力量） * 伤害 冷却1s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Gatling&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 attack speed&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Strength&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Adrenaline&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Armor&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4 Speed&lt;/color&gt;\r\nGatling with blue flames, fires bullets continuously! \r\n&lt;color=#00ff00&gt;Change an AK69 into a Gatling, fire 5 bullets continuously to deal{0} (5 + Strength) * damage, cooldown 1s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;乌云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1护甲&lt;/color&gt;\r\n正在下雨的乌云，随时会降下闪电\r\n&lt;color=#00ff00&gt;召唤乌云，在周围游走，造成{0}范围伤害 （5 + 肾上腺素 / 5）* 暴击伤害 ，冷却时间4s&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage Statistics</t>
+  </si>
+  <si>
+    <t>damageStatistics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害统计</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6257,11 +6268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F603"/>
+  <dimension ref="A1:F604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B603" sqref="B603"/>
+      <pane ySplit="3" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C608" sqref="C608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15372,10 +15383,10 @@
         <v>1734</v>
       </c>
       <c r="C594" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D594" t="s">
         <v>1735</v>
-      </c>
-      <c r="D594" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -15384,13 +15395,13 @@
         <v>592</v>
       </c>
       <c r="B595" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C595" t="s">
         <v>1737</v>
       </c>
-      <c r="C595" t="s">
+      <c r="D595" t="s">
         <v>1738</v>
-      </c>
-      <c r="D595" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
@@ -15399,13 +15410,13 @@
         <v>593</v>
       </c>
       <c r="B596" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D596" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
@@ -15414,13 +15425,13 @@
         <v>594</v>
       </c>
       <c r="B597" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D597" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -15429,13 +15440,13 @@
         <v>595</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C598" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="D598" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
@@ -15444,13 +15455,13 @@
         <v>596</v>
       </c>
       <c r="B599" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C599" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D599" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
@@ -15459,13 +15470,13 @@
         <v>597</v>
       </c>
       <c r="B600" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C600" t="s">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="D600" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -15474,13 +15485,13 @@
         <v>598</v>
       </c>
       <c r="B601" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C601" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="D601" t="s">
-        <v>1753</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
@@ -15489,13 +15500,13 @@
         <v>599</v>
       </c>
       <c r="B602" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="C602" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="D602" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
@@ -15504,13 +15515,28 @@
         <v>600</v>
       </c>
       <c r="B603" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="C603" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="D603" t="s">
-        <v>1761</v>
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" cm="1">
+        <f t="array" ref="A604">ROW(604:604)-3</f>
+        <v>601</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B439CCC-7837-44C4-9BCA-04407A054835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E130762-3919-4307-8184-A0EC95437DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,14 +70,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1893">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5876,6 +5885,428 @@
   <si>
     <t>伤害统计</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics_dave</t>
+  </si>
+  <si>
+    <t>疯狂戴夫甩出的平底锅攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics2</t>
+  </si>
+  <si>
+    <t>DamageStatistics3</t>
+  </si>
+  <si>
+    <t>DamageStatistics4</t>
+  </si>
+  <si>
+    <t>音乐会套装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics6</t>
+  </si>
+  <si>
+    <t>DamageStatistics7</t>
+  </si>
+  <si>
+    <t>DamageStatistics8</t>
+  </si>
+  <si>
+    <t>豌豆家族的豌豆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃了菠菜后，击飞的僵尸尸体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小推车推倒僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具木槌敲打僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics9</t>
+  </si>
+  <si>
+    <t>杨桃大帝的杨桃子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics10</t>
+  </si>
+  <si>
+    <t>胆小菇和小喷菇的毒弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics11</t>
+  </si>
+  <si>
+    <t>寒冰豌豆的冰弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics12</t>
+  </si>
+  <si>
+    <t>大嘴花吞噬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics13</t>
+  </si>
+  <si>
+    <t>仙人掌和猫尾草的刺弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics14</t>
+  </si>
+  <si>
+    <t>灰烬家族的灰烬伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics15</t>
+  </si>
+  <si>
+    <t>玉米和黄油</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics16</t>
+  </si>
+  <si>
+    <t>大喷菇和多嘴小喷菇的毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics17</t>
+  </si>
+  <si>
+    <t>咬咬碑的压起身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics18</t>
+  </si>
+  <si>
+    <t>胆小菇的缩地顶击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics19</t>
+  </si>
+  <si>
+    <t>地刺王和地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics20</t>
+  </si>
+  <si>
+    <t>DamageStatistics21</t>
+  </si>
+  <si>
+    <t>高坚果的反弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果保龄球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics22</t>
+  </si>
+  <si>
+    <t>窝瓜压扁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics23</t>
+  </si>
+  <si>
+    <t>紫皮大蒜的臭屁攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics24</t>
+  </si>
+  <si>
+    <t>火精灵家族的火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics25</t>
+  </si>
+  <si>
+    <t>水精灵家族的水流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics26</t>
+  </si>
+  <si>
+    <t>乌云闪电</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics27</t>
+  </si>
+  <si>
+    <t>死神收割</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageStatistics28</t>
+  </si>
+  <si>
+    <t>枪——突突突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics0</t>
+  </si>
+  <si>
+    <t>被普通僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics1</t>
+  </si>
+  <si>
+    <t>被路障僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics2</t>
+  </si>
+  <si>
+    <t>被铁桶僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics3</t>
+  </si>
+  <si>
+    <t>被铁栅栏僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics4</t>
+  </si>
+  <si>
+    <t>被旗帜僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics5</t>
+  </si>
+  <si>
+    <t>被橄榄球僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics6</t>
+  </si>
+  <si>
+    <t>被读报僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics7</t>
+  </si>
+  <si>
+    <t>被撑杆跳僵尸打了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics8</t>
+  </si>
+  <si>
+    <t>被气球僵尸咬了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics9</t>
+  </si>
+  <si>
+    <t>被冰车僵尸撞了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics10</t>
+  </si>
+  <si>
+    <t>被投篮僵尸砸了和撞了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics11</t>
+  </si>
+  <si>
+    <t>被巨人僵尸砸了，压了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics12</t>
+  </si>
+  <si>
+    <t>被僵王博士拍了，砸了，踩了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cause damage</t>
+  </si>
+  <si>
+    <t>damage_cause</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_taking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>承受伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crazy Dave's pan attack</t>
+  </si>
+  <si>
+    <t>Hit zombies with a mallet</t>
+  </si>
+  <si>
+    <t>Push zombies down with a cart</t>
+  </si>
+  <si>
+    <t>Concert set</t>
+  </si>
+  <si>
+    <t>Zombie corpses that were knocked away after eating spinach</t>
+  </si>
+  <si>
+    <t>Peas from the Pea Family</t>
+  </si>
+  <si>
+    <t>Carambola Bullets from the Starfruit King</t>
+  </si>
+  <si>
+    <t>Poisonous Bullets from the Timid Mushroom and the Spray Mushroom</t>
+  </si>
+  <si>
+    <t>Ice Bullets from the Ice Peas</t>
+  </si>
+  <si>
+    <t>Devour from the Big Mouth Flower</t>
+  </si>
+  <si>
+    <t>Spiky Bullets from the Cactus and the Cattail Grass</t>
+  </si>
+  <si>
+    <t>Ember Damage from the Ash Family</t>
+  </si>
+  <si>
+    <t>Corn and Butter</t>
+  </si>
+  <si>
+    <t>Poisonous Mist from the Spray Mushroom and the Mouthful Spray Mushroom</t>
+  </si>
+  <si>
+    <t>Bite Monument's Pressing Up</t>
+  </si>
+  <si>
+    <t>Timid Mushroom's Shrinking Attack</t>
+  </si>
+  <si>
+    <t>Earth Spike King and Earth Spike</t>
+  </si>
+  <si>
+    <t>Tall Nut's Rebound</t>
+  </si>
+  <si>
+    <t>Nut Bowling Ball</t>
+  </si>
+  <si>
+    <t>Squashed by pumpkin</t>
+  </si>
+  <si>
+    <t>Fart attack of purple garlic</t>
+  </si>
+  <si>
+    <t>Flame of fire elves</t>
+  </si>
+  <si>
+    <t>Water flow of water elves</t>
+  </si>
+  <si>
+    <t>Lightning of dark clouds</t>
+  </si>
+  <si>
+    <t>Harvest of death</t>
+  </si>
+  <si>
+    <t>Gun - bang bang bang</t>
+  </si>
+  <si>
+    <t>Bitten by ordinary zombies</t>
+  </si>
+  <si>
+    <t>Bitten by roadblock zombies</t>
+  </si>
+  <si>
+    <t>Bitten by barrel zombies</t>
+  </si>
+  <si>
+    <t>Bitten by fence zombies</t>
+  </si>
+  <si>
+    <t>Bitten by flag zombies</t>
+  </si>
+  <si>
+    <t>Bitten by football zombies</t>
+  </si>
+  <si>
+    <t>Bitten by newspaper reading zombies</t>
+  </si>
+  <si>
+    <t>Hit by pole vault zombies</t>
+  </si>
+  <si>
+    <t>Bitten by balloon zombies</t>
+  </si>
+  <si>
+    <t>Bumped by ice cart zombies</t>
+  </si>
+  <si>
+    <t>Bumped and bumped by basketball shooting zombies</t>
+  </si>
+  <si>
+    <t>Bumped and crushed by giant zombies</t>
+  </si>
+  <si>
+    <t>Shot, smashed, stepped on by Dr. Zombie King</t>
+  </si>
+  <si>
+    <t>Take damage</t>
+  </si>
+  <si>
+    <t>被魅惑后的僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charmed zombie</t>
   </si>
 </sst>
 </file>
@@ -6268,11 +6699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F604"/>
+  <dimension ref="A1:F646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C608" sqref="C608"/>
+      <pane ySplit="3" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D610" sqref="D610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15539,6 +15970,636 @@
         <v>1764</v>
       </c>
     </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" cm="1">
+        <f t="array" ref="A605">ROW(605:605)-3</f>
+        <v>602</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" cm="1">
+        <f t="array" ref="A606">ROW(606:606)-3</f>
+        <v>603</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" cm="1">
+        <f t="array" ref="A607">ROW(607:607)-3</f>
+        <v>604</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" cm="1">
+        <f t="array" ref="A608">ROW(608:608)-3</f>
+        <v>605</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" cm="1">
+        <f t="array" ref="A609">ROW(609:609)-3</f>
+        <v>606</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" cm="1">
+        <f t="array" ref="A610">ROW(610:610)-3</f>
+        <v>607</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" cm="1">
+        <f t="array" ref="A611">ROW(611:611)-3</f>
+        <v>608</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" cm="1">
+        <f t="array" ref="A612">ROW(612:612)-3</f>
+        <v>609</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" cm="1">
+        <f t="array" ref="A613">ROW(613:613)-3</f>
+        <v>610</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" cm="1">
+        <f t="array" ref="A614">ROW(614:614)-3</f>
+        <v>611</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" cm="1">
+        <f t="array" ref="A615">ROW(615:615)-3</f>
+        <v>612</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" cm="1">
+        <f t="array" ref="A616">ROW(616:616)-3</f>
+        <v>613</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" cm="1">
+        <f t="array" ref="A617">ROW(617:617)-3</f>
+        <v>614</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" cm="1">
+        <f t="array" ref="A618">ROW(618:618)-3</f>
+        <v>615</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" cm="1">
+        <f t="array" ref="A619">ROW(619:619)-3</f>
+        <v>616</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" cm="1">
+        <f t="array" ref="A620">ROW(620:620)-3</f>
+        <v>617</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" cm="1">
+        <f t="array" ref="A621">ROW(621:621)-3</f>
+        <v>618</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" cm="1">
+        <f t="array" ref="A622">ROW(622:622)-3</f>
+        <v>619</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" cm="1">
+        <f t="array" ref="A623">ROW(623:623)-3</f>
+        <v>620</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" cm="1">
+        <f t="array" ref="A624">ROW(624:624)-3</f>
+        <v>621</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" cm="1">
+        <f t="array" ref="A625">ROW(625:625)-3</f>
+        <v>622</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" cm="1">
+        <f t="array" ref="A626">ROW(626:626)-3</f>
+        <v>623</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" cm="1">
+        <f t="array" ref="A627">ROW(627:627)-3</f>
+        <v>624</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" cm="1">
+        <f t="array" ref="A628">ROW(628:628)-3</f>
+        <v>625</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" cm="1">
+        <f t="array" ref="A629">ROW(629:629)-3</f>
+        <v>626</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630" cm="1">
+        <f t="array" ref="A630">ROW(630:630)-3</f>
+        <v>627</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631" cm="1">
+        <f t="array" ref="A631">ROW(631:631)-3</f>
+        <v>628</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632" cm="1">
+        <f t="array" ref="A632">ROW(632:632)-3</f>
+        <v>629</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633" cm="1">
+        <f t="array" ref="A633">ROW(633:633)-3</f>
+        <v>630</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634" cm="1">
+        <f t="array" ref="A634">ROW(634:634)-3</f>
+        <v>631</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" cm="1">
+        <f t="array" ref="A635">ROW(635:635)-3</f>
+        <v>632</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636" cm="1">
+        <f t="array" ref="A636">ROW(636:636)-3</f>
+        <v>633</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" cm="1">
+        <f t="array" ref="A637">ROW(637:637)-3</f>
+        <v>634</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" cm="1">
+        <f t="array" ref="A638">ROW(638:638)-3</f>
+        <v>635</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" cm="1">
+        <f t="array" ref="A639">ROW(639:639)-3</f>
+        <v>636</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" cm="1">
+        <f t="array" ref="A640">ROW(640:640)-3</f>
+        <v>637</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" cm="1">
+        <f t="array" ref="A641">ROW(641:641)-3</f>
+        <v>638</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" cm="1">
+        <f t="array" ref="A642">ROW(642:642)-3</f>
+        <v>639</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" cm="1">
+        <f t="array" ref="A643">ROW(643:643)-3</f>
+        <v>640</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" cm="1">
+        <f t="array" ref="A644">ROW(644:644)-3</f>
+        <v>641</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" cm="1">
+        <f t="array" ref="A645">ROW(645:645)-3</f>
+        <v>642</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" cm="1">
+        <f t="array" ref="A646">ROW(646:646)-3</f>
+        <v>643</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1890</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E130762-3919-4307-8184-A0EC95437DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3E475-06D4-486F-89DB-E00BAEBCB368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,14 +61,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -92,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1902">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6307,6 +6298,36 @@
   </si>
   <si>
     <t>Charmed zombie</t>
+  </si>
+  <si>
+    <t>时间回溯</t>
+  </si>
+  <si>
+    <t>Back in time</t>
+  </si>
+  <si>
+    <t>backInTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics1005</t>
+  </si>
+  <si>
+    <t>臭屁中毒，火焰吞噬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakingDamageStatistics1027</t>
+  </si>
+  <si>
+    <t>献祭给死神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poisoned by farts, devoured by flames</t>
+  </si>
+  <si>
+    <t>Sacrificed to the god of death</t>
   </si>
 </sst>
 </file>
@@ -6699,11 +6720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F646"/>
+  <dimension ref="A1:F649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D610" sqref="D610"/>
+      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D649" sqref="D649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16600,6 +16621,51 @@
         <v>1890</v>
       </c>
     </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" cm="1">
+        <f t="array" ref="A647">ROW(647:647)-3</f>
+        <v>644</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" cm="1">
+        <f t="array" ref="A648">ROW(648:648)-3</f>
+        <v>645</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" cm="1">
+        <f t="array" ref="A649">ROW(649:649)-3</f>
+        <v>646</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1901</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/文本配置表.xlsx
+++ b/ExcelToCs/配置/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3E475-06D4-486F-89DB-E00BAEBCB368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA92FBF-D3F1-4CE7-A57E-3511963661B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5698,47 +5698,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率）* 暴击伤害 ，冷却时间5s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率）* 暴击伤害 ，冷却时间4s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Flame to cause {0} damage (3 + Critical Rate) * Critical Damage , cooling time 4s&lt;/color&gt;\r\nThe flame can evolve into &lt;color=#9932CD&gt;fireball&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;fireball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 critical damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 critical rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon fireball to cause {0} damage (5 + critical rate)* critical damage , Cooldown time 3s&lt;/color&gt;\r\nThe fireball can evolve into &lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Fire Star\r\n&lt;color=#00ff00&gt;+2 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Fire Star to cause {0} damage (1 + Critical Rate) * Critical Damage, Cooldown time 5s&lt;/color&gt;\r\nFire Star can evolve into &lt;color=#0000ff&gt;Flame&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 50）火柱造成{1}伤害 （10+ 暴击率 * 2）* 暴击伤害 * 2 ，冷却时间2s&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Rate&lt;/color&gt;\r\nFire Spirit is the final evolution of flame\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + Critical Damage / 50) fire pillars to cause {1} damage (10 + Critical Rate * 2) * Critical Damage * 2, Cooldown time 2s&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Drop\r\n&lt;color=#00ff00&gt;+2 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (1 + HP Regeneration / 5 + HP / 6), cooldown time 8s\r\nSlow down (proportional: HP Regeneration) and knock back (strength: HP) enemies&lt;/color&gt;\r\nWater Drop can evolve into &lt;color=#0000ff&gt;Water Bead&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;Water Bead&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (3+ HP Regeneration / 5 + HP / 6), cooling time 6s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater droplets can evolve into &lt;color=#9932CD&gt;Water Splash&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;Water Splash&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 health recovery&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;Summon Water Splash Charge to cause {0} damage (5 + health recovery / 5 + health value / 6), cooling time 4s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater Splash can evolve into &lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 health recovery&lt;/color&gt;\r\nWater Spirit is the final evolution of Water\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + health / 100) water streams to cause {1} damage (10 + health recovery / 2.5 + health / 3), cooling time 2s&lt;/color&gt;\r\nWho is going to repair the dam!</t>
-  </si>
-  <si>
     <t>propInfo_waterDroplet</t>
   </si>
   <si>
@@ -5751,18 +5710,6 @@
     <t>propInfo_waterElf</t>
   </si>
   <si>
-    <t>水滴\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水滴冲锋造成{0}伤害 （1 + 生命恢复 / 5 + 生命值 / 6），冷却时间8s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水滴可以进化为&lt;color=#0000ff&gt;水珠&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;水珠&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水珠冲锋造成{0}伤害 （3+ 生命恢复 / 5 + 生命值 / 6），冷却时间6s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水珠可以进化为&lt;color=#9932CD&gt;水花&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;水花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;召唤水花冲锋造成{0}伤害 （5 + 生命恢复 / 5 + 生命值 / 6），冷却时间4s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水花可以进化为&lt;color=#ff0000&gt;水精灵&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;水精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20生命恢复&lt;/color&gt;\r\n水精灵是水的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 生命值 / 100）水流造成{1}伤害 （10 + 生命恢复 / 2.5 + 生命值 / 3），冷却时间2s&lt;/color&gt;\r\n大坝谁修哈！</t>
-  </si>
-  <si>
     <t>propInfo_darkCloud</t>
   </si>
   <si>
@@ -6328,13 +6275,77 @@
   </si>
   <si>
     <t>Sacrificed to the god of death</t>
+  </si>
+  <si>
+    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Star\r\n&lt;color=#00ff00&gt;+2 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Fire Star to cause {0} damage (1 + Critical Rate) * Critical Damage, Cooldown time 3s&lt;/color&gt;\r\nFire Star can evolve into &lt;color=#0000ff&gt;Flame&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率）* 暴击伤害 ，冷却时间2.5s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Flame&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 Critical Rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon Flame to cause {0} damage (3 + Critical Rate) * Critical Damage , cooling time 2.5s&lt;/color&gt;\r\nThe flame can evolve into &lt;color=#9932CD&gt;fireball&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率）* 暴击伤害 ，冷却时间2s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;fireball&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8 critical damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 critical rate&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon fireball to cause {0} damage (5 + critical rate)* critical damage , Cooldown time 2s&lt;/color&gt;\r\nThe fireball can evolve into &lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 50）火柱造成{1}伤害 （10+ 暴击率 * 2）* 暴击伤害 * 2 ，冷却时间1.5s&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Fire Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 Critical Damage&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 Critical Rate&lt;/color&gt;\r\nFire Spirit is the final evolution of flame\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + Critical Damage / 50) fire pillars to cause {1} damage (10 + Critical Rate * 2) * Critical Damage * 2, Cooldown time 1.5s&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水滴冲锋造成{0}伤害 （1 + 生命恢复 / 5 + 生命值 / 6），冷却时间4s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水滴可以进化为&lt;color=#0000ff&gt;水珠&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Drop\r\n&lt;color=#00ff00&gt;+2 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (1 + HP Regeneration / 5 + HP / 6), cooldown time 4s\r\nSlow down (proportional: HP Regeneration) and knock back (strength: HP) enemies&lt;/color&gt;\r\nWater Drop can evolve into &lt;color=#0000ff&gt;Water Bead&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水珠&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水珠冲锋造成{0}伤害 （3+ 生命恢复 / 5 + 生命值 / 6），冷却时间3s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水珠可以进化为&lt;color=#9932CD&gt;水花&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;Water Bead&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 Maximum HP&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4 HP Regeneration&lt;/color&gt;\r\n&lt;color=#00ff00&gt;Summon a water drop to charge and cause {0} damage (3+ HP Regeneration / 5 + HP / 6), cooling time 3s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater droplets can evolve into &lt;color=#9932CD&gt;Water Splash&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;召唤水花冲锋造成{0}伤害 （5 + 生命恢复 / 5 + 生命值 / 6），冷却时间2s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水花可以进化为&lt;color=#ff0000&gt;水精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;Water Splash&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10 health recovery&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;Summon Water Splash Charge to cause {0} damage (5 + health recovery / 5 + health value / 6), cooling time 2s\r\nSlow down (proportion: health recovery) and knock back (strength: health value) enemies&lt;/color&gt;\r\nWater Splash can evolve into &lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;水精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20生命恢复&lt;/color&gt;\r\n水精灵是水的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 生命值 / 100）水流造成{1}伤害 （10 + 生命恢复 / 2.5 + 生命值 / 3），冷却时间1.5s&lt;/color&gt;\r\n大坝谁修哈！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;Water Spirit&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 maximum health&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20 health recovery&lt;/color&gt;\r\nWater Spirit is the final evolution of Water\r\n&lt;color=#00ff00&gt;Can summon {0} (1 + health / 100) water streams to cause {1} damage (10 + health recovery / 2.5 + health / 3), cooling time 1.5s&lt;/color&gt;\r\nWho is going to repair the dam!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6402,14 +6413,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6432,13 +6435,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6723,8 +6725,8 @@
   <dimension ref="A1:F649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D649" sqref="D649"/>
+      <pane ySplit="3" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15715,10 +15717,10 @@
         <v>1708</v>
       </c>
       <c r="C586" t="s">
-        <v>1714</v>
+        <v>1886</v>
       </c>
       <c r="D586" t="s">
-        <v>1719</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="587" spans="